--- a/Excel/eqp.装备.xlsx
+++ b/Excel/eqp.装备.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD69AFDC-9B7A-498B-9B4C-C5BB2685B519}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5D2A5F-67DD-4C32-8F32-BA4DF0A0F5C8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="142">
   <si>
     <t>sheet名</t>
   </si>
@@ -248,18 +248,6 @@
     <t>消耗道具3值</t>
   </si>
   <si>
-    <t>equipt.lua</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>equiptlvup.lua</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>lv</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -280,10 +268,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>equiptRefine.lua</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>记录装备强化的消耗和加成系数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -292,7 +276,268 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>equiptMerge.lua</t>
+    <t>记录装备合成的消耗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extAttr[1].id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精炼属性ID1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精炼属性权重1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精炼属性值1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extAttr[1].val.w</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extAttr[1].val.v</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extAttr[2].id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extAttr[2].val.w</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extAttr[2].val.v</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精炼属性ID2</t>
+  </si>
+  <si>
+    <t>精炼属性权重2</t>
+  </si>
+  <si>
+    <t>精炼属性值2</t>
+  </si>
+  <si>
+    <t>pos</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>def</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shield</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shieldRg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>crit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmgInc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>头盔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肩甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>裤子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmgDec</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>block</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dash</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deCrit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extAttrFac</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外属性强化系数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精炼经验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp[1].upMin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp[1].upMax</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp[1].lv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp[2].upMin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp[2].upMax</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp[2].lv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp[3].upMin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp[3].upMax</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp[3].lv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp[4].upMin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp[4].upMax</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp[4].lv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一阶段等级阈值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二阶段等级阈值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二阶段经验Max</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二阶段经验Min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一阶段经验Max</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一阶段经验Min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三阶段经验Min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三阶段经验Max</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三阶段等级阈值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四阶段经验Min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四阶段经验Max</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四阶段等级阈值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:e&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipt.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>equiptlvup.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>equiptRefine.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>equiptMerge.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -300,140 +545,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>记录装备合成的消耗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>extAttr[1].id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>精炼属性ID1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>精炼属性权重1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>精炼属性值1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>extAttr[1].val.w</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>extAttr[1].val.v</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>extAttr[2].id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>extAttr[2].val.w</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>extAttr[2].val.v</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>精炼属性ID2</t>
-  </si>
-  <si>
-    <t>精炼属性权重2</t>
-  </si>
-  <si>
-    <t>精炼属性值2</t>
-  </si>
-  <si>
-    <t>pos</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备位置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>def</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shield</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shieldRg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>crit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dmgInc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>头盔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>肩甲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>衣服</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>裤子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鞋子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dmgDec</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>block</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dash</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>deCrit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>extAttrFac</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外属性强化系数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp</t>
+    <t>itemId</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -441,107 +553,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>精炼经验</t>
+    <t>rowID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>exp[1].upMin</t>
+    <t>行ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>exp[1].upMax</t>
+    <t>int:&lt;&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>exp[1].lv</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp[2].upMin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp[2].upMax</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp[2].lv</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp[3].upMin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp[3].upMax</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp[3].lv</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp[4].upMin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp[4].upMax</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp[4].lv</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一阶段等级阈值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>二阶段等级阈值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>二阶段经验Max</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>二阶段经验Min</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一阶段经验Max</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一阶段经验Min</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>三阶段经验Min</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>三阶段经验Max</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>三阶段等级阈值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>四阶段经验Min</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>四阶段经验Max</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>四阶段等级阈值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:e&lt;&gt;</t>
+    <t>rowId</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1045,7 +1069,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1087,19 +1111,19 @@
         <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="G2" s="4" t="b">
         <v>1</v>
@@ -1110,17 +1134,17 @@
         <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G3" s="4" t="b">
         <v>1</v>
@@ -1131,17 +1155,17 @@
         <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G4" s="4" t="b">
         <v>1</v>
@@ -1152,19 +1176,19 @@
         <v>24</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G5" s="4" t="b">
         <v>1</v>
@@ -1184,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BEF06C-8A24-4C18-BB25-9336D50B01F5}">
   <dimension ref="A1:R63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N13" activeCellId="1" sqref="N2 N13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1206,16 +1230,16 @@
   <sheetData>
     <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>15</v>
@@ -1236,30 +1260,30 @@
         <v>28</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1268,7 +1292,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -1277,7 +1301,7 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="I2" t="s">
         <v>7</v>
@@ -1286,7 +1310,7 @@
         <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="L2" t="s">
         <v>7</v>
@@ -1295,7 +1319,7 @@
         <v>11</v>
       </c>
       <c r="N2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O2" t="s">
         <v>7</v>
@@ -1306,16 +1330,16 @@
     </row>
     <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>30</v>
@@ -1336,22 +1360,22 @@
         <v>35</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="O3" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -1368,7 +1392,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1377,7 +1401,7 @@
         <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1386,7 +1410,7 @@
         <v>50</v>
       </c>
       <c r="N4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -1395,7 +1419,7 @@
         <v>50</v>
       </c>
       <c r="R4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -1412,7 +1436,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1421,7 +1445,7 @@
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1430,7 +1454,7 @@
         <v>300</v>
       </c>
       <c r="K5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1439,7 +1463,7 @@
         <v>50</v>
       </c>
       <c r="N5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1448,7 +1472,7 @@
         <v>50</v>
       </c>
       <c r="R5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -1465,7 +1489,7 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1474,7 +1498,7 @@
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1483,7 +1507,7 @@
         <v>150</v>
       </c>
       <c r="K6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1492,7 +1516,7 @@
         <v>50</v>
       </c>
       <c r="N6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1501,7 +1525,7 @@
         <v>50</v>
       </c>
       <c r="R6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -1518,7 +1542,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1527,7 +1551,7 @@
         <v>150</v>
       </c>
       <c r="H7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1536,7 +1560,7 @@
         <v>300</v>
       </c>
       <c r="K7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1545,7 +1569,7 @@
         <v>50</v>
       </c>
       <c r="N7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1554,7 +1578,7 @@
         <v>50</v>
       </c>
       <c r="R7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -1571,7 +1595,7 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1580,7 +1604,7 @@
         <v>150</v>
       </c>
       <c r="H8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1589,7 +1613,7 @@
         <v>150</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1598,7 +1622,7 @@
         <v>50</v>
       </c>
       <c r="N8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1607,7 +1631,7 @@
         <v>50</v>
       </c>
       <c r="R8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -1624,7 +1648,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1633,7 +1657,7 @@
         <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1642,7 +1666,7 @@
         <v>300</v>
       </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1651,7 +1675,7 @@
         <v>50</v>
       </c>
       <c r="N9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1660,7 +1684,7 @@
         <v>50</v>
       </c>
       <c r="R9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -1677,7 +1701,7 @@
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1687,7 +1711,7 @@
         <v>40</v>
       </c>
       <c r="K10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1697,7 +1721,7 @@
         <v>100</v>
       </c>
       <c r="N10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1721,7 +1745,7 @@
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1731,7 +1755,7 @@
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1741,7 +1765,7 @@
         <v>600</v>
       </c>
       <c r="K11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1751,7 +1775,7 @@
         <v>100</v>
       </c>
       <c r="N11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1775,7 +1799,7 @@
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1785,7 +1809,7 @@
         <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1795,7 +1819,7 @@
         <v>300</v>
       </c>
       <c r="K12" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1805,7 +1829,7 @@
         <v>100</v>
       </c>
       <c r="N12" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1829,7 +1853,7 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1839,7 +1863,7 @@
         <v>300</v>
       </c>
       <c r="H13" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1849,7 +1873,7 @@
         <v>600</v>
       </c>
       <c r="K13" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1859,7 +1883,7 @@
         <v>100</v>
       </c>
       <c r="N13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1883,7 +1907,7 @@
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1893,7 +1917,7 @@
         <v>300</v>
       </c>
       <c r="H14" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1903,7 +1927,7 @@
         <v>300</v>
       </c>
       <c r="K14" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1913,7 +1937,7 @@
         <v>100</v>
       </c>
       <c r="N14" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1937,7 +1961,7 @@
         <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1947,7 +1971,7 @@
         <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1957,7 +1981,7 @@
         <v>600</v>
       </c>
       <c r="K15" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1967,7 +1991,7 @@
         <v>100</v>
       </c>
       <c r="N15" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1991,7 +2015,7 @@
         <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2001,7 +2025,7 @@
         <v>80</v>
       </c>
       <c r="K16" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2011,7 +2035,7 @@
         <v>200</v>
       </c>
       <c r="N16" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -2035,7 +2059,7 @@
         <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2045,7 +2069,7 @@
         <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -2055,7 +2079,7 @@
         <v>1200</v>
       </c>
       <c r="K17" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2065,7 +2089,7 @@
         <v>200</v>
       </c>
       <c r="N17" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -2089,7 +2113,7 @@
         <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2099,7 +2123,7 @@
         <v>40</v>
       </c>
       <c r="H18" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2109,7 +2133,7 @@
         <v>600</v>
       </c>
       <c r="K18" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2119,7 +2143,7 @@
         <v>200</v>
       </c>
       <c r="N18" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -2143,7 +2167,7 @@
         <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2153,7 +2177,7 @@
         <v>600</v>
       </c>
       <c r="H19" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2163,7 +2187,7 @@
         <v>1200</v>
       </c>
       <c r="K19" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2173,7 +2197,7 @@
         <v>200</v>
       </c>
       <c r="N19" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -2197,7 +2221,7 @@
         <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2207,7 +2231,7 @@
         <v>600</v>
       </c>
       <c r="H20" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2217,7 +2241,7 @@
         <v>600</v>
       </c>
       <c r="K20" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2227,7 +2251,7 @@
         <v>200</v>
       </c>
       <c r="N20" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -2251,7 +2275,7 @@
         <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2261,7 +2285,7 @@
         <v>40</v>
       </c>
       <c r="H21" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2271,7 +2295,7 @@
         <v>1200</v>
       </c>
       <c r="K21" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2281,7 +2305,7 @@
         <v>200</v>
       </c>
       <c r="N21" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -2305,7 +2329,7 @@
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2315,7 +2339,7 @@
         <v>160</v>
       </c>
       <c r="K22" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2325,7 +2349,7 @@
         <v>400</v>
       </c>
       <c r="N22" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -2349,7 +2373,7 @@
         <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2359,7 +2383,7 @@
         <v>40</v>
       </c>
       <c r="H23" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2369,7 +2393,7 @@
         <v>2400</v>
       </c>
       <c r="K23" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2379,7 +2403,7 @@
         <v>400</v>
       </c>
       <c r="N23" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -2403,7 +2427,7 @@
         <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2413,7 +2437,7 @@
         <v>80</v>
       </c>
       <c r="H24" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2423,7 +2447,7 @@
         <v>1200</v>
       </c>
       <c r="K24" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2433,7 +2457,7 @@
         <v>400</v>
       </c>
       <c r="N24" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -2457,7 +2481,7 @@
         <v>50</v>
       </c>
       <c r="E25" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2467,7 +2491,7 @@
         <v>1200</v>
       </c>
       <c r="H25" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2477,7 +2501,7 @@
         <v>2400</v>
       </c>
       <c r="K25" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2487,7 +2511,7 @@
         <v>400</v>
       </c>
       <c r="N25" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -2511,7 +2535,7 @@
         <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2521,7 +2545,7 @@
         <v>1200</v>
       </c>
       <c r="H26" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2531,7 +2555,7 @@
         <v>1200</v>
       </c>
       <c r="K26" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2541,7 +2565,7 @@
         <v>400</v>
       </c>
       <c r="N26" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -2565,7 +2589,7 @@
         <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -2575,7 +2599,7 @@
         <v>80</v>
       </c>
       <c r="H27" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2585,7 +2609,7 @@
         <v>2400</v>
       </c>
       <c r="K27" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2595,7 +2619,7 @@
         <v>400</v>
       </c>
       <c r="N27" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -2619,7 +2643,7 @@
         <v>70</v>
       </c>
       <c r="E28" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -2629,7 +2653,7 @@
         <v>320</v>
       </c>
       <c r="K28" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2639,7 +2663,7 @@
         <v>800</v>
       </c>
       <c r="N28" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -2663,7 +2687,7 @@
         <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2673,7 +2697,7 @@
         <v>80</v>
       </c>
       <c r="H29" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2683,7 +2707,7 @@
         <v>4800</v>
       </c>
       <c r="K29" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -2693,7 +2717,7 @@
         <v>800</v>
       </c>
       <c r="N29" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -2717,7 +2741,7 @@
         <v>70</v>
       </c>
       <c r="E30" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2727,7 +2751,7 @@
         <v>160</v>
       </c>
       <c r="H30" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2737,7 +2761,7 @@
         <v>2400</v>
       </c>
       <c r="K30" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -2747,7 +2771,7 @@
         <v>800</v>
       </c>
       <c r="N30" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -2771,7 +2795,7 @@
         <v>70</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2781,7 +2805,7 @@
         <v>2400</v>
       </c>
       <c r="H31" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2791,7 +2815,7 @@
         <v>4800</v>
       </c>
       <c r="K31" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -2801,7 +2825,7 @@
         <v>800</v>
       </c>
       <c r="N31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -2825,7 +2849,7 @@
         <v>70</v>
       </c>
       <c r="E32" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2835,7 +2859,7 @@
         <v>2400</v>
       </c>
       <c r="H32" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2845,7 +2869,7 @@
         <v>2400</v>
       </c>
       <c r="K32" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -2855,7 +2879,7 @@
         <v>800</v>
       </c>
       <c r="N32" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -2879,7 +2903,7 @@
         <v>70</v>
       </c>
       <c r="E33" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2889,7 +2913,7 @@
         <v>160</v>
       </c>
       <c r="H33" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2899,7 +2923,7 @@
         <v>4800</v>
       </c>
       <c r="K33" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -2909,7 +2933,7 @@
         <v>800</v>
       </c>
       <c r="N33" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -2933,7 +2957,7 @@
         <v>90</v>
       </c>
       <c r="E34" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2943,7 +2967,7 @@
         <v>640</v>
       </c>
       <c r="K34" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -2953,7 +2977,7 @@
         <v>1600</v>
       </c>
       <c r="N34" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -2977,7 +3001,7 @@
         <v>90</v>
       </c>
       <c r="E35" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2987,7 +3011,7 @@
         <v>160</v>
       </c>
       <c r="H35" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -2997,7 +3021,7 @@
         <v>9600</v>
       </c>
       <c r="K35" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -3007,7 +3031,7 @@
         <v>1600</v>
       </c>
       <c r="N35" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -3031,7 +3055,7 @@
         <v>90</v>
       </c>
       <c r="E36" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -3041,7 +3065,7 @@
         <v>320</v>
       </c>
       <c r="H36" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3051,7 +3075,7 @@
         <v>4800</v>
       </c>
       <c r="K36" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3061,7 +3085,7 @@
         <v>1600</v>
       </c>
       <c r="N36" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -3085,7 +3109,7 @@
         <v>90</v>
       </c>
       <c r="E37" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -3095,7 +3119,7 @@
         <v>4800</v>
       </c>
       <c r="H37" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3105,7 +3129,7 @@
         <v>9600</v>
       </c>
       <c r="K37" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3115,7 +3139,7 @@
         <v>1600</v>
       </c>
       <c r="N37" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -3139,7 +3163,7 @@
         <v>90</v>
       </c>
       <c r="E38" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -3149,7 +3173,7 @@
         <v>4800</v>
       </c>
       <c r="H38" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3159,7 +3183,7 @@
         <v>4800</v>
       </c>
       <c r="K38" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3169,7 +3193,7 @@
         <v>1600</v>
       </c>
       <c r="N38" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -3193,7 +3217,7 @@
         <v>90</v>
       </c>
       <c r="E39" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -3203,7 +3227,7 @@
         <v>320</v>
       </c>
       <c r="H39" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3213,7 +3237,7 @@
         <v>9600</v>
       </c>
       <c r="K39" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -3223,7 +3247,7 @@
         <v>1600</v>
       </c>
       <c r="N39" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="O39">
         <v>0</v>
@@ -3247,7 +3271,7 @@
         <v>120</v>
       </c>
       <c r="E40" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -3257,7 +3281,7 @@
         <v>1280</v>
       </c>
       <c r="K40" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3267,7 +3291,7 @@
         <v>3200</v>
       </c>
       <c r="N40" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="O40">
         <v>0</v>
@@ -3291,7 +3315,7 @@
         <v>120</v>
       </c>
       <c r="E41" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -3301,7 +3325,7 @@
         <v>320</v>
       </c>
       <c r="H41" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -3311,7 +3335,7 @@
         <v>19200</v>
       </c>
       <c r="K41" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -3321,7 +3345,7 @@
         <v>3200</v>
       </c>
       <c r="N41" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="O41">
         <v>0</v>
@@ -3345,7 +3369,7 @@
         <v>120</v>
       </c>
       <c r="E42" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -3355,7 +3379,7 @@
         <v>640</v>
       </c>
       <c r="H42" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -3365,7 +3389,7 @@
         <v>9600</v>
       </c>
       <c r="K42" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -3375,7 +3399,7 @@
         <v>3200</v>
       </c>
       <c r="N42" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -3399,7 +3423,7 @@
         <v>120</v>
       </c>
       <c r="E43" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -3409,7 +3433,7 @@
         <v>9600</v>
       </c>
       <c r="H43" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -3419,7 +3443,7 @@
         <v>19200</v>
       </c>
       <c r="K43" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -3429,7 +3453,7 @@
         <v>3200</v>
       </c>
       <c r="N43" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -3453,7 +3477,7 @@
         <v>120</v>
       </c>
       <c r="E44" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -3463,7 +3487,7 @@
         <v>9600</v>
       </c>
       <c r="H44" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -3473,7 +3497,7 @@
         <v>9600</v>
       </c>
       <c r="K44" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -3483,7 +3507,7 @@
         <v>3200</v>
       </c>
       <c r="N44" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O44">
         <v>0</v>
@@ -3507,7 +3531,7 @@
         <v>120</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -3517,7 +3541,7 @@
         <v>640</v>
       </c>
       <c r="H45" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -3527,7 +3551,7 @@
         <v>19200</v>
       </c>
       <c r="K45" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -3537,7 +3561,7 @@
         <v>3200</v>
       </c>
       <c r="N45" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="O45">
         <v>0</v>
@@ -3561,7 +3585,7 @@
         <v>150</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -3571,7 +3595,7 @@
         <v>2560</v>
       </c>
       <c r="K46" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -3581,7 +3605,7 @@
         <v>6400</v>
       </c>
       <c r="N46" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="O46">
         <v>0</v>
@@ -3605,7 +3629,7 @@
         <v>150</v>
       </c>
       <c r="E47" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -3615,7 +3639,7 @@
         <v>640</v>
       </c>
       <c r="H47" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -3625,7 +3649,7 @@
         <v>38400</v>
       </c>
       <c r="K47" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -3635,7 +3659,7 @@
         <v>6400</v>
       </c>
       <c r="N47" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="O47">
         <v>0</v>
@@ -3659,7 +3683,7 @@
         <v>150</v>
       </c>
       <c r="E48" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -3669,7 +3693,7 @@
         <v>1280</v>
       </c>
       <c r="H48" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -3679,7 +3703,7 @@
         <v>19200</v>
       </c>
       <c r="K48" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -3689,7 +3713,7 @@
         <v>6400</v>
       </c>
       <c r="N48" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="O48">
         <v>0</v>
@@ -3713,7 +3737,7 @@
         <v>150</v>
       </c>
       <c r="E49" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -3723,7 +3747,7 @@
         <v>19200</v>
       </c>
       <c r="H49" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -3733,7 +3757,7 @@
         <v>38400</v>
       </c>
       <c r="K49" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -3743,7 +3767,7 @@
         <v>6400</v>
       </c>
       <c r="N49" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O49">
         <v>0</v>
@@ -3767,7 +3791,7 @@
         <v>150</v>
       </c>
       <c r="E50" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -3777,7 +3801,7 @@
         <v>19200</v>
       </c>
       <c r="H50" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -3787,7 +3811,7 @@
         <v>19200</v>
       </c>
       <c r="K50" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -3797,7 +3821,7 @@
         <v>6400</v>
       </c>
       <c r="N50" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O50">
         <v>0</v>
@@ -3821,7 +3845,7 @@
         <v>150</v>
       </c>
       <c r="E51" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -3831,7 +3855,7 @@
         <v>1280</v>
       </c>
       <c r="H51" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -3841,7 +3865,7 @@
         <v>38400</v>
       </c>
       <c r="K51" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -3851,7 +3875,7 @@
         <v>6400</v>
       </c>
       <c r="N51" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="O51">
         <v>0</v>
@@ -3875,7 +3899,7 @@
         <v>200</v>
       </c>
       <c r="E52" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -3885,7 +3909,7 @@
         <v>5120</v>
       </c>
       <c r="K52" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -3895,7 +3919,7 @@
         <v>12800</v>
       </c>
       <c r="N52" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="O52">
         <v>0</v>
@@ -3919,7 +3943,7 @@
         <v>200</v>
       </c>
       <c r="E53" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -3929,7 +3953,7 @@
         <v>1280</v>
       </c>
       <c r="H53" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -3939,7 +3963,7 @@
         <v>76800</v>
       </c>
       <c r="K53" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -3949,7 +3973,7 @@
         <v>12800</v>
       </c>
       <c r="N53" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="O53">
         <v>0</v>
@@ -3973,7 +3997,7 @@
         <v>200</v>
       </c>
       <c r="E54" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -3983,7 +4007,7 @@
         <v>2560</v>
       </c>
       <c r="H54" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -3993,7 +4017,7 @@
         <v>38400</v>
       </c>
       <c r="K54" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -4003,7 +4027,7 @@
         <v>12800</v>
       </c>
       <c r="N54" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="O54">
         <v>0</v>
@@ -4027,7 +4051,7 @@
         <v>200</v>
       </c>
       <c r="E55" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -4037,7 +4061,7 @@
         <v>38400</v>
       </c>
       <c r="H55" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -4047,7 +4071,7 @@
         <v>76800</v>
       </c>
       <c r="K55" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -4057,7 +4081,7 @@
         <v>12800</v>
       </c>
       <c r="N55" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O55">
         <v>0</v>
@@ -4081,7 +4105,7 @@
         <v>200</v>
       </c>
       <c r="E56" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -4091,7 +4115,7 @@
         <v>38400</v>
       </c>
       <c r="H56" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -4101,7 +4125,7 @@
         <v>38400</v>
       </c>
       <c r="K56" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -4111,7 +4135,7 @@
         <v>12800</v>
       </c>
       <c r="N56" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O56">
         <v>0</v>
@@ -4135,7 +4159,7 @@
         <v>200</v>
       </c>
       <c r="E57" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -4145,7 +4169,7 @@
         <v>2560</v>
       </c>
       <c r="H57" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -4155,7 +4179,7 @@
         <v>76800</v>
       </c>
       <c r="K57" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -4165,7 +4189,7 @@
         <v>12800</v>
       </c>
       <c r="N57" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="O57">
         <v>0</v>
@@ -4189,7 +4213,7 @@
         <v>300</v>
       </c>
       <c r="E58" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -4199,7 +4223,7 @@
         <v>10240</v>
       </c>
       <c r="K58" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -4209,7 +4233,7 @@
         <v>25600</v>
       </c>
       <c r="N58" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="O58">
         <v>0</v>
@@ -4233,7 +4257,7 @@
         <v>300</v>
       </c>
       <c r="E59" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -4243,7 +4267,7 @@
         <v>2560</v>
       </c>
       <c r="H59" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -4253,7 +4277,7 @@
         <v>153600</v>
       </c>
       <c r="K59" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -4263,7 +4287,7 @@
         <v>25600</v>
       </c>
       <c r="N59" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="O59">
         <v>0</v>
@@ -4287,7 +4311,7 @@
         <v>300</v>
       </c>
       <c r="E60" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -4297,7 +4321,7 @@
         <v>5120</v>
       </c>
       <c r="H60" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -4307,7 +4331,7 @@
         <v>76800</v>
       </c>
       <c r="K60" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -4317,7 +4341,7 @@
         <v>25600</v>
       </c>
       <c r="N60" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="O60">
         <v>0</v>
@@ -4341,7 +4365,7 @@
         <v>300</v>
       </c>
       <c r="E61" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -4351,7 +4375,7 @@
         <v>76800</v>
       </c>
       <c r="H61" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -4361,7 +4385,7 @@
         <v>153600</v>
       </c>
       <c r="K61" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -4371,7 +4395,7 @@
         <v>25600</v>
       </c>
       <c r="N61" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O61">
         <v>0</v>
@@ -4395,7 +4419,7 @@
         <v>300</v>
       </c>
       <c r="E62" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -4405,7 +4429,7 @@
         <v>76800</v>
       </c>
       <c r="H62" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -4415,7 +4439,7 @@
         <v>76800</v>
       </c>
       <c r="K62" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -4425,7 +4449,7 @@
         <v>25600</v>
       </c>
       <c r="N62" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O62">
         <v>0</v>
@@ -4449,7 +4473,7 @@
         <v>300</v>
       </c>
       <c r="E63" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -4459,7 +4483,7 @@
         <v>5120</v>
       </c>
       <c r="H63" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -4469,7 +4493,7 @@
         <v>153600</v>
       </c>
       <c r="K63" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -4479,7 +4503,7 @@
         <v>25600</v>
       </c>
       <c r="N63" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="O63">
         <v>0</v>
@@ -4501,7 +4525,7 @@
   <dimension ref="A1:L203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4520,7 +4544,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>12</v>
@@ -4572,7 +4596,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>40</v>
@@ -9217,13 +9241,13 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -9237,7 +9261,7 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -9248,10 +9272,10 @@
         <v>46</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -10131,40 +10155,40 @@
         <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -10219,40 +10243,40 @@
         <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -10439,1735 +10463,1907 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B260827-9ED3-43B5-8922-828B78367E4F}">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="10" width="15.625" customWidth="1"/>
+    <col min="3" max="11" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
       <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
       </c>
       <c r="I2" t="s">
         <v>7</v>
       </c>
       <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>1011</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>1001</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
       <c r="D4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
         <v>1012</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>1002</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
       <c r="D5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
         <v>1013</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>1003</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
       <c r="D6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
         <v>1014</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>1004</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
       <c r="D7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
         <v>1015</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>1005</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
       <c r="D8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
         <v>1016</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>1006</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
       <c r="D9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
         <v>1021</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>1011</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
       <c r="D10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
         <v>1022</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>1012</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
       <c r="D11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
         <v>350</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
         <v>1023</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>1013</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
       <c r="D12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
         <v>1024</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>1014</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
       <c r="D13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
         <v>350</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
         <v>1025</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>1015</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
       <c r="D14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
         <v>350</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
         <v>1026</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>1016</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
       <c r="D15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
         <v>350</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
         <v>1031</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>1021</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
       <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
         <v>3</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
       <c r="F16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
         <v>75</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>13</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
       <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
         <v>1032</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>1022</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
       <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
         <v>3</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
       <c r="F17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
         <v>75</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>13</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
       <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
         <v>1033</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>1023</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
       <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
         <v>3</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
       <c r="F18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
         <v>75</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>13</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
       <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
         <v>1034</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>1024</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
       <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
         <v>3</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
       <c r="F19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
         <v>75</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>13</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
       <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
         <v>1035</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>1025</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
       <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
         <v>3</v>
       </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
       <c r="F20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
         <v>75</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>13</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
       <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
         <v>1036</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>1026</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
       <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
         <v>3</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
       <c r="F21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
         <v>75</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>13</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
       <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
         <v>1041</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>1031</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
       <c r="D22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
         <v>3</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>1.25</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>13</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
       <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
         <v>1042</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>1032</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
       <c r="D23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
         <v>3</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>1.25</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>13</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
       <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24">
         <v>1043</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>1033</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
       <c r="D24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
         <v>3</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>1.25</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>13</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
       <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25">
         <v>1044</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>1034</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
       <c r="D25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
         <v>3</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>1.25</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>13</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
       <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26">
         <v>1045</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>1035</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
       <c r="D26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
         <v>3</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>1.25</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>13</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
       <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27">
         <v>1046</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>1036</v>
       </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
       <c r="D27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
         <v>3</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>1.25</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>13</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
       <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28">
         <v>1051</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>1041</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
       <c r="D28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
         <v>3</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>230</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>13</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
       <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29">
         <v>1052</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>1042</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
       <c r="D29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
         <v>3</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>230</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>13</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
       <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30">
         <v>1053</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>1043</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
       <c r="D30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
         <v>3</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>230</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>13</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
       <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31">
         <v>1054</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>1044</v>
       </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
       <c r="D31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
         <v>3</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>230</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>13</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
       <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32">
         <v>1055</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>1045</v>
       </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
       <c r="D32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
         <v>3</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>230</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>13</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
       <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33">
         <v>1056</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>1046</v>
       </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
       <c r="D33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
         <v>3</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>230</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>13</v>
       </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
       <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34">
         <v>1061</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>1051</v>
       </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
       <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
         <v>3</v>
       </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
       <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
         <v>4</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>12.5</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>13</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
       <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35">
         <v>1062</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>1052</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
       <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
         <v>3</v>
       </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
       <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
         <v>4</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>12.5</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>13</v>
       </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
       <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
         <v>200</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36">
         <v>1063</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>1053</v>
       </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
       <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
         <v>3</v>
       </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
       <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
         <v>4</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>12.5</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>13</v>
       </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
       <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37">
         <v>1064</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>1054</v>
       </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
       <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
         <v>3</v>
       </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
       <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
         <v>4</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>12.5</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>13</v>
       </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
       <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38">
         <v>1065</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>1055</v>
       </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
       <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
         <v>3</v>
       </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
       <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
         <v>4</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>12.5</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>13</v>
       </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
       <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39">
         <v>1066</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>1056</v>
       </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
       <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
         <v>3</v>
       </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
       <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
         <v>4</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>12.5</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>14</v>
       </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
       <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40">
         <v>1071</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>1061</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
       <c r="D40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
         <v>5</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>12.5</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>14</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
       <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41">
         <v>1072</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>1062</v>
       </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
       <c r="D41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
         <v>5</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>12.5</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>14</v>
       </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
       <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42">
         <v>1073</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>1063</v>
       </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
       <c r="D42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
         <v>5</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>12.5</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>14</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
       <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43">
         <v>1074</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>1064</v>
       </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
       <c r="D43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
         <v>5</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>12.5</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>14</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
       <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44">
         <v>1075</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>1065</v>
       </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
       <c r="D44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
         <v>5</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>12.5</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>14</v>
       </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
       <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45">
         <v>1076</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>1066</v>
       </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
       <c r="D45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
         <v>5</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>12.5</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>14</v>
       </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
       <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46">
         <v>1081</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>1071</v>
       </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
       <c r="D46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
         <v>6</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>12.5</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>14</v>
       </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
       <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47">
         <v>1082</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>1072</v>
       </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
       <c r="D47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
         <v>6</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>12.5</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>14</v>
       </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
       <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48">
         <v>1083</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>1073</v>
       </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
       <c r="D48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
         <v>6</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>12.5</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>14</v>
       </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
       <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49">
         <v>1084</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>1074</v>
       </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
       <c r="D49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
         <v>6</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>12.5</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>14</v>
       </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
       <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50">
         <v>1085</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>1075</v>
       </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
       <c r="D50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
         <v>6</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>12.5</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>14</v>
       </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
       <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51">
         <v>1086</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>1076</v>
       </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
       <c r="D51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
         <v>6</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>12.5</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>14</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
       <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52">
         <v>1091</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>1081</v>
       </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
       <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
         <v>3</v>
       </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
       <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
         <v>7</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>12.5</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>14</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
       <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53">
         <v>1092</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>1082</v>
       </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
       <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
         <v>3</v>
       </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
       <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
         <v>7</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>12.5</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>14</v>
       </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
       <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54">
         <v>1093</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>1083</v>
       </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
       <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
         <v>3</v>
       </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
       <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
         <v>7</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>12.5</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>14</v>
       </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
       <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55">
         <v>1094</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>1084</v>
       </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
       <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
         <v>3</v>
       </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
       <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
         <v>7</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>12.5</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>14</v>
       </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
       <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56">
         <v>1095</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>1085</v>
       </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
       <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
         <v>3</v>
       </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
       <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
         <v>7</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>12.5</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>14</v>
       </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
       <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57">
         <v>1096</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>1086</v>
       </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
       <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
         <v>3</v>
       </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
       <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
         <v>7</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>12.5</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>14</v>
       </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
       <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/eqp.装备.xlsx
+++ b/Excel/eqp.装备.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6311099B-277B-4B72-A52A-0C63C2FD14D1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3243B16A-EAA2-41B1-A448-608A3229FA77}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -594,30 +594,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>attr[1].type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性1类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>attr[2].id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>attr[2].type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>属性2类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>extAttr[1].type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>int:e&lt;&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -626,10 +610,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>extAttr[2].type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>精炼属性2类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -639,6 +619,26 @@
   </si>
   <si>
     <t>item_id:e&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[1].slot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性1槽位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[2].slot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extAttr[1].slot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extAttr[2].slot</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1361,8 +1361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BEF06C-8A24-4C18-BB25-9336D50B01F5}">
   <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1403,7 +1403,7 @@
         <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>18</v>
@@ -1412,10 +1412,10 @@
         <v>19</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>26</v>
@@ -1427,7 +1427,7 @@
         <v>63</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>67</v>
@@ -1439,7 +1439,7 @@
         <v>69</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>70</v>
@@ -1489,7 +1489,7 @@
         <v>147</v>
       </c>
       <c r="N2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="O2" t="s">
         <v>7</v>
@@ -1527,7 +1527,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>30</v>
@@ -1539,7 +1539,7 @@
         <v>32</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>33</v>
@@ -1551,7 +1551,7 @@
         <v>64</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>65</v>
@@ -1563,7 +1563,7 @@
         <v>72</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>73</v>
@@ -5409,7 +5409,7 @@
   <dimension ref="A1:M203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5463,7 +5463,7 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -5472,7 +5472,7 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -11879,7 +11879,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -12149,8 +12149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B260827-9ED3-43B5-8922-828B78367E4F}">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12211,7 +12211,7 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
@@ -12220,7 +12220,7 @@
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>

--- a/Excel/eqp.装备.xlsx
+++ b/Excel/eqp.装备.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3243B16A-EAA2-41B1-A448-608A3229FA77}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B3AC75-13DB-407F-BFA2-AAE7CA1D8D05}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -89,22 +89,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>cost[1].val.w</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost[1].val.v</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr[1].val.w</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr[1].val.v</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -129,12 +113,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>attr[2].val.w</t>
-  </si>
-  <si>
-    <t>attr[2].val.v</t>
-  </si>
-  <si>
     <t>道具ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -163,12 +141,6 @@
     <t>cost[2].id</t>
   </si>
   <si>
-    <t>cost[2].val.w</t>
-  </si>
-  <si>
-    <t>cost[2].val.v</t>
-  </si>
-  <si>
     <t>强化等级</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -205,12 +177,6 @@
     <t>cost[3].id</t>
   </si>
   <si>
-    <t>cost[3].val.w</t>
-  </si>
-  <si>
-    <t>cost[3].val.v</t>
-  </si>
-  <si>
     <t>目标ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -273,26 +239,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>extAttr[1].val.w</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>extAttr[1].val.v</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>extAttr[2].id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>extAttr[2].val.w</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>extAttr[2].val.v</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>精炼属性ID2</t>
   </si>
   <si>
@@ -639,6 +589,62 @@
   </si>
   <si>
     <t>extAttr[2].slot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[1].valw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[1].valv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[2].valw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[2].valv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extAttr[1].valw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extAttr[1].valv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extAttr[2].valw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extAttr[2].valv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost[1].valw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost[1].valv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost[2].valw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost[2].valv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost[3].valw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost[3].valv</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1181,20 +1187,20 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="G2" s="4" t="b">
         <v>1</v>
@@ -1202,20 +1208,20 @@
     </row>
     <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="G3" s="4" t="b">
         <v>1</v>
@@ -1223,20 +1229,20 @@
     </row>
     <row r="4" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="G4" s="4" t="b">
         <v>1</v>
@@ -1244,20 +1250,20 @@
     </row>
     <row r="5" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="G5" s="4" t="b">
         <v>1</v>
@@ -1265,20 +1271,20 @@
     </row>
     <row r="6" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="G6" s="4" t="b">
         <v>1</v>
@@ -1286,20 +1292,20 @@
     </row>
     <row r="7" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="G7" s="4" t="b">
         <v>1</v>
@@ -1307,20 +1313,20 @@
     </row>
     <row r="8" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="G8" s="4" t="b">
         <v>1</v>
@@ -1328,20 +1334,20 @@
     </row>
     <row r="9" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G9" s="4" t="b">
         <v>1</v>
@@ -1361,8 +1367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BEF06C-8A24-4C18-BB25-9336D50B01F5}">
   <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1388,72 +1394,72 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>71</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1462,7 +1468,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -1474,7 +1480,7 @@
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
@@ -1486,10 +1492,10 @@
         <v>11</v>
       </c>
       <c r="M2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="N2" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="O2" t="s">
         <v>7</v>
@@ -1498,7 +1504,7 @@
         <v>11</v>
       </c>
       <c r="Q2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="R2" t="s">
         <v>7</v>
@@ -1512,64 +1518,64 @@
     </row>
     <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="M3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -1586,7 +1592,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1598,7 +1604,7 @@
         <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1610,7 +1616,7 @@
         <v>50</v>
       </c>
       <c r="Q4" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1622,7 +1628,7 @@
         <v>50</v>
       </c>
       <c r="V4" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -1639,7 +1645,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1651,7 +1657,7 @@
         <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1663,7 +1669,7 @@
         <v>300</v>
       </c>
       <c r="M5" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1675,7 +1681,7 @@
         <v>50</v>
       </c>
       <c r="Q5" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1687,7 +1693,7 @@
         <v>50</v>
       </c>
       <c r="V5" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -1704,7 +1710,7 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1716,7 +1722,7 @@
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1728,7 +1734,7 @@
         <v>150</v>
       </c>
       <c r="M6" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1740,7 +1746,7 @@
         <v>50</v>
       </c>
       <c r="Q6" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1752,7 +1758,7 @@
         <v>50</v>
       </c>
       <c r="V6" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
@@ -1769,7 +1775,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1781,7 +1787,7 @@
         <v>150</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1793,7 +1799,7 @@
         <v>300</v>
       </c>
       <c r="M7" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1805,7 +1811,7 @@
         <v>50</v>
       </c>
       <c r="Q7" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1817,7 +1823,7 @@
         <v>50</v>
       </c>
       <c r="V7" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
@@ -1834,7 +1840,7 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1846,7 +1852,7 @@
         <v>150</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1858,7 +1864,7 @@
         <v>150</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1870,7 +1876,7 @@
         <v>50</v>
       </c>
       <c r="Q8" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1882,7 +1888,7 @@
         <v>50</v>
       </c>
       <c r="V8" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -1899,7 +1905,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1911,7 +1917,7 @@
         <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1923,7 +1929,7 @@
         <v>300</v>
       </c>
       <c r="M9" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1935,7 +1941,7 @@
         <v>50</v>
       </c>
       <c r="Q9" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1947,7 +1953,7 @@
         <v>50</v>
       </c>
       <c r="V9" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -1964,7 +1970,7 @@
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1977,7 +1983,7 @@
         <v>40</v>
       </c>
       <c r="M10" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1990,7 +1996,7 @@
         <v>100</v>
       </c>
       <c r="Q10" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -2017,7 +2023,7 @@
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2030,7 +2036,7 @@
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2043,7 +2049,7 @@
         <v>600</v>
       </c>
       <c r="M11" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2056,7 +2062,7 @@
         <v>100</v>
       </c>
       <c r="Q11" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -2083,7 +2089,7 @@
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2096,7 +2102,7 @@
         <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -2109,7 +2115,7 @@
         <v>300</v>
       </c>
       <c r="M12" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2122,7 +2128,7 @@
         <v>100</v>
       </c>
       <c r="Q12" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -2149,7 +2155,7 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2162,7 +2168,7 @@
         <v>300</v>
       </c>
       <c r="I13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -2175,7 +2181,7 @@
         <v>600</v>
       </c>
       <c r="M13" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2188,7 +2194,7 @@
         <v>100</v>
       </c>
       <c r="Q13" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -2215,7 +2221,7 @@
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -2228,7 +2234,7 @@
         <v>300</v>
       </c>
       <c r="I14" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -2241,7 +2247,7 @@
         <v>300</v>
       </c>
       <c r="M14" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2254,7 +2260,7 @@
         <v>100</v>
       </c>
       <c r="Q14" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -2281,7 +2287,7 @@
         <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2294,7 +2300,7 @@
         <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -2307,7 +2313,7 @@
         <v>600</v>
       </c>
       <c r="M15" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2320,7 +2326,7 @@
         <v>100</v>
       </c>
       <c r="Q15" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -2347,7 +2353,7 @@
         <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2360,7 +2366,7 @@
         <v>80</v>
       </c>
       <c r="M16" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2373,7 +2379,7 @@
         <v>200</v>
       </c>
       <c r="Q16" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -2400,7 +2406,7 @@
         <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2413,7 +2419,7 @@
         <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2426,7 +2432,7 @@
         <v>1200</v>
       </c>
       <c r="M17" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2439,7 +2445,7 @@
         <v>200</v>
       </c>
       <c r="Q17" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -2466,7 +2472,7 @@
         <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2479,7 +2485,7 @@
         <v>40</v>
       </c>
       <c r="I18" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2492,7 +2498,7 @@
         <v>600</v>
       </c>
       <c r="M18" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2505,7 +2511,7 @@
         <v>200</v>
       </c>
       <c r="Q18" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -2532,7 +2538,7 @@
         <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2545,7 +2551,7 @@
         <v>600</v>
       </c>
       <c r="I19" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2558,7 +2564,7 @@
         <v>1200</v>
       </c>
       <c r="M19" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2571,7 +2577,7 @@
         <v>200</v>
       </c>
       <c r="Q19" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -2598,7 +2604,7 @@
         <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2611,7 +2617,7 @@
         <v>600</v>
       </c>
       <c r="I20" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -2624,7 +2630,7 @@
         <v>600</v>
       </c>
       <c r="M20" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2637,7 +2643,7 @@
         <v>200</v>
       </c>
       <c r="Q20" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -2664,7 +2670,7 @@
         <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2677,7 +2683,7 @@
         <v>40</v>
       </c>
       <c r="I21" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2690,7 +2696,7 @@
         <v>1200</v>
       </c>
       <c r="M21" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2703,7 +2709,7 @@
         <v>200</v>
       </c>
       <c r="Q21" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -2730,7 +2736,7 @@
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2743,7 +2749,7 @@
         <v>160</v>
       </c>
       <c r="M22" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2756,7 +2762,7 @@
         <v>400</v>
       </c>
       <c r="Q22" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -2783,7 +2789,7 @@
         <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2796,7 +2802,7 @@
         <v>40</v>
       </c>
       <c r="I23" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2809,7 +2815,7 @@
         <v>2400</v>
       </c>
       <c r="M23" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2822,7 +2828,7 @@
         <v>400</v>
       </c>
       <c r="Q23" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="R23">
         <v>0</v>
@@ -2849,7 +2855,7 @@
         <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2862,7 +2868,7 @@
         <v>80</v>
       </c>
       <c r="I24" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2875,7 +2881,7 @@
         <v>1200</v>
       </c>
       <c r="M24" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2888,7 +2894,7 @@
         <v>400</v>
       </c>
       <c r="Q24" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -2915,7 +2921,7 @@
         <v>50</v>
       </c>
       <c r="E25" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2928,7 +2934,7 @@
         <v>1200</v>
       </c>
       <c r="I25" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2941,7 +2947,7 @@
         <v>2400</v>
       </c>
       <c r="M25" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2954,7 +2960,7 @@
         <v>400</v>
       </c>
       <c r="Q25" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -2981,7 +2987,7 @@
         <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2994,7 +3000,7 @@
         <v>1200</v>
       </c>
       <c r="I26" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -3007,7 +3013,7 @@
         <v>1200</v>
       </c>
       <c r="M26" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -3020,7 +3026,7 @@
         <v>400</v>
       </c>
       <c r="Q26" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="R26">
         <v>0</v>
@@ -3047,7 +3053,7 @@
         <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3060,7 +3066,7 @@
         <v>80</v>
       </c>
       <c r="I27" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -3073,7 +3079,7 @@
         <v>2400</v>
       </c>
       <c r="M27" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -3086,7 +3092,7 @@
         <v>400</v>
       </c>
       <c r="Q27" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="R27">
         <v>0</v>
@@ -3113,7 +3119,7 @@
         <v>70</v>
       </c>
       <c r="E28" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -3126,7 +3132,7 @@
         <v>320</v>
       </c>
       <c r="M28" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -3139,7 +3145,7 @@
         <v>800</v>
       </c>
       <c r="Q28" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="R28">
         <v>0</v>
@@ -3166,7 +3172,7 @@
         <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -3179,7 +3185,7 @@
         <v>80</v>
       </c>
       <c r="I29" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -3192,7 +3198,7 @@
         <v>4800</v>
       </c>
       <c r="M29" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -3205,7 +3211,7 @@
         <v>800</v>
       </c>
       <c r="Q29" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="R29">
         <v>0</v>
@@ -3232,7 +3238,7 @@
         <v>70</v>
       </c>
       <c r="E30" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -3245,7 +3251,7 @@
         <v>160</v>
       </c>
       <c r="I30" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -3258,7 +3264,7 @@
         <v>2400</v>
       </c>
       <c r="M30" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -3271,7 +3277,7 @@
         <v>800</v>
       </c>
       <c r="Q30" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="R30">
         <v>0</v>
@@ -3298,7 +3304,7 @@
         <v>70</v>
       </c>
       <c r="E31" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -3311,7 +3317,7 @@
         <v>2400</v>
       </c>
       <c r="I31" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -3324,7 +3330,7 @@
         <v>4800</v>
       </c>
       <c r="M31" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -3337,7 +3343,7 @@
         <v>800</v>
       </c>
       <c r="Q31" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="R31">
         <v>0</v>
@@ -3364,7 +3370,7 @@
         <v>70</v>
       </c>
       <c r="E32" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -3377,7 +3383,7 @@
         <v>2400</v>
       </c>
       <c r="I32" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -3390,7 +3396,7 @@
         <v>2400</v>
       </c>
       <c r="M32" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -3403,7 +3409,7 @@
         <v>800</v>
       </c>
       <c r="Q32" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="R32">
         <v>0</v>
@@ -3430,7 +3436,7 @@
         <v>70</v>
       </c>
       <c r="E33" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -3443,7 +3449,7 @@
         <v>160</v>
       </c>
       <c r="I33" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -3456,7 +3462,7 @@
         <v>4800</v>
       </c>
       <c r="M33" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -3469,7 +3475,7 @@
         <v>800</v>
       </c>
       <c r="Q33" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="R33">
         <v>0</v>
@@ -3496,7 +3502,7 @@
         <v>90</v>
       </c>
       <c r="E34" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -3509,7 +3515,7 @@
         <v>640</v>
       </c>
       <c r="M34" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -3522,7 +3528,7 @@
         <v>1600</v>
       </c>
       <c r="Q34" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="R34">
         <v>0</v>
@@ -3549,7 +3555,7 @@
         <v>90</v>
       </c>
       <c r="E35" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -3562,7 +3568,7 @@
         <v>160</v>
       </c>
       <c r="I35" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -3575,7 +3581,7 @@
         <v>9600</v>
       </c>
       <c r="M35" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -3588,7 +3594,7 @@
         <v>1600</v>
       </c>
       <c r="Q35" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="R35">
         <v>0</v>
@@ -3615,7 +3621,7 @@
         <v>90</v>
       </c>
       <c r="E36" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -3628,7 +3634,7 @@
         <v>320</v>
       </c>
       <c r="I36" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -3641,7 +3647,7 @@
         <v>4800</v>
       </c>
       <c r="M36" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -3654,7 +3660,7 @@
         <v>1600</v>
       </c>
       <c r="Q36" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="R36">
         <v>0</v>
@@ -3681,7 +3687,7 @@
         <v>90</v>
       </c>
       <c r="E37" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -3694,7 +3700,7 @@
         <v>4800</v>
       </c>
       <c r="I37" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -3707,7 +3713,7 @@
         <v>9600</v>
       </c>
       <c r="M37" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -3720,7 +3726,7 @@
         <v>1600</v>
       </c>
       <c r="Q37" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="R37">
         <v>0</v>
@@ -3747,7 +3753,7 @@
         <v>90</v>
       </c>
       <c r="E38" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -3760,7 +3766,7 @@
         <v>4800</v>
       </c>
       <c r="I38" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -3773,7 +3779,7 @@
         <v>4800</v>
       </c>
       <c r="M38" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -3786,7 +3792,7 @@
         <v>1600</v>
       </c>
       <c r="Q38" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="R38">
         <v>0</v>
@@ -3813,7 +3819,7 @@
         <v>90</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -3826,7 +3832,7 @@
         <v>320</v>
       </c>
       <c r="I39" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -3839,7 +3845,7 @@
         <v>9600</v>
       </c>
       <c r="M39" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -3852,7 +3858,7 @@
         <v>1600</v>
       </c>
       <c r="Q39" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="R39">
         <v>0</v>
@@ -3879,7 +3885,7 @@
         <v>120</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -3892,7 +3898,7 @@
         <v>1280</v>
       </c>
       <c r="M40" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3905,7 +3911,7 @@
         <v>3200</v>
       </c>
       <c r="Q40" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="R40">
         <v>0</v>
@@ -3932,7 +3938,7 @@
         <v>120</v>
       </c>
       <c r="E41" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -3945,7 +3951,7 @@
         <v>320</v>
       </c>
       <c r="I41" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -3958,7 +3964,7 @@
         <v>19200</v>
       </c>
       <c r="M41" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3971,7 +3977,7 @@
         <v>3200</v>
       </c>
       <c r="Q41" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="R41">
         <v>0</v>
@@ -3998,7 +4004,7 @@
         <v>120</v>
       </c>
       <c r="E42" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -4011,7 +4017,7 @@
         <v>640</v>
       </c>
       <c r="I42" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -4024,7 +4030,7 @@
         <v>9600</v>
       </c>
       <c r="M42" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -4037,7 +4043,7 @@
         <v>3200</v>
       </c>
       <c r="Q42" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="R42">
         <v>0</v>
@@ -4064,7 +4070,7 @@
         <v>120</v>
       </c>
       <c r="E43" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -4077,7 +4083,7 @@
         <v>9600</v>
       </c>
       <c r="I43" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -4090,7 +4096,7 @@
         <v>19200</v>
       </c>
       <c r="M43" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -4103,7 +4109,7 @@
         <v>3200</v>
       </c>
       <c r="Q43" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="R43">
         <v>0</v>
@@ -4130,7 +4136,7 @@
         <v>120</v>
       </c>
       <c r="E44" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -4143,7 +4149,7 @@
         <v>9600</v>
       </c>
       <c r="I44" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -4156,7 +4162,7 @@
         <v>9600</v>
       </c>
       <c r="M44" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -4169,7 +4175,7 @@
         <v>3200</v>
       </c>
       <c r="Q44" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="R44">
         <v>0</v>
@@ -4196,7 +4202,7 @@
         <v>120</v>
       </c>
       <c r="E45" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -4209,7 +4215,7 @@
         <v>640</v>
       </c>
       <c r="I45" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -4222,7 +4228,7 @@
         <v>19200</v>
       </c>
       <c r="M45" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -4235,7 +4241,7 @@
         <v>3200</v>
       </c>
       <c r="Q45" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="R45">
         <v>0</v>
@@ -4262,7 +4268,7 @@
         <v>150</v>
       </c>
       <c r="E46" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -4275,7 +4281,7 @@
         <v>2560</v>
       </c>
       <c r="M46" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -4288,7 +4294,7 @@
         <v>6400</v>
       </c>
       <c r="Q46" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="R46">
         <v>0</v>
@@ -4315,7 +4321,7 @@
         <v>150</v>
       </c>
       <c r="E47" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -4328,7 +4334,7 @@
         <v>640</v>
       </c>
       <c r="I47" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -4341,7 +4347,7 @@
         <v>38400</v>
       </c>
       <c r="M47" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -4354,7 +4360,7 @@
         <v>6400</v>
       </c>
       <c r="Q47" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="R47">
         <v>0</v>
@@ -4381,7 +4387,7 @@
         <v>150</v>
       </c>
       <c r="E48" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -4394,7 +4400,7 @@
         <v>1280</v>
       </c>
       <c r="I48" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -4407,7 +4413,7 @@
         <v>19200</v>
       </c>
       <c r="M48" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -4420,7 +4426,7 @@
         <v>6400</v>
       </c>
       <c r="Q48" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="R48">
         <v>0</v>
@@ -4447,7 +4453,7 @@
         <v>150</v>
       </c>
       <c r="E49" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -4460,7 +4466,7 @@
         <v>19200</v>
       </c>
       <c r="I49" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -4473,7 +4479,7 @@
         <v>38400</v>
       </c>
       <c r="M49" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -4486,7 +4492,7 @@
         <v>6400</v>
       </c>
       <c r="Q49" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="R49">
         <v>0</v>
@@ -4513,7 +4519,7 @@
         <v>150</v>
       </c>
       <c r="E50" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -4526,7 +4532,7 @@
         <v>19200</v>
       </c>
       <c r="I50" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -4539,7 +4545,7 @@
         <v>19200</v>
       </c>
       <c r="M50" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -4552,7 +4558,7 @@
         <v>6400</v>
       </c>
       <c r="Q50" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="R50">
         <v>0</v>
@@ -4579,7 +4585,7 @@
         <v>150</v>
       </c>
       <c r="E51" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -4592,7 +4598,7 @@
         <v>1280</v>
       </c>
       <c r="I51" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -4605,7 +4611,7 @@
         <v>38400</v>
       </c>
       <c r="M51" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -4618,7 +4624,7 @@
         <v>6400</v>
       </c>
       <c r="Q51" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="R51">
         <v>0</v>
@@ -4645,7 +4651,7 @@
         <v>200</v>
       </c>
       <c r="E52" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -4658,7 +4664,7 @@
         <v>5120</v>
       </c>
       <c r="M52" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -4671,7 +4677,7 @@
         <v>12800</v>
       </c>
       <c r="Q52" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="R52">
         <v>0</v>
@@ -4698,7 +4704,7 @@
         <v>200</v>
       </c>
       <c r="E53" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -4711,7 +4717,7 @@
         <v>1280</v>
       </c>
       <c r="I53" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -4724,7 +4730,7 @@
         <v>76800</v>
       </c>
       <c r="M53" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -4737,7 +4743,7 @@
         <v>12800</v>
       </c>
       <c r="Q53" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="R53">
         <v>0</v>
@@ -4764,7 +4770,7 @@
         <v>200</v>
       </c>
       <c r="E54" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -4777,7 +4783,7 @@
         <v>2560</v>
       </c>
       <c r="I54" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -4790,7 +4796,7 @@
         <v>38400</v>
       </c>
       <c r="M54" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -4803,7 +4809,7 @@
         <v>12800</v>
       </c>
       <c r="Q54" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="R54">
         <v>0</v>
@@ -4830,7 +4836,7 @@
         <v>200</v>
       </c>
       <c r="E55" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -4843,7 +4849,7 @@
         <v>38400</v>
       </c>
       <c r="I55" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -4856,7 +4862,7 @@
         <v>76800</v>
       </c>
       <c r="M55" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -4869,7 +4875,7 @@
         <v>12800</v>
       </c>
       <c r="Q55" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="R55">
         <v>0</v>
@@ -4896,7 +4902,7 @@
         <v>200</v>
       </c>
       <c r="E56" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -4909,7 +4915,7 @@
         <v>38400</v>
       </c>
       <c r="I56" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -4922,7 +4928,7 @@
         <v>38400</v>
       </c>
       <c r="M56" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -4935,7 +4941,7 @@
         <v>12800</v>
       </c>
       <c r="Q56" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="R56">
         <v>0</v>
@@ -4962,7 +4968,7 @@
         <v>200</v>
       </c>
       <c r="E57" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -4975,7 +4981,7 @@
         <v>2560</v>
       </c>
       <c r="I57" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -4988,7 +4994,7 @@
         <v>76800</v>
       </c>
       <c r="M57" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -5001,7 +5007,7 @@
         <v>12800</v>
       </c>
       <c r="Q57" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="R57">
         <v>0</v>
@@ -5028,7 +5034,7 @@
         <v>300</v>
       </c>
       <c r="E58" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -5041,7 +5047,7 @@
         <v>10240</v>
       </c>
       <c r="M58" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -5054,7 +5060,7 @@
         <v>25600</v>
       </c>
       <c r="Q58" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="R58">
         <v>0</v>
@@ -5081,7 +5087,7 @@
         <v>300</v>
       </c>
       <c r="E59" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -5094,7 +5100,7 @@
         <v>2560</v>
       </c>
       <c r="I59" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -5107,7 +5113,7 @@
         <v>153600</v>
       </c>
       <c r="M59" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -5120,7 +5126,7 @@
         <v>25600</v>
       </c>
       <c r="Q59" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="R59">
         <v>0</v>
@@ -5147,7 +5153,7 @@
         <v>300</v>
       </c>
       <c r="E60" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -5160,7 +5166,7 @@
         <v>5120</v>
       </c>
       <c r="I60" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -5173,7 +5179,7 @@
         <v>76800</v>
       </c>
       <c r="M60" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -5186,7 +5192,7 @@
         <v>25600</v>
       </c>
       <c r="Q60" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="R60">
         <v>0</v>
@@ -5213,7 +5219,7 @@
         <v>300</v>
       </c>
       <c r="E61" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -5226,7 +5232,7 @@
         <v>76800</v>
       </c>
       <c r="I61" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -5239,7 +5245,7 @@
         <v>153600</v>
       </c>
       <c r="M61" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -5252,7 +5258,7 @@
         <v>25600</v>
       </c>
       <c r="Q61" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="R61">
         <v>0</v>
@@ -5279,7 +5285,7 @@
         <v>300</v>
       </c>
       <c r="E62" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -5292,7 +5298,7 @@
         <v>76800</v>
       </c>
       <c r="I62" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -5305,7 +5311,7 @@
         <v>76800</v>
       </c>
       <c r="M62" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -5318,7 +5324,7 @@
         <v>25600</v>
       </c>
       <c r="Q62" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="R62">
         <v>0</v>
@@ -5345,7 +5351,7 @@
         <v>300</v>
       </c>
       <c r="E63" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -5358,7 +5364,7 @@
         <v>5120</v>
       </c>
       <c r="I63" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -5371,7 +5377,7 @@
         <v>153600</v>
       </c>
       <c r="M63" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -5384,7 +5390,7 @@
         <v>25600</v>
       </c>
       <c r="Q63" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="R63">
         <v>0</v>
@@ -5409,7 +5415,7 @@
   <dimension ref="A1:M203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5425,31 +5431,31 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>37</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -5463,7 +5469,7 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -5472,7 +5478,7 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -5483,31 +5489,31 @@
     </row>
     <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -10731,19 +10737,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -10760,24 +10766,24 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -11835,43 +11841,43 @@
         <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -11879,7 +11885,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -11920,46 +11926,46 @@
     </row>
     <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -12149,8 +12155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B260827-9ED3-43B5-8922-828B78367E4F}">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12161,45 +12167,45 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -12211,7 +12217,7 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
@@ -12220,7 +12226,7 @@
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
@@ -12231,37 +12237,37 @@
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">

--- a/Excel/eqp.装备.xlsx
+++ b/Excel/eqp.装备.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E531149F-B022-4109-9E64-9CD2F6F24D3D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5F4FC9-413B-478B-B767-587B80DB07A1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="516">
   <si>
     <t>sheet名</t>
   </si>
@@ -1526,6 +1526,290 @@
   </si>
   <si>
     <t>lucky</t>
+  </si>
+  <si>
+    <t>#note</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:e&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器S2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器S3</t>
+  </si>
+  <si>
+    <t>头盔S2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肩甲S2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣服S2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>裤子S2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋子S2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项链S2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戒指S2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>头盔S3</t>
+  </si>
+  <si>
+    <t>肩甲S3</t>
+  </si>
+  <si>
+    <t>衣服S3</t>
+  </si>
+  <si>
+    <t>裤子S3</t>
+  </si>
+  <si>
+    <t>鞋子S3</t>
+  </si>
+  <si>
+    <t>项链S3</t>
+  </si>
+  <si>
+    <t>戒指S3</t>
+  </si>
+  <si>
+    <t>武器S4</t>
+  </si>
+  <si>
+    <t>头盔S4</t>
+  </si>
+  <si>
+    <t>肩甲S4</t>
+  </si>
+  <si>
+    <t>衣服S4</t>
+  </si>
+  <si>
+    <t>裤子S4</t>
+  </si>
+  <si>
+    <t>鞋子S4</t>
+  </si>
+  <si>
+    <t>项链S4</t>
+  </si>
+  <si>
+    <t>戒指S4</t>
+  </si>
+  <si>
+    <t>武器S5</t>
+  </si>
+  <si>
+    <t>头盔S5</t>
+  </si>
+  <si>
+    <t>肩甲S5</t>
+  </si>
+  <si>
+    <t>衣服S5</t>
+  </si>
+  <si>
+    <t>裤子S5</t>
+  </si>
+  <si>
+    <t>鞋子S5</t>
+  </si>
+  <si>
+    <t>项链S5</t>
+  </si>
+  <si>
+    <t>戒指S5</t>
+  </si>
+  <si>
+    <t>武器S6</t>
+  </si>
+  <si>
+    <t>头盔S6</t>
+  </si>
+  <si>
+    <t>肩甲S6</t>
+  </si>
+  <si>
+    <t>衣服S6</t>
+  </si>
+  <si>
+    <t>裤子S6</t>
+  </si>
+  <si>
+    <t>鞋子S6</t>
+  </si>
+  <si>
+    <t>项链S6</t>
+  </si>
+  <si>
+    <t>戒指S6</t>
+  </si>
+  <si>
+    <t>武器S7</t>
+  </si>
+  <si>
+    <t>头盔S7</t>
+  </si>
+  <si>
+    <t>肩甲S7</t>
+  </si>
+  <si>
+    <t>衣服S7</t>
+  </si>
+  <si>
+    <t>裤子S7</t>
+  </si>
+  <si>
+    <t>鞋子S7</t>
+  </si>
+  <si>
+    <t>项链S7</t>
+  </si>
+  <si>
+    <t>戒指S7</t>
+  </si>
+  <si>
+    <t>武器S8</t>
+  </si>
+  <si>
+    <t>头盔S8</t>
+  </si>
+  <si>
+    <t>肩甲S8</t>
+  </si>
+  <si>
+    <t>衣服S8</t>
+  </si>
+  <si>
+    <t>裤子S8</t>
+  </si>
+  <si>
+    <t>鞋子S8</t>
+  </si>
+  <si>
+    <t>项链S8</t>
+  </si>
+  <si>
+    <t>戒指S8</t>
+  </si>
+  <si>
+    <t>武器S9</t>
+  </si>
+  <si>
+    <t>头盔S9</t>
+  </si>
+  <si>
+    <t>肩甲S9</t>
+  </si>
+  <si>
+    <t>衣服S9</t>
+  </si>
+  <si>
+    <t>裤子S9</t>
+  </si>
+  <si>
+    <t>鞋子S9</t>
+  </si>
+  <si>
+    <t>项链S9</t>
+  </si>
+  <si>
+    <t>戒指S9</t>
+  </si>
+  <si>
+    <t>武器S10</t>
+  </si>
+  <si>
+    <t>头盔S10</t>
+  </si>
+  <si>
+    <t>肩甲S10</t>
+  </si>
+  <si>
+    <t>衣服S10</t>
+  </si>
+  <si>
+    <t>裤子S10</t>
+  </si>
+  <si>
+    <t>鞋子S10</t>
+  </si>
+  <si>
+    <t>项链S10</t>
+  </si>
+  <si>
+    <t>戒指S10</t>
+  </si>
+  <si>
+    <t>武器S11</t>
+  </si>
+  <si>
+    <t>头盔S11</t>
+  </si>
+  <si>
+    <t>肩甲S11</t>
+  </si>
+  <si>
+    <t>衣服S11</t>
+  </si>
+  <si>
+    <t>裤子S11</t>
+  </si>
+  <si>
+    <t>鞋子S11</t>
+  </si>
+  <si>
+    <t>项链S11</t>
+  </si>
+  <si>
+    <t>戒指S11</t>
+  </si>
+  <si>
+    <t>武器S12</t>
+  </si>
+  <si>
+    <t>头盔S12</t>
+  </si>
+  <si>
+    <t>肩甲S12</t>
+  </si>
+  <si>
+    <t>衣服S12</t>
+  </si>
+  <si>
+    <t>裤子S12</t>
+  </si>
+  <si>
+    <t>鞋子S12</t>
+  </si>
+  <si>
+    <t>项链S12</t>
+  </si>
+  <si>
+    <t>戒指S12</t>
   </si>
 </sst>
 </file>
@@ -2310,8 +2594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BEF06C-8A24-4C18-BB25-9336D50B01F5}">
   <dimension ref="A1:AQ99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AF4" sqref="AF4:AF11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18665,19 +18949,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B260827-9ED3-43B5-8922-828B78367E4F}">
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
-    <col min="3" max="11" width="15.625" customWidth="1"/>
+    <col min="2" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="12" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
@@ -18685,34 +18969,37 @@
         <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>108</v>
       </c>
@@ -18720,34 +19007,37 @@
         <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>427</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>132</v>
       </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
       <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>132</v>
       </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
       <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>107</v>
       </c>
@@ -18755,1812 +19045,3378 @@
         <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
         <v>1011</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>428</v>
+      </c>
+      <c r="D4">
         <v>1001</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
         <v>1012</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>430</v>
+      </c>
+      <c r="D5">
         <v>1002</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6">
         <v>1013</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>431</v>
+      </c>
+      <c r="D6">
         <v>1003</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7">
         <v>1014</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D7">
         <v>1004</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
       <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>2</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8">
         <v>1015</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>433</v>
+      </c>
+      <c r="D8">
         <v>1005</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>2</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9">
         <v>1016</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D9">
         <v>1006</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10">
-        <v>1021</v>
-      </c>
-      <c r="C10">
-        <v>1011</v>
+        <v>1017</v>
+      </c>
+      <c r="C10" t="s">
+        <v>435</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1007</v>
       </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>2</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11">
-        <v>1022</v>
-      </c>
-      <c r="C11">
-        <v>1012</v>
+        <v>1018</v>
+      </c>
+      <c r="C11" t="s">
+        <v>436</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1008</v>
       </c>
       <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>2</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12">
-        <v>1023</v>
-      </c>
-      <c r="C12">
-        <v>1013</v>
+        <v>1021</v>
+      </c>
+      <c r="C12" t="s">
+        <v>429</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1011</v>
       </c>
       <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>2</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f>I4*2.5</f>
+        <v>50000</v>
+      </c>
+      <c r="J12">
+        <v>13</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13">
-        <v>1024</v>
-      </c>
-      <c r="C13">
-        <v>1014</v>
+        <v>1022</v>
+      </c>
+      <c r="C13" t="s">
+        <v>437</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1012</v>
       </c>
       <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>2</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>25000</v>
+      </c>
+      <c r="J13">
+        <v>13</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14">
-        <v>1025</v>
-      </c>
-      <c r="C14">
-        <v>1015</v>
+        <v>1023</v>
+      </c>
+      <c r="C14" t="s">
+        <v>438</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1013</v>
       </c>
       <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>2</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>25000</v>
+      </c>
+      <c r="J14">
+        <v>13</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15">
-        <v>1026</v>
-      </c>
-      <c r="C15">
-        <v>1016</v>
+        <v>1024</v>
+      </c>
+      <c r="C15" t="s">
+        <v>439</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1014</v>
       </c>
       <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <v>2</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>25000</v>
+      </c>
+      <c r="J15">
+        <v>13</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16">
-        <v>1031</v>
-      </c>
-      <c r="C16">
-        <v>1021</v>
+        <v>1025</v>
+      </c>
+      <c r="C16" t="s">
+        <v>440</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1015</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="I16">
+        <v>25000</v>
+      </c>
+      <c r="J16">
         <v>13</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
       <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17">
-        <v>1032</v>
-      </c>
-      <c r="C17">
-        <v>1022</v>
+        <v>1026</v>
+      </c>
+      <c r="C17" t="s">
+        <v>441</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1016</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="I17">
+        <v>25000</v>
+      </c>
+      <c r="J17">
         <v>13</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
       <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18">
-        <v>1033</v>
-      </c>
-      <c r="C18">
-        <v>1023</v>
+        <v>1027</v>
+      </c>
+      <c r="C18" t="s">
+        <v>442</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1017</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="I18">
+        <v>37500</v>
+      </c>
+      <c r="J18">
         <v>13</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19">
-        <v>1034</v>
-      </c>
-      <c r="C19">
-        <v>1024</v>
+        <v>1028</v>
+      </c>
+      <c r="C19" t="s">
+        <v>443</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1018</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="I19">
+        <v>37500</v>
+      </c>
+      <c r="J19">
         <v>13</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
       <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20">
-        <v>1035</v>
-      </c>
-      <c r="C20">
-        <v>1025</v>
+        <v>1031</v>
+      </c>
+      <c r="C20" t="s">
+        <v>444</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1021</v>
       </c>
       <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <v>3</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
       <c r="G20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="I20">
+        <f>I12*5</f>
+        <v>250000</v>
+      </c>
+      <c r="J20">
         <v>13</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
       <c r="B21">
-        <v>1036</v>
-      </c>
-      <c r="C21">
-        <v>1026</v>
+        <v>1032</v>
+      </c>
+      <c r="C21" t="s">
+        <v>445</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1022</v>
       </c>
       <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>3</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
       <c r="G21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="I21">
+        <f t="shared" ref="I21:I27" si="0">I13*5</f>
+        <v>125000</v>
+      </c>
+      <c r="J21">
         <v>13</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
       <c r="K21">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
       <c r="B22">
-        <v>1041</v>
-      </c>
-      <c r="C22">
-        <v>1031</v>
+        <v>1033</v>
+      </c>
+      <c r="C22" t="s">
+        <v>446</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1023</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="I22">
+        <f t="shared" si="0"/>
+        <v>125000</v>
+      </c>
+      <c r="J22">
         <v>13</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
       <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
       <c r="B23">
-        <v>1042</v>
-      </c>
-      <c r="C23">
-        <v>1032</v>
+        <v>1034</v>
+      </c>
+      <c r="C23" t="s">
+        <v>447</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="I23">
+        <f t="shared" si="0"/>
+        <v>125000</v>
+      </c>
+      <c r="J23">
         <v>13</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24">
-        <v>1043</v>
-      </c>
-      <c r="C24">
-        <v>1033</v>
+        <v>1035</v>
+      </c>
+      <c r="C24" t="s">
+        <v>448</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1025</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="I24">
+        <f t="shared" si="0"/>
+        <v>125000</v>
+      </c>
+      <c r="J24">
         <v>13</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
       <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25">
-        <v>1044</v>
-      </c>
-      <c r="C25">
-        <v>1034</v>
+        <v>1036</v>
+      </c>
+      <c r="C25" t="s">
+        <v>449</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1026</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="I25">
+        <f t="shared" si="0"/>
+        <v>125000</v>
+      </c>
+      <c r="J25">
         <v>13</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
       <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
       <c r="B26">
-        <v>1045</v>
-      </c>
-      <c r="C26">
-        <v>1035</v>
+        <v>1037</v>
+      </c>
+      <c r="C26" t="s">
+        <v>450</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1027</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="I26">
+        <f t="shared" si="0"/>
+        <v>187500</v>
+      </c>
+      <c r="J26">
         <v>13</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
       <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
       <c r="B27">
-        <v>1046</v>
-      </c>
-      <c r="C27">
-        <v>1036</v>
+        <v>1038</v>
+      </c>
+      <c r="C27" t="s">
+        <v>451</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1028</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="I27">
+        <f t="shared" si="0"/>
+        <v>187500</v>
+      </c>
+      <c r="J27">
         <v>13</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
       <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
       <c r="B28">
-        <v>1051</v>
-      </c>
-      <c r="C28">
         <v>1041</v>
       </c>
+      <c r="C28" t="s">
+        <v>452</v>
+      </c>
       <c r="D28">
-        <v>0</v>
+        <v>1031</v>
       </c>
       <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
         <v>2</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
       <c r="G28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="I28">
+        <f>I20*2.5</f>
+        <v>625000</v>
+      </c>
+      <c r="J28">
         <v>13</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
       <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
       <c r="B29">
-        <v>1052</v>
-      </c>
-      <c r="C29">
         <v>1042</v>
       </c>
+      <c r="C29" t="s">
+        <v>453</v>
+      </c>
       <c r="D29">
-        <v>0</v>
+        <v>1032</v>
       </c>
       <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
         <v>2</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
       <c r="G29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="I29">
+        <f t="shared" ref="I29:I43" si="1">I21*2.5</f>
+        <v>312500</v>
+      </c>
+      <c r="J29">
         <v>13</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
       <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
       <c r="B30">
-        <v>1053</v>
-      </c>
-      <c r="C30">
         <v>1043</v>
       </c>
+      <c r="C30" t="s">
+        <v>454</v>
+      </c>
       <c r="D30">
-        <v>0</v>
+        <v>1033</v>
       </c>
       <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
         <v>2</v>
       </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
       <c r="G30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="I30">
+        <f t="shared" si="1"/>
+        <v>312500</v>
+      </c>
+      <c r="J30">
         <v>13</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
       <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
       <c r="B31">
-        <v>1054</v>
-      </c>
-      <c r="C31">
         <v>1044</v>
       </c>
+      <c r="C31" t="s">
+        <v>455</v>
+      </c>
       <c r="D31">
-        <v>0</v>
+        <v>1034</v>
       </c>
       <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
         <v>2</v>
       </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
       <c r="G31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="I31">
+        <f t="shared" si="1"/>
+        <v>312500</v>
+      </c>
+      <c r="J31">
         <v>13</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
       <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
       <c r="B32">
-        <v>1055</v>
-      </c>
-      <c r="C32">
         <v>1045</v>
       </c>
+      <c r="C32" t="s">
+        <v>456</v>
+      </c>
       <c r="D32">
-        <v>0</v>
+        <v>1035</v>
       </c>
       <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
         <v>2</v>
       </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
       <c r="G32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="I32">
+        <f t="shared" si="1"/>
+        <v>312500</v>
+      </c>
+      <c r="J32">
         <v>13</v>
       </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
       <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
       <c r="B33">
-        <v>1056</v>
-      </c>
-      <c r="C33">
         <v>1046</v>
       </c>
+      <c r="C33" t="s">
+        <v>457</v>
+      </c>
       <c r="D33">
-        <v>0</v>
+        <v>1036</v>
       </c>
       <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
         <v>2</v>
       </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
       <c r="G33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="I33">
+        <f t="shared" si="1"/>
+        <v>312500</v>
+      </c>
+      <c r="J33">
         <v>13</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
       <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>31</v>
       </c>
       <c r="B34">
-        <v>1061</v>
-      </c>
-      <c r="C34">
-        <v>1051</v>
+        <v>1047</v>
+      </c>
+      <c r="C34" t="s">
+        <v>458</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1037</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="I34">
+        <f t="shared" si="1"/>
+        <v>468750</v>
+      </c>
+      <c r="J34">
         <v>13</v>
       </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
       <c r="K34">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>32</v>
       </c>
       <c r="B35">
-        <v>1062</v>
-      </c>
-      <c r="C35">
-        <v>1052</v>
+        <v>1048</v>
+      </c>
+      <c r="C35" t="s">
+        <v>459</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1038</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="I35">
+        <f t="shared" si="1"/>
+        <v>468750</v>
+      </c>
+      <c r="J35">
         <v>13</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
       <c r="K35">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>33</v>
       </c>
       <c r="B36">
-        <v>1063</v>
-      </c>
-      <c r="C36">
-        <v>1053</v>
+        <v>1051</v>
+      </c>
+      <c r="C36" t="s">
+        <v>460</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1041</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="I36">
+        <f t="shared" si="1"/>
+        <v>1562500</v>
+      </c>
+      <c r="J36">
         <v>13</v>
       </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
       <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>34</v>
       </c>
       <c r="B37">
-        <v>1064</v>
-      </c>
-      <c r="C37">
-        <v>1054</v>
+        <v>1052</v>
+      </c>
+      <c r="C37" t="s">
+        <v>461</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1042</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="I37">
+        <f t="shared" si="1"/>
+        <v>781250</v>
+      </c>
+      <c r="J37">
         <v>13</v>
       </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
       <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>35</v>
       </c>
       <c r="B38">
-        <v>1065</v>
-      </c>
-      <c r="C38">
-        <v>1055</v>
+        <v>1053</v>
+      </c>
+      <c r="C38" t="s">
+        <v>462</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1043</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="I38">
+        <f t="shared" si="1"/>
+        <v>781250</v>
+      </c>
+      <c r="J38">
         <v>13</v>
       </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
       <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>36</v>
       </c>
       <c r="B39">
-        <v>1066</v>
-      </c>
-      <c r="C39">
-        <v>1056</v>
+        <v>1054</v>
+      </c>
+      <c r="C39" t="s">
+        <v>463</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1044</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>781250</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K39">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>37</v>
       </c>
       <c r="B40">
-        <v>1071</v>
-      </c>
-      <c r="C40">
-        <v>1061</v>
+        <v>1055</v>
+      </c>
+      <c r="C40" t="s">
+        <v>464</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1045</v>
       </c>
       <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
         <v>2</v>
       </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
       <c r="G40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>781250</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K40">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>38</v>
       </c>
       <c r="B41">
-        <v>1072</v>
-      </c>
-      <c r="C41">
-        <v>1062</v>
+        <v>1056</v>
+      </c>
+      <c r="C41" t="s">
+        <v>465</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1046</v>
       </c>
       <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
         <v>2</v>
       </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
       <c r="G41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>781250</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K41">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>39</v>
       </c>
       <c r="B42">
-        <v>1073</v>
-      </c>
-      <c r="C42">
-        <v>1063</v>
+        <v>1057</v>
+      </c>
+      <c r="C42" t="s">
+        <v>466</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>1047</v>
       </c>
       <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
         <v>2</v>
       </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
       <c r="G42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>1171875</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K42">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>40</v>
       </c>
       <c r="B43">
-        <v>1074</v>
-      </c>
-      <c r="C43">
-        <v>1064</v>
+        <v>1058</v>
+      </c>
+      <c r="C43" t="s">
+        <v>467</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1048</v>
       </c>
       <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
         <v>2</v>
       </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
       <c r="G43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>1171875</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K43">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>41</v>
       </c>
       <c r="B44">
-        <v>1075</v>
-      </c>
-      <c r="C44">
-        <v>1065</v>
+        <v>1061</v>
+      </c>
+      <c r="C44" t="s">
+        <v>468</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1051</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="I44">
+        <f>I36*7</f>
+        <v>10937500</v>
+      </c>
+      <c r="J44">
         <v>14</v>
       </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
       <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>42</v>
       </c>
       <c r="B45">
-        <v>1076</v>
-      </c>
-      <c r="C45">
-        <v>1066</v>
+        <v>1062</v>
+      </c>
+      <c r="C45" t="s">
+        <v>469</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1052</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G45">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="I45">
+        <f t="shared" ref="I45:I51" si="2">I37*7</f>
+        <v>5468750</v>
+      </c>
+      <c r="J45">
         <v>14</v>
       </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
       <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>43</v>
       </c>
       <c r="B46">
-        <v>1081</v>
-      </c>
-      <c r="C46">
-        <v>1071</v>
+        <v>1063</v>
+      </c>
+      <c r="C46" t="s">
+        <v>470</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>1053</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G46">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="I46">
+        <f t="shared" si="2"/>
+        <v>5468750</v>
+      </c>
+      <c r="J46">
         <v>14</v>
       </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
       <c r="K46">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>44</v>
       </c>
       <c r="B47">
-        <v>1082</v>
-      </c>
-      <c r="C47">
-        <v>1072</v>
+        <v>1064</v>
+      </c>
+      <c r="C47" t="s">
+        <v>471</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>1054</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G47">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="I47">
+        <f t="shared" si="2"/>
+        <v>5468750</v>
+      </c>
+      <c r="J47">
         <v>14</v>
       </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
       <c r="K47">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>45</v>
       </c>
       <c r="B48">
-        <v>1083</v>
-      </c>
-      <c r="C48">
-        <v>1073</v>
+        <v>1065</v>
+      </c>
+      <c r="C48" t="s">
+        <v>472</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>1055</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G48">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="I48">
+        <f t="shared" si="2"/>
+        <v>5468750</v>
+      </c>
+      <c r="J48">
         <v>14</v>
       </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
       <c r="K48">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>46</v>
       </c>
       <c r="B49">
-        <v>1084</v>
-      </c>
-      <c r="C49">
-        <v>1074</v>
+        <v>1066</v>
+      </c>
+      <c r="C49" t="s">
+        <v>473</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1056</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G49">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="I49">
+        <f t="shared" si="2"/>
+        <v>5468750</v>
+      </c>
+      <c r="J49">
         <v>14</v>
       </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
       <c r="K49">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>47</v>
       </c>
       <c r="B50">
-        <v>1085</v>
-      </c>
-      <c r="C50">
-        <v>1075</v>
+        <v>1067</v>
+      </c>
+      <c r="C50" t="s">
+        <v>474</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1057</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G50">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="I50">
+        <f t="shared" si="2"/>
+        <v>8203125</v>
+      </c>
+      <c r="J50">
         <v>14</v>
       </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
       <c r="K50">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>48</v>
       </c>
       <c r="B51">
-        <v>1086</v>
-      </c>
-      <c r="C51">
-        <v>1076</v>
+        <v>1068</v>
+      </c>
+      <c r="C51" t="s">
+        <v>475</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>1058</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G51">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="I51">
+        <f t="shared" si="2"/>
+        <v>8203125</v>
+      </c>
+      <c r="J51">
         <v>14</v>
       </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
       <c r="K51">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>49</v>
       </c>
       <c r="B52">
-        <v>1091</v>
-      </c>
-      <c r="C52">
-        <v>1081</v>
+        <v>1071</v>
+      </c>
+      <c r="C52" t="s">
+        <v>476</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1061</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="I52">
+        <f>I44*2.5</f>
+        <v>27343750</v>
+      </c>
+      <c r="J52">
         <v>14</v>
       </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
       <c r="K52">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>50</v>
       </c>
       <c r="B53">
-        <v>1092</v>
-      </c>
-      <c r="C53">
-        <v>1082</v>
+        <v>1072</v>
+      </c>
+      <c r="C53" t="s">
+        <v>477</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>1062</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="I53">
+        <f t="shared" ref="I53:I59" si="3">I45*2.5</f>
+        <v>13671875</v>
+      </c>
+      <c r="J53">
         <v>14</v>
       </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
       <c r="K53">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>51</v>
       </c>
       <c r="B54">
-        <v>1093</v>
-      </c>
-      <c r="C54">
-        <v>1083</v>
+        <v>1073</v>
+      </c>
+      <c r="C54" t="s">
+        <v>478</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1063</v>
       </c>
       <c r="E54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="I54">
+        <f t="shared" si="3"/>
+        <v>13671875</v>
+      </c>
+      <c r="J54">
         <v>14</v>
       </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
       <c r="K54">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>52</v>
       </c>
       <c r="B55">
-        <v>1094</v>
-      </c>
-      <c r="C55">
-        <v>1084</v>
+        <v>1074</v>
+      </c>
+      <c r="C55" t="s">
+        <v>479</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>1064</v>
       </c>
       <c r="E55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G55">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="I55">
+        <f t="shared" si="3"/>
+        <v>13671875</v>
+      </c>
+      <c r="J55">
         <v>14</v>
       </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
       <c r="K55">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>53</v>
       </c>
       <c r="B56">
-        <v>1095</v>
-      </c>
-      <c r="C56">
-        <v>1085</v>
+        <v>1075</v>
+      </c>
+      <c r="C56" t="s">
+        <v>480</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>1065</v>
       </c>
       <c r="E56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G56">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H56">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="I56">
+        <f t="shared" si="3"/>
+        <v>13671875</v>
+      </c>
+      <c r="J56">
         <v>14</v>
       </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
       <c r="K56">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>54</v>
       </c>
       <c r="B57">
+        <v>1076</v>
+      </c>
+      <c r="C57" t="s">
+        <v>481</v>
+      </c>
+      <c r="D57">
+        <v>1066</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="3"/>
+        <v>13671875</v>
+      </c>
+      <c r="J57">
+        <v>14</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58">
+        <v>1077</v>
+      </c>
+      <c r="C58" t="s">
+        <v>482</v>
+      </c>
+      <c r="D58">
+        <v>1067</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <f>INT(I50*2.5)</f>
+        <v>20507812</v>
+      </c>
+      <c r="J58">
+        <v>14</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59">
+        <v>1078</v>
+      </c>
+      <c r="C59" t="s">
+        <v>483</v>
+      </c>
+      <c r="D59">
+        <v>1068</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <f>INT(I51*2.5)</f>
+        <v>20507812</v>
+      </c>
+      <c r="J59">
+        <v>14</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60">
+        <v>1081</v>
+      </c>
+      <c r="C60" t="s">
+        <v>484</v>
+      </c>
+      <c r="D60">
+        <v>1071</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <f t="shared" ref="I60:I76" si="4">INT(I52*2.5)</f>
+        <v>68359375</v>
+      </c>
+      <c r="J60">
+        <v>14</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61">
+        <v>1082</v>
+      </c>
+      <c r="C61" t="s">
+        <v>485</v>
+      </c>
+      <c r="D61">
+        <v>1072</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="4"/>
+        <v>34179687</v>
+      </c>
+      <c r="J61">
+        <v>14</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62">
+        <v>1083</v>
+      </c>
+      <c r="C62" t="s">
+        <v>486</v>
+      </c>
+      <c r="D62">
+        <v>1073</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="4"/>
+        <v>34179687</v>
+      </c>
+      <c r="J62">
+        <v>14</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63">
+        <v>1084</v>
+      </c>
+      <c r="C63" t="s">
+        <v>487</v>
+      </c>
+      <c r="D63">
+        <v>1074</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="4"/>
+        <v>34179687</v>
+      </c>
+      <c r="J63">
+        <v>14</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64">
+        <v>1085</v>
+      </c>
+      <c r="C64" t="s">
+        <v>488</v>
+      </c>
+      <c r="D64">
+        <v>1075</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="4"/>
+        <v>34179687</v>
+      </c>
+      <c r="J64">
+        <v>14</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65">
+        <v>1086</v>
+      </c>
+      <c r="C65" t="s">
+        <v>489</v>
+      </c>
+      <c r="D65">
+        <v>1076</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="4"/>
+        <v>34179687</v>
+      </c>
+      <c r="J65">
+        <v>14</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66">
+        <v>1087</v>
+      </c>
+      <c r="C66" t="s">
+        <v>490</v>
+      </c>
+      <c r="D66">
+        <v>1077</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="4"/>
+        <v>51269530</v>
+      </c>
+      <c r="J66">
+        <v>14</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67">
+        <v>1088</v>
+      </c>
+      <c r="C67" t="s">
+        <v>491</v>
+      </c>
+      <c r="D67">
+        <v>1078</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="4"/>
+        <v>51269530</v>
+      </c>
+      <c r="J67">
+        <v>14</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68">
+        <v>1091</v>
+      </c>
+      <c r="C68" t="s">
+        <v>492</v>
+      </c>
+      <c r="D68">
+        <v>1081</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="4"/>
+        <v>170898437</v>
+      </c>
+      <c r="J68">
+        <v>23</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="B69">
+        <v>1092</v>
+      </c>
+      <c r="C69" t="s">
+        <v>493</v>
+      </c>
+      <c r="D69">
+        <v>1082</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="4"/>
+        <v>85449217</v>
+      </c>
+      <c r="J69">
+        <v>23</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70">
+        <v>1093</v>
+      </c>
+      <c r="C70" t="s">
+        <v>494</v>
+      </c>
+      <c r="D70">
+        <v>1083</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>3</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="4"/>
+        <v>85449217</v>
+      </c>
+      <c r="J70">
+        <v>23</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71">
+        <v>1094</v>
+      </c>
+      <c r="C71" t="s">
+        <v>495</v>
+      </c>
+      <c r="D71">
+        <v>1084</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="4"/>
+        <v>85449217</v>
+      </c>
+      <c r="J71">
+        <v>23</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72">
+        <v>1095</v>
+      </c>
+      <c r="C72" t="s">
+        <v>496</v>
+      </c>
+      <c r="D72">
+        <v>1085</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>3</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="4"/>
+        <v>85449217</v>
+      </c>
+      <c r="J72">
+        <v>23</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73">
         <v>1096</v>
       </c>
-      <c r="C57">
+      <c r="C73" t="s">
+        <v>497</v>
+      </c>
+      <c r="D73">
         <v>1086</v>
       </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
         <v>3</v>
       </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57">
-        <v>7</v>
-      </c>
-      <c r="H57">
-        <v>12.5</v>
-      </c>
-      <c r="I57">
-        <v>14</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="4"/>
+        <v>85449217</v>
+      </c>
+      <c r="J73">
+        <v>23</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="B74">
+        <v>1097</v>
+      </c>
+      <c r="C74" t="s">
+        <v>498</v>
+      </c>
+      <c r="D74">
+        <v>1087</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>3</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="4"/>
+        <v>128173825</v>
+      </c>
+      <c r="J74">
+        <v>23</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>72</v>
+      </c>
+      <c r="B75">
+        <v>1098</v>
+      </c>
+      <c r="C75" t="s">
+        <v>499</v>
+      </c>
+      <c r="D75">
+        <v>1088</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>3</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="4"/>
+        <v>128173825</v>
+      </c>
+      <c r="J75">
+        <v>23</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>73</v>
+      </c>
+      <c r="B76">
+        <v>1101</v>
+      </c>
+      <c r="C76" t="s">
+        <v>500</v>
+      </c>
+      <c r="D76">
+        <v>1091</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <f>INT(I68*5)</f>
+        <v>854492185</v>
+      </c>
+      <c r="J76">
+        <v>23</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>74</v>
+      </c>
+      <c r="B77">
+        <v>1102</v>
+      </c>
+      <c r="C77" t="s">
+        <v>501</v>
+      </c>
+      <c r="D77">
+        <v>1092</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <f t="shared" ref="I77:I91" si="5">INT(I69*5)</f>
+        <v>427246085</v>
+      </c>
+      <c r="J77">
+        <v>23</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>75</v>
+      </c>
+      <c r="B78">
+        <v>1103</v>
+      </c>
+      <c r="C78" t="s">
+        <v>502</v>
+      </c>
+      <c r="D78">
+        <v>1093</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="5"/>
+        <v>427246085</v>
+      </c>
+      <c r="J78">
+        <v>23</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>76</v>
+      </c>
+      <c r="B79">
+        <v>1104</v>
+      </c>
+      <c r="C79" t="s">
+        <v>503</v>
+      </c>
+      <c r="D79">
+        <v>1094</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="5"/>
+        <v>427246085</v>
+      </c>
+      <c r="J79">
+        <v>23</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>77</v>
+      </c>
+      <c r="B80">
+        <v>1105</v>
+      </c>
+      <c r="C80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D80">
+        <v>1095</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="5"/>
+        <v>427246085</v>
+      </c>
+      <c r="J80">
+        <v>23</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>78</v>
+      </c>
+      <c r="B81">
+        <v>1106</v>
+      </c>
+      <c r="C81" t="s">
+        <v>505</v>
+      </c>
+      <c r="D81">
+        <v>1096</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="5"/>
+        <v>427246085</v>
+      </c>
+      <c r="J81">
+        <v>23</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>79</v>
+      </c>
+      <c r="B82">
+        <v>1107</v>
+      </c>
+      <c r="C82" t="s">
+        <v>506</v>
+      </c>
+      <c r="D82">
+        <v>1097</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="5"/>
+        <v>640869125</v>
+      </c>
+      <c r="J82">
+        <v>23</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>80</v>
+      </c>
+      <c r="B83">
+        <v>1108</v>
+      </c>
+      <c r="C83" t="s">
+        <v>507</v>
+      </c>
+      <c r="D83">
+        <v>1098</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="5"/>
+        <v>640869125</v>
+      </c>
+      <c r="J83">
+        <v>23</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>81</v>
+      </c>
+      <c r="B84">
+        <v>1111</v>
+      </c>
+      <c r="C84" t="s">
+        <v>508</v>
+      </c>
+      <c r="D84">
+        <v>1101</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="5"/>
+        <v>4272460925</v>
+      </c>
+      <c r="J84">
+        <v>23</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>82</v>
+      </c>
+      <c r="B85">
+        <v>1112</v>
+      </c>
+      <c r="C85" t="s">
+        <v>509</v>
+      </c>
+      <c r="D85">
+        <v>1102</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="5"/>
+        <v>2136230425</v>
+      </c>
+      <c r="J85">
+        <v>23</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>83</v>
+      </c>
+      <c r="B86">
+        <v>1113</v>
+      </c>
+      <c r="C86" t="s">
+        <v>510</v>
+      </c>
+      <c r="D86">
+        <v>1103</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="5"/>
+        <v>2136230425</v>
+      </c>
+      <c r="J86">
+        <v>23</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>84</v>
+      </c>
+      <c r="B87">
+        <v>1114</v>
+      </c>
+      <c r="C87" t="s">
+        <v>511</v>
+      </c>
+      <c r="D87">
+        <v>1104</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="5"/>
+        <v>2136230425</v>
+      </c>
+      <c r="J87">
+        <v>23</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>85</v>
+      </c>
+      <c r="B88">
+        <v>1115</v>
+      </c>
+      <c r="C88" t="s">
+        <v>512</v>
+      </c>
+      <c r="D88">
+        <v>1105</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>2</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="5"/>
+        <v>2136230425</v>
+      </c>
+      <c r="J88">
+        <v>23</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>86</v>
+      </c>
+      <c r="B89">
+        <v>1116</v>
+      </c>
+      <c r="C89" t="s">
+        <v>513</v>
+      </c>
+      <c r="D89">
+        <v>1106</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="5"/>
+        <v>2136230425</v>
+      </c>
+      <c r="J89">
+        <v>23</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>87</v>
+      </c>
+      <c r="B90">
+        <v>1117</v>
+      </c>
+      <c r="C90" t="s">
+        <v>514</v>
+      </c>
+      <c r="D90">
+        <v>1107</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="5"/>
+        <v>3204345625</v>
+      </c>
+      <c r="J90">
+        <v>23</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>88</v>
+      </c>
+      <c r="B91">
+        <v>1118</v>
+      </c>
+      <c r="C91" t="s">
+        <v>515</v>
+      </c>
+      <c r="D91">
+        <v>1108</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="5"/>
+        <v>3204345625</v>
+      </c>
+      <c r="J91">
+        <v>23</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
         <v>200</v>
       </c>
     </row>
@@ -29479,7 +31335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E480C51-3299-4329-9A6C-082DA40AACEA}">
   <dimension ref="A1:AC83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>

--- a/Excel/eqp.装备.xlsx
+++ b/Excel/eqp.装备.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCE77B4-FA5F-4F30-AF17-063C5EBCA7ED}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446E2ECD-E5A0-46A9-AC61-0402E2445783}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="535">
   <si>
     <t>sheet名</t>
   </si>
@@ -1479,10 +1479,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>客户端装备套装的表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>equiptLvupSuit.json</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1889,7 +1885,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>rank,help_col</t>
+    <t>装备套装的表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2396,7 +2392,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2477,7 +2473,7 @@
     </row>
     <row r="4" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>100</v>
@@ -2498,7 +2494,7 @@
     </row>
     <row r="5" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
@@ -2519,7 +2515,7 @@
     </row>
     <row r="6" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>101</v>
@@ -2540,7 +2536,7 @@
     </row>
     <row r="7" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
@@ -2603,20 +2599,20 @@
     </row>
     <row r="10" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>411</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G10" s="3" t="b">
         <v>1</v>
@@ -2624,22 +2620,22 @@
     </row>
     <row r="11" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>411</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>534</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>412</v>
       </c>
       <c r="G11" s="3" t="b">
         <v>1</v>
@@ -2650,17 +2646,17 @@
         <v>409</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>413</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>414</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G12" s="3" t="b">
         <v>1</v>
@@ -10745,7 +10741,7 @@
         <v>50</v>
       </c>
       <c r="Z6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AA6">
         <v>7</v>
@@ -10776,7 +10772,7 @@
         <v>166</v>
       </c>
       <c r="AK6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM6">
         <v>200</v>
@@ -11005,7 +11001,7 @@
         <v>50</v>
       </c>
       <c r="Z8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AA8">
         <v>7</v>
@@ -11036,7 +11032,7 @@
         <v>167</v>
       </c>
       <c r="AK8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM8">
         <v>150</v>
@@ -11135,7 +11131,7 @@
         <v>50</v>
       </c>
       <c r="Z9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AA9">
         <v>7</v>
@@ -11166,7 +11162,7 @@
         <v>168</v>
       </c>
       <c r="AK9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM9">
         <v>10</v>
@@ -11265,7 +11261,7 @@
         <v>150</v>
       </c>
       <c r="Z10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AA10">
         <v>7</v>
@@ -11296,7 +11292,7 @@
         <v>165</v>
       </c>
       <c r="AK10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AM10">
         <v>20</v>
@@ -11707,7 +11703,7 @@
         <v>100</v>
       </c>
       <c r="Z14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AA14">
         <v>7</v>
@@ -11901,7 +11897,7 @@
         <v>100</v>
       </c>
       <c r="Z16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AA16">
         <v>7</v>
@@ -12004,7 +12000,7 @@
         <v>100</v>
       </c>
       <c r="Z17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AA17">
         <v>7</v>
@@ -12107,7 +12103,7 @@
         <v>300</v>
       </c>
       <c r="Z18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AA18">
         <v>7</v>
@@ -12501,7 +12497,7 @@
         <v>200</v>
       </c>
       <c r="Z22" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AA22">
         <v>7</v>
@@ -12695,7 +12691,7 @@
         <v>200</v>
       </c>
       <c r="Z24" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AA24">
         <v>7</v>
@@ -12792,7 +12788,7 @@
         <v>200</v>
       </c>
       <c r="Z25" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AA25">
         <v>7</v>
@@ -12889,7 +12885,7 @@
         <v>600</v>
       </c>
       <c r="Z26" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AA26">
         <v>7</v>
@@ -13265,7 +13261,7 @@
         <v>400</v>
       </c>
       <c r="Z30" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AA30">
         <v>7</v>
@@ -13459,7 +13455,7 @@
         <v>400</v>
       </c>
       <c r="Z32" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AA32">
         <v>7</v>
@@ -13556,7 +13552,7 @@
         <v>400</v>
       </c>
       <c r="Z33" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AA33">
         <v>7</v>
@@ -13653,7 +13649,7 @@
         <v>1200</v>
       </c>
       <c r="Z34" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AA34">
         <v>7</v>
@@ -14029,7 +14025,7 @@
         <v>800</v>
       </c>
       <c r="Z38" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AA38">
         <v>7</v>
@@ -14223,7 +14219,7 @@
         <v>800</v>
       </c>
       <c r="Z40" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AA40">
         <v>7</v>
@@ -14320,7 +14316,7 @@
         <v>800</v>
       </c>
       <c r="Z41" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AA41">
         <v>7</v>
@@ -14417,7 +14413,7 @@
         <v>2400</v>
       </c>
       <c r="Z42" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AA42">
         <v>7</v>
@@ -14793,7 +14789,7 @@
         <v>1600</v>
       </c>
       <c r="Z46" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AA46">
         <v>7</v>
@@ -14987,7 +14983,7 @@
         <v>1600</v>
       </c>
       <c r="Z48" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AA48">
         <v>7</v>
@@ -15084,7 +15080,7 @@
         <v>1600</v>
       </c>
       <c r="Z49" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AA49">
         <v>7</v>
@@ -15181,7 +15177,7 @@
         <v>4800</v>
       </c>
       <c r="Z50" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AA50">
         <v>7</v>
@@ -15557,7 +15553,7 @@
         <v>3200</v>
       </c>
       <c r="Z54" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AA54">
         <v>7</v>
@@ -15751,7 +15747,7 @@
         <v>3200</v>
       </c>
       <c r="Z56" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AA56">
         <v>7</v>
@@ -15848,7 +15844,7 @@
         <v>3200</v>
       </c>
       <c r="Z57" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AA57">
         <v>7</v>
@@ -15945,7 +15941,7 @@
         <v>9600</v>
       </c>
       <c r="Z58" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AA58">
         <v>7</v>
@@ -16321,7 +16317,7 @@
         <v>6400</v>
       </c>
       <c r="Z62" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AA62">
         <v>7</v>
@@ -16515,7 +16511,7 @@
         <v>6400</v>
       </c>
       <c r="Z64" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AA64">
         <v>7</v>
@@ -16612,7 +16608,7 @@
         <v>6400</v>
       </c>
       <c r="Z65" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AA65">
         <v>7</v>
@@ -16709,7 +16705,7 @@
         <v>19200</v>
       </c>
       <c r="Z66" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AA66">
         <v>7</v>
@@ -17085,7 +17081,7 @@
         <v>12800</v>
       </c>
       <c r="Z70" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AA70">
         <v>7</v>
@@ -17279,7 +17275,7 @@
         <v>12800</v>
       </c>
       <c r="Z72" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AA72">
         <v>7</v>
@@ -17376,7 +17372,7 @@
         <v>12800</v>
       </c>
       <c r="Z73" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AA73">
         <v>7</v>
@@ -17473,7 +17469,7 @@
         <v>38400</v>
       </c>
       <c r="Z74" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AA74">
         <v>7</v>
@@ -17849,7 +17845,7 @@
         <v>25600</v>
       </c>
       <c r="Z78" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AA78">
         <v>7</v>
@@ -18043,7 +18039,7 @@
         <v>25600</v>
       </c>
       <c r="Z80" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AA80">
         <v>7</v>
@@ -18140,7 +18136,7 @@
         <v>25600</v>
       </c>
       <c r="Z81" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AA81">
         <v>7</v>
@@ -18237,7 +18233,7 @@
         <v>76800</v>
       </c>
       <c r="Z82" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AA82">
         <v>7</v>
@@ -18613,7 +18609,7 @@
         <v>51200</v>
       </c>
       <c r="Z86" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AA86">
         <v>7</v>
@@ -18807,7 +18803,7 @@
         <v>51200</v>
       </c>
       <c r="Z88" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AA88">
         <v>7</v>
@@ -18904,7 +18900,7 @@
         <v>51200</v>
       </c>
       <c r="Z89" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AA89">
         <v>7</v>
@@ -19001,7 +18997,7 @@
         <v>153600</v>
       </c>
       <c r="Z90" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AA90">
         <v>7</v>
@@ -19377,7 +19373,7 @@
         <v>102400</v>
       </c>
       <c r="Z94" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AA94">
         <v>7</v>
@@ -19571,7 +19567,7 @@
         <v>102400</v>
       </c>
       <c r="Z96" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AA96">
         <v>7</v>
@@ -19668,7 +19664,7 @@
         <v>102400</v>
       </c>
       <c r="Z97" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AA97">
         <v>7</v>
@@ -19765,7 +19761,7 @@
         <v>307200</v>
       </c>
       <c r="Z98" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AA98">
         <v>7</v>
@@ -26458,7 +26454,7 @@
         <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>12</v>
@@ -26496,7 +26492,7 @@
         <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -26534,7 +26530,7 @@
         <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>37</v>
@@ -26572,7 +26568,7 @@
         <v>1011</v>
       </c>
       <c r="C4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D4">
         <v>1001</v>
@@ -26601,7 +26597,7 @@
         <v>1012</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D5">
         <v>1002</v>
@@ -26630,7 +26626,7 @@
         <v>1013</v>
       </c>
       <c r="C6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D6">
         <v>1003</v>
@@ -26659,7 +26655,7 @@
         <v>1014</v>
       </c>
       <c r="C7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D7">
         <v>1004</v>
@@ -26688,7 +26684,7 @@
         <v>1015</v>
       </c>
       <c r="C8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D8">
         <v>1005</v>
@@ -26717,7 +26713,7 @@
         <v>1016</v>
       </c>
       <c r="C9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D9">
         <v>1006</v>
@@ -26746,7 +26742,7 @@
         <v>1017</v>
       </c>
       <c r="C10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D10">
         <v>1007</v>
@@ -26775,7 +26771,7 @@
         <v>1018</v>
       </c>
       <c r="C11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D11">
         <v>1008</v>
@@ -26804,7 +26800,7 @@
         <v>1021</v>
       </c>
       <c r="C12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D12">
         <v>1011</v>
@@ -26843,7 +26839,7 @@
         <v>1022</v>
       </c>
       <c r="C13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D13">
         <v>1012</v>
@@ -26881,7 +26877,7 @@
         <v>1023</v>
       </c>
       <c r="C14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D14">
         <v>1013</v>
@@ -26919,7 +26915,7 @@
         <v>1024</v>
       </c>
       <c r="C15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D15">
         <v>1014</v>
@@ -26957,7 +26953,7 @@
         <v>1025</v>
       </c>
       <c r="C16" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D16">
         <v>1015</v>
@@ -26995,7 +26991,7 @@
         <v>1026</v>
       </c>
       <c r="C17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D17">
         <v>1016</v>
@@ -27033,7 +27029,7 @@
         <v>1027</v>
       </c>
       <c r="C18" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D18">
         <v>1017</v>
@@ -27071,7 +27067,7 @@
         <v>1028</v>
       </c>
       <c r="C19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D19">
         <v>1018</v>
@@ -27109,7 +27105,7 @@
         <v>1031</v>
       </c>
       <c r="C20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D20">
         <v>1021</v>
@@ -27148,7 +27144,7 @@
         <v>1032</v>
       </c>
       <c r="C21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D21">
         <v>1022</v>
@@ -27187,7 +27183,7 @@
         <v>1033</v>
       </c>
       <c r="C22" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D22">
         <v>1023</v>
@@ -27226,7 +27222,7 @@
         <v>1034</v>
       </c>
       <c r="C23" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D23">
         <v>1024</v>
@@ -27265,7 +27261,7 @@
         <v>1035</v>
       </c>
       <c r="C24" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D24">
         <v>1025</v>
@@ -27304,7 +27300,7 @@
         <v>1036</v>
       </c>
       <c r="C25" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D25">
         <v>1026</v>
@@ -27343,7 +27339,7 @@
         <v>1037</v>
       </c>
       <c r="C26" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D26">
         <v>1027</v>
@@ -27382,7 +27378,7 @@
         <v>1038</v>
       </c>
       <c r="C27" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D27">
         <v>1028</v>
@@ -27421,7 +27417,7 @@
         <v>1041</v>
       </c>
       <c r="C28" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D28">
         <v>1031</v>
@@ -27460,7 +27456,7 @@
         <v>1042</v>
       </c>
       <c r="C29" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D29">
         <v>1032</v>
@@ -27499,7 +27495,7 @@
         <v>1043</v>
       </c>
       <c r="C30" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D30">
         <v>1033</v>
@@ -27538,7 +27534,7 @@
         <v>1044</v>
       </c>
       <c r="C31" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D31">
         <v>1034</v>
@@ -27577,7 +27573,7 @@
         <v>1045</v>
       </c>
       <c r="C32" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D32">
         <v>1035</v>
@@ -27616,7 +27612,7 @@
         <v>1046</v>
       </c>
       <c r="C33" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D33">
         <v>1036</v>
@@ -27655,7 +27651,7 @@
         <v>1047</v>
       </c>
       <c r="C34" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D34">
         <v>1037</v>
@@ -27694,7 +27690,7 @@
         <v>1048</v>
       </c>
       <c r="C35" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D35">
         <v>1038</v>
@@ -27733,7 +27729,7 @@
         <v>1051</v>
       </c>
       <c r="C36" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D36">
         <v>1041</v>
@@ -27772,7 +27768,7 @@
         <v>1052</v>
       </c>
       <c r="C37" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D37">
         <v>1042</v>
@@ -27811,7 +27807,7 @@
         <v>1053</v>
       </c>
       <c r="C38" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D38">
         <v>1043</v>
@@ -27850,7 +27846,7 @@
         <v>1054</v>
       </c>
       <c r="C39" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D39">
         <v>1044</v>
@@ -27889,7 +27885,7 @@
         <v>1055</v>
       </c>
       <c r="C40" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D40">
         <v>1045</v>
@@ -27928,7 +27924,7 @@
         <v>1056</v>
       </c>
       <c r="C41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D41">
         <v>1046</v>
@@ -27967,7 +27963,7 @@
         <v>1057</v>
       </c>
       <c r="C42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D42">
         <v>1047</v>
@@ -28006,7 +28002,7 @@
         <v>1058</v>
       </c>
       <c r="C43" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D43">
         <v>1048</v>
@@ -28045,7 +28041,7 @@
         <v>1061</v>
       </c>
       <c r="C44" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D44">
         <v>1051</v>
@@ -28084,7 +28080,7 @@
         <v>1062</v>
       </c>
       <c r="C45" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D45">
         <v>1052</v>
@@ -28123,7 +28119,7 @@
         <v>1063</v>
       </c>
       <c r="C46" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D46">
         <v>1053</v>
@@ -28162,7 +28158,7 @@
         <v>1064</v>
       </c>
       <c r="C47" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D47">
         <v>1054</v>
@@ -28201,7 +28197,7 @@
         <v>1065</v>
       </c>
       <c r="C48" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D48">
         <v>1055</v>
@@ -28240,7 +28236,7 @@
         <v>1066</v>
       </c>
       <c r="C49" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D49">
         <v>1056</v>
@@ -28279,7 +28275,7 @@
         <v>1067</v>
       </c>
       <c r="C50" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D50">
         <v>1057</v>
@@ -28318,7 +28314,7 @@
         <v>1068</v>
       </c>
       <c r="C51" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D51">
         <v>1058</v>
@@ -28357,7 +28353,7 @@
         <v>1071</v>
       </c>
       <c r="C52" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D52">
         <v>1061</v>
@@ -28396,7 +28392,7 @@
         <v>1072</v>
       </c>
       <c r="C53" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D53">
         <v>1062</v>
@@ -28435,7 +28431,7 @@
         <v>1073</v>
       </c>
       <c r="C54" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D54">
         <v>1063</v>
@@ -28474,7 +28470,7 @@
         <v>1074</v>
       </c>
       <c r="C55" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D55">
         <v>1064</v>
@@ -28513,7 +28509,7 @@
         <v>1075</v>
       </c>
       <c r="C56" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D56">
         <v>1065</v>
@@ -28552,7 +28548,7 @@
         <v>1076</v>
       </c>
       <c r="C57" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D57">
         <v>1066</v>
@@ -28591,7 +28587,7 @@
         <v>1077</v>
       </c>
       <c r="C58" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D58">
         <v>1067</v>
@@ -28630,7 +28626,7 @@
         <v>1078</v>
       </c>
       <c r="C59" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D59">
         <v>1068</v>
@@ -28669,7 +28665,7 @@
         <v>1081</v>
       </c>
       <c r="C60" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D60">
         <v>1071</v>
@@ -28708,7 +28704,7 @@
         <v>1082</v>
       </c>
       <c r="C61" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D61">
         <v>1072</v>
@@ -28747,7 +28743,7 @@
         <v>1083</v>
       </c>
       <c r="C62" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D62">
         <v>1073</v>
@@ -28786,7 +28782,7 @@
         <v>1084</v>
       </c>
       <c r="C63" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D63">
         <v>1074</v>
@@ -28825,7 +28821,7 @@
         <v>1085</v>
       </c>
       <c r="C64" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D64">
         <v>1075</v>
@@ -28864,7 +28860,7 @@
         <v>1086</v>
       </c>
       <c r="C65" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D65">
         <v>1076</v>
@@ -28903,7 +28899,7 @@
         <v>1087</v>
       </c>
       <c r="C66" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D66">
         <v>1077</v>
@@ -28942,7 +28938,7 @@
         <v>1088</v>
       </c>
       <c r="C67" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D67">
         <v>1078</v>
@@ -28981,7 +28977,7 @@
         <v>1091</v>
       </c>
       <c r="C68" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D68">
         <v>1081</v>
@@ -29020,7 +29016,7 @@
         <v>1092</v>
       </c>
       <c r="C69" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D69">
         <v>1082</v>
@@ -29059,7 +29055,7 @@
         <v>1093</v>
       </c>
       <c r="C70" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D70">
         <v>1083</v>
@@ -29098,7 +29094,7 @@
         <v>1094</v>
       </c>
       <c r="C71" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D71">
         <v>1084</v>
@@ -29137,7 +29133,7 @@
         <v>1095</v>
       </c>
       <c r="C72" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D72">
         <v>1085</v>
@@ -29176,7 +29172,7 @@
         <v>1096</v>
       </c>
       <c r="C73" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D73">
         <v>1086</v>
@@ -29215,7 +29211,7 @@
         <v>1097</v>
       </c>
       <c r="C74" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D74">
         <v>1087</v>
@@ -29254,7 +29250,7 @@
         <v>1098</v>
       </c>
       <c r="C75" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D75">
         <v>1088</v>
@@ -29293,7 +29289,7 @@
         <v>1101</v>
       </c>
       <c r="C76" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D76">
         <v>1091</v>
@@ -29332,7 +29328,7 @@
         <v>1102</v>
       </c>
       <c r="C77" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D77">
         <v>1092</v>
@@ -29371,7 +29367,7 @@
         <v>1103</v>
       </c>
       <c r="C78" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D78">
         <v>1093</v>
@@ -29410,7 +29406,7 @@
         <v>1104</v>
       </c>
       <c r="C79" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D79">
         <v>1094</v>
@@ -29449,7 +29445,7 @@
         <v>1105</v>
       </c>
       <c r="C80" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D80">
         <v>1095</v>
@@ -29488,7 +29484,7 @@
         <v>1106</v>
       </c>
       <c r="C81" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D81">
         <v>1096</v>
@@ -29527,7 +29523,7 @@
         <v>1107</v>
       </c>
       <c r="C82" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D82">
         <v>1097</v>
@@ -29566,7 +29562,7 @@
         <v>1108</v>
       </c>
       <c r="C83" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D83">
         <v>1098</v>
@@ -29605,7 +29601,7 @@
         <v>1111</v>
       </c>
       <c r="C84" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D84">
         <v>1101</v>
@@ -29644,7 +29640,7 @@
         <v>1112</v>
       </c>
       <c r="C85" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D85">
         <v>1102</v>
@@ -29683,7 +29679,7 @@
         <v>1113</v>
       </c>
       <c r="C86" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D86">
         <v>1103</v>
@@ -29722,7 +29718,7 @@
         <v>1114</v>
       </c>
       <c r="C87" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D87">
         <v>1104</v>
@@ -29761,7 +29757,7 @@
         <v>1115</v>
       </c>
       <c r="C88" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D88">
         <v>1105</v>
@@ -29800,7 +29796,7 @@
         <v>1116</v>
       </c>
       <c r="C89" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D89">
         <v>1106</v>
@@ -29839,7 +29835,7 @@
         <v>1117</v>
       </c>
       <c r="C90" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D90">
         <v>1107</v>
@@ -29878,7 +29874,7 @@
         <v>1118</v>
       </c>
       <c r="C91" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D91">
         <v>1108</v>
@@ -29934,7 +29930,7 @@
         <v>191</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>192</v>
@@ -29963,7 +29959,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -29992,7 +29988,7 @@
         <v>195</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>196</v>
@@ -30021,7 +30017,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -30050,7 +30046,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
@@ -30079,7 +30075,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C6" s="3">
         <v>3</v>
@@ -30108,7 +30104,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C7" s="3">
         <v>4</v>
@@ -30137,7 +30133,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -30166,7 +30162,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
@@ -30195,7 +30191,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C10" s="3">
         <v>3</v>
@@ -30224,7 +30220,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C11" s="3">
         <v>4</v>
@@ -30253,7 +30249,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -30282,7 +30278,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
@@ -30311,7 +30307,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C14" s="3">
         <v>3</v>
@@ -30340,7 +30336,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C15" s="3">
         <v>4</v>
@@ -30369,7 +30365,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -30398,7 +30394,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
@@ -30427,7 +30423,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C18" s="3">
         <v>3</v>
@@ -30456,7 +30452,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C19" s="3">
         <v>4</v>
@@ -30485,7 +30481,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -30514,7 +30510,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
@@ -30543,7 +30539,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C22" s="3">
         <v>3</v>
@@ -30572,7 +30568,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C23" s="3">
         <v>4</v>
@@ -30601,7 +30597,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -30630,7 +30626,7 @@
         <v>6</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C25" s="3">
         <v>2</v>
@@ -30659,7 +30655,7 @@
         <v>6</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C26" s="3">
         <v>3</v>
@@ -30688,7 +30684,7 @@
         <v>6</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C27" s="3">
         <v>4</v>
@@ -30717,7 +30713,7 @@
         <v>7</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -30746,7 +30742,7 @@
         <v>7</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C29" s="3">
         <v>2</v>
@@ -30775,7 +30771,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C30" s="3">
         <v>3</v>
@@ -30804,7 +30800,7 @@
         <v>7</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C31" s="3">
         <v>4</v>
@@ -30833,7 +30829,7 @@
         <v>8</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -30862,7 +30858,7 @@
         <v>8</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C33" s="3">
         <v>2</v>
@@ -30891,7 +30887,7 @@
         <v>8</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C34" s="3">
         <v>3</v>
@@ -30920,7 +30916,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C35" s="3">
         <v>4</v>
@@ -30949,7 +30945,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
@@ -30978,7 +30974,7 @@
         <v>9</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C37" s="3">
         <v>2</v>
@@ -31007,7 +31003,7 @@
         <v>9</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C38" s="3">
         <v>3</v>
@@ -31036,7 +31032,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C39" s="3">
         <v>4</v>
@@ -31065,7 +31061,7 @@
         <v>10</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -31094,7 +31090,7 @@
         <v>10</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C41" s="3">
         <v>2</v>
@@ -31123,7 +31119,7 @@
         <v>10</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C42" s="3">
         <v>3</v>
@@ -31152,7 +31148,7 @@
         <v>10</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C43" s="3">
         <v>4</v>
@@ -31181,7 +31177,7 @@
         <v>11</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -31210,7 +31206,7 @@
         <v>11</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C45" s="3">
         <v>2</v>
@@ -31239,7 +31235,7 @@
         <v>11</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C46" s="3">
         <v>3</v>
@@ -31268,7 +31264,7 @@
         <v>11</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C47" s="3">
         <v>4</v>
@@ -31297,7 +31293,7 @@
         <v>12</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
@@ -31326,7 +31322,7 @@
         <v>12</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C49" s="3">
         <v>2</v>
@@ -31355,7 +31351,7 @@
         <v>12</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C50" s="3">
         <v>3</v>
@@ -31384,7 +31380,7 @@
         <v>12</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C51" s="3">
         <v>4</v>
@@ -31449,7 +31445,7 @@
         <v>186</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -31457,7 +31453,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -31465,7 +31461,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -31473,7 +31469,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -31481,7 +31477,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -31489,7 +31485,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -31497,7 +31493,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -31505,7 +31501,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -31513,7 +31509,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -31521,7 +31517,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -31529,7 +31525,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -31537,7 +31533,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -31545,7 +31541,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/eqp.装备.xlsx
+++ b/Excel/eqp.装备.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446E2ECD-E5A0-46A9-AC61-0402E2445783}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D1ED27-2E5A-4372-BF8B-91C955BC8EF5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="537">
   <si>
     <t>sheet名</t>
   </si>
@@ -1886,6 +1886,14 @@
   </si>
   <si>
     <t>装备套装的表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expSum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总经验</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2391,7 +2399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -25194,18 +25202,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA1524C-D921-42AD-AD32-8424EED816C2}">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>107</v>
       </c>
@@ -25218,8 +25228,11 @@
       <c r="D1" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -25232,8 +25245,11 @@
       <c r="D2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>105</v>
       </c>
@@ -25246,845 +25262,1088 @@
       <c r="D3" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="E3" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="E4" s="4">
+        <f>SUM(D$4:D4)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="E5" s="4">
+        <f>SUM(D$4:D5)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="E6" s="4">
+        <f>SUM(D$4:D6)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>4</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="E7" s="4">
+        <f>SUM(D$4:D7)</f>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>5</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="E8" s="4">
+        <f>SUM(D$4:D8)</f>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>6</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>85</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>7</v>
-      </c>
-      <c r="D10">
+      <c r="E9" s="4">
+        <f>SUM(D$4:D9)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="E10" s="4">
+        <f>SUM(D$4:D10)</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>8</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>8</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>120</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="E11" s="4">
+        <f>SUM(D$4:D11)</f>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>9</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>9</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>140</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="E12" s="4">
+        <f>SUM(D$4:D12)</f>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>10</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>10</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>165</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="E13" s="4">
+        <f>SUM(D$4:D13)</f>
+        <v>825</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>11</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>11</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>190</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="E14" s="4">
+        <f>SUM(D$4:D14)</f>
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>12</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>12</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>220</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="E15" s="4">
+        <f>SUM(D$4:D15)</f>
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>13</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>13</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>250</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="E16" s="4">
+        <f>SUM(D$4:D16)</f>
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>14</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>14</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>285</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="E17" s="4">
+        <f>SUM(D$4:D17)</f>
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>15</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>15</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>320</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="E18" s="4">
+        <f>SUM(D$4:D18)</f>
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
         <v>16</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>16</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>16</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>360</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="E19" s="4">
+        <f>SUM(D$4:D19)</f>
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>17</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>17</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>405</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="E20" s="4">
+        <f>SUM(D$4:D20)</f>
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>18</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>18</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <v>18</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>455</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="E21" s="4">
+        <f>SUM(D$4:D21)</f>
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
         <v>19</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>19</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>19</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>510</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="E22" s="4">
+        <f>SUM(D$4:D22)</f>
+        <v>3820</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
         <v>20</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>20</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>20</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>570</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="E23" s="4">
+        <f>SUM(D$4:D23)</f>
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
         <v>21</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>21</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>21</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>635</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="E24" s="4">
+        <f>SUM(D$4:D24)</f>
+        <v>5025</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
         <v>22</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <v>22</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>22</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>705</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="E25" s="4">
+        <f>SUM(D$4:D25)</f>
+        <v>5730</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
         <v>23</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
         <v>23</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>23</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <v>785</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="E26" s="4">
+        <f>SUM(D$4:D26)</f>
+        <v>6515</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
         <v>24</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
         <v>24</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>24</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
         <v>870</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="E27" s="4">
+        <f>SUM(D$4:D27)</f>
+        <v>7385</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
         <v>25</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="3">
         <v>25</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>25</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>965</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="E28" s="4">
+        <f>SUM(D$4:D28)</f>
+        <v>8350</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
         <v>26</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3">
         <v>26</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>26</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>1070</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="E29" s="4">
+        <f>SUM(D$4:D29)</f>
+        <v>9420</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
         <v>27</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <v>27</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>27</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
         <v>1185</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="E30" s="4">
+        <f>SUM(D$4:D30)</f>
+        <v>10605</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
         <v>28</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
         <v>28</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>28</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>1310</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="E31" s="4">
+        <f>SUM(D$4:D31)</f>
+        <v>11915</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
         <v>29</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="3">
         <v>29</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>29</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
         <v>1450</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="E32" s="4">
+        <f>SUM(D$4:D32)</f>
+        <v>13365</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
         <v>30</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="3">
         <v>30</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <v>30</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
         <v>1605</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="E33" s="4">
+        <f>SUM(D$4:D33)</f>
+        <v>14970</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
         <v>31</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="3">
         <v>31</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="3">
         <v>31</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="3">
         <v>1775</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="E34" s="4">
+        <f>SUM(D$4:D34)</f>
+        <v>16745</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
         <v>32</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="3">
         <v>32</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <v>32</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="3">
         <v>1960</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="E35" s="4">
+        <f>SUM(D$4:D35)</f>
+        <v>18705</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
         <v>33</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="3">
         <v>33</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="3">
         <v>33</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="3">
         <v>2165</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="E36" s="4">
+        <f>SUM(D$4:D36)</f>
+        <v>20870</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
         <v>34</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="3">
         <v>34</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="3">
         <v>34</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="3">
         <v>2390</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="E37" s="4">
+        <f>SUM(D$4:D37)</f>
+        <v>23260</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
         <v>35</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="3">
         <v>35</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="3">
         <v>35</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="3">
         <v>2640</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="E38" s="4">
+        <f>SUM(D$4:D38)</f>
+        <v>25900</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
         <v>36</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="3">
         <v>36</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="3">
         <v>36</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="3">
         <v>2915</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="E39" s="4">
+        <f>SUM(D$4:D39)</f>
+        <v>28815</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
         <v>37</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="3">
         <v>37</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="3">
         <v>37</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="3">
         <v>3215</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="E40" s="4">
+        <f>SUM(D$4:D40)</f>
+        <v>32030</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
         <v>38</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="3">
         <v>38</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="3">
         <v>38</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="3">
         <v>3545</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="E41" s="4">
+        <f>SUM(D$4:D41)</f>
+        <v>35575</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
         <v>39</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="3">
         <v>39</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="3">
         <v>39</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="3">
         <v>3910</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="E42" s="4">
+        <f>SUM(D$4:D42)</f>
+        <v>39485</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
         <v>40</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="3">
         <v>40</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="3">
         <v>40</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="3">
         <v>4310</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="E43" s="4">
+        <f>SUM(D$4:D43)</f>
+        <v>43795</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
         <v>41</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="3">
         <v>41</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="3">
         <v>41</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="3">
         <v>4750</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="E44" s="4">
+        <f>SUM(D$4:D44)</f>
+        <v>48545</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
         <v>42</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="3">
         <v>42</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="3">
         <v>42</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="3">
         <v>5235</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="E45" s="4">
+        <f>SUM(D$4:D45)</f>
+        <v>53780</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
         <v>43</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="3">
         <v>43</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="3">
         <v>43</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="3">
         <v>5765</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="E46" s="4">
+        <f>SUM(D$4:D46)</f>
+        <v>59545</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
         <v>44</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="3">
         <v>44</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="3">
         <v>44</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="3">
         <v>6350</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="E47" s="4">
+        <f>SUM(D$4:D47)</f>
+        <v>65895</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
         <v>45</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="3">
         <v>45</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="3">
         <v>45</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="3">
         <v>6995</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="E48" s="4">
+        <f>SUM(D$4:D48)</f>
+        <v>72890</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
         <v>46</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="3">
         <v>46</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="3">
         <v>46</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="3">
         <v>7705</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="E49" s="4">
+        <f>SUM(D$4:D49)</f>
+        <v>80595</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
         <v>47</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="3">
         <v>47</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="3">
         <v>47</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="3">
         <v>8485</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="E50" s="4">
+        <f>SUM(D$4:D50)</f>
+        <v>89080</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
         <v>48</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="3">
         <v>48</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="3">
         <v>48</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="3">
         <v>9340</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="E51" s="4">
+        <f>SUM(D$4:D51)</f>
+        <v>98420</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
         <v>49</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="3">
         <v>49</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="3">
         <v>49</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="3">
         <v>10285</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="E52" s="4">
+        <f>SUM(D$4:D52)</f>
+        <v>108705</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
         <v>50</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="3">
         <v>50</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="3">
         <v>50</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="3">
         <v>11320</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="E53" s="4">
+        <f>SUM(D$4:D53)</f>
+        <v>120025</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
         <v>51</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="3">
         <v>51</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="3">
         <v>51</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="3">
         <v>12460</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="E54" s="4">
+        <f>SUM(D$4:D54)</f>
+        <v>132485</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
         <v>52</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="3">
         <v>52</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="3">
         <v>52</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="3">
         <v>13715</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="E55" s="4">
+        <f>SUM(D$4:D55)</f>
+        <v>146200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
         <v>53</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="3">
         <v>53</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="3">
         <v>53</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="3">
         <v>15095</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57">
+      <c r="E56" s="4">
+        <f>SUM(D$4:D56)</f>
+        <v>161295</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
         <v>54</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="3">
         <v>54</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="3">
         <v>54</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="3">
         <v>16615</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="E57" s="4">
+        <f>SUM(D$4:D57)</f>
+        <v>177910</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
         <v>55</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="3">
         <v>55</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="3">
         <v>55</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="3">
         <v>18285</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="E58" s="4">
+        <f>SUM(D$4:D58)</f>
+        <v>196195</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
         <v>56</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="3">
         <v>56</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="3">
         <v>56</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="3">
         <v>20120</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="E59" s="4">
+        <f>SUM(D$4:D59)</f>
+        <v>216315</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
         <v>57</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="3">
         <v>57</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="3">
         <v>57</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="3">
         <v>22140</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="E60" s="4">
+        <f>SUM(D$4:D60)</f>
+        <v>238455</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
         <v>58</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="3">
         <v>58</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="3">
         <v>58</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="3">
         <v>24365</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="E61" s="4">
+        <f>SUM(D$4:D61)</f>
+        <v>262820</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
         <v>59</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="3">
         <v>59</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="3">
         <v>59</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="3">
         <v>26810</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63">
+      <c r="E62" s="4">
+        <f>SUM(D$4:D62)</f>
+        <v>289630</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
         <v>60</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="3">
         <v>60</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="3">
         <v>60</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="3">
         <v>29500</v>
+      </c>
+      <c r="E63" s="4">
+        <f>SUM(D$4:D63)</f>
+        <v>319130</v>
       </c>
     </row>
   </sheetData>
@@ -26436,8 +26695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B260827-9ED3-43B5-8922-828B78367E4F}">
   <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/eqp.装备.xlsx
+++ b/Excel/eqp.装备.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1C1571-AB4C-4A3A-BB06-71C6805E8B1F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C86D41F-FACF-402A-A155-70DBBA216090}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="562">
   <si>
     <t>sheet名</t>
   </si>
@@ -1974,6 +1974,26 @@
   </si>
   <si>
     <t>四阶段等级Max</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>quality</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>equiptIds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:a&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2479,7 +2499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B7" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G14"/>
     </sheetView>
   </sheetViews>
@@ -8128,7 +8148,7 @@
   <dimension ref="A1:AQ99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AL36" sqref="AL36"/>
+      <selection activeCell="B4" sqref="B4:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -29794,136 +29814,616 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2763A1D6-74E3-436A-88C7-3089794246CB}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.375" customWidth="1"/>
     <col min="2" max="2" width="24.375" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C3" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="str">
+        <f>F4&amp;","&amp;G4&amp;","&amp;H4&amp;","&amp;I4&amp;","&amp;J4&amp;","&amp;K4&amp;","&amp;L4&amp;","&amp;M4</f>
+        <v>1001,1002,1003,1004,1005,1006,1007,1008</v>
+      </c>
+      <c r="F4">
+        <v>1001</v>
+      </c>
+      <c r="G4">
+        <v>1002</v>
+      </c>
+      <c r="H4">
+        <v>1003</v>
+      </c>
+      <c r="I4">
+        <v>1004</v>
+      </c>
+      <c r="J4">
+        <v>1005</v>
+      </c>
+      <c r="K4">
+        <v>1006</v>
+      </c>
+      <c r="L4">
+        <v>1007</v>
+      </c>
+      <c r="M4">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="str">
+        <f t="shared" ref="D5:D15" si="0">F5&amp;","&amp;G5&amp;","&amp;H5&amp;","&amp;I5&amp;","&amp;J5&amp;","&amp;K5&amp;","&amp;L5&amp;","&amp;M5</f>
+        <v>1011,1012,1013,1014,1015,1016,1017,1018</v>
+      </c>
+      <c r="F5">
+        <f>F4+10</f>
+        <v>1011</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:M5" si="1">G4+10</f>
+        <v>1012</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>1013</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>1014</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>1015</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>1016</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>1017</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1021,1022,1023,1024,1025,1026,1027,1028</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F15" si="2">F5+10</f>
+        <v>1021</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G15" si="3">G5+10</f>
+        <v>1022</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H15" si="4">H5+10</f>
+        <v>1023</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:I15" si="5">I5+10</f>
+        <v>1024</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6:J15" si="6">J5+10</f>
+        <v>1025</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:K15" si="7">K5+10</f>
+        <v>1026</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6:L15" si="8">L5+10</f>
+        <v>1027</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M15" si="9">M5+10</f>
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1031,1032,1033,1034,1035,1036,1037,1038</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>1031</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>1032</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="4"/>
+        <v>1033</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="5"/>
+        <v>1034</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="6"/>
+        <v>1035</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="7"/>
+        <v>1036</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="8"/>
+        <v>1037</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="9"/>
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1041,1042,1043,1044,1045,1046,1047,1048</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>1041</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>1042</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="4"/>
+        <v>1043</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="5"/>
+        <v>1044</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="6"/>
+        <v>1045</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="7"/>
+        <v>1046</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="8"/>
+        <v>1047</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="9"/>
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C9" s="3">
+        <v>3</v>
+      </c>
+      <c r="D9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1051,1052,1053,1054,1055,1056,1057,1058</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>1051</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>1052</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>1053</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="5"/>
+        <v>1054</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="6"/>
+        <v>1055</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="7"/>
+        <v>1056</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="8"/>
+        <v>1057</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="9"/>
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C10" s="3">
+        <v>4</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1061,1062,1063,1064,1065,1066,1067,1068</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>1061</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>1062</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>1063</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="5"/>
+        <v>1064</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="6"/>
+        <v>1065</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="7"/>
+        <v>1066</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="8"/>
+        <v>1067</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="9"/>
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C11" s="3">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1071,1072,1073,1074,1075,1076,1077,1078</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>1071</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>1072</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>1073</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="5"/>
+        <v>1074</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="6"/>
+        <v>1075</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="7"/>
+        <v>1076</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="8"/>
+        <v>1077</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="9"/>
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C12" s="3">
+        <v>4</v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1081,1082,1083,1084,1085,1086,1087,1088</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>1081</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>1082</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>1083</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="5"/>
+        <v>1084</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="6"/>
+        <v>1085</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="7"/>
+        <v>1086</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="8"/>
+        <v>1087</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="9"/>
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C13" s="3">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1091,1092,1093,1094,1095,1096,1097,1098</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>1091</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>1092</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>1093</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="5"/>
+        <v>1094</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="6"/>
+        <v>1095</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="7"/>
+        <v>1096</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="8"/>
+        <v>1097</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="9"/>
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C14" s="3">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1101,1102,1103,1104,1105,1106,1107,1108</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>1101</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>1102</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="4"/>
+        <v>1103</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="5"/>
+        <v>1104</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="6"/>
+        <v>1105</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="7"/>
+        <v>1106</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="8"/>
+        <v>1107</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="9"/>
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>515</v>
+      </c>
+      <c r="C15" s="3">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1111,1112,1113,1114,1115,1116,1117,1118</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>1111</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>1112</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="4"/>
+        <v>1113</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="5"/>
+        <v>1114</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="6"/>
+        <v>1115</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="7"/>
+        <v>1116</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="8"/>
+        <v>1117</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="9"/>
+        <v>1118</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/eqp.装备.xlsx
+++ b/Excel/eqp.装备.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0325A132-232D-4344-A5A1-F4207EAAC876}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB7D765-BCAF-41B7-88FD-1E39E1B591D7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8155,8 +8155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BEF06C-8A24-4C18-BB25-9336D50B01F5}">
   <dimension ref="A1:AR99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AL13" sqref="AL13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/eqp.装备.xlsx
+++ b/Excel/eqp.装备.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB7D765-BCAF-41B7-88FD-1E39E1B591D7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0325A132-232D-4344-A5A1-F4207EAAC876}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8155,8 +8155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BEF06C-8A24-4C18-BB25-9336D50B01F5}">
   <dimension ref="A1:AR99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AL13" sqref="AL13"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/eqp.装备.xlsx
+++ b/Excel/eqp.装备.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="12630" activeTab="4"/>
+    <workbookView windowWidth="28080" windowHeight="12630" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1638,12 +1638,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1666,23 +1666,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1696,38 +1681,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1755,6 +1710,29 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -1762,8 +1740,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1776,16 +1763,31 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1799,41 +1801,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
-      <sz val="11"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1851,8 +1836,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1873,7 +1866,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1885,7 +1896,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1897,7 +1914,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1909,7 +1926,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1921,7 +1938,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1933,19 +2004,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1957,91 +2052,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797174"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFF6600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2053,31 +2064,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="0" tint="-0.34934537797174"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2106,11 +2093,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2119,17 +2112,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2146,6 +2128,56 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2169,223 +2201,178 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="1" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -41655,8 +41642,8 @@
   <sheetPr/>
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E140" sqref="E140"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -43889,7 +43876,7 @@
   <sheetPr/>
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M4" sqref="M4:N4"/>
     </sheetView>
   </sheetViews>
@@ -47722,7 +47709,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:E26"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/eqp.装备.xlsx
+++ b/Excel/eqp.装备.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="12630" activeTab="3"/>
+    <workbookView windowWidth="28080" windowHeight="12630" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1638,12 +1638,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1666,8 +1666,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1681,8 +1696,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1710,29 +1755,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -1740,17 +1762,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1763,15 +1776,24 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1785,19 +1807,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <strike/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1805,20 +1834,6 @@
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1836,16 +1851,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1866,7 +1873,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1878,19 +1975,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.34934537797174"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1902,13 +2011,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1920,61 +2041,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFF6600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1986,85 +2077,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797174"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2093,17 +2106,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2112,6 +2119,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2128,56 +2146,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2201,178 +2169,223 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="1" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -41642,8 +41655,8 @@
   <sheetPr/>
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -43876,7 +43889,7 @@
   <sheetPr/>
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M4" sqref="M4:N4"/>
     </sheetView>
   </sheetViews>
@@ -47709,7 +47722,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="D24" sqref="D24:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/eqp.装备.xlsx
+++ b/Excel/eqp.装备.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44A2525-79F7-4699-9919-565B3C97F1B8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D023FC-6FC5-45DF-8D33-2A3F5EDEABCD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1927" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1927" uniqueCount="527">
   <si>
     <t>sheet名</t>
   </si>
@@ -1578,6 +1578,50 @@
   <si>
     <t>精炼属性3槽</t>
   </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>def</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>shield</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>shieldRg</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dash</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>crit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>deCrit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>block</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmgDec</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmgInc</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -39437,7 +39481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -42093,7 +42137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I93" sqref="I93"/>
     </sheetView>
   </sheetViews>
@@ -45500,8 +45544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -45610,7 +45654,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>119</v>
+        <v>516</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -45622,7 +45666,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="4">
-        <v>1500</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -45639,10 +45683,10 @@
         <v>4</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>118</v>
+        <v>518</v>
       </c>
       <c r="F5" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>
@@ -45651,7 +45695,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="4">
-        <v>100</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -45668,10 +45712,10 @@
         <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>113</v>
+        <v>519</v>
       </c>
       <c r="F6" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -45680,7 +45724,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="4">
-        <v>200</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -45697,7 +45741,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>114</v>
+        <v>520</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -45709,7 +45753,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>4000</v>
+        <v>920</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -45726,7 +45770,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>119</v>
+        <v>516</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -45738,7 +45782,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="4">
-        <v>3000</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -45755,10 +45799,10 @@
         <v>4</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>118</v>
+        <v>518</v>
       </c>
       <c r="F9" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -45767,7 +45811,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="4">
-        <v>200</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -45784,7 +45828,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>113</v>
+        <v>521</v>
       </c>
       <c r="F10" s="4">
         <v>7</v>
@@ -45796,7 +45840,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="4">
-        <v>400</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -45813,10 +45857,10 @@
         <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>122</v>
+        <v>522</v>
       </c>
       <c r="F11" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
@@ -45825,7 +45869,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="4">
-        <v>160</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -45842,7 +45886,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>119</v>
+        <v>517</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -45854,7 +45898,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="4">
-        <v>6000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -45871,7 +45915,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>118</v>
+        <v>516</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -45883,7 +45927,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="4">
-        <v>400</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -45900,10 +45944,10 @@
         <v>6</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>113</v>
+        <v>523</v>
       </c>
       <c r="F14" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G14" s="4">
         <v>0</v>
@@ -45912,7 +45956,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="4">
-        <v>800</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -45929,7 +45973,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>114</v>
+        <v>524</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -45941,7 +45985,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="4">
-        <v>16000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -45958,7 +46002,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>119</v>
+        <v>517</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
@@ -45970,7 +46014,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="4">
-        <v>12000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -45987,7 +46031,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>118</v>
+        <v>518</v>
       </c>
       <c r="F17" s="4">
         <v>1</v>
@@ -45999,7 +46043,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="4">
-        <v>800</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -46016,19 +46060,19 @@
         <v>6</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>113</v>
+        <v>525</v>
       </c>
       <c r="F18" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="4">
         <v>0</v>
       </c>
       <c r="I18" s="4">
-        <v>1600</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -46045,19 +46089,19 @@
         <v>8</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>122</v>
+        <v>526</v>
       </c>
       <c r="F19" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="4">
         <v>0</v>
       </c>
       <c r="I19" s="4">
-        <v>640</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -46074,7 +46118,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>119</v>
+        <v>516</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
@@ -46086,7 +46130,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="4">
-        <v>24000</v>
+        <v>98437</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -46103,10 +46147,10 @@
         <v>4</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>118</v>
+        <v>518</v>
       </c>
       <c r="F21" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G21" s="4">
         <v>0</v>
@@ -46115,7 +46159,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="4">
-        <v>1600</v>
+        <v>13072</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -46132,10 +46176,10 @@
         <v>6</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>113</v>
+        <v>519</v>
       </c>
       <c r="F22" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G22" s="4">
         <v>0</v>
@@ -46144,7 +46188,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="4">
-        <v>3200</v>
+        <v>437500</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -46161,7 +46205,7 @@
         <v>8</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>114</v>
+        <v>520</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
@@ -46173,7 +46217,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="4">
-        <v>64000</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -46190,7 +46234,7 @@
         <v>2</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>119</v>
+        <v>516</v>
       </c>
       <c r="F24" s="4">
         <v>1</v>
@@ -46202,7 +46246,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="4">
-        <v>48000</v>
+        <v>131250</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -46219,10 +46263,10 @@
         <v>4</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>118</v>
+        <v>518</v>
       </c>
       <c r="F25" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G25" s="4">
         <v>0</v>
@@ -46231,7 +46275,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="4">
-        <v>3200</v>
+        <v>17430</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -46248,7 +46292,7 @@
         <v>6</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>113</v>
+        <v>521</v>
       </c>
       <c r="F26" s="4">
         <v>7</v>
@@ -46260,7 +46304,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="4">
-        <v>6400</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -46277,10 +46321,10 @@
         <v>8</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>122</v>
+        <v>522</v>
       </c>
       <c r="F27" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G27" s="4">
         <v>0</v>
@@ -46289,7 +46333,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="4">
-        <v>2560</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -46306,7 +46350,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>119</v>
+        <v>517</v>
       </c>
       <c r="F28" s="4">
         <v>1</v>
@@ -46318,7 +46362,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="4">
-        <v>96000</v>
+        <v>10850</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -46335,7 +46379,7 @@
         <v>4</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>118</v>
+        <v>516</v>
       </c>
       <c r="F29" s="4">
         <v>1</v>
@@ -46347,7 +46391,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="4">
-        <v>6400</v>
+        <v>164062</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -46364,10 +46408,10 @@
         <v>6</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>113</v>
+        <v>523</v>
       </c>
       <c r="F30" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G30" s="4">
         <v>0</v>
@@ -46376,7 +46420,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="4">
-        <v>12800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -46393,7 +46437,7 @@
         <v>8</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>114</v>
+        <v>524</v>
       </c>
       <c r="F31" s="4">
         <v>1</v>
@@ -46405,7 +46449,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="4">
-        <v>256000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -46422,7 +46466,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>119</v>
+        <v>517</v>
       </c>
       <c r="F32" s="4">
         <v>1</v>
@@ -46434,7 +46478,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="4">
-        <v>192000</v>
+        <v>10850</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -46451,7 +46495,7 @@
         <v>4</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>118</v>
+        <v>518</v>
       </c>
       <c r="F33" s="4">
         <v>1</v>
@@ -46463,7 +46507,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="4">
-        <v>12800</v>
+        <v>21787</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -46480,19 +46524,19 @@
         <v>6</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>113</v>
+        <v>525</v>
       </c>
       <c r="F34" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G34" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="4">
         <v>0</v>
       </c>
       <c r="I34" s="4">
-        <v>25600</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -46509,19 +46553,19 @@
         <v>8</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>122</v>
+        <v>526</v>
       </c>
       <c r="F35" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="4">
         <v>0</v>
       </c>
       <c r="I35" s="4">
-        <v>10240</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -46538,7 +46582,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>119</v>
+        <v>516</v>
       </c>
       <c r="F36" s="4">
         <v>1</v>
@@ -46550,7 +46594,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="4">
-        <v>384000</v>
+        <v>330750</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -46567,10 +46611,10 @@
         <v>4</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>118</v>
+        <v>518</v>
       </c>
       <c r="F37" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G37" s="4">
         <v>0</v>
@@ -46579,7 +46623,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="4">
-        <v>25600</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -46596,10 +46640,10 @@
         <v>6</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>113</v>
+        <v>519</v>
       </c>
       <c r="F38" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G38" s="4">
         <v>0</v>
@@ -46608,7 +46652,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="4">
-        <v>51200</v>
+        <v>1470000</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -46625,7 +46669,7 @@
         <v>8</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>114</v>
+        <v>520</v>
       </c>
       <c r="F39" s="4">
         <v>1</v>
@@ -46637,7 +46681,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="4">
-        <v>1024000</v>
+        <v>29050</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -46654,7 +46698,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>119</v>
+        <v>516</v>
       </c>
       <c r="F40" s="4">
         <v>1</v>
@@ -46666,7 +46710,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="4">
-        <v>768000</v>
+        <v>441000</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -46683,10 +46727,10 @@
         <v>4</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>118</v>
+        <v>518</v>
       </c>
       <c r="F41" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G41" s="4">
         <v>0</v>
@@ -46695,7 +46739,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="4">
-        <v>51200</v>
+        <v>58800</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -46712,7 +46756,7 @@
         <v>6</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>113</v>
+        <v>521</v>
       </c>
       <c r="F42" s="4">
         <v>7</v>
@@ -46724,7 +46768,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="4">
-        <v>102400</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -46741,10 +46785,10 @@
         <v>8</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>122</v>
+        <v>522</v>
       </c>
       <c r="F43" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G43" s="4">
         <v>0</v>
@@ -46753,7 +46797,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="4">
-        <v>40960</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -46770,7 +46814,7 @@
         <v>2</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>119</v>
+        <v>517</v>
       </c>
       <c r="F44" s="4">
         <v>1</v>
@@ -46782,7 +46826,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="4">
-        <v>1536000</v>
+        <v>36750</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -46799,7 +46843,7 @@
         <v>4</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>118</v>
+        <v>516</v>
       </c>
       <c r="F45" s="4">
         <v>1</v>
@@ -46811,7 +46855,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="4">
-        <v>102400</v>
+        <v>551250</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -46828,10 +46872,10 @@
         <v>6</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>113</v>
+        <v>523</v>
       </c>
       <c r="F46" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G46" s="4">
         <v>0</v>
@@ -46840,7 +46884,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="4">
-        <v>204800</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -46857,7 +46901,7 @@
         <v>8</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>114</v>
+        <v>524</v>
       </c>
       <c r="F47" s="4">
         <v>1</v>
@@ -46869,7 +46913,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="4">
-        <v>4096000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -46886,7 +46930,7 @@
         <v>2</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>119</v>
+        <v>517</v>
       </c>
       <c r="F48" s="4">
         <v>1</v>
@@ -46898,7 +46942,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="4">
-        <v>3072000</v>
+        <v>36750</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -46915,7 +46959,7 @@
         <v>4</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>118</v>
+        <v>518</v>
       </c>
       <c r="F49" s="4">
         <v>1</v>
@@ -46927,7 +46971,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="4">
-        <v>204800</v>
+        <v>73500</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -46944,19 +46988,19 @@
         <v>6</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>113</v>
+        <v>525</v>
       </c>
       <c r="F50" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G50" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" s="4">
         <v>0</v>
       </c>
       <c r="I50" s="4">
-        <v>409600</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -46973,19 +47017,19 @@
         <v>8</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>122</v>
+        <v>526</v>
       </c>
       <c r="F51" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G51" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" s="4">
         <v>0</v>
       </c>
       <c r="I51" s="4">
-        <v>163840</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/eqp.装备.xlsx
+++ b/Excel/eqp.装备.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D023FC-6FC5-45DF-8D33-2A3F5EDEABCD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70903D63-997E-4CFC-99ED-368AEE03CEC7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1927" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="531">
   <si>
     <t>sheet名</t>
   </si>
@@ -1622,6 +1622,18 @@
     <t>dmgInc</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>初级精炼石</t>
+  </si>
+  <si>
+    <t>中级精炼石</t>
+  </si>
+  <si>
+    <t>高级精炼石</t>
+  </si>
+  <si>
+    <t>特技精炼石</t>
+  </si>
 </sst>
 </file>
 
@@ -41714,8 +41726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:N4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -41905,8 +41917,8 @@
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
-        <v>15</v>
+      <c r="B4" s="4" t="s">
+        <v>527</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -41961,8 +41973,8 @@
       <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
-        <v>16</v>
+      <c r="B5" s="4" t="s">
+        <v>528</v>
       </c>
       <c r="C5" s="4">
         <v>5</v>
@@ -42017,8 +42029,8 @@
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
-        <v>17</v>
+      <c r="B6" s="4" t="s">
+        <v>529</v>
       </c>
       <c r="C6" s="4">
         <v>15</v>
@@ -42073,8 +42085,8 @@
       <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
-        <v>18</v>
+      <c r="B7" s="4" t="s">
+        <v>530</v>
       </c>
       <c r="C7" s="4">
         <v>25</v>
@@ -45544,7 +45556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>

--- a/Excel/eqp.装备.xlsx
+++ b/Excel/eqp.装备.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70903D63-997E-4CFC-99ED-368AEE03CEC7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C094E1-7ECB-4BFB-B539-808929A612FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1632,7 +1632,8 @@
     <t>高级精炼石</t>
   </si>
   <si>
-    <t>特技精炼石</t>
+    <t>特级精炼石</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -41727,7 +41728,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/eqp.装备.xlsx
+++ b/Excel/eqp.装备.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146F842A-0AD0-4229-96A0-8D16BB48A6E7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21FE81B-5C47-49A7-B529-2BDD1CD433E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="532">
   <si>
     <t>sheet名</t>
   </si>
@@ -1635,6 +1635,10 @@
     <t>特级精炼石</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>最低等级需求</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2519,8 +2523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AD64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2724,7 +2728,7 @@
         <v>340</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>341</v>
+        <v>531</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>342</v>
@@ -16365,7 +16369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A1003"/>
     </sheetView>
   </sheetViews>
@@ -47658,8 +47662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AD104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AC16" sqref="AC16"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -55396,12 +55400,6 @@
       </c>
     </row>
     <row r="85" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="J85">
-        <v>388800</v>
-      </c>
-      <c r="O85">
-        <v>51840</v>
-      </c>
       <c r="T85">
         <v>25920</v>
       </c>
@@ -55413,12 +55411,6 @@
       </c>
     </row>
     <row r="86" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="J86">
-        <v>393600</v>
-      </c>
-      <c r="O86">
-        <v>52480</v>
-      </c>
       <c r="T86">
         <v>26240</v>
       </c>
@@ -55430,12 +55422,6 @@
       </c>
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="J87">
-        <v>398400</v>
-      </c>
-      <c r="O87">
-        <v>53120</v>
-      </c>
       <c r="T87">
         <v>26560</v>
       </c>
@@ -55447,12 +55433,6 @@
       </c>
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="J88">
-        <v>403200</v>
-      </c>
-      <c r="O88">
-        <v>53760</v>
-      </c>
       <c r="T88">
         <v>26880</v>
       </c>
@@ -55464,12 +55444,6 @@
       </c>
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="J89">
-        <v>408000</v>
-      </c>
-      <c r="O89">
-        <v>54400</v>
-      </c>
       <c r="T89">
         <v>27200</v>
       </c>
@@ -55481,12 +55455,6 @@
       </c>
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="J90">
-        <v>412800</v>
-      </c>
-      <c r="O90">
-        <v>55040</v>
-      </c>
       <c r="T90">
         <v>27520</v>
       </c>
@@ -55498,12 +55466,6 @@
       </c>
     </row>
     <row r="91" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="J91">
-        <v>417600</v>
-      </c>
-      <c r="O91">
-        <v>55680</v>
-      </c>
       <c r="T91">
         <v>27840</v>
       </c>
@@ -55515,12 +55477,6 @@
       </c>
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="J92">
-        <v>422400</v>
-      </c>
-      <c r="O92">
-        <v>56320</v>
-      </c>
       <c r="T92">
         <v>28160</v>
       </c>
@@ -55532,12 +55488,6 @@
       </c>
     </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="J93">
-        <v>427200</v>
-      </c>
-      <c r="O93">
-        <v>56960</v>
-      </c>
       <c r="T93">
         <v>28480</v>
       </c>
@@ -55549,12 +55499,6 @@
       </c>
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="J94">
-        <v>499500</v>
-      </c>
-      <c r="O94">
-        <v>66420</v>
-      </c>
       <c r="T94">
         <v>33120</v>
       </c>
@@ -55566,12 +55510,6 @@
       </c>
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="J95">
-        <v>505050</v>
-      </c>
-      <c r="O95">
-        <v>67158</v>
-      </c>
       <c r="T95">
         <v>33488</v>
       </c>
@@ -55583,12 +55521,6 @@
       </c>
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="J96">
-        <v>510600</v>
-      </c>
-      <c r="O96">
-        <v>67896</v>
-      </c>
       <c r="T96">
         <v>33856</v>
       </c>
@@ -55599,13 +55531,7 @@
         <v>13432</v>
       </c>
     </row>
-    <row r="97" spans="10:30" x14ac:dyDescent="0.2">
-      <c r="J97">
-        <v>516150</v>
-      </c>
-      <c r="O97">
-        <v>68634</v>
-      </c>
+    <row r="97" spans="20:30" x14ac:dyDescent="0.2">
       <c r="T97">
         <v>34224</v>
       </c>
@@ -55616,13 +55542,7 @@
         <v>13578</v>
       </c>
     </row>
-    <row r="98" spans="10:30" x14ac:dyDescent="0.2">
-      <c r="J98">
-        <v>521700</v>
-      </c>
-      <c r="O98">
-        <v>69372</v>
-      </c>
+    <row r="98" spans="20:30" x14ac:dyDescent="0.2">
       <c r="T98">
         <v>34592</v>
       </c>
@@ -55633,13 +55553,7 @@
         <v>13724</v>
       </c>
     </row>
-    <row r="99" spans="10:30" x14ac:dyDescent="0.2">
-      <c r="J99">
-        <v>527250</v>
-      </c>
-      <c r="O99">
-        <v>70110</v>
-      </c>
+    <row r="99" spans="20:30" x14ac:dyDescent="0.2">
       <c r="T99">
         <v>34960</v>
       </c>
@@ -55650,13 +55564,7 @@
         <v>13870</v>
       </c>
     </row>
-    <row r="100" spans="10:30" x14ac:dyDescent="0.2">
-      <c r="J100">
-        <v>532800</v>
-      </c>
-      <c r="O100">
-        <v>70848</v>
-      </c>
+    <row r="100" spans="20:30" x14ac:dyDescent="0.2">
       <c r="T100">
         <v>35328</v>
       </c>
@@ -55667,13 +55575,7 @@
         <v>14016</v>
       </c>
     </row>
-    <row r="101" spans="10:30" x14ac:dyDescent="0.2">
-      <c r="J101">
-        <v>538350</v>
-      </c>
-      <c r="O101">
-        <v>71586</v>
-      </c>
+    <row r="101" spans="20:30" x14ac:dyDescent="0.2">
       <c r="T101">
         <v>35696</v>
       </c>
@@ -55684,13 +55586,7 @@
         <v>14162</v>
       </c>
     </row>
-    <row r="102" spans="10:30" x14ac:dyDescent="0.2">
-      <c r="J102">
-        <v>543900</v>
-      </c>
-      <c r="O102">
-        <v>72324</v>
-      </c>
+    <row r="102" spans="20:30" x14ac:dyDescent="0.2">
       <c r="T102">
         <v>36064</v>
       </c>
@@ -55701,13 +55597,7 @@
         <v>14308</v>
       </c>
     </row>
-    <row r="103" spans="10:30" x14ac:dyDescent="0.2">
-      <c r="J103">
-        <v>549450</v>
-      </c>
-      <c r="O103">
-        <v>73062</v>
-      </c>
+    <row r="103" spans="20:30" x14ac:dyDescent="0.2">
       <c r="T103">
         <v>36432</v>
       </c>
@@ -55718,13 +55608,7 @@
         <v>14454</v>
       </c>
     </row>
-    <row r="104" spans="10:30" x14ac:dyDescent="0.2">
-      <c r="J104">
-        <v>630000</v>
-      </c>
-      <c r="O104">
-        <v>84000</v>
-      </c>
+    <row r="104" spans="20:30" x14ac:dyDescent="0.2">
       <c r="T104">
         <v>42000</v>
       </c>

--- a/Excel/eqp.装备.xlsx
+++ b/Excel/eqp.装备.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21FE81B-5C47-49A7-B529-2BDD1CD433E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9DC88D-B1CE-4A69-843B-F43A8BF8EED0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="534">
   <si>
     <t>sheet名</t>
   </si>
@@ -1639,6 +1639,14 @@
     <t>最低等级需求</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>bs</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗力</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2523,8 +2531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AD64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -45545,7 +45553,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I7" sqref="A4:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -47040,21 +47048,21 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.375" customWidth="1"/>
     <col min="2" max="2" width="24.375" customWidth="1"/>
-    <col min="3" max="3" width="23.875" customWidth="1"/>
-    <col min="4" max="4" width="55.5" customWidth="1"/>
+    <col min="3" max="4" width="23.875" customWidth="1"/>
+    <col min="5" max="5" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -47064,11 +47072,14 @@
       <c r="C1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -47079,10 +47090,13 @@
         <v>76</v>
       </c>
       <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>83</v>
       </c>
@@ -47093,10 +47107,13 @@
         <v>310</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -47106,36 +47123,37 @@
       <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="5" t="str">
-        <f>F4&amp;","&amp;G4&amp;","&amp;H4&amp;","&amp;I4&amp;","&amp;J4&amp;","&amp;K4&amp;","&amp;L4&amp;","&amp;M4</f>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5" t="str">
+        <f>G4&amp;","&amp;H4&amp;","&amp;I4&amp;","&amp;J4&amp;","&amp;K4&amp;","&amp;L4&amp;","&amp;M4&amp;","&amp;N4</f>
         <v>1001,1002,1003,1004,1005,1006,1007,1008</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1001</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1002</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1003</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1004</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1005</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1006</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1007</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1008</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -47145,44 +47163,45 @@
       <c r="C5" s="4">
         <v>2</v>
       </c>
-      <c r="D5" s="5" t="str">
-        <f t="shared" ref="D5:D15" si="0">F5&amp;","&amp;G5&amp;","&amp;H5&amp;","&amp;I5&amp;","&amp;J5&amp;","&amp;K5&amp;","&amp;L5&amp;","&amp;M5</f>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5" t="str">
+        <f t="shared" ref="E5:E15" si="0">G5&amp;","&amp;H5&amp;","&amp;I5&amp;","&amp;J5&amp;","&amp;K5&amp;","&amp;L5&amp;","&amp;M5&amp;","&amp;N5</f>
         <v>1011,1012,1013,1014,1015,1016,1017,1018</v>
       </c>
-      <c r="F5">
-        <f>F4+10</f>
+      <c r="G5">
+        <f>G4+10</f>
         <v>1011</v>
       </c>
-      <c r="G5">
-        <f t="shared" ref="G5:M5" si="1">G4+10</f>
+      <c r="H5">
+        <f t="shared" ref="H5:N5" si="1">H4+10</f>
         <v>1012</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <f t="shared" si="1"/>
         <v>1013</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <f t="shared" si="1"/>
         <v>1014</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <f t="shared" si="1"/>
         <v>1015</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <f t="shared" si="1"/>
         <v>1016</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <f t="shared" si="1"/>
         <v>1017</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <f t="shared" si="1"/>
         <v>1018</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -47192,44 +47211,45 @@
       <c r="C6" s="4">
         <v>2</v>
       </c>
-      <c r="D6" s="5" t="str">
+      <c r="D6" s="4"/>
+      <c r="E6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1021,1022,1023,1024,1025,1026,1027,1028</v>
       </c>
-      <c r="F6">
-        <f t="shared" ref="F6:F15" si="2">F5+10</f>
+      <c r="G6">
+        <f t="shared" ref="G6:G15" si="2">G5+10</f>
         <v>1021</v>
       </c>
-      <c r="G6">
-        <f t="shared" ref="G6:G15" si="3">G5+10</f>
+      <c r="H6">
+        <f t="shared" ref="H6:H15" si="3">H5+10</f>
         <v>1022</v>
       </c>
-      <c r="H6">
-        <f t="shared" ref="H6:H15" si="4">H5+10</f>
+      <c r="I6">
+        <f t="shared" ref="I6:I15" si="4">I5+10</f>
         <v>1023</v>
       </c>
-      <c r="I6">
-        <f t="shared" ref="I6:I15" si="5">I5+10</f>
+      <c r="J6">
+        <f t="shared" ref="J6:J15" si="5">J5+10</f>
         <v>1024</v>
       </c>
-      <c r="J6">
-        <f t="shared" ref="J6:J15" si="6">J5+10</f>
+      <c r="K6">
+        <f t="shared" ref="K6:K15" si="6">K5+10</f>
         <v>1025</v>
       </c>
-      <c r="K6">
-        <f t="shared" ref="K6:K15" si="7">K5+10</f>
+      <c r="L6">
+        <f t="shared" ref="L6:L15" si="7">L5+10</f>
         <v>1026</v>
       </c>
-      <c r="L6">
-        <f t="shared" ref="L6:L15" si="8">L5+10</f>
+      <c r="M6">
+        <f t="shared" ref="M6:M15" si="8">M5+10</f>
         <v>1027</v>
       </c>
-      <c r="M6">
-        <f t="shared" ref="M6:M15" si="9">M5+10</f>
+      <c r="N6">
+        <f t="shared" ref="N6:N15" si="9">N5+10</f>
         <v>1028</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -47239,44 +47259,45 @@
       <c r="C7" s="4">
         <v>3</v>
       </c>
-      <c r="D7" s="5" t="str">
+      <c r="D7" s="4"/>
+      <c r="E7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1031,1032,1033,1034,1035,1036,1037,1038</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <f t="shared" si="2"/>
         <v>1031</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <f t="shared" si="3"/>
         <v>1032</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <f t="shared" si="4"/>
         <v>1033</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <f t="shared" si="5"/>
         <v>1034</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <f t="shared" si="6"/>
         <v>1035</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <f t="shared" si="7"/>
         <v>1036</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <f t="shared" si="8"/>
         <v>1037</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <f t="shared" si="9"/>
         <v>1038</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -47286,44 +47307,45 @@
       <c r="C8" s="4">
         <v>3</v>
       </c>
-      <c r="D8" s="5" t="str">
+      <c r="D8" s="4"/>
+      <c r="E8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1041,1042,1043,1044,1045,1046,1047,1048</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <f t="shared" si="2"/>
         <v>1041</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <f t="shared" si="3"/>
         <v>1042</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <f t="shared" si="4"/>
         <v>1043</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <f t="shared" si="5"/>
         <v>1044</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <f t="shared" si="6"/>
         <v>1045</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <f t="shared" si="7"/>
         <v>1046</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <f t="shared" si="8"/>
         <v>1047</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <f t="shared" si="9"/>
         <v>1048</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -47333,44 +47355,45 @@
       <c r="C9" s="4">
         <v>3</v>
       </c>
-      <c r="D9" s="5" t="str">
+      <c r="D9" s="4"/>
+      <c r="E9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1051,1052,1053,1054,1055,1056,1057,1058</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <f t="shared" si="2"/>
         <v>1051</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <f t="shared" si="3"/>
         <v>1052</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <f t="shared" si="4"/>
         <v>1053</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <f t="shared" si="5"/>
         <v>1054</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <f t="shared" si="6"/>
         <v>1055</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <f t="shared" si="7"/>
         <v>1056</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <f t="shared" si="8"/>
         <v>1057</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <f t="shared" si="9"/>
         <v>1058</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -47380,44 +47403,45 @@
       <c r="C10" s="4">
         <v>4</v>
       </c>
-      <c r="D10" s="5" t="str">
+      <c r="D10" s="4"/>
+      <c r="E10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1061,1062,1063,1064,1065,1066,1067,1068</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <f t="shared" si="2"/>
         <v>1061</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <f t="shared" si="3"/>
         <v>1062</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <f t="shared" si="4"/>
         <v>1063</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <f t="shared" si="5"/>
         <v>1064</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <f t="shared" si="6"/>
         <v>1065</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <f t="shared" si="7"/>
         <v>1066</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <f t="shared" si="8"/>
         <v>1067</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <f t="shared" si="9"/>
         <v>1068</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -47427,44 +47451,45 @@
       <c r="C11" s="4">
         <v>4</v>
       </c>
-      <c r="D11" s="5" t="str">
+      <c r="D11" s="4"/>
+      <c r="E11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1071,1072,1073,1074,1075,1076,1077,1078</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <f t="shared" si="2"/>
         <v>1071</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <f t="shared" si="3"/>
         <v>1072</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <f t="shared" si="4"/>
         <v>1073</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <f t="shared" si="5"/>
         <v>1074</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <f t="shared" si="6"/>
         <v>1075</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <f t="shared" si="7"/>
         <v>1076</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <f t="shared" si="8"/>
         <v>1077</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <f t="shared" si="9"/>
         <v>1078</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -47474,44 +47499,45 @@
       <c r="C12" s="4">
         <v>4</v>
       </c>
-      <c r="D12" s="5" t="str">
+      <c r="D12" s="4"/>
+      <c r="E12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1081,1082,1083,1084,1085,1086,1087,1088</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <f t="shared" si="2"/>
         <v>1081</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <f t="shared" si="3"/>
         <v>1082</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <f t="shared" si="4"/>
         <v>1083</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <f t="shared" si="5"/>
         <v>1084</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <f t="shared" si="6"/>
         <v>1085</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <f t="shared" si="7"/>
         <v>1086</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <f t="shared" si="8"/>
         <v>1087</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <f t="shared" si="9"/>
         <v>1088</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -47521,44 +47547,45 @@
       <c r="C13" s="4">
         <v>4</v>
       </c>
-      <c r="D13" s="5" t="str">
+      <c r="D13" s="4"/>
+      <c r="E13" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1091,1092,1093,1094,1095,1096,1097,1098</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <f t="shared" si="2"/>
         <v>1091</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <f t="shared" si="3"/>
         <v>1092</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <f t="shared" si="4"/>
         <v>1093</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <f t="shared" si="5"/>
         <v>1094</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <f t="shared" si="6"/>
         <v>1095</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <f t="shared" si="7"/>
         <v>1096</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <f t="shared" si="8"/>
         <v>1097</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <f t="shared" si="9"/>
         <v>1098</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -47568,44 +47595,45 @@
       <c r="C14" s="4">
         <v>5</v>
       </c>
-      <c r="D14" s="5" t="str">
+      <c r="D14" s="4"/>
+      <c r="E14" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1101,1102,1103,1104,1105,1106,1107,1108</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <f t="shared" si="2"/>
         <v>1101</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <f t="shared" si="3"/>
         <v>1102</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <f t="shared" si="4"/>
         <v>1103</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <f t="shared" si="5"/>
         <v>1104</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <f t="shared" si="6"/>
         <v>1105</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <f t="shared" si="7"/>
         <v>1106</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <f t="shared" si="8"/>
         <v>1107</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <f t="shared" si="9"/>
         <v>1108</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -47615,39 +47643,40 @@
       <c r="C15" s="4">
         <v>5</v>
       </c>
-      <c r="D15" s="5" t="str">
+      <c r="D15" s="4"/>
+      <c r="E15" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1111,1112,1113,1114,1115,1116,1117,1118</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <f t="shared" si="2"/>
         <v>1111</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <f t="shared" si="3"/>
         <v>1112</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <f t="shared" si="4"/>
         <v>1113</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <f t="shared" si="5"/>
         <v>1114</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <f t="shared" si="6"/>
         <v>1115</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <f t="shared" si="7"/>
         <v>1116</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <f t="shared" si="8"/>
         <v>1117</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <f t="shared" si="9"/>
         <v>1118</v>
       </c>

--- a/Excel/eqp.装备.xlsx
+++ b/Excel/eqp.装备.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9DC88D-B1CE-4A69-843B-F43A8BF8EED0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146F842A-0AD0-4229-96A0-8D16BB48A6E7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="531">
   <si>
     <t>sheet名</t>
   </si>
@@ -1635,18 +1635,6 @@
     <t>特级精炼石</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
-  <si>
-    <t>最低等级需求</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>bs</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗力</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -2531,8 +2519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AD64"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2736,7 +2724,7 @@
         <v>340</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>531</v>
+        <v>341</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>342</v>
@@ -16377,7 +16365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I1003"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A1003"/>
     </sheetView>
   </sheetViews>
@@ -45553,7 +45541,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="A4:I7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -47048,21 +47036,21 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.375" customWidth="1"/>
     <col min="2" max="2" width="24.375" customWidth="1"/>
-    <col min="3" max="4" width="23.875" customWidth="1"/>
-    <col min="5" max="5" width="55.5" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -47072,14 +47060,11 @@
       <c r="C1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -47090,13 +47075,10 @@
         <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>83</v>
       </c>
@@ -47107,13 +47089,10 @@
         <v>310</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="E3" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -47123,37 +47102,36 @@
       <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5" t="str">
-        <f>G4&amp;","&amp;H4&amp;","&amp;I4&amp;","&amp;J4&amp;","&amp;K4&amp;","&amp;L4&amp;","&amp;M4&amp;","&amp;N4</f>
+      <c r="D4" s="5" t="str">
+        <f>F4&amp;","&amp;G4&amp;","&amp;H4&amp;","&amp;I4&amp;","&amp;J4&amp;","&amp;K4&amp;","&amp;L4&amp;","&amp;M4</f>
         <v>1001,1002,1003,1004,1005,1006,1007,1008</v>
       </c>
+      <c r="F4">
+        <v>1001</v>
+      </c>
       <c r="G4">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="H4">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="I4">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="J4">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="K4">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="L4">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="M4">
-        <v>1007</v>
-      </c>
-      <c r="N4">
         <v>1008</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -47163,45 +47141,44 @@
       <c r="C5" s="4">
         <v>2</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5" t="str">
-        <f t="shared" ref="E5:E15" si="0">G5&amp;","&amp;H5&amp;","&amp;I5&amp;","&amp;J5&amp;","&amp;K5&amp;","&amp;L5&amp;","&amp;M5&amp;","&amp;N5</f>
+      <c r="D5" s="5" t="str">
+        <f t="shared" ref="D5:D15" si="0">F5&amp;","&amp;G5&amp;","&amp;H5&amp;","&amp;I5&amp;","&amp;J5&amp;","&amp;K5&amp;","&amp;L5&amp;","&amp;M5</f>
         <v>1011,1012,1013,1014,1015,1016,1017,1018</v>
       </c>
+      <c r="F5">
+        <f>F4+10</f>
+        <v>1011</v>
+      </c>
       <c r="G5">
-        <f>G4+10</f>
-        <v>1011</v>
+        <f t="shared" ref="G5:M5" si="1">G4+10</f>
+        <v>1012</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:N5" si="1">H4+10</f>
-        <v>1012</v>
+        <f t="shared" si="1"/>
+        <v>1013</v>
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="J5">
         <f t="shared" si="1"/>
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="K5">
         <f t="shared" si="1"/>
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="M5">
         <f t="shared" si="1"/>
-        <v>1017</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="1"/>
         <v>1018</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -47211,45 +47188,44 @@
       <c r="C6" s="4">
         <v>2</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5" t="str">
+      <c r="D6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1021,1022,1023,1024,1025,1026,1027,1028</v>
       </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F15" si="2">F5+10</f>
+        <v>1021</v>
+      </c>
       <c r="G6">
-        <f t="shared" ref="G6:G15" si="2">G5+10</f>
-        <v>1021</v>
+        <f t="shared" ref="G6:G15" si="3">G5+10</f>
+        <v>1022</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H15" si="3">H5+10</f>
-        <v>1022</v>
+        <f t="shared" ref="H6:H15" si="4">H5+10</f>
+        <v>1023</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6:I15" si="4">I5+10</f>
-        <v>1023</v>
+        <f t="shared" ref="I6:I15" si="5">I5+10</f>
+        <v>1024</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6:J15" si="5">J5+10</f>
-        <v>1024</v>
+        <f t="shared" ref="J6:J15" si="6">J5+10</f>
+        <v>1025</v>
       </c>
       <c r="K6">
-        <f t="shared" ref="K6:K15" si="6">K5+10</f>
-        <v>1025</v>
+        <f t="shared" ref="K6:K15" si="7">K5+10</f>
+        <v>1026</v>
       </c>
       <c r="L6">
-        <f t="shared" ref="L6:L15" si="7">L5+10</f>
-        <v>1026</v>
+        <f t="shared" ref="L6:L15" si="8">L5+10</f>
+        <v>1027</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6:M15" si="8">M5+10</f>
-        <v>1027</v>
-      </c>
-      <c r="N6">
-        <f t="shared" ref="N6:N15" si="9">N5+10</f>
+        <f t="shared" ref="M6:M15" si="9">M5+10</f>
         <v>1028</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -47259,45 +47235,44 @@
       <c r="C7" s="4">
         <v>3</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5" t="str">
+      <c r="D7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1031,1032,1033,1034,1035,1036,1037,1038</v>
       </c>
-      <c r="G7">
+      <c r="F7">
         <f t="shared" si="2"/>
         <v>1031</v>
       </c>
-      <c r="H7">
+      <c r="G7">
         <f t="shared" si="3"/>
         <v>1032</v>
       </c>
-      <c r="I7">
+      <c r="H7">
         <f t="shared" si="4"/>
         <v>1033</v>
       </c>
-      <c r="J7">
+      <c r="I7">
         <f t="shared" si="5"/>
         <v>1034</v>
       </c>
-      <c r="K7">
+      <c r="J7">
         <f t="shared" si="6"/>
         <v>1035</v>
       </c>
-      <c r="L7">
+      <c r="K7">
         <f t="shared" si="7"/>
         <v>1036</v>
       </c>
-      <c r="M7">
+      <c r="L7">
         <f t="shared" si="8"/>
         <v>1037</v>
       </c>
-      <c r="N7">
+      <c r="M7">
         <f t="shared" si="9"/>
         <v>1038</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -47307,45 +47282,44 @@
       <c r="C8" s="4">
         <v>3</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5" t="str">
+      <c r="D8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1041,1042,1043,1044,1045,1046,1047,1048</v>
       </c>
-      <c r="G8">
+      <c r="F8">
         <f t="shared" si="2"/>
         <v>1041</v>
       </c>
-      <c r="H8">
+      <c r="G8">
         <f t="shared" si="3"/>
         <v>1042</v>
       </c>
-      <c r="I8">
+      <c r="H8">
         <f t="shared" si="4"/>
         <v>1043</v>
       </c>
-      <c r="J8">
+      <c r="I8">
         <f t="shared" si="5"/>
         <v>1044</v>
       </c>
-      <c r="K8">
+      <c r="J8">
         <f t="shared" si="6"/>
         <v>1045</v>
       </c>
-      <c r="L8">
+      <c r="K8">
         <f t="shared" si="7"/>
         <v>1046</v>
       </c>
-      <c r="M8">
+      <c r="L8">
         <f t="shared" si="8"/>
         <v>1047</v>
       </c>
-      <c r="N8">
+      <c r="M8">
         <f t="shared" si="9"/>
         <v>1048</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -47355,45 +47329,44 @@
       <c r="C9" s="4">
         <v>3</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5" t="str">
+      <c r="D9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1051,1052,1053,1054,1055,1056,1057,1058</v>
       </c>
-      <c r="G9">
+      <c r="F9">
         <f t="shared" si="2"/>
         <v>1051</v>
       </c>
-      <c r="H9">
+      <c r="G9">
         <f t="shared" si="3"/>
         <v>1052</v>
       </c>
-      <c r="I9">
+      <c r="H9">
         <f t="shared" si="4"/>
         <v>1053</v>
       </c>
-      <c r="J9">
+      <c r="I9">
         <f t="shared" si="5"/>
         <v>1054</v>
       </c>
-      <c r="K9">
+      <c r="J9">
         <f t="shared" si="6"/>
         <v>1055</v>
       </c>
-      <c r="L9">
+      <c r="K9">
         <f t="shared" si="7"/>
         <v>1056</v>
       </c>
-      <c r="M9">
+      <c r="L9">
         <f t="shared" si="8"/>
         <v>1057</v>
       </c>
-      <c r="N9">
+      <c r="M9">
         <f t="shared" si="9"/>
         <v>1058</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -47403,45 +47376,44 @@
       <c r="C10" s="4">
         <v>4</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5" t="str">
+      <c r="D10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1061,1062,1063,1064,1065,1066,1067,1068</v>
       </c>
-      <c r="G10">
+      <c r="F10">
         <f t="shared" si="2"/>
         <v>1061</v>
       </c>
-      <c r="H10">
+      <c r="G10">
         <f t="shared" si="3"/>
         <v>1062</v>
       </c>
-      <c r="I10">
+      <c r="H10">
         <f t="shared" si="4"/>
         <v>1063</v>
       </c>
-      <c r="J10">
+      <c r="I10">
         <f t="shared" si="5"/>
         <v>1064</v>
       </c>
-      <c r="K10">
+      <c r="J10">
         <f t="shared" si="6"/>
         <v>1065</v>
       </c>
-      <c r="L10">
+      <c r="K10">
         <f t="shared" si="7"/>
         <v>1066</v>
       </c>
-      <c r="M10">
+      <c r="L10">
         <f t="shared" si="8"/>
         <v>1067</v>
       </c>
-      <c r="N10">
+      <c r="M10">
         <f t="shared" si="9"/>
         <v>1068</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -47451,45 +47423,44 @@
       <c r="C11" s="4">
         <v>4</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5" t="str">
+      <c r="D11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1071,1072,1073,1074,1075,1076,1077,1078</v>
       </c>
-      <c r="G11">
+      <c r="F11">
         <f t="shared" si="2"/>
         <v>1071</v>
       </c>
-      <c r="H11">
+      <c r="G11">
         <f t="shared" si="3"/>
         <v>1072</v>
       </c>
-      <c r="I11">
+      <c r="H11">
         <f t="shared" si="4"/>
         <v>1073</v>
       </c>
-      <c r="J11">
+      <c r="I11">
         <f t="shared" si="5"/>
         <v>1074</v>
       </c>
-      <c r="K11">
+      <c r="J11">
         <f t="shared" si="6"/>
         <v>1075</v>
       </c>
-      <c r="L11">
+      <c r="K11">
         <f t="shared" si="7"/>
         <v>1076</v>
       </c>
-      <c r="M11">
+      <c r="L11">
         <f t="shared" si="8"/>
         <v>1077</v>
       </c>
-      <c r="N11">
+      <c r="M11">
         <f t="shared" si="9"/>
         <v>1078</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -47499,45 +47470,44 @@
       <c r="C12" s="4">
         <v>4</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5" t="str">
+      <c r="D12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1081,1082,1083,1084,1085,1086,1087,1088</v>
       </c>
-      <c r="G12">
+      <c r="F12">
         <f t="shared" si="2"/>
         <v>1081</v>
       </c>
-      <c r="H12">
+      <c r="G12">
         <f t="shared" si="3"/>
         <v>1082</v>
       </c>
-      <c r="I12">
+      <c r="H12">
         <f t="shared" si="4"/>
         <v>1083</v>
       </c>
-      <c r="J12">
+      <c r="I12">
         <f t="shared" si="5"/>
         <v>1084</v>
       </c>
-      <c r="K12">
+      <c r="J12">
         <f t="shared" si="6"/>
         <v>1085</v>
       </c>
-      <c r="L12">
+      <c r="K12">
         <f t="shared" si="7"/>
         <v>1086</v>
       </c>
-      <c r="M12">
+      <c r="L12">
         <f t="shared" si="8"/>
         <v>1087</v>
       </c>
-      <c r="N12">
+      <c r="M12">
         <f t="shared" si="9"/>
         <v>1088</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -47547,45 +47517,44 @@
       <c r="C13" s="4">
         <v>4</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5" t="str">
+      <c r="D13" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1091,1092,1093,1094,1095,1096,1097,1098</v>
       </c>
-      <c r="G13">
+      <c r="F13">
         <f t="shared" si="2"/>
         <v>1091</v>
       </c>
-      <c r="H13">
+      <c r="G13">
         <f t="shared" si="3"/>
         <v>1092</v>
       </c>
-      <c r="I13">
+      <c r="H13">
         <f t="shared" si="4"/>
         <v>1093</v>
       </c>
-      <c r="J13">
+      <c r="I13">
         <f t="shared" si="5"/>
         <v>1094</v>
       </c>
-      <c r="K13">
+      <c r="J13">
         <f t="shared" si="6"/>
         <v>1095</v>
       </c>
-      <c r="L13">
+      <c r="K13">
         <f t="shared" si="7"/>
         <v>1096</v>
       </c>
-      <c r="M13">
+      <c r="L13">
         <f t="shared" si="8"/>
         <v>1097</v>
       </c>
-      <c r="N13">
+      <c r="M13">
         <f t="shared" si="9"/>
         <v>1098</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -47595,45 +47564,44 @@
       <c r="C14" s="4">
         <v>5</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5" t="str">
+      <c r="D14" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1101,1102,1103,1104,1105,1106,1107,1108</v>
       </c>
-      <c r="G14">
+      <c r="F14">
         <f t="shared" si="2"/>
         <v>1101</v>
       </c>
-      <c r="H14">
+      <c r="G14">
         <f t="shared" si="3"/>
         <v>1102</v>
       </c>
-      <c r="I14">
+      <c r="H14">
         <f t="shared" si="4"/>
         <v>1103</v>
       </c>
-      <c r="J14">
+      <c r="I14">
         <f t="shared" si="5"/>
         <v>1104</v>
       </c>
-      <c r="K14">
+      <c r="J14">
         <f t="shared" si="6"/>
         <v>1105</v>
       </c>
-      <c r="L14">
+      <c r="K14">
         <f t="shared" si="7"/>
         <v>1106</v>
       </c>
-      <c r="M14">
+      <c r="L14">
         <f t="shared" si="8"/>
         <v>1107</v>
       </c>
-      <c r="N14">
+      <c r="M14">
         <f t="shared" si="9"/>
         <v>1108</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -47643,40 +47611,39 @@
       <c r="C15" s="4">
         <v>5</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5" t="str">
+      <c r="D15" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1111,1112,1113,1114,1115,1116,1117,1118</v>
       </c>
-      <c r="G15">
+      <c r="F15">
         <f t="shared" si="2"/>
         <v>1111</v>
       </c>
-      <c r="H15">
+      <c r="G15">
         <f t="shared" si="3"/>
         <v>1112</v>
       </c>
-      <c r="I15">
+      <c r="H15">
         <f t="shared" si="4"/>
         <v>1113</v>
       </c>
-      <c r="J15">
+      <c r="I15">
         <f t="shared" si="5"/>
         <v>1114</v>
       </c>
-      <c r="K15">
+      <c r="J15">
         <f t="shared" si="6"/>
         <v>1115</v>
       </c>
-      <c r="L15">
+      <c r="K15">
         <f t="shared" si="7"/>
         <v>1116</v>
       </c>
-      <c r="M15">
+      <c r="L15">
         <f t="shared" si="8"/>
         <v>1117</v>
       </c>
-      <c r="N15">
+      <c r="M15">
         <f t="shared" si="9"/>
         <v>1118</v>
       </c>
@@ -47691,8 +47658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AD104"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D84"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -55429,6 +55396,12 @@
       </c>
     </row>
     <row r="85" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="J85">
+        <v>388800</v>
+      </c>
+      <c r="O85">
+        <v>51840</v>
+      </c>
       <c r="T85">
         <v>25920</v>
       </c>
@@ -55440,6 +55413,12 @@
       </c>
     </row>
     <row r="86" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="J86">
+        <v>393600</v>
+      </c>
+      <c r="O86">
+        <v>52480</v>
+      </c>
       <c r="T86">
         <v>26240</v>
       </c>
@@ -55451,6 +55430,12 @@
       </c>
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="J87">
+        <v>398400</v>
+      </c>
+      <c r="O87">
+        <v>53120</v>
+      </c>
       <c r="T87">
         <v>26560</v>
       </c>
@@ -55462,6 +55447,12 @@
       </c>
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="J88">
+        <v>403200</v>
+      </c>
+      <c r="O88">
+        <v>53760</v>
+      </c>
       <c r="T88">
         <v>26880</v>
       </c>
@@ -55473,6 +55464,12 @@
       </c>
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="J89">
+        <v>408000</v>
+      </c>
+      <c r="O89">
+        <v>54400</v>
+      </c>
       <c r="T89">
         <v>27200</v>
       </c>
@@ -55484,6 +55481,12 @@
       </c>
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="J90">
+        <v>412800</v>
+      </c>
+      <c r="O90">
+        <v>55040</v>
+      </c>
       <c r="T90">
         <v>27520</v>
       </c>
@@ -55495,6 +55498,12 @@
       </c>
     </row>
     <row r="91" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="J91">
+        <v>417600</v>
+      </c>
+      <c r="O91">
+        <v>55680</v>
+      </c>
       <c r="T91">
         <v>27840</v>
       </c>
@@ -55506,6 +55515,12 @@
       </c>
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="J92">
+        <v>422400</v>
+      </c>
+      <c r="O92">
+        <v>56320</v>
+      </c>
       <c r="T92">
         <v>28160</v>
       </c>
@@ -55517,6 +55532,12 @@
       </c>
     </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="J93">
+        <v>427200</v>
+      </c>
+      <c r="O93">
+        <v>56960</v>
+      </c>
       <c r="T93">
         <v>28480</v>
       </c>
@@ -55528,6 +55549,12 @@
       </c>
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="J94">
+        <v>499500</v>
+      </c>
+      <c r="O94">
+        <v>66420</v>
+      </c>
       <c r="T94">
         <v>33120</v>
       </c>
@@ -55539,6 +55566,12 @@
       </c>
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="J95">
+        <v>505050</v>
+      </c>
+      <c r="O95">
+        <v>67158</v>
+      </c>
       <c r="T95">
         <v>33488</v>
       </c>
@@ -55550,6 +55583,12 @@
       </c>
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="J96">
+        <v>510600</v>
+      </c>
+      <c r="O96">
+        <v>67896</v>
+      </c>
       <c r="T96">
         <v>33856</v>
       </c>
@@ -55560,7 +55599,13 @@
         <v>13432</v>
       </c>
     </row>
-    <row r="97" spans="20:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="J97">
+        <v>516150</v>
+      </c>
+      <c r="O97">
+        <v>68634</v>
+      </c>
       <c r="T97">
         <v>34224</v>
       </c>
@@ -55571,7 +55616,13 @@
         <v>13578</v>
       </c>
     </row>
-    <row r="98" spans="20:30" x14ac:dyDescent="0.2">
+    <row r="98" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="J98">
+        <v>521700</v>
+      </c>
+      <c r="O98">
+        <v>69372</v>
+      </c>
       <c r="T98">
         <v>34592</v>
       </c>
@@ -55582,7 +55633,13 @@
         <v>13724</v>
       </c>
     </row>
-    <row r="99" spans="20:30" x14ac:dyDescent="0.2">
+    <row r="99" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="J99">
+        <v>527250</v>
+      </c>
+      <c r="O99">
+        <v>70110</v>
+      </c>
       <c r="T99">
         <v>34960</v>
       </c>
@@ -55593,7 +55650,13 @@
         <v>13870</v>
       </c>
     </row>
-    <row r="100" spans="20:30" x14ac:dyDescent="0.2">
+    <row r="100" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="J100">
+        <v>532800</v>
+      </c>
+      <c r="O100">
+        <v>70848</v>
+      </c>
       <c r="T100">
         <v>35328</v>
       </c>
@@ -55604,7 +55667,13 @@
         <v>14016</v>
       </c>
     </row>
-    <row r="101" spans="20:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="J101">
+        <v>538350</v>
+      </c>
+      <c r="O101">
+        <v>71586</v>
+      </c>
       <c r="T101">
         <v>35696</v>
       </c>
@@ -55615,7 +55684,13 @@
         <v>14162</v>
       </c>
     </row>
-    <row r="102" spans="20:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="J102">
+        <v>543900</v>
+      </c>
+      <c r="O102">
+        <v>72324</v>
+      </c>
       <c r="T102">
         <v>36064</v>
       </c>
@@ -55626,7 +55701,13 @@
         <v>14308</v>
       </c>
     </row>
-    <row r="103" spans="20:30" x14ac:dyDescent="0.2">
+    <row r="103" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="J103">
+        <v>549450</v>
+      </c>
+      <c r="O103">
+        <v>73062</v>
+      </c>
       <c r="T103">
         <v>36432</v>
       </c>
@@ -55637,7 +55718,13 @@
         <v>14454</v>
       </c>
     </row>
-    <row r="104" spans="20:30" x14ac:dyDescent="0.2">
+    <row r="104" spans="10:30" x14ac:dyDescent="0.2">
+      <c r="J104">
+        <v>630000</v>
+      </c>
+      <c r="O104">
+        <v>84000</v>
+      </c>
       <c r="T104">
         <v>42000</v>
       </c>

--- a/Excel/eqp.装备.xlsx
+++ b/Excel/eqp.装备.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146F842A-0AD0-4229-96A0-8D16BB48A6E7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DC0875-7F20-4D06-8FC4-5AA7E3E0B5DD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -2520,7 +2520,7 @@
   <dimension ref="A1:AD64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2881,7 +2881,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>450</v>
@@ -2896,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="4">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>451</v>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="4">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
@@ -2943,7 +2943,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="4">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>450</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="4">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>451</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="4">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -3005,7 +3005,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="4">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>450</v>
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="4">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>451</v>
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="4">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -3067,7 +3067,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="4">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>450</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="4">
-        <v>4</v>
+        <v>0.04</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>451</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="4">
-        <v>4</v>
+        <v>0.04</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -3129,7 +3129,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="4">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>450</v>
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="4">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>451</v>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="4">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -3191,7 +3191,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="4">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>450</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="4">
-        <v>6</v>
+        <v>0.06</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>451</v>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="4">
-        <v>6</v>
+        <v>0.06</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -3253,7 +3253,7 @@
         <v>14</v>
       </c>
       <c r="E11" s="4">
-        <v>7000</v>
+        <v>14000.000000000002</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>450</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="4">
-        <v>7.0000000000000009</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>451</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="4">
-        <v>7.0000000000000009</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
@@ -3315,7 +3315,7 @@
         <v>16</v>
       </c>
       <c r="E12" s="4">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>450</v>
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="4">
-        <v>8</v>
+        <v>0.08</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>451</v>
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="4">
-        <v>8</v>
+        <v>0.08</v>
       </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
@@ -3377,7 +3377,7 @@
         <v>18</v>
       </c>
       <c r="E13" s="4">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>450</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="4">
-        <v>9</v>
+        <v>0.09</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>451</v>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="4">
-        <v>9</v>
+        <v>0.09</v>
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -3439,7 +3439,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="4">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>450</v>
@@ -3454,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="4">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>451</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="4">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
@@ -3501,7 +3501,7 @@
         <v>22</v>
       </c>
       <c r="E15" s="4">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>450</v>
@@ -3516,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="4">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>451</v>
@@ -3531,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="4">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
@@ -3563,7 +3563,7 @@
         <v>24</v>
       </c>
       <c r="E16" s="4">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>450</v>
@@ -3578,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="4">
-        <v>12</v>
+        <v>0.12</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>451</v>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="4">
-        <v>12</v>
+        <v>0.12</v>
       </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
@@ -3625,7 +3625,7 @@
         <v>26</v>
       </c>
       <c r="E17" s="4">
-        <v>13000</v>
+        <v>26000</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>450</v>
@@ -3640,7 +3640,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="4">
-        <v>13</v>
+        <v>0.13</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>451</v>
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="4">
-        <v>13</v>
+        <v>0.13</v>
       </c>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
@@ -3687,7 +3687,7 @@
         <v>28</v>
       </c>
       <c r="E18" s="4">
-        <v>14000</v>
+        <v>28000.000000000004</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>450</v>
@@ -3702,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="4">
-        <v>14.000000000000002</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>451</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="4">
-        <v>14.000000000000002</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
@@ -3749,7 +3749,7 @@
         <v>30</v>
       </c>
       <c r="E19" s="4">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>450</v>
@@ -3764,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="4">
-        <v>15</v>
+        <v>0.15</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>451</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="4">
-        <v>15</v>
+        <v>0.15</v>
       </c>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
@@ -3811,7 +3811,7 @@
         <v>32</v>
       </c>
       <c r="E20" s="4">
-        <v>16000</v>
+        <v>34000</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>450</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="4">
-        <v>17</v>
+        <v>0.17</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>451</v>
@@ -3841,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="4">
-        <v>17</v>
+        <v>0.17</v>
       </c>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
@@ -3873,7 +3873,7 @@
         <v>34</v>
       </c>
       <c r="E21" s="4">
-        <v>17000</v>
+        <v>38000</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>450</v>
@@ -3888,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="4">
-        <v>19</v>
+        <v>0.19</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>451</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="4">
-        <v>19</v>
+        <v>0.19</v>
       </c>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
@@ -3935,7 +3935,7 @@
         <v>36</v>
       </c>
       <c r="E22" s="4">
-        <v>18000</v>
+        <v>42000</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>450</v>
@@ -3950,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="4">
-        <v>21</v>
+        <v>0.21</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>451</v>
@@ -3965,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="4">
-        <v>21</v>
+        <v>0.21</v>
       </c>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
@@ -3997,7 +3997,7 @@
         <v>38</v>
       </c>
       <c r="E23" s="4">
-        <v>19000</v>
+        <v>46000</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>450</v>
@@ -4012,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="4">
-        <v>23</v>
+        <v>0.23</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>451</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="4">
-        <v>23</v>
+        <v>0.23</v>
       </c>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
@@ -4059,7 +4059,7 @@
         <v>40</v>
       </c>
       <c r="E24" s="4">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>450</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="4">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>451</v>
@@ -4089,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="4">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
@@ -4121,7 +4121,7 @@
         <v>42</v>
       </c>
       <c r="E25" s="4">
-        <v>21000</v>
+        <v>54000</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>450</v>
@@ -4136,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="4">
-        <v>27</v>
+        <v>0.27</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>451</v>
@@ -4151,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="4">
-        <v>27</v>
+        <v>0.27</v>
       </c>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
@@ -4183,7 +4183,7 @@
         <v>44</v>
       </c>
       <c r="E26" s="4">
-        <v>22000</v>
+        <v>57999.999999999993</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>450</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="4">
-        <v>28.999999999999996</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>451</v>
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="4">
-        <v>28.999999999999996</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
@@ -4245,7 +4245,7 @@
         <v>46</v>
       </c>
       <c r="E27" s="4">
-        <v>23000</v>
+        <v>62000</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>450</v>
@@ -4260,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="4">
-        <v>31</v>
+        <v>0.31</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>451</v>
@@ -4275,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="4">
-        <v>31</v>
+        <v>0.31</v>
       </c>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
@@ -4307,7 +4307,7 @@
         <v>48</v>
       </c>
       <c r="E28" s="4">
-        <v>24000</v>
+        <v>66000</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>450</v>
@@ -4322,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="4">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>451</v>
@@ -4337,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="4">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
@@ -4369,7 +4369,7 @@
         <v>50</v>
       </c>
       <c r="E29" s="4">
-        <v>25000</v>
+        <v>70000</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>450</v>
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="4">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>451</v>
@@ -4399,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="4">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
@@ -4431,7 +4431,7 @@
         <v>52</v>
       </c>
       <c r="E30" s="4">
-        <v>26000</v>
+        <v>74000</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>450</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="4">
-        <v>37</v>
+        <v>0.37</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>451</v>
@@ -4461,7 +4461,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="4">
-        <v>37</v>
+        <v>0.37</v>
       </c>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
@@ -4493,7 +4493,7 @@
         <v>54</v>
       </c>
       <c r="E31" s="4">
-        <v>27000</v>
+        <v>78000</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>450</v>
@@ -4508,7 +4508,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="4">
-        <v>39</v>
+        <v>0.39</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>451</v>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="4">
-        <v>39</v>
+        <v>0.39</v>
       </c>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
@@ -4555,7 +4555,7 @@
         <v>56</v>
       </c>
       <c r="E32" s="4">
-        <v>28000</v>
+        <v>82000</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>450</v>
@@ -4570,7 +4570,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="4">
-        <v>41</v>
+        <v>0.41</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>451</v>
@@ -4585,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="4">
-        <v>41</v>
+        <v>0.41</v>
       </c>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
@@ -4617,7 +4617,7 @@
         <v>58</v>
       </c>
       <c r="E33" s="4">
-        <v>29000</v>
+        <v>86000</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>450</v>
@@ -4632,7 +4632,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="4">
-        <v>43</v>
+        <v>0.43</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>451</v>
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="4">
-        <v>43</v>
+        <v>0.43</v>
       </c>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
@@ -4679,7 +4679,7 @@
         <v>60</v>
       </c>
       <c r="E34" s="4">
-        <v>30000</v>
+        <v>90000</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>450</v>
@@ -4694,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="4">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>451</v>
@@ -4709,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="4">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
@@ -4741,7 +4741,7 @@
         <v>62</v>
       </c>
       <c r="E35" s="4">
-        <v>31000</v>
+        <v>97000</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>450</v>
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="4">
-        <v>48.5</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>451</v>
@@ -4771,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="4">
-        <v>48.5</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
@@ -4803,7 +4803,7 @@
         <v>64</v>
       </c>
       <c r="E36" s="4">
-        <v>32000</v>
+        <v>104000</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>450</v>
@@ -4818,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="4">
-        <v>52</v>
+        <v>0.52</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>451</v>
@@ -4833,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="4">
-        <v>52</v>
+        <v>0.52</v>
       </c>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
@@ -4865,7 +4865,7 @@
         <v>66</v>
       </c>
       <c r="E37" s="4">
-        <v>33000</v>
+        <v>111000.00000000001</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>450</v>
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="4">
-        <v>55.500000000000007</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>451</v>
@@ -4895,7 +4895,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="4">
-        <v>55.500000000000007</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
@@ -4927,7 +4927,7 @@
         <v>68</v>
       </c>
       <c r="E38" s="4">
-        <v>34000</v>
+        <v>118000</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>450</v>
@@ -4942,7 +4942,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="4">
-        <v>59</v>
+        <v>0.59</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>451</v>
@@ -4957,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="4">
-        <v>59</v>
+        <v>0.59</v>
       </c>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
@@ -4989,7 +4989,7 @@
         <v>70</v>
       </c>
       <c r="E39" s="4">
-        <v>35000</v>
+        <v>125000</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>450</v>
@@ -5004,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="4">
-        <v>62.5</v>
+        <v>0.625</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>451</v>
@@ -5019,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="O39" s="4">
-        <v>62.5</v>
+        <v>0.625</v>
       </c>
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
@@ -5051,7 +5051,7 @@
         <v>72</v>
       </c>
       <c r="E40" s="4">
-        <v>36000</v>
+        <v>132000</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>450</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="4">
-        <v>66</v>
+        <v>0.66</v>
       </c>
       <c r="K40" s="4" t="s">
         <v>451</v>
@@ -5081,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="4">
-        <v>66</v>
+        <v>0.66</v>
       </c>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
@@ -5113,7 +5113,7 @@
         <v>74</v>
       </c>
       <c r="E41" s="4">
-        <v>37000</v>
+        <v>139000</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>450</v>
@@ -5128,7 +5128,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="4">
-        <v>69.5</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>451</v>
@@ -5143,7 +5143,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="4">
-        <v>69.5</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
@@ -5175,7 +5175,7 @@
         <v>76</v>
       </c>
       <c r="E42" s="4">
-        <v>38000</v>
+        <v>146000</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>450</v>
@@ -5190,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="4">
-        <v>73</v>
+        <v>0.73</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>451</v>
@@ -5205,7 +5205,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="4">
-        <v>73</v>
+        <v>0.73</v>
       </c>
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
@@ -5237,7 +5237,7 @@
         <v>78</v>
       </c>
       <c r="E43" s="4">
-        <v>39000</v>
+        <v>153000</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>450</v>
@@ -5252,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="4">
-        <v>76.5</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>451</v>
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="4">
-        <v>76.5</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
@@ -5299,7 +5299,7 @@
         <v>80</v>
       </c>
       <c r="E44" s="4">
-        <v>40000</v>
+        <v>160000</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>450</v>
@@ -5314,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="4">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>451</v>
@@ -5329,7 +5329,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="4">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
@@ -5361,7 +5361,7 @@
         <v>82</v>
       </c>
       <c r="E45" s="4">
-        <v>41000</v>
+        <v>167000</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>450</v>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="4">
-        <v>83.5</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="K45" s="4" t="s">
         <v>451</v>
@@ -5391,7 +5391,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="4">
-        <v>83.5</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
@@ -5423,7 +5423,7 @@
         <v>84</v>
       </c>
       <c r="E46" s="4">
-        <v>42000</v>
+        <v>174000</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>450</v>
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="4">
-        <v>87</v>
+        <v>0.87</v>
       </c>
       <c r="K46" s="4" t="s">
         <v>451</v>
@@ -5453,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="4">
-        <v>87</v>
+        <v>0.87</v>
       </c>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
@@ -5485,7 +5485,7 @@
         <v>86</v>
       </c>
       <c r="E47" s="4">
-        <v>43000</v>
+        <v>181000</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>450</v>
@@ -5500,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="4">
-        <v>90.5</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="K47" s="4" t="s">
         <v>451</v>
@@ -5515,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="4">
-        <v>90.5</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
@@ -5547,7 +5547,7 @@
         <v>88</v>
       </c>
       <c r="E48" s="4">
-        <v>44000</v>
+        <v>188000</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>450</v>
@@ -5562,7 +5562,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="4">
-        <v>94</v>
+        <v>0.94</v>
       </c>
       <c r="K48" s="4" t="s">
         <v>451</v>
@@ -5577,7 +5577,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="4">
-        <v>94</v>
+        <v>0.94</v>
       </c>
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
@@ -5609,7 +5609,7 @@
         <v>90</v>
       </c>
       <c r="E49" s="4">
-        <v>45000</v>
+        <v>200000</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>450</v>
@@ -5624,7 +5624,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K49" s="4" t="s">
         <v>451</v>
@@ -5639,7 +5639,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
@@ -5671,7 +5671,7 @@
         <v>92</v>
       </c>
       <c r="E50" s="4">
-        <v>46000</v>
+        <v>210000</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>450</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="4">
-        <v>105</v>
+        <v>1.05</v>
       </c>
       <c r="K50" s="4" t="s">
         <v>451</v>
@@ -5701,7 +5701,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="4">
-        <v>105</v>
+        <v>1.05</v>
       </c>
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
@@ -5733,7 +5733,7 @@
         <v>94</v>
       </c>
       <c r="E51" s="4">
-        <v>47000</v>
+        <v>220000.00000000003</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>450</v>
@@ -5748,7 +5748,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="4">
-        <v>110.00000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>451</v>
@@ -5763,7 +5763,7 @@
         <v>0</v>
       </c>
       <c r="O51" s="4">
-        <v>110.00000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
@@ -5795,7 +5795,7 @@
         <v>96</v>
       </c>
       <c r="E52" s="4">
-        <v>48000</v>
+        <v>229999.99999999997</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>450</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="4">
-        <v>114.99999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K52" s="4" t="s">
         <v>451</v>
@@ -5825,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="4">
-        <v>114.99999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
@@ -5857,7 +5857,7 @@
         <v>98</v>
       </c>
       <c r="E53" s="4">
-        <v>49000</v>
+        <v>240000</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>450</v>
@@ -5872,7 +5872,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="4">
-        <v>120</v>
+        <v>1.2</v>
       </c>
       <c r="K53" s="4" t="s">
         <v>451</v>
@@ -5887,7 +5887,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="4">
-        <v>120</v>
+        <v>1.2</v>
       </c>
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
@@ -5919,7 +5919,7 @@
         <v>100</v>
       </c>
       <c r="E54" s="4">
-        <v>50000</v>
+        <v>250000</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>450</v>
@@ -5934,7 +5934,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="4">
-        <v>125</v>
+        <v>1.25</v>
       </c>
       <c r="K54" s="4" t="s">
         <v>451</v>
@@ -5949,7 +5949,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="4">
-        <v>125</v>
+        <v>1.25</v>
       </c>
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
@@ -5981,7 +5981,7 @@
         <v>102</v>
       </c>
       <c r="E55" s="4">
-        <v>51000</v>
+        <v>260000</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>450</v>
@@ -5996,7 +5996,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="4">
-        <v>130</v>
+        <v>1.3</v>
       </c>
       <c r="K55" s="4" t="s">
         <v>451</v>
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="O55" s="4">
-        <v>130</v>
+        <v>1.3</v>
       </c>
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
@@ -6043,7 +6043,7 @@
         <v>104</v>
       </c>
       <c r="E56" s="4">
-        <v>52000</v>
+        <v>270000</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>450</v>
@@ -6058,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="J56" s="4">
-        <v>135</v>
+        <v>1.35</v>
       </c>
       <c r="K56" s="4" t="s">
         <v>451</v>
@@ -6073,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="4">
-        <v>135</v>
+        <v>1.35</v>
       </c>
       <c r="P56" s="4"/>
       <c r="Q56" s="4"/>
@@ -6105,7 +6105,7 @@
         <v>106</v>
       </c>
       <c r="E57" s="4">
-        <v>53000</v>
+        <v>280000</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>450</v>
@@ -6120,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="4">
-        <v>140</v>
+        <v>1.4</v>
       </c>
       <c r="K57" s="4" t="s">
         <v>451</v>
@@ -6135,7 +6135,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="4">
-        <v>140</v>
+        <v>1.4</v>
       </c>
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
@@ -6167,7 +6167,7 @@
         <v>108</v>
       </c>
       <c r="E58" s="4">
-        <v>54000</v>
+        <v>290000</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>450</v>
@@ -6182,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="4">
-        <v>145</v>
+        <v>1.45</v>
       </c>
       <c r="K58" s="4" t="s">
         <v>451</v>
@@ -6197,7 +6197,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="4">
-        <v>145</v>
+        <v>1.45</v>
       </c>
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
@@ -6229,7 +6229,7 @@
         <v>110</v>
       </c>
       <c r="E59" s="4">
-        <v>55000</v>
+        <v>300000</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>450</v>
@@ -6244,7 +6244,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="4">
-        <v>150</v>
+        <v>1.5</v>
       </c>
       <c r="K59" s="4" t="s">
         <v>451</v>
@@ -6259,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="O59" s="4">
-        <v>150</v>
+        <v>1.5</v>
       </c>
       <c r="P59" s="4"/>
       <c r="Q59" s="4"/>
@@ -6291,7 +6291,7 @@
         <v>112</v>
       </c>
       <c r="E60" s="4">
-        <v>56000</v>
+        <v>310000</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>450</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="4">
-        <v>155</v>
+        <v>1.55</v>
       </c>
       <c r="K60" s="4" t="s">
         <v>451</v>
@@ -6321,7 +6321,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="4">
-        <v>155</v>
+        <v>1.55</v>
       </c>
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
@@ -6353,7 +6353,7 @@
         <v>114</v>
       </c>
       <c r="E61" s="4">
-        <v>57000</v>
+        <v>320000</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>450</v>
@@ -6368,7 +6368,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="4">
-        <v>160</v>
+        <v>1.6</v>
       </c>
       <c r="K61" s="4" t="s">
         <v>451</v>
@@ -6383,7 +6383,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="4">
-        <v>160</v>
+        <v>1.6</v>
       </c>
       <c r="P61" s="4"/>
       <c r="Q61" s="4"/>
@@ -6415,7 +6415,7 @@
         <v>116</v>
       </c>
       <c r="E62" s="4">
-        <v>58000</v>
+        <v>330000</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>450</v>
@@ -6430,7 +6430,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="4">
-        <v>165</v>
+        <v>1.65</v>
       </c>
       <c r="K62" s="4" t="s">
         <v>451</v>
@@ -6445,7 +6445,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="4">
-        <v>165</v>
+        <v>1.65</v>
       </c>
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
@@ -6477,7 +6477,7 @@
         <v>118</v>
       </c>
       <c r="E63" s="4">
-        <v>59000</v>
+        <v>340000</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>450</v>
@@ -6492,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="4">
-        <v>170</v>
+        <v>1.7</v>
       </c>
       <c r="K63" s="4" t="s">
         <v>451</v>
@@ -6507,7 +6507,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="4">
-        <v>170</v>
+        <v>1.7</v>
       </c>
       <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
@@ -6539,7 +6539,7 @@
         <v>120</v>
       </c>
       <c r="E64" s="4">
-        <v>60000</v>
+        <v>350000</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>450</v>
@@ -6554,7 +6554,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="4">
-        <v>175</v>
+        <v>1.75</v>
       </c>
       <c r="K64" s="4" t="s">
         <v>451</v>
@@ -6569,7 +6569,7 @@
         <v>0</v>
       </c>
       <c r="O64" s="4">
-        <v>175</v>
+        <v>1.75</v>
       </c>
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
@@ -16365,7 +16365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A199" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A1003"/>
     </sheetView>
   </sheetViews>
@@ -47658,8 +47658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AD104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AC16" sqref="AC16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -48049,7 +48049,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="4">
-        <v>1000</v>
+        <v>3700</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>119</v>
@@ -48141,7 +48141,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="4">
-        <v>2000</v>
+        <v>7400</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>119</v>
@@ -48233,7 +48233,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="4">
-        <v>3000</v>
+        <v>11100</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>119</v>
@@ -48325,7 +48325,7 @@
         <v>40</v>
       </c>
       <c r="E8" s="4">
-        <v>4000</v>
+        <v>14800</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>119</v>
@@ -48417,7 +48417,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="4">
-        <v>5000</v>
+        <v>18500</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>119</v>
@@ -48509,7 +48509,7 @@
         <v>60</v>
       </c>
       <c r="E10" s="4">
-        <v>6000</v>
+        <v>33000</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>119</v>
@@ -48601,7 +48601,7 @@
         <v>70</v>
       </c>
       <c r="E11" s="4">
-        <v>7000</v>
+        <v>38500</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>119</v>
@@ -48693,7 +48693,7 @@
         <v>80</v>
       </c>
       <c r="E12" s="4">
-        <v>8000</v>
+        <v>44000</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>119</v>
@@ -48785,7 +48785,7 @@
         <v>90</v>
       </c>
       <c r="E13" s="4">
-        <v>9000</v>
+        <v>49500</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>119</v>
@@ -48877,7 +48877,7 @@
         <v>100</v>
       </c>
       <c r="E14" s="4">
-        <v>10000</v>
+        <v>55000</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>119</v>
@@ -48969,7 +48969,7 @@
         <v>110</v>
       </c>
       <c r="E15" s="4">
-        <v>11000</v>
+        <v>81400</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>119</v>
@@ -49061,7 +49061,7 @@
         <v>120</v>
       </c>
       <c r="E16" s="4">
-        <v>12000</v>
+        <v>88800</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>119</v>
@@ -49153,7 +49153,7 @@
         <v>130</v>
       </c>
       <c r="E17" s="4">
-        <v>13000</v>
+        <v>96200</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>119</v>
@@ -49245,7 +49245,7 @@
         <v>140</v>
       </c>
       <c r="E18" s="4">
-        <v>14000</v>
+        <v>103600</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>119</v>
@@ -49337,7 +49337,7 @@
         <v>150</v>
       </c>
       <c r="E19" s="4">
-        <v>15000</v>
+        <v>111000</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>119</v>
@@ -49429,7 +49429,7 @@
         <v>160</v>
       </c>
       <c r="E20" s="4">
-        <v>16000</v>
+        <v>180800</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>119</v>
@@ -49521,7 +49521,7 @@
         <v>170</v>
       </c>
       <c r="E21" s="4">
-        <v>17000</v>
+        <v>192100</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>119</v>
@@ -49613,7 +49613,7 @@
         <v>180</v>
       </c>
       <c r="E22" s="4">
-        <v>18000</v>
+        <v>203400</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>119</v>
@@ -49705,7 +49705,7 @@
         <v>190</v>
       </c>
       <c r="E23" s="4">
-        <v>19000</v>
+        <v>214700</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>119</v>
@@ -49797,7 +49797,7 @@
         <v>200</v>
       </c>
       <c r="E24" s="4">
-        <v>20000</v>
+        <v>226000</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>119</v>
@@ -49889,7 +49889,7 @@
         <v>210</v>
       </c>
       <c r="E25" s="4">
-        <v>21000</v>
+        <v>237300</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>119</v>
@@ -49981,7 +49981,7 @@
         <v>220</v>
       </c>
       <c r="E26" s="4">
-        <v>22000</v>
+        <v>248600</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>119</v>
@@ -50073,7 +50073,7 @@
         <v>230</v>
       </c>
       <c r="E27" s="4">
-        <v>23000</v>
+        <v>259900</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>119</v>
@@ -50165,7 +50165,7 @@
         <v>240</v>
       </c>
       <c r="E28" s="4">
-        <v>24000</v>
+        <v>271200</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>119</v>
@@ -50257,7 +50257,7 @@
         <v>250</v>
       </c>
       <c r="E29" s="4">
-        <v>25000</v>
+        <v>282500</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>119</v>
@@ -50349,7 +50349,7 @@
         <v>260</v>
       </c>
       <c r="E30" s="4">
-        <v>26000</v>
+        <v>368940</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>119</v>
@@ -50441,7 +50441,7 @@
         <v>270</v>
       </c>
       <c r="E31" s="4">
-        <v>27000</v>
+        <v>383130</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>119</v>
@@ -50533,7 +50533,7 @@
         <v>280</v>
       </c>
       <c r="E32" s="4">
-        <v>28000</v>
+        <v>397320</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>119</v>
@@ -50625,7 +50625,7 @@
         <v>290</v>
       </c>
       <c r="E33" s="4">
-        <v>29000</v>
+        <v>411510</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>119</v>
@@ -50717,7 +50717,7 @@
         <v>300</v>
       </c>
       <c r="E34" s="4">
-        <v>30000</v>
+        <v>425700</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>119</v>
@@ -50809,7 +50809,7 @@
         <v>310</v>
       </c>
       <c r="E35" s="4">
-        <v>31000</v>
+        <v>439890</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>119</v>
@@ -50901,7 +50901,7 @@
         <v>320</v>
       </c>
       <c r="E36" s="4">
-        <v>32000</v>
+        <v>454080</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>119</v>
@@ -50993,7 +50993,7 @@
         <v>330</v>
       </c>
       <c r="E37" s="4">
-        <v>33000</v>
+        <v>468270</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>119</v>
@@ -51085,7 +51085,7 @@
         <v>340</v>
       </c>
       <c r="E38" s="4">
-        <v>34000</v>
+        <v>482460</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>119</v>
@@ -51177,7 +51177,7 @@
         <v>350</v>
       </c>
       <c r="E39" s="4">
-        <v>35000</v>
+        <v>496650</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>119</v>
@@ -51269,7 +51269,7 @@
         <v>360</v>
       </c>
       <c r="E40" s="4">
-        <v>36000</v>
+        <v>510840</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>119</v>
@@ -51361,7 +51361,7 @@
         <v>370</v>
       </c>
       <c r="E41" s="4">
-        <v>37000</v>
+        <v>525030</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>119</v>
@@ -51453,7 +51453,7 @@
         <v>380</v>
       </c>
       <c r="E42" s="4">
-        <v>38000</v>
+        <v>539220</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>119</v>
@@ -51545,7 +51545,7 @@
         <v>390</v>
       </c>
       <c r="E43" s="4">
-        <v>39000</v>
+        <v>553410</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>119</v>
@@ -51637,7 +51637,7 @@
         <v>400</v>
       </c>
       <c r="E44" s="4">
-        <v>40000</v>
+        <v>676000</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>119</v>
@@ -51729,7 +51729,7 @@
         <v>410</v>
       </c>
       <c r="E45" s="4">
-        <v>41000</v>
+        <v>692900</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>119</v>
@@ -51821,7 +51821,7 @@
         <v>420</v>
       </c>
       <c r="E46" s="4">
-        <v>42000</v>
+        <v>709800</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>119</v>
@@ -51913,7 +51913,7 @@
         <v>430</v>
       </c>
       <c r="E47" s="4">
-        <v>43000</v>
+        <v>726700</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>119</v>
@@ -52005,7 +52005,7 @@
         <v>440</v>
       </c>
       <c r="E48" s="4">
-        <v>44000</v>
+        <v>743600</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>119</v>
@@ -52097,7 +52097,7 @@
         <v>450</v>
       </c>
       <c r="E49" s="4">
-        <v>45000</v>
+        <v>760500</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>119</v>
@@ -52189,7 +52189,7 @@
         <v>460</v>
       </c>
       <c r="E50" s="4">
-        <v>46000</v>
+        <v>777400</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>119</v>
@@ -52281,7 +52281,7 @@
         <v>470</v>
       </c>
       <c r="E51" s="4">
-        <v>47000</v>
+        <v>794300</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>119</v>
@@ -52373,7 +52373,7 @@
         <v>480</v>
       </c>
       <c r="E52" s="4">
-        <v>48000</v>
+        <v>811200</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>119</v>
@@ -52465,7 +52465,7 @@
         <v>490</v>
       </c>
       <c r="E53" s="4">
-        <v>49000</v>
+        <v>828100</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>119</v>
@@ -52557,7 +52557,7 @@
         <v>500</v>
       </c>
       <c r="E54" s="4">
-        <v>50000</v>
+        <v>1040000</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>119</v>
@@ -52649,7 +52649,7 @@
         <v>510</v>
       </c>
       <c r="E55" s="4">
-        <v>51000</v>
+        <v>1060800</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>119</v>
@@ -52741,7 +52741,7 @@
         <v>520</v>
       </c>
       <c r="E56" s="4">
-        <v>52000</v>
+        <v>1081600</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>119</v>
@@ -52833,7 +52833,7 @@
         <v>530</v>
       </c>
       <c r="E57" s="4">
-        <v>53000</v>
+        <v>1102400</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>119</v>
@@ -52925,7 +52925,7 @@
         <v>540</v>
       </c>
       <c r="E58" s="4">
-        <v>54000</v>
+        <v>1123200</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>119</v>
@@ -53017,7 +53017,7 @@
         <v>550</v>
       </c>
       <c r="E59" s="4">
-        <v>55000</v>
+        <v>1144000</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>119</v>
@@ -53109,7 +53109,7 @@
         <v>560</v>
       </c>
       <c r="E60" s="4">
-        <v>56000</v>
+        <v>1164800</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>119</v>
@@ -53201,7 +53201,7 @@
         <v>570</v>
       </c>
       <c r="E61" s="4">
-        <v>57000</v>
+        <v>1185600</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>119</v>
@@ -53293,7 +53293,7 @@
         <v>580</v>
       </c>
       <c r="E62" s="4">
-        <v>58000</v>
+        <v>1206400</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>119</v>
@@ -53385,7 +53385,7 @@
         <v>590</v>
       </c>
       <c r="E63" s="4">
-        <v>59000</v>
+        <v>1227200</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>119</v>
@@ -53477,7 +53477,7 @@
         <v>600</v>
       </c>
       <c r="E64" s="4">
-        <v>60000</v>
+        <v>1421400</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>119</v>
@@ -53569,7 +53569,7 @@
         <v>610</v>
       </c>
       <c r="E65" s="4">
-        <v>61000</v>
+        <v>1445090</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>119</v>
@@ -53661,7 +53661,7 @@
         <v>620</v>
       </c>
       <c r="E66" s="4">
-        <v>62000</v>
+        <v>1468780</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>119</v>
@@ -53753,7 +53753,7 @@
         <v>630</v>
       </c>
       <c r="E67" s="4">
-        <v>63000</v>
+        <v>1492470</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>119</v>
@@ -53845,7 +53845,7 @@
         <v>640</v>
       </c>
       <c r="E68" s="4">
-        <v>64000</v>
+        <v>1516160</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>119</v>
@@ -53937,7 +53937,7 @@
         <v>650</v>
       </c>
       <c r="E69" s="4">
-        <v>65000</v>
+        <v>1539850</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>119</v>
@@ -54029,7 +54029,7 @@
         <v>660</v>
       </c>
       <c r="E70" s="4">
-        <v>66000</v>
+        <v>1563540</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>119</v>
@@ -54121,7 +54121,7 @@
         <v>670</v>
       </c>
       <c r="E71" s="4">
-        <v>67000</v>
+        <v>1587230</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>119</v>
@@ -54213,7 +54213,7 @@
         <v>680</v>
       </c>
       <c r="E72" s="4">
-        <v>68000</v>
+        <v>1610920</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>119</v>
@@ -54305,7 +54305,7 @@
         <v>690</v>
       </c>
       <c r="E73" s="4">
-        <v>69000</v>
+        <v>1634610</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>119</v>
@@ -54397,7 +54397,7 @@
         <v>700</v>
       </c>
       <c r="E74" s="4">
-        <v>70000</v>
+        <v>1848000</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>119</v>
@@ -54489,7 +54489,7 @@
         <v>710</v>
       </c>
       <c r="E75" s="4">
-        <v>71000</v>
+        <v>1874400</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>119</v>
@@ -54581,7 +54581,7 @@
         <v>720</v>
       </c>
       <c r="E76" s="4">
-        <v>72000</v>
+        <v>1900800</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>119</v>
@@ -54673,7 +54673,7 @@
         <v>730</v>
       </c>
       <c r="E77" s="4">
-        <v>73000</v>
+        <v>1927200</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>119</v>
@@ -54765,7 +54765,7 @@
         <v>740</v>
       </c>
       <c r="E78" s="4">
-        <v>74000</v>
+        <v>1953600</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>119</v>
@@ -54857,7 +54857,7 @@
         <v>750</v>
       </c>
       <c r="E79" s="4">
-        <v>75000</v>
+        <v>1980000</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>119</v>
@@ -54949,7 +54949,7 @@
         <v>760</v>
       </c>
       <c r="E80" s="4">
-        <v>76000</v>
+        <v>2006400</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>119</v>
@@ -55041,7 +55041,7 @@
         <v>770</v>
       </c>
       <c r="E81" s="4">
-        <v>77000</v>
+        <v>2032800</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>119</v>
@@ -55133,7 +55133,7 @@
         <v>780</v>
       </c>
       <c r="E82" s="4">
-        <v>78000</v>
+        <v>2059200</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>119</v>
@@ -55225,7 +55225,7 @@
         <v>790</v>
       </c>
       <c r="E83" s="4">
-        <v>79000</v>
+        <v>2085600</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>119</v>
@@ -55317,7 +55317,7 @@
         <v>800</v>
       </c>
       <c r="E84" s="4">
-        <v>80000</v>
+        <v>2424000</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>119</v>
@@ -55396,6 +55396,9 @@
       </c>
     </row>
     <row r="85" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="E85">
+        <v>2454300</v>
+      </c>
       <c r="J85">
         <v>388800</v>
       </c>
@@ -55413,6 +55416,9 @@
       </c>
     </row>
     <row r="86" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="E86">
+        <v>2484600</v>
+      </c>
       <c r="J86">
         <v>393600</v>
       </c>
@@ -55430,6 +55436,9 @@
       </c>
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="E87">
+        <v>2514900</v>
+      </c>
       <c r="J87">
         <v>398400</v>
       </c>
@@ -55447,6 +55456,9 @@
       </c>
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="E88">
+        <v>2545200</v>
+      </c>
       <c r="J88">
         <v>403200</v>
       </c>
@@ -55464,6 +55476,9 @@
       </c>
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="E89">
+        <v>2575500</v>
+      </c>
       <c r="J89">
         <v>408000</v>
       </c>
@@ -55481,6 +55496,9 @@
       </c>
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="E90">
+        <v>2605800</v>
+      </c>
       <c r="J90">
         <v>412800</v>
       </c>
@@ -55498,6 +55516,9 @@
       </c>
     </row>
     <row r="91" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="E91">
+        <v>2636100</v>
+      </c>
       <c r="J91">
         <v>417600</v>
       </c>
@@ -55515,6 +55536,9 @@
       </c>
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="E92">
+        <v>2666400</v>
+      </c>
       <c r="J92">
         <v>422400</v>
       </c>
@@ -55532,6 +55556,9 @@
       </c>
     </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="E93">
+        <v>2696700</v>
+      </c>
       <c r="J93">
         <v>427200</v>
       </c>
@@ -55549,6 +55576,9 @@
       </c>
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="E94">
+        <v>3149100</v>
+      </c>
       <c r="J94">
         <v>499500</v>
       </c>
@@ -55566,6 +55596,9 @@
       </c>
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="E95">
+        <v>3184090</v>
+      </c>
       <c r="J95">
         <v>505050</v>
       </c>
@@ -55583,6 +55616,9 @@
       </c>
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="E96">
+        <v>3219080</v>
+      </c>
       <c r="J96">
         <v>510600</v>
       </c>
@@ -55599,7 +55635,10 @@
         <v>13432</v>
       </c>
     </row>
-    <row r="97" spans="10:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="5:30" x14ac:dyDescent="0.2">
+      <c r="E97">
+        <v>3254070</v>
+      </c>
       <c r="J97">
         <v>516150</v>
       </c>
@@ -55616,7 +55655,10 @@
         <v>13578</v>
       </c>
     </row>
-    <row r="98" spans="10:30" x14ac:dyDescent="0.2">
+    <row r="98" spans="5:30" x14ac:dyDescent="0.2">
+      <c r="E98">
+        <v>3289060</v>
+      </c>
       <c r="J98">
         <v>521700</v>
       </c>
@@ -55633,7 +55675,10 @@
         <v>13724</v>
       </c>
     </row>
-    <row r="99" spans="10:30" x14ac:dyDescent="0.2">
+    <row r="99" spans="5:30" x14ac:dyDescent="0.2">
+      <c r="E99">
+        <v>3324050</v>
+      </c>
       <c r="J99">
         <v>527250</v>
       </c>
@@ -55650,7 +55695,10 @@
         <v>13870</v>
       </c>
     </row>
-    <row r="100" spans="10:30" x14ac:dyDescent="0.2">
+    <row r="100" spans="5:30" x14ac:dyDescent="0.2">
+      <c r="E100">
+        <v>3359040</v>
+      </c>
       <c r="J100">
         <v>532800</v>
       </c>
@@ -55667,7 +55715,10 @@
         <v>14016</v>
       </c>
     </row>
-    <row r="101" spans="10:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="5:30" x14ac:dyDescent="0.2">
+      <c r="E101">
+        <v>3394030</v>
+      </c>
       <c r="J101">
         <v>538350</v>
       </c>
@@ -55684,7 +55735,10 @@
         <v>14162</v>
       </c>
     </row>
-    <row r="102" spans="10:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="5:30" x14ac:dyDescent="0.2">
+      <c r="E102">
+        <v>3429020</v>
+      </c>
       <c r="J102">
         <v>543900</v>
       </c>
@@ -55701,7 +55755,10 @@
         <v>14308</v>
       </c>
     </row>
-    <row r="103" spans="10:30" x14ac:dyDescent="0.2">
+    <row r="103" spans="5:30" x14ac:dyDescent="0.2">
+      <c r="E103">
+        <v>3464010</v>
+      </c>
       <c r="J103">
         <v>549450</v>
       </c>
@@ -55718,7 +55775,10 @@
         <v>14454</v>
       </c>
     </row>
-    <row r="104" spans="10:30" x14ac:dyDescent="0.2">
+    <row r="104" spans="5:30" x14ac:dyDescent="0.2">
+      <c r="E104">
+        <v>3980000</v>
+      </c>
       <c r="J104">
         <v>630000</v>
       </c>

--- a/Excel/eqp.装备.xlsx
+++ b/Excel/eqp.装备.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DC0875-7F20-4D06-8FC4-5AA7E3E0B5DD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E57E26-7577-4A91-AB33-E4A3914924A8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -16365,7 +16365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I1003"/>
   <sheetViews>
-    <sheetView topLeftCell="A199" workbookViewId="0">
+    <sheetView topLeftCell="A154" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A1003"/>
     </sheetView>
   </sheetViews>
@@ -42133,8 +42133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I93" sqref="I93"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -47658,7 +47658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AD104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>

--- a/Excel/eqp.装备.xlsx
+++ b/Excel/eqp.装备.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E57E26-7577-4A91-AB33-E4A3914924A8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C46E261-EBD8-429F-8DEB-32151BB7E3E0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -6597,8 +6597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AR99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -42133,8 +42133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:I91"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/eqp.装备.xlsx
+++ b/Excel/eqp.装备.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C46E261-EBD8-429F-8DEB-32151BB7E3E0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D10308-3D64-4990-BAA5-13667C071074}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="533">
   <si>
     <t>sheet名</t>
   </si>
@@ -1635,6 +1635,12 @@
     <t>特级精炼石</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>龙晶</t>
+  </si>
+  <si>
+    <t>龙魂</t>
+  </si>
 </sst>
 </file>
 
@@ -2520,7 +2526,7 @@
   <dimension ref="A1:AD64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6597,8 +6603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AR99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -41711,7 +41717,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -42133,8 +42139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L76" sqref="L76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -42257,3275 +42263,3299 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
         <v>1011</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>1001</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4">
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
         <v>1012</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>1002</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>1013</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>1003</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>1014</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>1004</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>1015</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>1005</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>1016</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>1006</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10">
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4">
         <v>1017</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>1007</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
         <v>90</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>1018</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>1008</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>1021</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>1011</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
         <v>970</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1022</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1012</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>480</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1023</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1013</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4">
+        <v>480</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1024</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1014</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <v>480</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="B16" s="4">
+        <v>1025</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1015</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <v>480</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1026</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1016</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4">
+        <v>480</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1027</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1017</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4">
+        <v>730</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1028</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1018</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4">
+        <v>730</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1031</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1021</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4">
+        <v>2</v>
+      </c>
+      <c r="I20" s="4">
+        <v>12.19</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1032</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1022</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>3</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4">
+        <v>2</v>
+      </c>
+      <c r="I21" s="4">
+        <v>6.09</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1033</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1023</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>3</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4">
+        <v>2</v>
+      </c>
+      <c r="I22" s="4">
+        <v>6.09</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1034</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1024</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>3</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4">
+        <v>2</v>
+      </c>
+      <c r="I23" s="4">
+        <v>6.09</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1035</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1025</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>3</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4">
+        <v>2</v>
+      </c>
+      <c r="I24" s="4">
+        <v>6.09</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>22</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1036</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1026</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>3</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4">
+        <v>2</v>
+      </c>
+      <c r="I25" s="4">
+        <v>6.09</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>23</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1037</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1027</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>3</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4">
+        <v>2</v>
+      </c>
+      <c r="I26" s="4">
+        <v>9.14</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0</v>
+      </c>
+      <c r="L26" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>24</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1038</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1028</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>3</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4">
+        <v>2</v>
+      </c>
+      <c r="I27" s="4">
+        <v>9.14</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1041</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1031</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4">
+        <v>2</v>
+      </c>
+      <c r="I28" s="4">
+        <v>18.28</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0</v>
+      </c>
+      <c r="L28" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1042</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1032</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>2</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="H29" s="4">
+        <v>2</v>
+      </c>
+      <c r="I29" s="4">
+        <v>9.14</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1043</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1033</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>2</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+      <c r="H30" s="4">
+        <v>2</v>
+      </c>
+      <c r="I30" s="4">
+        <v>9.14</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0</v>
+      </c>
+      <c r="L30" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1044</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1034</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4">
+        <v>2</v>
+      </c>
+      <c r="I31" s="4">
+        <v>9.14</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0</v>
+      </c>
+      <c r="L31" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>29</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1045</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1035</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>2</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="H32" s="4">
+        <v>2</v>
+      </c>
+      <c r="I32" s="4">
+        <v>9.14</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0</v>
+      </c>
+      <c r="L32" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>30</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1046</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1036</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+      <c r="H33" s="4">
+        <v>2</v>
+      </c>
+      <c r="I33" s="4">
+        <v>9.14</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0</v>
+      </c>
+      <c r="L33" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>31</v>
+      </c>
+      <c r="B34" s="4">
+        <v>1047</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1037</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>2</v>
+      </c>
+      <c r="G34" s="4">
+        <v>1</v>
+      </c>
+      <c r="H34" s="4">
+        <v>2</v>
+      </c>
+      <c r="I34" s="4">
+        <v>13.71</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0</v>
+      </c>
+      <c r="L34" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>32</v>
+      </c>
+      <c r="B35" s="4">
+        <v>1048</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1038</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>2</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
+      <c r="H35" s="4">
+        <v>2</v>
+      </c>
+      <c r="I35" s="4">
+        <v>13.71</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K35" s="4">
+        <v>0</v>
+      </c>
+      <c r="L35" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>33</v>
+      </c>
+      <c r="B36" s="4">
+        <v>1051</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1041</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>2</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+      <c r="H36" s="4">
+        <v>2</v>
+      </c>
+      <c r="I36" s="4">
+        <v>24.38</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K36" s="4">
+        <v>0</v>
+      </c>
+      <c r="L36" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>34</v>
+      </c>
+      <c r="B37" s="4">
+        <v>1052</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1042</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
+        <v>2</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1</v>
+      </c>
+      <c r="H37" s="4">
+        <v>2</v>
+      </c>
+      <c r="I37" s="4">
+        <v>12.19</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0</v>
+      </c>
+      <c r="L37" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>35</v>
+      </c>
+      <c r="B38" s="4">
+        <v>1053</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1043</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>2</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1</v>
+      </c>
+      <c r="H38" s="4">
+        <v>2</v>
+      </c>
+      <c r="I38" s="4">
+        <v>12.19</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K38" s="4">
+        <v>0</v>
+      </c>
+      <c r="L38" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>36</v>
+      </c>
+      <c r="B39" s="4">
+        <v>1054</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1044</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>2</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="4">
+        <v>2</v>
+      </c>
+      <c r="I39" s="4">
+        <v>12.19</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K39" s="4">
+        <v>0</v>
+      </c>
+      <c r="L39" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>37</v>
+      </c>
+      <c r="B40" s="4">
+        <v>1055</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1045</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>2</v>
+      </c>
+      <c r="G40" s="4">
+        <v>1</v>
+      </c>
+      <c r="H40" s="4">
+        <v>2</v>
+      </c>
+      <c r="I40" s="4">
+        <v>12.19</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K40" s="4">
+        <v>0</v>
+      </c>
+      <c r="L40" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>38</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1056</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1046</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>2</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+      <c r="H41" s="4">
+        <v>2</v>
+      </c>
+      <c r="I41" s="4">
+        <v>12.19</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K41" s="4">
+        <v>0</v>
+      </c>
+      <c r="L41" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>39</v>
+      </c>
+      <c r="B42" s="4">
+        <v>1057</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1047</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <v>2</v>
+      </c>
+      <c r="G42" s="4">
+        <v>1</v>
+      </c>
+      <c r="H42" s="4">
+        <v>2</v>
+      </c>
+      <c r="I42" s="4">
+        <v>18.28</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K42" s="4">
+        <v>0</v>
+      </c>
+      <c r="L42" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>40</v>
+      </c>
+      <c r="B43" s="4">
+        <v>1058</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1048</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>2</v>
+      </c>
+      <c r="G43" s="4">
+        <v>1</v>
+      </c>
+      <c r="H43" s="4">
+        <v>2</v>
+      </c>
+      <c r="I43" s="4">
+        <v>18.28</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K43" s="4">
+        <v>0</v>
+      </c>
+      <c r="L43" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>41</v>
+      </c>
+      <c r="B44" s="4">
+        <v>1061</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1051</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
+        <v>3</v>
+      </c>
+      <c r="G44" s="4">
+        <v>1</v>
+      </c>
+      <c r="H44" s="4">
+        <v>2</v>
+      </c>
+      <c r="I44" s="4">
+        <v>48.76</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K44" s="4">
+        <v>0</v>
+      </c>
+      <c r="L44" s="4">
         <v>10</v>
       </c>
-      <c r="B13">
-        <v>1022</v>
-      </c>
-      <c r="C13" t="s">
-        <v>214</v>
-      </c>
-      <c r="D13">
-        <v>1012</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>480</v>
-      </c>
-      <c r="J13">
-        <v>13</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <v>1023</v>
-      </c>
-      <c r="C14" t="s">
-        <v>215</v>
-      </c>
-      <c r="D14">
-        <v>1013</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>480</v>
-      </c>
-      <c r="J14">
-        <v>13</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>1024</v>
-      </c>
-      <c r="C15" t="s">
-        <v>216</v>
-      </c>
-      <c r="D15">
-        <v>1014</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>480</v>
-      </c>
-      <c r="J15">
-        <v>13</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16">
-        <v>1025</v>
-      </c>
-      <c r="C16" t="s">
-        <v>217</v>
-      </c>
-      <c r="D16">
-        <v>1015</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>480</v>
-      </c>
-      <c r="J16">
-        <v>13</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17">
-        <v>1026</v>
-      </c>
-      <c r="C17" t="s">
-        <v>218</v>
-      </c>
-      <c r="D17">
-        <v>1016</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>480</v>
-      </c>
-      <c r="J17">
-        <v>13</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18">
-        <v>1027</v>
-      </c>
-      <c r="C18" t="s">
-        <v>219</v>
-      </c>
-      <c r="D18">
-        <v>1017</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>730</v>
-      </c>
-      <c r="J18">
-        <v>13</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="B19">
-        <v>1028</v>
-      </c>
-      <c r="C19" t="s">
-        <v>220</v>
-      </c>
-      <c r="D19">
-        <v>1018</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>730</v>
-      </c>
-      <c r="J19">
-        <v>13</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>17</v>
-      </c>
-      <c r="B20">
-        <v>1031</v>
-      </c>
-      <c r="C20" t="s">
-        <v>221</v>
-      </c>
-      <c r="D20">
-        <v>1021</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
+    </row>
+    <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>42</v>
+      </c>
+      <c r="B45" s="4">
+        <v>1062</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1052</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0</v>
+      </c>
+      <c r="F45" s="4">
         <v>3</v>
       </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-      <c r="I20">
-        <v>12.19</v>
-      </c>
-      <c r="J20">
-        <v>13</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="B21">
-        <v>1032</v>
-      </c>
-      <c r="C21" t="s">
-        <v>222</v>
-      </c>
-      <c r="D21">
-        <v>1022</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
+      <c r="G45" s="4">
+        <v>1</v>
+      </c>
+      <c r="H45" s="4">
+        <v>2</v>
+      </c>
+      <c r="I45" s="4">
+        <v>24.38</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K45" s="4">
+        <v>0</v>
+      </c>
+      <c r="L45" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>43</v>
+      </c>
+      <c r="B46" s="4">
+        <v>1063</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1053</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0</v>
+      </c>
+      <c r="F46" s="4">
         <v>3</v>
       </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21">
-        <v>6.09</v>
-      </c>
-      <c r="J21">
-        <v>13</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>19</v>
-      </c>
-      <c r="B22">
-        <v>1033</v>
-      </c>
-      <c r="C22" t="s">
-        <v>223</v>
-      </c>
-      <c r="D22">
-        <v>1023</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
+      <c r="G46" s="4">
+        <v>1</v>
+      </c>
+      <c r="H46" s="4">
+        <v>2</v>
+      </c>
+      <c r="I46" s="4">
+        <v>24.38</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K46" s="4">
+        <v>0</v>
+      </c>
+      <c r="L46" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>44</v>
+      </c>
+      <c r="B47" s="4">
+        <v>1064</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1054</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0</v>
+      </c>
+      <c r="F47" s="4">
         <v>3</v>
       </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>2</v>
-      </c>
-      <c r="I22">
-        <v>6.09</v>
-      </c>
-      <c r="J22">
-        <v>13</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="G47" s="4">
+        <v>1</v>
+      </c>
+      <c r="H47" s="4">
+        <v>2</v>
+      </c>
+      <c r="I47" s="4">
+        <v>24.38</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K47" s="4">
+        <v>0</v>
+      </c>
+      <c r="L47" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>45</v>
+      </c>
+      <c r="B48" s="4">
+        <v>1065</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1055</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0</v>
+      </c>
+      <c r="F48" s="4">
+        <v>3</v>
+      </c>
+      <c r="G48" s="4">
+        <v>1</v>
+      </c>
+      <c r="H48" s="4">
+        <v>2</v>
+      </c>
+      <c r="I48" s="4">
+        <v>24.38</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K48" s="4">
+        <v>0</v>
+      </c>
+      <c r="L48" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>46</v>
+      </c>
+      <c r="B49" s="4">
+        <v>1066</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1056</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4">
+        <v>3</v>
+      </c>
+      <c r="G49" s="4">
+        <v>1</v>
+      </c>
+      <c r="H49" s="4">
+        <v>2</v>
+      </c>
+      <c r="I49" s="4">
+        <v>24.38</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K49" s="4">
+        <v>0</v>
+      </c>
+      <c r="L49" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>47</v>
+      </c>
+      <c r="B50" s="4">
+        <v>1067</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D50" s="4">
+        <v>1057</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
+      <c r="F50" s="4">
+        <v>3</v>
+      </c>
+      <c r="G50" s="4">
+        <v>1</v>
+      </c>
+      <c r="H50" s="4">
+        <v>2</v>
+      </c>
+      <c r="I50" s="4">
+        <v>36.57</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K50" s="4">
+        <v>0</v>
+      </c>
+      <c r="L50" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>48</v>
+      </c>
+      <c r="B51" s="4">
+        <v>1068</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D51" s="4">
+        <v>1058</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4">
+        <v>3</v>
+      </c>
+      <c r="G51" s="4">
+        <v>1</v>
+      </c>
+      <c r="H51" s="4">
+        <v>2</v>
+      </c>
+      <c r="I51" s="4">
+        <v>36.57</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K51" s="4">
+        <v>0</v>
+      </c>
+      <c r="L51" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>49</v>
+      </c>
+      <c r="B52" s="4">
+        <v>1071</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1061</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4">
+        <v>2</v>
+      </c>
+      <c r="G52" s="4">
+        <v>1</v>
+      </c>
+      <c r="H52" s="4">
+        <v>2</v>
+      </c>
+      <c r="I52" s="4">
+        <v>60.96</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K52" s="4">
+        <v>0</v>
+      </c>
+      <c r="L52" s="4">
         <v>20</v>
       </c>
-      <c r="B23">
-        <v>1034</v>
-      </c>
-      <c r="C23" t="s">
-        <v>224</v>
-      </c>
-      <c r="D23">
-        <v>1024</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
+    </row>
+    <row r="53" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>50</v>
+      </c>
+      <c r="B53" s="4">
+        <v>1072</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1062</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4">
+        <v>2</v>
+      </c>
+      <c r="G53" s="4">
+        <v>1</v>
+      </c>
+      <c r="H53" s="4">
+        <v>2</v>
+      </c>
+      <c r="I53" s="4">
+        <v>30.48</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K53" s="4">
+        <v>0</v>
+      </c>
+      <c r="L53" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>51</v>
+      </c>
+      <c r="B54" s="4">
+        <v>1073</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1063</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0</v>
+      </c>
+      <c r="F54" s="4">
+        <v>2</v>
+      </c>
+      <c r="G54" s="4">
+        <v>1</v>
+      </c>
+      <c r="H54" s="4">
+        <v>2</v>
+      </c>
+      <c r="I54" s="4">
+        <v>30.48</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K54" s="4">
+        <v>0</v>
+      </c>
+      <c r="L54" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <v>52</v>
+      </c>
+      <c r="B55" s="4">
+        <v>1074</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D55" s="4">
+        <v>1064</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0</v>
+      </c>
+      <c r="F55" s="4">
+        <v>2</v>
+      </c>
+      <c r="G55" s="4">
+        <v>1</v>
+      </c>
+      <c r="H55" s="4">
+        <v>2</v>
+      </c>
+      <c r="I55" s="4">
+        <v>30.48</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K55" s="4">
+        <v>0</v>
+      </c>
+      <c r="L55" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>53</v>
+      </c>
+      <c r="B56" s="4">
+        <v>1075</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1065</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0</v>
+      </c>
+      <c r="F56" s="4">
+        <v>2</v>
+      </c>
+      <c r="G56" s="4">
+        <v>1</v>
+      </c>
+      <c r="H56" s="4">
+        <v>2</v>
+      </c>
+      <c r="I56" s="4">
+        <v>30.48</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K56" s="4">
+        <v>0</v>
+      </c>
+      <c r="L56" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>54</v>
+      </c>
+      <c r="B57" s="4">
+        <v>1076</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D57" s="4">
+        <v>1066</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4">
+        <v>2</v>
+      </c>
+      <c r="G57" s="4">
+        <v>1</v>
+      </c>
+      <c r="H57" s="4">
+        <v>2</v>
+      </c>
+      <c r="I57" s="4">
+        <v>30.48</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K57" s="4">
+        <v>0</v>
+      </c>
+      <c r="L57" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>55</v>
+      </c>
+      <c r="B58" s="4">
+        <v>1077</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D58" s="4">
+        <v>1067</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4">
+        <v>2</v>
+      </c>
+      <c r="G58" s="4">
+        <v>1</v>
+      </c>
+      <c r="H58" s="4">
+        <v>2</v>
+      </c>
+      <c r="I58" s="4">
+        <v>45.72</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K58" s="4">
+        <v>0</v>
+      </c>
+      <c r="L58" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>56</v>
+      </c>
+      <c r="B59" s="4">
+        <v>1078</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1068</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
+        <v>2</v>
+      </c>
+      <c r="G59" s="4">
+        <v>1</v>
+      </c>
+      <c r="H59" s="4">
+        <v>2</v>
+      </c>
+      <c r="I59" s="4">
+        <v>45.72</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K59" s="4">
+        <v>0</v>
+      </c>
+      <c r="L59" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>57</v>
+      </c>
+      <c r="B60" s="4">
+        <v>1081</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D60" s="4">
+        <v>1071</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4">
+        <v>2</v>
+      </c>
+      <c r="G60" s="4">
+        <v>1</v>
+      </c>
+      <c r="H60" s="4">
+        <v>2</v>
+      </c>
+      <c r="I60" s="4">
+        <v>60.96</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K60" s="4">
+        <v>0</v>
+      </c>
+      <c r="L60" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
+        <v>58</v>
+      </c>
+      <c r="B61" s="4">
+        <v>1082</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D61" s="4">
+        <v>1072</v>
+      </c>
+      <c r="E61" s="4">
+        <v>0</v>
+      </c>
+      <c r="F61" s="4">
+        <v>2</v>
+      </c>
+      <c r="G61" s="4">
+        <v>1</v>
+      </c>
+      <c r="H61" s="4">
+        <v>2</v>
+      </c>
+      <c r="I61" s="4">
+        <v>30.48</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K61" s="4">
+        <v>0</v>
+      </c>
+      <c r="L61" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
+        <v>59</v>
+      </c>
+      <c r="B62" s="4">
+        <v>1083</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D62" s="4">
+        <v>1073</v>
+      </c>
+      <c r="E62" s="4">
+        <v>0</v>
+      </c>
+      <c r="F62" s="4">
+        <v>2</v>
+      </c>
+      <c r="G62" s="4">
+        <v>1</v>
+      </c>
+      <c r="H62" s="4">
+        <v>2</v>
+      </c>
+      <c r="I62" s="4">
+        <v>30.48</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K62" s="4">
+        <v>0</v>
+      </c>
+      <c r="L62" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
+        <v>60</v>
+      </c>
+      <c r="B63" s="4">
+        <v>1084</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D63" s="4">
+        <v>1074</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0</v>
+      </c>
+      <c r="F63" s="4">
+        <v>2</v>
+      </c>
+      <c r="G63" s="4">
+        <v>1</v>
+      </c>
+      <c r="H63" s="4">
+        <v>2</v>
+      </c>
+      <c r="I63" s="4">
+        <v>30.48</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K63" s="4">
+        <v>0</v>
+      </c>
+      <c r="L63" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
+        <v>61</v>
+      </c>
+      <c r="B64" s="4">
+        <v>1085</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D64" s="4">
+        <v>1075</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0</v>
+      </c>
+      <c r="F64" s="4">
+        <v>2</v>
+      </c>
+      <c r="G64" s="4">
+        <v>1</v>
+      </c>
+      <c r="H64" s="4">
+        <v>2</v>
+      </c>
+      <c r="I64" s="4">
+        <v>30.48</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K64" s="4">
+        <v>0</v>
+      </c>
+      <c r="L64" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
+        <v>62</v>
+      </c>
+      <c r="B65" s="4">
+        <v>1086</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1076</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
+        <v>2</v>
+      </c>
+      <c r="G65" s="4">
+        <v>1</v>
+      </c>
+      <c r="H65" s="4">
+        <v>2</v>
+      </c>
+      <c r="I65" s="4">
+        <v>30.48</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K65" s="4">
+        <v>0</v>
+      </c>
+      <c r="L65" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <v>63</v>
+      </c>
+      <c r="B66" s="4">
+        <v>1087</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D66" s="4">
+        <v>1077</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0</v>
+      </c>
+      <c r="F66" s="4">
+        <v>2</v>
+      </c>
+      <c r="G66" s="4">
+        <v>1</v>
+      </c>
+      <c r="H66" s="4">
+        <v>2</v>
+      </c>
+      <c r="I66" s="4">
+        <v>45.72</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K66" s="4">
+        <v>0</v>
+      </c>
+      <c r="L66" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
+        <v>64</v>
+      </c>
+      <c r="B67" s="4">
+        <v>1088</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D67" s="4">
+        <v>1078</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0</v>
+      </c>
+      <c r="F67" s="4">
+        <v>2</v>
+      </c>
+      <c r="G67" s="4">
+        <v>1</v>
+      </c>
+      <c r="H67" s="4">
+        <v>2</v>
+      </c>
+      <c r="I67" s="4">
+        <v>45.72</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K67" s="4">
+        <v>0</v>
+      </c>
+      <c r="L67" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
+        <v>65</v>
+      </c>
+      <c r="B68" s="4">
+        <v>1091</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D68" s="4">
+        <v>1081</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4">
         <v>3</v>
       </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-      <c r="I23">
-        <v>6.09</v>
-      </c>
-      <c r="J23">
-        <v>13</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>21</v>
-      </c>
-      <c r="B24">
-        <v>1035</v>
-      </c>
-      <c r="C24" t="s">
-        <v>225</v>
-      </c>
-      <c r="D24">
-        <v>1025</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
+      <c r="G68" s="4">
+        <v>1</v>
+      </c>
+      <c r="H68" s="4">
+        <v>2</v>
+      </c>
+      <c r="I68" s="4">
+        <v>97.53</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K68" s="4">
+        <v>0</v>
+      </c>
+      <c r="L68" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
+        <v>66</v>
+      </c>
+      <c r="B69" s="4">
+        <v>1092</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D69" s="4">
+        <v>1082</v>
+      </c>
+      <c r="E69" s="4">
+        <v>0</v>
+      </c>
+      <c r="F69" s="4">
         <v>3</v>
       </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>2</v>
-      </c>
-      <c r="I24">
-        <v>6.09</v>
-      </c>
-      <c r="J24">
-        <v>13</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>22</v>
-      </c>
-      <c r="B25">
-        <v>1036</v>
-      </c>
-      <c r="C25" t="s">
-        <v>226</v>
-      </c>
-      <c r="D25">
-        <v>1026</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
+      <c r="G69" s="4">
+        <v>1</v>
+      </c>
+      <c r="H69" s="4">
+        <v>2</v>
+      </c>
+      <c r="I69" s="4">
+        <v>48.76</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K69" s="4">
+        <v>0</v>
+      </c>
+      <c r="L69" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
+        <v>67</v>
+      </c>
+      <c r="B70" s="4">
+        <v>1093</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D70" s="4">
+        <v>1083</v>
+      </c>
+      <c r="E70" s="4">
+        <v>0</v>
+      </c>
+      <c r="F70" s="4">
         <v>3</v>
       </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>2</v>
-      </c>
-      <c r="I25">
-        <v>6.09</v>
-      </c>
-      <c r="J25">
-        <v>13</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>23</v>
-      </c>
-      <c r="B26">
-        <v>1037</v>
-      </c>
-      <c r="C26" t="s">
-        <v>227</v>
-      </c>
-      <c r="D26">
-        <v>1027</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
+      <c r="G70" s="4">
+        <v>1</v>
+      </c>
+      <c r="H70" s="4">
+        <v>2</v>
+      </c>
+      <c r="I70" s="4">
+        <v>48.76</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K70" s="4">
+        <v>0</v>
+      </c>
+      <c r="L70" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
+        <v>68</v>
+      </c>
+      <c r="B71" s="4">
+        <v>1094</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D71" s="4">
+        <v>1084</v>
+      </c>
+      <c r="E71" s="4">
+        <v>0</v>
+      </c>
+      <c r="F71" s="4">
         <v>3</v>
       </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>2</v>
-      </c>
-      <c r="I26">
-        <v>9.14</v>
-      </c>
-      <c r="J26">
-        <v>13</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>24</v>
-      </c>
-      <c r="B27">
-        <v>1038</v>
-      </c>
-      <c r="C27" t="s">
-        <v>228</v>
-      </c>
-      <c r="D27">
-        <v>1028</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
+      <c r="G71" s="4">
+        <v>1</v>
+      </c>
+      <c r="H71" s="4">
+        <v>2</v>
+      </c>
+      <c r="I71" s="4">
+        <v>48.76</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K71" s="4">
+        <v>0</v>
+      </c>
+      <c r="L71" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
+        <v>69</v>
+      </c>
+      <c r="B72" s="4">
+        <v>1095</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D72" s="4">
+        <v>1085</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0</v>
+      </c>
+      <c r="F72" s="4">
         <v>3</v>
       </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>2</v>
-      </c>
-      <c r="I27">
-        <v>9.14</v>
-      </c>
-      <c r="J27">
-        <v>13</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>25</v>
-      </c>
-      <c r="B28">
-        <v>1041</v>
-      </c>
-      <c r="C28" t="s">
-        <v>229</v>
-      </c>
-      <c r="D28">
-        <v>1031</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>2</v>
-      </c>
-      <c r="I28">
-        <v>18.28</v>
-      </c>
-      <c r="J28">
-        <v>13</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>26</v>
-      </c>
-      <c r="B29">
-        <v>1042</v>
-      </c>
-      <c r="C29" t="s">
-        <v>230</v>
-      </c>
-      <c r="D29">
-        <v>1032</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>2</v>
-      </c>
-      <c r="I29">
-        <v>9.14</v>
-      </c>
-      <c r="J29">
-        <v>13</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>27</v>
-      </c>
-      <c r="B30">
-        <v>1043</v>
-      </c>
-      <c r="C30" t="s">
-        <v>231</v>
-      </c>
-      <c r="D30">
-        <v>1033</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>2</v>
-      </c>
-      <c r="I30">
-        <v>9.14</v>
-      </c>
-      <c r="J30">
-        <v>13</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>28</v>
-      </c>
-      <c r="B31">
-        <v>1044</v>
-      </c>
-      <c r="C31" t="s">
-        <v>232</v>
-      </c>
-      <c r="D31">
-        <v>1034</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>2</v>
-      </c>
-      <c r="I31">
-        <v>9.14</v>
-      </c>
-      <c r="J31">
-        <v>13</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>29</v>
-      </c>
-      <c r="B32">
-        <v>1045</v>
-      </c>
-      <c r="C32" t="s">
-        <v>233</v>
-      </c>
-      <c r="D32">
-        <v>1035</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>2</v>
-      </c>
-      <c r="I32">
-        <v>9.14</v>
-      </c>
-      <c r="J32">
-        <v>13</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>30</v>
-      </c>
-      <c r="B33">
-        <v>1046</v>
-      </c>
-      <c r="C33" t="s">
-        <v>234</v>
-      </c>
-      <c r="D33">
-        <v>1036</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>2</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>2</v>
-      </c>
-      <c r="I33">
-        <v>9.14</v>
-      </c>
-      <c r="J33">
-        <v>13</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>31</v>
-      </c>
-      <c r="B34">
-        <v>1047</v>
-      </c>
-      <c r="C34" t="s">
-        <v>235</v>
-      </c>
-      <c r="D34">
-        <v>1037</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>2</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>2</v>
-      </c>
-      <c r="I34">
-        <v>13.71</v>
-      </c>
-      <c r="J34">
-        <v>13</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>32</v>
-      </c>
-      <c r="B35">
-        <v>1048</v>
-      </c>
-      <c r="C35" t="s">
-        <v>236</v>
-      </c>
-      <c r="D35">
-        <v>1038</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>2</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>2</v>
-      </c>
-      <c r="I35">
-        <v>13.71</v>
-      </c>
-      <c r="J35">
-        <v>13</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>33</v>
-      </c>
-      <c r="B36">
-        <v>1051</v>
-      </c>
-      <c r="C36" t="s">
-        <v>237</v>
-      </c>
-      <c r="D36">
-        <v>1041</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>2</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>2</v>
-      </c>
-      <c r="I36">
-        <v>24.38</v>
-      </c>
-      <c r="J36">
-        <v>13</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>34</v>
-      </c>
-      <c r="B37">
-        <v>1052</v>
-      </c>
-      <c r="C37" t="s">
-        <v>238</v>
-      </c>
-      <c r="D37">
-        <v>1042</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>2</v>
-      </c>
-      <c r="I37">
-        <v>12.19</v>
-      </c>
-      <c r="J37">
-        <v>13</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>35</v>
-      </c>
-      <c r="B38">
-        <v>1053</v>
-      </c>
-      <c r="C38" t="s">
-        <v>239</v>
-      </c>
-      <c r="D38">
-        <v>1043</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>2</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>2</v>
-      </c>
-      <c r="I38">
-        <v>12.19</v>
-      </c>
-      <c r="J38">
-        <v>13</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>36</v>
-      </c>
-      <c r="B39">
-        <v>1054</v>
-      </c>
-      <c r="C39" t="s">
-        <v>240</v>
-      </c>
-      <c r="D39">
-        <v>1044</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>2</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>2</v>
-      </c>
-      <c r="I39">
-        <v>12.19</v>
-      </c>
-      <c r="J39">
-        <v>13</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>37</v>
-      </c>
-      <c r="B40">
-        <v>1055</v>
-      </c>
-      <c r="C40" t="s">
-        <v>241</v>
-      </c>
-      <c r="D40">
-        <v>1045</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>2</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>2</v>
-      </c>
-      <c r="I40">
-        <v>12.19</v>
-      </c>
-      <c r="J40">
-        <v>13</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>38</v>
-      </c>
-      <c r="B41">
-        <v>1056</v>
-      </c>
-      <c r="C41" t="s">
-        <v>242</v>
-      </c>
-      <c r="D41">
-        <v>1046</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>2</v>
-      </c>
-      <c r="I41">
-        <v>12.19</v>
-      </c>
-      <c r="J41">
-        <v>13</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>39</v>
-      </c>
-      <c r="B42">
-        <v>1057</v>
-      </c>
-      <c r="C42" t="s">
-        <v>243</v>
-      </c>
-      <c r="D42">
-        <v>1047</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>2</v>
-      </c>
-      <c r="I42">
-        <v>18.28</v>
-      </c>
-      <c r="J42">
-        <v>13</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>40</v>
-      </c>
-      <c r="B43">
-        <v>1058</v>
-      </c>
-      <c r="C43" t="s">
-        <v>244</v>
-      </c>
-      <c r="D43">
-        <v>1048</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>2</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>2</v>
-      </c>
-      <c r="I43">
-        <v>18.28</v>
-      </c>
-      <c r="J43">
-        <v>13</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>41</v>
-      </c>
-      <c r="B44">
-        <v>1061</v>
-      </c>
-      <c r="C44" t="s">
-        <v>245</v>
-      </c>
-      <c r="D44">
-        <v>1051</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
+      <c r="G72" s="4">
+        <v>1</v>
+      </c>
+      <c r="H72" s="4">
+        <v>2</v>
+      </c>
+      <c r="I72" s="4">
+        <v>48.76</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K72" s="4">
+        <v>0</v>
+      </c>
+      <c r="L72" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
+        <v>70</v>
+      </c>
+      <c r="B73" s="4">
+        <v>1096</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1086</v>
+      </c>
+      <c r="E73" s="4">
+        <v>0</v>
+      </c>
+      <c r="F73" s="4">
         <v>3</v>
       </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>2</v>
-      </c>
-      <c r="I44">
+      <c r="G73" s="4">
+        <v>1</v>
+      </c>
+      <c r="H73" s="4">
+        <v>2</v>
+      </c>
+      <c r="I73" s="4">
         <v>48.76</v>
       </c>
-      <c r="J44">
-        <v>13</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>42</v>
-      </c>
-      <c r="B45">
-        <v>1062</v>
-      </c>
-      <c r="C45" t="s">
-        <v>246</v>
-      </c>
-      <c r="D45">
-        <v>1052</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
+      <c r="J73" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K73" s="4">
+        <v>0</v>
+      </c>
+      <c r="L73" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
+        <v>71</v>
+      </c>
+      <c r="B74" s="4">
+        <v>1097</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D74" s="4">
+        <v>1087</v>
+      </c>
+      <c r="E74" s="4">
+        <v>0</v>
+      </c>
+      <c r="F74" s="4">
         <v>3</v>
       </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45">
-        <v>2</v>
-      </c>
-      <c r="I45">
-        <v>24.38</v>
-      </c>
-      <c r="J45">
-        <v>13</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>43</v>
-      </c>
-      <c r="B46">
-        <v>1063</v>
-      </c>
-      <c r="C46" t="s">
-        <v>247</v>
-      </c>
-      <c r="D46">
-        <v>1053</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
+      <c r="G74" s="4">
+        <v>1</v>
+      </c>
+      <c r="H74" s="4">
+        <v>2</v>
+      </c>
+      <c r="I74" s="4">
+        <v>73.150000000000006</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K74" s="4">
+        <v>0</v>
+      </c>
+      <c r="L74" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="4">
+        <v>72</v>
+      </c>
+      <c r="B75" s="4">
+        <v>1098</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D75" s="4">
+        <v>1088</v>
+      </c>
+      <c r="E75" s="4">
+        <v>0</v>
+      </c>
+      <c r="F75" s="4">
         <v>3</v>
       </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>2</v>
-      </c>
-      <c r="I46">
-        <v>24.38</v>
-      </c>
-      <c r="J46">
-        <v>13</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>44</v>
-      </c>
-      <c r="B47">
-        <v>1064</v>
-      </c>
-      <c r="C47" t="s">
-        <v>248</v>
-      </c>
-      <c r="D47">
-        <v>1054</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>3</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>2</v>
-      </c>
-      <c r="I47">
-        <v>24.38</v>
-      </c>
-      <c r="J47">
-        <v>13</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>45</v>
-      </c>
-      <c r="B48">
-        <v>1065</v>
-      </c>
-      <c r="C48" t="s">
-        <v>249</v>
-      </c>
-      <c r="D48">
-        <v>1055</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>3</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>2</v>
-      </c>
-      <c r="I48">
-        <v>24.38</v>
-      </c>
-      <c r="J48">
-        <v>13</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>46</v>
-      </c>
-      <c r="B49">
-        <v>1066</v>
-      </c>
-      <c r="C49" t="s">
-        <v>250</v>
-      </c>
-      <c r="D49">
-        <v>1056</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>3</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>2</v>
-      </c>
-      <c r="I49">
-        <v>24.38</v>
-      </c>
-      <c r="J49">
-        <v>13</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>47</v>
-      </c>
-      <c r="B50">
-        <v>1067</v>
-      </c>
-      <c r="C50" t="s">
-        <v>251</v>
-      </c>
-      <c r="D50">
-        <v>1057</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>3</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>2</v>
-      </c>
-      <c r="I50">
-        <v>36.57</v>
-      </c>
-      <c r="J50">
-        <v>13</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>48</v>
-      </c>
-      <c r="B51">
-        <v>1068</v>
-      </c>
-      <c r="C51" t="s">
-        <v>252</v>
-      </c>
-      <c r="D51">
-        <v>1058</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>3</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>2</v>
-      </c>
-      <c r="I51">
-        <v>36.57</v>
-      </c>
-      <c r="J51">
-        <v>13</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>49</v>
-      </c>
-      <c r="B52">
-        <v>1071</v>
-      </c>
-      <c r="C52" t="s">
-        <v>253</v>
-      </c>
-      <c r="D52">
-        <v>1061</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>2</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>2</v>
-      </c>
-      <c r="I52">
+      <c r="G75" s="4">
+        <v>1</v>
+      </c>
+      <c r="H75" s="4">
+        <v>2</v>
+      </c>
+      <c r="I75" s="4">
+        <v>73.150000000000006</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K75" s="4">
+        <v>0</v>
+      </c>
+      <c r="L75" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="4">
+        <v>73</v>
+      </c>
+      <c r="B76" s="4">
+        <v>1101</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D76" s="4">
+        <v>1091</v>
+      </c>
+      <c r="E76" s="4">
+        <v>0</v>
+      </c>
+      <c r="F76" s="4">
+        <v>2</v>
+      </c>
+      <c r="G76" s="4">
+        <v>1</v>
+      </c>
+      <c r="H76" s="4">
+        <v>2</v>
+      </c>
+      <c r="I76" s="4">
         <v>60.96</v>
       </c>
-      <c r="J52">
-        <v>13</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>50</v>
-      </c>
-      <c r="B53">
-        <v>1072</v>
-      </c>
-      <c r="C53" t="s">
-        <v>254</v>
-      </c>
-      <c r="D53">
-        <v>1062</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>2</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="H53">
-        <v>2</v>
-      </c>
-      <c r="I53">
+      <c r="J76" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="K76" s="4">
+        <v>0</v>
+      </c>
+      <c r="L76" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="4">
+        <v>74</v>
+      </c>
+      <c r="B77" s="4">
+        <v>1102</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D77" s="4">
+        <v>1092</v>
+      </c>
+      <c r="E77" s="4">
+        <v>0</v>
+      </c>
+      <c r="F77" s="4">
+        <v>2</v>
+      </c>
+      <c r="G77" s="4">
+        <v>1</v>
+      </c>
+      <c r="H77" s="4">
+        <v>2</v>
+      </c>
+      <c r="I77" s="4">
         <v>30.48</v>
       </c>
-      <c r="J53">
-        <v>13</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>51</v>
-      </c>
-      <c r="B54">
-        <v>1073</v>
-      </c>
-      <c r="C54" t="s">
-        <v>255</v>
-      </c>
-      <c r="D54">
-        <v>1063</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>2</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="H54">
-        <v>2</v>
-      </c>
-      <c r="I54">
+      <c r="J77" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="K77" s="4">
+        <v>0</v>
+      </c>
+      <c r="L77" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="4">
+        <v>75</v>
+      </c>
+      <c r="B78" s="4">
+        <v>1103</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D78" s="4">
+        <v>1093</v>
+      </c>
+      <c r="E78" s="4">
+        <v>0</v>
+      </c>
+      <c r="F78" s="4">
+        <v>2</v>
+      </c>
+      <c r="G78" s="4">
+        <v>1</v>
+      </c>
+      <c r="H78" s="4">
+        <v>2</v>
+      </c>
+      <c r="I78" s="4">
         <v>30.48</v>
       </c>
-      <c r="J54">
-        <v>13</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>52</v>
-      </c>
-      <c r="B55">
-        <v>1074</v>
-      </c>
-      <c r="C55" t="s">
-        <v>256</v>
-      </c>
-      <c r="D55">
-        <v>1064</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>2</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55">
-        <v>2</v>
-      </c>
-      <c r="I55">
+      <c r="J78" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="K78" s="4">
+        <v>0</v>
+      </c>
+      <c r="L78" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="4">
+        <v>76</v>
+      </c>
+      <c r="B79" s="4">
+        <v>1104</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1094</v>
+      </c>
+      <c r="E79" s="4">
+        <v>0</v>
+      </c>
+      <c r="F79" s="4">
+        <v>2</v>
+      </c>
+      <c r="G79" s="4">
+        <v>1</v>
+      </c>
+      <c r="H79" s="4">
+        <v>2</v>
+      </c>
+      <c r="I79" s="4">
         <v>30.48</v>
       </c>
-      <c r="J55">
-        <v>13</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>53</v>
-      </c>
-      <c r="B56">
-        <v>1075</v>
-      </c>
-      <c r="C56" t="s">
-        <v>257</v>
-      </c>
-      <c r="D56">
-        <v>1065</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>2</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56">
-        <v>2</v>
-      </c>
-      <c r="I56">
+      <c r="J79" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="K79" s="4">
+        <v>0</v>
+      </c>
+      <c r="L79" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="4">
+        <v>77</v>
+      </c>
+      <c r="B80" s="4">
+        <v>1105</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D80" s="4">
+        <v>1095</v>
+      </c>
+      <c r="E80" s="4">
+        <v>0</v>
+      </c>
+      <c r="F80" s="4">
+        <v>2</v>
+      </c>
+      <c r="G80" s="4">
+        <v>1</v>
+      </c>
+      <c r="H80" s="4">
+        <v>2</v>
+      </c>
+      <c r="I80" s="4">
         <v>30.48</v>
       </c>
-      <c r="J56">
-        <v>13</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>54</v>
-      </c>
-      <c r="B57">
-        <v>1076</v>
-      </c>
-      <c r="C57" t="s">
-        <v>258</v>
-      </c>
-      <c r="D57">
-        <v>1066</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>2</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57">
-        <v>2</v>
-      </c>
-      <c r="I57">
+      <c r="J80" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="K80" s="4">
+        <v>0</v>
+      </c>
+      <c r="L80" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="4">
+        <v>78</v>
+      </c>
+      <c r="B81" s="4">
+        <v>1106</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D81" s="4">
+        <v>1096</v>
+      </c>
+      <c r="E81" s="4">
+        <v>0</v>
+      </c>
+      <c r="F81" s="4">
+        <v>2</v>
+      </c>
+      <c r="G81" s="4">
+        <v>1</v>
+      </c>
+      <c r="H81" s="4">
+        <v>2</v>
+      </c>
+      <c r="I81" s="4">
         <v>30.48</v>
       </c>
-      <c r="J57">
-        <v>13</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>55</v>
-      </c>
-      <c r="B58">
-        <v>1077</v>
-      </c>
-      <c r="C58" t="s">
-        <v>259</v>
-      </c>
-      <c r="D58">
-        <v>1067</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>2</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="H58">
-        <v>2</v>
-      </c>
-      <c r="I58">
+      <c r="J81" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="K81" s="4">
+        <v>0</v>
+      </c>
+      <c r="L81" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="4">
+        <v>79</v>
+      </c>
+      <c r="B82" s="4">
+        <v>1107</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D82" s="4">
+        <v>1097</v>
+      </c>
+      <c r="E82" s="4">
+        <v>0</v>
+      </c>
+      <c r="F82" s="4">
+        <v>2</v>
+      </c>
+      <c r="G82" s="4">
+        <v>1</v>
+      </c>
+      <c r="H82" s="4">
+        <v>2</v>
+      </c>
+      <c r="I82" s="4">
         <v>45.72</v>
       </c>
-      <c r="J58">
-        <v>13</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>56</v>
-      </c>
-      <c r="B59">
-        <v>1078</v>
-      </c>
-      <c r="C59" t="s">
-        <v>260</v>
-      </c>
-      <c r="D59">
-        <v>1068</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>2</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59">
-        <v>2</v>
-      </c>
-      <c r="I59">
+      <c r="J82" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="K82" s="4">
+        <v>0</v>
+      </c>
+      <c r="L82" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="4">
+        <v>80</v>
+      </c>
+      <c r="B83" s="4">
+        <v>1108</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D83" s="4">
+        <v>1098</v>
+      </c>
+      <c r="E83" s="4">
+        <v>0</v>
+      </c>
+      <c r="F83" s="4">
+        <v>2</v>
+      </c>
+      <c r="G83" s="4">
+        <v>1</v>
+      </c>
+      <c r="H83" s="4">
+        <v>2</v>
+      </c>
+      <c r="I83" s="4">
         <v>45.72</v>
       </c>
-      <c r="J59">
-        <v>13</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>57</v>
-      </c>
-      <c r="B60">
-        <v>1081</v>
-      </c>
-      <c r="C60" t="s">
-        <v>261</v>
-      </c>
-      <c r="D60">
-        <v>1071</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>2</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60">
-        <v>2</v>
-      </c>
-      <c r="I60">
+      <c r="J83" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="K83" s="4">
+        <v>0</v>
+      </c>
+      <c r="L83" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="4">
+        <v>81</v>
+      </c>
+      <c r="B84" s="4">
+        <v>1111</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D84" s="4">
+        <v>1101</v>
+      </c>
+      <c r="E84" s="4">
+        <v>0</v>
+      </c>
+      <c r="F84" s="4">
+        <v>2</v>
+      </c>
+      <c r="G84" s="4">
+        <v>1</v>
+      </c>
+      <c r="H84" s="4">
+        <v>2</v>
+      </c>
+      <c r="I84" s="4">
         <v>60.96</v>
       </c>
-      <c r="J60">
-        <v>13</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>58</v>
-      </c>
-      <c r="B61">
-        <v>1082</v>
-      </c>
-      <c r="C61" t="s">
-        <v>262</v>
-      </c>
-      <c r="D61">
-        <v>1072</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>2</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61">
-        <v>2</v>
-      </c>
-      <c r="I61">
+      <c r="J84" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="K84" s="4">
+        <v>0</v>
+      </c>
+      <c r="L84" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="4">
+        <v>82</v>
+      </c>
+      <c r="B85" s="4">
+        <v>1112</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1102</v>
+      </c>
+      <c r="E85" s="4">
+        <v>0</v>
+      </c>
+      <c r="F85" s="4">
+        <v>2</v>
+      </c>
+      <c r="G85" s="4">
+        <v>1</v>
+      </c>
+      <c r="H85" s="4">
+        <v>2</v>
+      </c>
+      <c r="I85" s="4">
         <v>30.48</v>
       </c>
-      <c r="J61">
-        <v>13</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>59</v>
-      </c>
-      <c r="B62">
-        <v>1083</v>
-      </c>
-      <c r="C62" t="s">
-        <v>263</v>
-      </c>
-      <c r="D62">
-        <v>1073</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>2</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="H62">
-        <v>2</v>
-      </c>
-      <c r="I62">
+      <c r="J85" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="K85" s="4">
+        <v>0</v>
+      </c>
+      <c r="L85" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="4">
+        <v>83</v>
+      </c>
+      <c r="B86" s="4">
+        <v>1113</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D86" s="4">
+        <v>1103</v>
+      </c>
+      <c r="E86" s="4">
+        <v>0</v>
+      </c>
+      <c r="F86" s="4">
+        <v>2</v>
+      </c>
+      <c r="G86" s="4">
+        <v>1</v>
+      </c>
+      <c r="H86" s="4">
+        <v>2</v>
+      </c>
+      <c r="I86" s="4">
         <v>30.48</v>
       </c>
-      <c r="J62">
-        <v>13</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>60</v>
-      </c>
-      <c r="B63">
-        <v>1084</v>
-      </c>
-      <c r="C63" t="s">
-        <v>264</v>
-      </c>
-      <c r="D63">
-        <v>1074</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>2</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-      <c r="H63">
-        <v>2</v>
-      </c>
-      <c r="I63">
+      <c r="J86" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="K86" s="4">
+        <v>0</v>
+      </c>
+      <c r="L86" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="4">
+        <v>84</v>
+      </c>
+      <c r="B87" s="4">
+        <v>1114</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D87" s="4">
+        <v>1104</v>
+      </c>
+      <c r="E87" s="4">
+        <v>0</v>
+      </c>
+      <c r="F87" s="4">
+        <v>2</v>
+      </c>
+      <c r="G87" s="4">
+        <v>1</v>
+      </c>
+      <c r="H87" s="4">
+        <v>2</v>
+      </c>
+      <c r="I87" s="4">
         <v>30.48</v>
       </c>
-      <c r="J63">
-        <v>13</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>61</v>
-      </c>
-      <c r="B64">
-        <v>1085</v>
-      </c>
-      <c r="C64" t="s">
-        <v>265</v>
-      </c>
-      <c r="D64">
-        <v>1075</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>2</v>
-      </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-      <c r="H64">
-        <v>2</v>
-      </c>
-      <c r="I64">
+      <c r="J87" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="K87" s="4">
+        <v>0</v>
+      </c>
+      <c r="L87" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="4">
+        <v>85</v>
+      </c>
+      <c r="B88" s="4">
+        <v>1115</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D88" s="4">
+        <v>1105</v>
+      </c>
+      <c r="E88" s="4">
+        <v>0</v>
+      </c>
+      <c r="F88" s="4">
+        <v>2</v>
+      </c>
+      <c r="G88" s="4">
+        <v>1</v>
+      </c>
+      <c r="H88" s="4">
+        <v>2</v>
+      </c>
+      <c r="I88" s="4">
         <v>30.48</v>
       </c>
-      <c r="J64">
-        <v>13</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>62</v>
-      </c>
-      <c r="B65">
-        <v>1086</v>
-      </c>
-      <c r="C65" t="s">
-        <v>266</v>
-      </c>
-      <c r="D65">
-        <v>1076</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>2</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-      <c r="H65">
-        <v>2</v>
-      </c>
-      <c r="I65">
+      <c r="J88" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="K88" s="4">
+        <v>0</v>
+      </c>
+      <c r="L88" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="4">
+        <v>86</v>
+      </c>
+      <c r="B89" s="4">
+        <v>1116</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D89" s="4">
+        <v>1106</v>
+      </c>
+      <c r="E89" s="4">
+        <v>0</v>
+      </c>
+      <c r="F89" s="4">
+        <v>2</v>
+      </c>
+      <c r="G89" s="4">
+        <v>1</v>
+      </c>
+      <c r="H89" s="4">
+        <v>2</v>
+      </c>
+      <c r="I89" s="4">
         <v>30.48</v>
       </c>
-      <c r="J65">
-        <v>13</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>63</v>
-      </c>
-      <c r="B66">
-        <v>1087</v>
-      </c>
-      <c r="C66" t="s">
-        <v>267</v>
-      </c>
-      <c r="D66">
-        <v>1077</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>2</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-      <c r="H66">
-        <v>2</v>
-      </c>
-      <c r="I66">
+      <c r="J89" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="K89" s="4">
+        <v>0</v>
+      </c>
+      <c r="L89" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="4">
+        <v>87</v>
+      </c>
+      <c r="B90" s="4">
+        <v>1117</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D90" s="4">
+        <v>1107</v>
+      </c>
+      <c r="E90" s="4">
+        <v>0</v>
+      </c>
+      <c r="F90" s="4">
+        <v>2</v>
+      </c>
+      <c r="G90" s="4">
+        <v>1</v>
+      </c>
+      <c r="H90" s="4">
+        <v>2</v>
+      </c>
+      <c r="I90" s="4">
         <v>45.72</v>
       </c>
-      <c r="J66">
-        <v>13</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>64</v>
-      </c>
-      <c r="B67">
-        <v>1088</v>
-      </c>
-      <c r="C67" t="s">
-        <v>268</v>
-      </c>
-      <c r="D67">
-        <v>1078</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>2</v>
-      </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-      <c r="H67">
-        <v>2</v>
-      </c>
-      <c r="I67">
+      <c r="J90" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="K90" s="4">
+        <v>0</v>
+      </c>
+      <c r="L90" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A91" s="4">
+        <v>88</v>
+      </c>
+      <c r="B91" s="4">
+        <v>1118</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D91" s="4">
+        <v>1108</v>
+      </c>
+      <c r="E91" s="4">
+        <v>0</v>
+      </c>
+      <c r="F91" s="4">
+        <v>2</v>
+      </c>
+      <c r="G91" s="4">
+        <v>1</v>
+      </c>
+      <c r="H91" s="4">
+        <v>2</v>
+      </c>
+      <c r="I91" s="4">
         <v>45.72</v>
       </c>
-      <c r="J67">
-        <v>13</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>65</v>
-      </c>
-      <c r="B68">
-        <v>1091</v>
-      </c>
-      <c r="C68" t="s">
-        <v>269</v>
-      </c>
-      <c r="D68">
-        <v>1081</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>3</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-      <c r="H68">
-        <v>2</v>
-      </c>
-      <c r="I68">
-        <v>97.53</v>
-      </c>
-      <c r="J68">
-        <v>13</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>66</v>
-      </c>
-      <c r="B69">
-        <v>1092</v>
-      </c>
-      <c r="C69" t="s">
-        <v>270</v>
-      </c>
-      <c r="D69">
-        <v>1082</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>3</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-      <c r="H69">
-        <v>2</v>
-      </c>
-      <c r="I69">
-        <v>48.76</v>
-      </c>
-      <c r="J69">
-        <v>13</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>67</v>
-      </c>
-      <c r="B70">
-        <v>1093</v>
-      </c>
-      <c r="C70" t="s">
-        <v>271</v>
-      </c>
-      <c r="D70">
-        <v>1083</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>3</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-      <c r="H70">
-        <v>2</v>
-      </c>
-      <c r="I70">
-        <v>48.76</v>
-      </c>
-      <c r="J70">
-        <v>13</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>68</v>
-      </c>
-      <c r="B71">
-        <v>1094</v>
-      </c>
-      <c r="C71" t="s">
-        <v>272</v>
-      </c>
-      <c r="D71">
-        <v>1084</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>3</v>
-      </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
-      <c r="H71">
-        <v>2</v>
-      </c>
-      <c r="I71">
-        <v>48.76</v>
-      </c>
-      <c r="J71">
-        <v>13</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>69</v>
-      </c>
-      <c r="B72">
-        <v>1095</v>
-      </c>
-      <c r="C72" t="s">
-        <v>273</v>
-      </c>
-      <c r="D72">
-        <v>1085</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>3</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="H72">
-        <v>2</v>
-      </c>
-      <c r="I72">
-        <v>48.76</v>
-      </c>
-      <c r="J72">
-        <v>13</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>70</v>
-      </c>
-      <c r="B73">
-        <v>1096</v>
-      </c>
-      <c r="C73" t="s">
-        <v>274</v>
-      </c>
-      <c r="D73">
-        <v>1086</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>3</v>
-      </c>
-      <c r="G73">
-        <v>1</v>
-      </c>
-      <c r="H73">
-        <v>2</v>
-      </c>
-      <c r="I73">
-        <v>48.76</v>
-      </c>
-      <c r="J73">
-        <v>13</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>71</v>
-      </c>
-      <c r="B74">
-        <v>1097</v>
-      </c>
-      <c r="C74" t="s">
-        <v>275</v>
-      </c>
-      <c r="D74">
-        <v>1087</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>3</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="H74">
-        <v>2</v>
-      </c>
-      <c r="I74">
-        <v>73.150000000000006</v>
-      </c>
-      <c r="J74">
-        <v>13</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>72</v>
-      </c>
-      <c r="B75">
-        <v>1098</v>
-      </c>
-      <c r="C75" t="s">
-        <v>276</v>
-      </c>
-      <c r="D75">
-        <v>1088</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>3</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="H75">
-        <v>2</v>
-      </c>
-      <c r="I75">
-        <v>73.150000000000006</v>
-      </c>
-      <c r="J75">
-        <v>13</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>73</v>
-      </c>
-      <c r="B76">
-        <v>1101</v>
-      </c>
-      <c r="C76" t="s">
-        <v>277</v>
-      </c>
-      <c r="D76">
-        <v>1091</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>2</v>
-      </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
-      <c r="H76">
-        <v>2</v>
-      </c>
-      <c r="I76">
-        <v>60.96</v>
-      </c>
-      <c r="J76">
-        <v>14</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>74</v>
-      </c>
-      <c r="B77">
-        <v>1102</v>
-      </c>
-      <c r="C77" t="s">
-        <v>278</v>
-      </c>
-      <c r="D77">
-        <v>1092</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>2</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
-      <c r="H77">
-        <v>2</v>
-      </c>
-      <c r="I77">
-        <v>30.48</v>
-      </c>
-      <c r="J77">
-        <v>14</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>75</v>
-      </c>
-      <c r="B78">
-        <v>1103</v>
-      </c>
-      <c r="C78" t="s">
-        <v>279</v>
-      </c>
-      <c r="D78">
-        <v>1093</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>2</v>
-      </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
-      <c r="H78">
-        <v>2</v>
-      </c>
-      <c r="I78">
-        <v>30.48</v>
-      </c>
-      <c r="J78">
-        <v>14</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="L78">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>76</v>
-      </c>
-      <c r="B79">
-        <v>1104</v>
-      </c>
-      <c r="C79" t="s">
-        <v>280</v>
-      </c>
-      <c r="D79">
-        <v>1094</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>2</v>
-      </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="H79">
-        <v>2</v>
-      </c>
-      <c r="I79">
-        <v>30.48</v>
-      </c>
-      <c r="J79">
-        <v>14</v>
-      </c>
-      <c r="K79">
-        <v>0</v>
-      </c>
-      <c r="L79">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>77</v>
-      </c>
-      <c r="B80">
-        <v>1105</v>
-      </c>
-      <c r="C80" t="s">
-        <v>281</v>
-      </c>
-      <c r="D80">
-        <v>1095</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>2</v>
-      </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-      <c r="H80">
-        <v>2</v>
-      </c>
-      <c r="I80">
-        <v>30.48</v>
-      </c>
-      <c r="J80">
-        <v>14</v>
-      </c>
-      <c r="K80">
-        <v>0</v>
-      </c>
-      <c r="L80">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>78</v>
-      </c>
-      <c r="B81">
-        <v>1106</v>
-      </c>
-      <c r="C81" t="s">
-        <v>282</v>
-      </c>
-      <c r="D81">
-        <v>1096</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>2</v>
-      </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-      <c r="H81">
-        <v>2</v>
-      </c>
-      <c r="I81">
-        <v>30.48</v>
-      </c>
-      <c r="J81">
-        <v>14</v>
-      </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
-      <c r="L81">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>79</v>
-      </c>
-      <c r="B82">
-        <v>1107</v>
-      </c>
-      <c r="C82" t="s">
-        <v>283</v>
-      </c>
-      <c r="D82">
-        <v>1097</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>2</v>
-      </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
-      <c r="H82">
-        <v>2</v>
-      </c>
-      <c r="I82">
-        <v>45.72</v>
-      </c>
-      <c r="J82">
-        <v>14</v>
-      </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-      <c r="L82">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>80</v>
-      </c>
-      <c r="B83">
-        <v>1108</v>
-      </c>
-      <c r="C83" t="s">
-        <v>284</v>
-      </c>
-      <c r="D83">
-        <v>1098</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <v>2</v>
-      </c>
-      <c r="G83">
-        <v>1</v>
-      </c>
-      <c r="H83">
-        <v>2</v>
-      </c>
-      <c r="I83">
-        <v>45.72</v>
-      </c>
-      <c r="J83">
-        <v>14</v>
-      </c>
-      <c r="K83">
-        <v>0</v>
-      </c>
-      <c r="L83">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>81</v>
-      </c>
-      <c r="B84">
-        <v>1111</v>
-      </c>
-      <c r="C84" t="s">
-        <v>285</v>
-      </c>
-      <c r="D84">
-        <v>1101</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>2</v>
-      </c>
-      <c r="G84">
-        <v>1</v>
-      </c>
-      <c r="H84">
-        <v>2</v>
-      </c>
-      <c r="I84">
-        <v>60.96</v>
-      </c>
-      <c r="J84">
-        <v>14</v>
-      </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-      <c r="L84">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>82</v>
-      </c>
-      <c r="B85">
-        <v>1112</v>
-      </c>
-      <c r="C85" t="s">
-        <v>286</v>
-      </c>
-      <c r="D85">
-        <v>1102</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>2</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="H85">
-        <v>2</v>
-      </c>
-      <c r="I85">
-        <v>30.48</v>
-      </c>
-      <c r="J85">
-        <v>14</v>
-      </c>
-      <c r="K85">
-        <v>0</v>
-      </c>
-      <c r="L85">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>83</v>
-      </c>
-      <c r="B86">
-        <v>1113</v>
-      </c>
-      <c r="C86" t="s">
-        <v>287</v>
-      </c>
-      <c r="D86">
-        <v>1103</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>2</v>
-      </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
-      <c r="H86">
-        <v>2</v>
-      </c>
-      <c r="I86">
-        <v>30.48</v>
-      </c>
-      <c r="J86">
-        <v>14</v>
-      </c>
-      <c r="K86">
-        <v>0</v>
-      </c>
-      <c r="L86">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>84</v>
-      </c>
-      <c r="B87">
-        <v>1114</v>
-      </c>
-      <c r="C87" t="s">
-        <v>288</v>
-      </c>
-      <c r="D87">
-        <v>1104</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>2</v>
-      </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
-      <c r="H87">
-        <v>2</v>
-      </c>
-      <c r="I87">
-        <v>30.48</v>
-      </c>
-      <c r="J87">
-        <v>14</v>
-      </c>
-      <c r="K87">
-        <v>0</v>
-      </c>
-      <c r="L87">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>85</v>
-      </c>
-      <c r="B88">
-        <v>1115</v>
-      </c>
-      <c r="C88" t="s">
-        <v>289</v>
-      </c>
-      <c r="D88">
-        <v>1105</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>2</v>
-      </c>
-      <c r="G88">
-        <v>1</v>
-      </c>
-      <c r="H88">
-        <v>2</v>
-      </c>
-      <c r="I88">
-        <v>30.48</v>
-      </c>
-      <c r="J88">
-        <v>14</v>
-      </c>
-      <c r="K88">
-        <v>0</v>
-      </c>
-      <c r="L88">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>86</v>
-      </c>
-      <c r="B89">
-        <v>1116</v>
-      </c>
-      <c r="C89" t="s">
-        <v>290</v>
-      </c>
-      <c r="D89">
-        <v>1106</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <v>2</v>
-      </c>
-      <c r="G89">
-        <v>1</v>
-      </c>
-      <c r="H89">
-        <v>2</v>
-      </c>
-      <c r="I89">
-        <v>30.48</v>
-      </c>
-      <c r="J89">
-        <v>14</v>
-      </c>
-      <c r="K89">
-        <v>0</v>
-      </c>
-      <c r="L89">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>87</v>
-      </c>
-      <c r="B90">
-        <v>1117</v>
-      </c>
-      <c r="C90" t="s">
-        <v>291</v>
-      </c>
-      <c r="D90">
-        <v>1107</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <v>2</v>
-      </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
-      <c r="H90">
-        <v>2</v>
-      </c>
-      <c r="I90">
-        <v>45.72</v>
-      </c>
-      <c r="J90">
-        <v>14</v>
-      </c>
-      <c r="K90">
-        <v>0</v>
-      </c>
-      <c r="L90">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>88</v>
-      </c>
-      <c r="B91">
-        <v>1118</v>
-      </c>
-      <c r="C91" t="s">
-        <v>292</v>
-      </c>
-      <c r="D91">
-        <v>1108</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <v>2</v>
-      </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-      <c r="H91">
-        <v>2</v>
-      </c>
-      <c r="I91">
-        <v>45.72</v>
-      </c>
-      <c r="J91">
-        <v>14</v>
-      </c>
-      <c r="K91">
-        <v>0</v>
-      </c>
-      <c r="L91">
+      <c r="J91" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="K91" s="4">
+        <v>0</v>
+      </c>
+      <c r="L91" s="4">
         <v>200</v>
       </c>
     </row>

--- a/Excel/eqp.装备.xlsx
+++ b/Excel/eqp.装备.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D10308-3D64-4990-BAA5-13667C071074}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2147A59-AE2C-467E-9545-D3DE80F0763C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42140,7 +42140,7 @@
   <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L76" sqref="L76"/>
+      <selection activeCell="O82" sqref="O82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -42554,7 +42554,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -42592,7 +42592,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -42630,7 +42630,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -42668,7 +42668,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -42706,7 +42706,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -42744,7 +42744,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -42782,7 +42782,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -42820,7 +42820,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -42858,7 +42858,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -42896,7 +42896,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -42934,7 +42934,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -42972,7 +42972,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -43010,7 +43010,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -43048,7 +43048,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="4">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -43086,7 +43086,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="4">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -43124,7 +43124,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="4">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -43162,7 +43162,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="4">
-        <v>5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -43200,7 +43200,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="4">
-        <v>5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -43238,7 +43238,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="4">
-        <v>5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -43276,7 +43276,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="4">
-        <v>5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -43314,7 +43314,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="4">
-        <v>5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -43352,7 +43352,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="4">
-        <v>5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -43390,7 +43390,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="4">
-        <v>5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -43428,7 +43428,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="4">
-        <v>5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -43466,7 +43466,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="4">
-        <v>7</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -43504,7 +43504,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="4">
-        <v>7</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -43542,7 +43542,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="4">
-        <v>7</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -43580,7 +43580,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="4">
-        <v>7</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -43618,7 +43618,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="4">
-        <v>7</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -43656,7 +43656,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="4">
-        <v>7</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -43694,7 +43694,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="4">
-        <v>7</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -43732,7 +43732,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="4">
-        <v>7</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -43770,7 +43770,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="4">
-        <v>10</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -43808,7 +43808,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="4">
-        <v>10</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -43846,7 +43846,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="4">
-        <v>10</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -43884,7 +43884,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="4">
-        <v>10</v>
+        <v>245</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -43922,7 +43922,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="4">
-        <v>10</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -43960,7 +43960,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="4">
-        <v>10</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -43998,7 +43998,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="4">
-        <v>10</v>
+        <v>245</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44036,7 +44036,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="4">
-        <v>10</v>
+        <v>245</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44074,7 +44074,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="4">
-        <v>20</v>
+        <v>500</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44112,7 +44112,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="4">
-        <v>20</v>
+        <v>500</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44150,7 +44150,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="4">
-        <v>20</v>
+        <v>500</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44188,7 +44188,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="4">
-        <v>20</v>
+        <v>500</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44226,7 +44226,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="4">
-        <v>20</v>
+        <v>500</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44264,7 +44264,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="4">
-        <v>20</v>
+        <v>500</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44302,7 +44302,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="4">
-        <v>20</v>
+        <v>500</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44340,7 +44340,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="4">
-        <v>20</v>
+        <v>500</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44378,7 +44378,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="4">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44416,7 +44416,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="4">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44454,7 +44454,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="4">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44492,7 +44492,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="4">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44530,7 +44530,7 @@
         <v>0</v>
       </c>
       <c r="L64" s="4">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44568,7 +44568,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="4">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44606,7 +44606,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="4">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44644,7 +44644,7 @@
         <v>0</v>
       </c>
       <c r="L67" s="4">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44676,13 +44676,13 @@
         <v>97.53</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="K68" s="4">
         <v>0</v>
       </c>
       <c r="L68" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44714,13 +44714,13 @@
         <v>48.76</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="K69" s="4">
         <v>0</v>
       </c>
       <c r="L69" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44752,13 +44752,13 @@
         <v>48.76</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="K70" s="4">
         <v>0</v>
       </c>
       <c r="L70" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44790,13 +44790,13 @@
         <v>48.76</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="K71" s="4">
         <v>0</v>
       </c>
       <c r="L71" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44828,13 +44828,13 @@
         <v>48.76</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="K72" s="4">
         <v>0</v>
       </c>
       <c r="L72" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44866,13 +44866,13 @@
         <v>48.76</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="K73" s="4">
         <v>0</v>
       </c>
       <c r="L73" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44904,13 +44904,13 @@
         <v>73.150000000000006</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="K74" s="4">
         <v>0</v>
       </c>
       <c r="L74" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44942,13 +44942,13 @@
         <v>73.150000000000006</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="K75" s="4">
         <v>0</v>
       </c>
       <c r="L75" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">

--- a/Excel/eqp.装备.xlsx
+++ b/Excel/eqp.装备.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2147A59-AE2C-467E-9545-D3DE80F0763C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F91C877-B174-425A-8055-2F8D5A1618D6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -2525,8 +2525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AD64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2887,7 +2887,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="4">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>450</v>
@@ -2949,7 +2949,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="4">
-        <v>4000</v>
+        <v>40000</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>450</v>
@@ -3011,7 +3011,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="4">
-        <v>6000</v>
+        <v>60000</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>450</v>
@@ -3073,7 +3073,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="4">
-        <v>8000</v>
+        <v>80000</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>450</v>
@@ -3135,7 +3135,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="4">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>450</v>
@@ -3197,7 +3197,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="4">
-        <v>12000</v>
+        <v>120000</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>450</v>
@@ -3259,7 +3259,7 @@
         <v>14</v>
       </c>
       <c r="E11" s="4">
-        <v>14000.000000000002</v>
+        <v>140000</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>450</v>
@@ -3321,7 +3321,7 @@
         <v>16</v>
       </c>
       <c r="E12" s="4">
-        <v>16000</v>
+        <v>160000</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>450</v>
@@ -3383,7 +3383,7 @@
         <v>18</v>
       </c>
       <c r="E13" s="4">
-        <v>18000</v>
+        <v>180000</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>450</v>
@@ -3445,7 +3445,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="4">
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>450</v>
@@ -3507,7 +3507,7 @@
         <v>22</v>
       </c>
       <c r="E15" s="4">
-        <v>22000</v>
+        <v>220000</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>450</v>
@@ -3569,7 +3569,7 @@
         <v>24</v>
       </c>
       <c r="E16" s="4">
-        <v>24000</v>
+        <v>240000</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>450</v>
@@ -3631,7 +3631,7 @@
         <v>26</v>
       </c>
       <c r="E17" s="4">
-        <v>26000</v>
+        <v>260000</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>450</v>
@@ -3693,7 +3693,7 @@
         <v>28</v>
       </c>
       <c r="E18" s="4">
-        <v>28000.000000000004</v>
+        <v>280000</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>450</v>
@@ -3755,7 +3755,7 @@
         <v>30</v>
       </c>
       <c r="E19" s="4">
-        <v>30000</v>
+        <v>300000</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>450</v>
@@ -3817,7 +3817,7 @@
         <v>32</v>
       </c>
       <c r="E20" s="4">
-        <v>34000</v>
+        <v>340000</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>450</v>
@@ -3879,7 +3879,7 @@
         <v>34</v>
       </c>
       <c r="E21" s="4">
-        <v>38000</v>
+        <v>380000</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>450</v>
@@ -3941,7 +3941,7 @@
         <v>36</v>
       </c>
       <c r="E22" s="4">
-        <v>42000</v>
+        <v>420000</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>450</v>
@@ -4003,7 +4003,7 @@
         <v>38</v>
       </c>
       <c r="E23" s="4">
-        <v>46000</v>
+        <v>460000</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>450</v>
@@ -4065,7 +4065,7 @@
         <v>40</v>
       </c>
       <c r="E24" s="4">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>450</v>
@@ -4127,7 +4127,7 @@
         <v>42</v>
       </c>
       <c r="E25" s="4">
-        <v>54000</v>
+        <v>540000</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>450</v>
@@ -4189,7 +4189,7 @@
         <v>44</v>
       </c>
       <c r="E26" s="4">
-        <v>57999.999999999993</v>
+        <v>580000</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>450</v>
@@ -4251,7 +4251,7 @@
         <v>46</v>
       </c>
       <c r="E27" s="4">
-        <v>62000</v>
+        <v>620000</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>450</v>
@@ -4313,7 +4313,7 @@
         <v>48</v>
       </c>
       <c r="E28" s="4">
-        <v>66000</v>
+        <v>660000</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>450</v>
@@ -4375,7 +4375,7 @@
         <v>50</v>
       </c>
       <c r="E29" s="4">
-        <v>70000</v>
+        <v>700000</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>450</v>
@@ -4437,7 +4437,7 @@
         <v>52</v>
       </c>
       <c r="E30" s="4">
-        <v>74000</v>
+        <v>740000</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>450</v>
@@ -4499,7 +4499,7 @@
         <v>54</v>
       </c>
       <c r="E31" s="4">
-        <v>78000</v>
+        <v>780000</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>450</v>
@@ -4561,7 +4561,7 @@
         <v>56</v>
       </c>
       <c r="E32" s="4">
-        <v>82000</v>
+        <v>820000</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>450</v>
@@ -4623,7 +4623,7 @@
         <v>58</v>
       </c>
       <c r="E33" s="4">
-        <v>86000</v>
+        <v>860000</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>450</v>
@@ -4685,7 +4685,7 @@
         <v>60</v>
       </c>
       <c r="E34" s="4">
-        <v>90000</v>
+        <v>900000</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>450</v>
@@ -4747,7 +4747,7 @@
         <v>62</v>
       </c>
       <c r="E35" s="4">
-        <v>97000</v>
+        <v>970000</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>450</v>
@@ -4809,7 +4809,7 @@
         <v>64</v>
       </c>
       <c r="E36" s="4">
-        <v>104000</v>
+        <v>1040000</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>450</v>
@@ -4871,7 +4871,7 @@
         <v>66</v>
       </c>
       <c r="E37" s="4">
-        <v>111000.00000000001</v>
+        <v>1110000</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>450</v>
@@ -4933,7 +4933,7 @@
         <v>68</v>
       </c>
       <c r="E38" s="4">
-        <v>118000</v>
+        <v>1180000</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>450</v>
@@ -4995,7 +4995,7 @@
         <v>70</v>
       </c>
       <c r="E39" s="4">
-        <v>125000</v>
+        <v>1250000</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>450</v>
@@ -5057,7 +5057,7 @@
         <v>72</v>
       </c>
       <c r="E40" s="4">
-        <v>132000</v>
+        <v>1320000</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>450</v>
@@ -5119,7 +5119,7 @@
         <v>74</v>
       </c>
       <c r="E41" s="4">
-        <v>139000</v>
+        <v>1390000</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>450</v>
@@ -5181,7 +5181,7 @@
         <v>76</v>
       </c>
       <c r="E42" s="4">
-        <v>146000</v>
+        <v>1460000</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>450</v>
@@ -5243,7 +5243,7 @@
         <v>78</v>
       </c>
       <c r="E43" s="4">
-        <v>153000</v>
+        <v>1530000</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>450</v>
@@ -5305,7 +5305,7 @@
         <v>80</v>
       </c>
       <c r="E44" s="4">
-        <v>160000</v>
+        <v>1600000</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>450</v>
@@ -5367,7 +5367,7 @@
         <v>82</v>
       </c>
       <c r="E45" s="4">
-        <v>167000</v>
+        <v>1670000</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>450</v>
@@ -5429,7 +5429,7 @@
         <v>84</v>
       </c>
       <c r="E46" s="4">
-        <v>174000</v>
+        <v>1740000</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>450</v>
@@ -5491,7 +5491,7 @@
         <v>86</v>
       </c>
       <c r="E47" s="4">
-        <v>181000</v>
+        <v>1810000</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>450</v>
@@ -5553,7 +5553,7 @@
         <v>88</v>
       </c>
       <c r="E48" s="4">
-        <v>188000</v>
+        <v>1880000</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>450</v>
@@ -5615,7 +5615,7 @@
         <v>90</v>
       </c>
       <c r="E49" s="4">
-        <v>200000</v>
+        <v>2000000</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>450</v>
@@ -5677,7 +5677,7 @@
         <v>92</v>
       </c>
       <c r="E50" s="4">
-        <v>210000</v>
+        <v>2100000</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>450</v>
@@ -5739,7 +5739,7 @@
         <v>94</v>
       </c>
       <c r="E51" s="4">
-        <v>220000.00000000003</v>
+        <v>2200000</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>450</v>
@@ -5801,7 +5801,7 @@
         <v>96</v>
       </c>
       <c r="E52" s="4">
-        <v>229999.99999999997</v>
+        <v>2300000</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>450</v>
@@ -5863,7 +5863,7 @@
         <v>98</v>
       </c>
       <c r="E53" s="4">
-        <v>240000</v>
+        <v>2400000</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>450</v>
@@ -5925,7 +5925,7 @@
         <v>100</v>
       </c>
       <c r="E54" s="4">
-        <v>250000</v>
+        <v>2500000</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>450</v>
@@ -5987,7 +5987,7 @@
         <v>102</v>
       </c>
       <c r="E55" s="4">
-        <v>260000</v>
+        <v>2600000</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>450</v>
@@ -6049,7 +6049,7 @@
         <v>104</v>
       </c>
       <c r="E56" s="4">
-        <v>270000</v>
+        <v>2700000</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>450</v>
@@ -6111,7 +6111,7 @@
         <v>106</v>
       </c>
       <c r="E57" s="4">
-        <v>280000</v>
+        <v>2800000</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>450</v>
@@ -6173,7 +6173,7 @@
         <v>108</v>
       </c>
       <c r="E58" s="4">
-        <v>290000</v>
+        <v>2900000</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>450</v>
@@ -6235,7 +6235,7 @@
         <v>110</v>
       </c>
       <c r="E59" s="4">
-        <v>300000</v>
+        <v>3000000</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>450</v>
@@ -6297,7 +6297,7 @@
         <v>112</v>
       </c>
       <c r="E60" s="4">
-        <v>310000</v>
+        <v>3100000</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>450</v>
@@ -6359,7 +6359,7 @@
         <v>114</v>
       </c>
       <c r="E61" s="4">
-        <v>320000</v>
+        <v>3200000</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>450</v>
@@ -6421,7 +6421,7 @@
         <v>116</v>
       </c>
       <c r="E62" s="4">
-        <v>330000</v>
+        <v>3300000</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>450</v>
@@ -6483,7 +6483,7 @@
         <v>118</v>
       </c>
       <c r="E63" s="4">
-        <v>340000</v>
+        <v>3400000</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>450</v>
@@ -6545,7 +6545,7 @@
         <v>120</v>
       </c>
       <c r="E64" s="4">
-        <v>350000</v>
+        <v>3500000</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>450</v>
@@ -42139,7 +42139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O82" sqref="O82"/>
     </sheetView>
   </sheetViews>

--- a/Excel/eqp.装备.xlsx
+++ b/Excel/eqp.装备.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F91C877-B174-425A-8055-2F8D5A1618D6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A08D1D-AE13-49AF-86AB-EC09272D3379}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -2525,7 +2525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AD64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
@@ -6603,8 +6603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AR99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6952,35 +6952,35 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
         <v>1001</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4">
         <v>5</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H4">
-        <v>7</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
+      <c r="H4" s="4">
+        <v>7</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
         <v>0</v>
       </c>
       <c r="K4" s="5">
@@ -7074,35 +7074,35 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
         <v>1002</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
         <v>5</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="H5">
-        <v>7</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
+      <c r="H5" s="4">
+        <v>7</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
         <v>0</v>
       </c>
       <c r="K5" s="5">
@@ -7202,35 +7202,35 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>1003</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
         <v>3</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
         <v>5</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H6">
-        <v>7</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
+      <c r="H6" s="4">
+        <v>7</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
         <v>0</v>
       </c>
       <c r="K6" s="5">
@@ -7330,35 +7330,35 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>1004</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
         <v>4</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
         <v>5</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H7">
-        <v>7</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
+      <c r="H7" s="4">
+        <v>7</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
         <v>0</v>
       </c>
       <c r="K7" s="5">
@@ -7458,35 +7458,35 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>1005</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
         <v>5</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
         <v>5</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H8">
-        <v>7</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
+      <c r="H8" s="4">
+        <v>7</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
         <v>0</v>
       </c>
       <c r="K8" s="5">
@@ -7586,35 +7586,35 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>1006</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
         <v>6</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
         <v>5</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="H9">
-        <v>7</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
+      <c r="H9" s="4">
+        <v>7</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
         <v>0</v>
       </c>
       <c r="K9" s="5">
@@ -7714,35 +7714,35 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4">
         <v>1007</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
-      <c r="E10">
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>7</v>
+      </c>
+      <c r="E10" s="4">
         <v>1.5</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>5</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H10">
-        <v>7</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
+      <c r="H10" s="4">
+        <v>7</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
         <v>0</v>
       </c>
       <c r="K10" s="5">
@@ -7842,35 +7842,35 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>1008</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
         <v>8</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <v>1.5</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <v>5</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H11">
-        <v>7</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
+      <c r="H11" s="4">
+        <v>7</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
         <v>0</v>
       </c>
       <c r="K11" s="5">
@@ -7970,35 +7970,35 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>1011</v>
       </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
+      <c r="C12" s="4">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4">
         <v>10</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H12">
-        <v>7</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
+      <c r="H12" s="4">
+        <v>7</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
         <v>0</v>
       </c>
       <c r="K12" s="5">
@@ -8065,35 +8065,35 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>1012</v>
       </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
+      <c r="C13" s="4">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
         <v>10</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H13">
-        <v>7</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
+      <c r="H13" s="4">
+        <v>7</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
         <v>0</v>
       </c>
       <c r="K13" s="5">
@@ -8160,35 +8160,35 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>1013</v>
       </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
+      <c r="C14" s="4">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4">
         <v>3</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
         <v>10</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H14">
-        <v>7</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
+      <c r="H14" s="4">
+        <v>7</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
         <v>0</v>
       </c>
       <c r="K14" s="5">
@@ -8255,35 +8255,35 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
         <v>12</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>1014</v>
       </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="4">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4">
         <v>4</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
         <v>10</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H15">
-        <v>7</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
+      <c r="H15" s="4">
+        <v>7</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
         <v>0</v>
       </c>
       <c r="K15" s="5">
@@ -8350,35 +8350,35 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="16" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>1015</v>
       </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="4">
+        <v>2</v>
+      </c>
+      <c r="D16" s="4">
         <v>5</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
         <v>10</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H16">
-        <v>7</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
+      <c r="H16" s="4">
+        <v>7</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
         <v>0</v>
       </c>
       <c r="K16" s="5">
@@ -8451,35 +8451,35 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="17" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
         <v>14</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>1016</v>
       </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="4">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4">
         <v>6</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
         <v>10</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="H17">
-        <v>7</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
+      <c r="H17" s="4">
+        <v>7</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
         <v>0</v>
       </c>
       <c r="K17" s="5">
@@ -8552,35 +8552,35 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="18" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>1017</v>
       </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>7</v>
-      </c>
-      <c r="E18">
+      <c r="C18" s="4">
+        <v>2</v>
+      </c>
+      <c r="D18" s="4">
+        <v>7</v>
+      </c>
+      <c r="E18" s="4">
         <v>1.5</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="4">
         <v>10</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H18">
-        <v>7</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
+      <c r="H18" s="4">
+        <v>7</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
         <v>0</v>
       </c>
       <c r="K18" s="5">
@@ -8653,35 +8653,35 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="19" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
         <v>16</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>1018</v>
       </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
+      <c r="C19" s="4">
+        <v>2</v>
+      </c>
+      <c r="D19" s="4">
         <v>8</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4">
         <v>1.5</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="4">
         <v>10</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H19">
-        <v>7</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
+      <c r="H19" s="4">
+        <v>7</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
         <v>0</v>
       </c>
       <c r="K19" s="5">
@@ -8754,35 +8754,35 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="20" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
         <v>17</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <v>1021</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="4">
         <v>3</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2</v>
+      </c>
+      <c r="F20" s="4">
         <v>25</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H20">
-        <v>7</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
+      <c r="H20" s="4">
+        <v>7</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
         <v>0</v>
       </c>
       <c r="K20" s="5">
@@ -8855,35 +8855,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="21" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
         <v>18</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>1022</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <v>3</v>
       </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
+      <c r="D21" s="4">
+        <v>2</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4">
         <v>25</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H21">
-        <v>7</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
+      <c r="H21" s="4">
+        <v>7</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
         <v>0</v>
       </c>
       <c r="K21" s="5">
@@ -8950,35 +8950,35 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="22" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
         <v>19</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
         <v>1023</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="4">
         <v>3</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="4">
         <v>3</v>
       </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
         <v>25</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H22">
-        <v>7</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
+      <c r="H22" s="4">
+        <v>7</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
         <v>0</v>
       </c>
       <c r="K22" s="5">
@@ -9045,35 +9045,35 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="23" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
         <v>20</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="4">
         <v>1024</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="4">
         <v>3</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="4">
         <v>4</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4">
         <v>25</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H23">
-        <v>7</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
+      <c r="H23" s="4">
+        <v>7</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
         <v>0</v>
       </c>
       <c r="K23" s="5">
@@ -9140,35 +9140,35 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="24" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
         <v>21</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="4">
         <v>1025</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="4">
         <v>3</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="4">
         <v>5</v>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4">
         <v>25</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H24">
-        <v>7</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
+      <c r="H24" s="4">
+        <v>7</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
         <v>0</v>
       </c>
       <c r="K24" s="5">
@@ -9235,35 +9235,35 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="25" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
         <v>22</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="4">
         <v>1026</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="4">
         <v>3</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="4">
         <v>6</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
         <v>25</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="H25">
-        <v>7</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
+      <c r="H25" s="4">
+        <v>7</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
         <v>0</v>
       </c>
       <c r="K25" s="5">
@@ -9330,35 +9330,35 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="26" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
         <v>23</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="4">
         <v>1027</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="4">
         <v>3</v>
       </c>
-      <c r="D26">
-        <v>7</v>
-      </c>
-      <c r="E26">
+      <c r="D26" s="4">
+        <v>7</v>
+      </c>
+      <c r="E26" s="4">
         <v>1.5</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="4">
         <v>25</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H26">
-        <v>7</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
+      <c r="H26" s="4">
+        <v>7</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
         <v>0</v>
       </c>
       <c r="K26" s="5">
@@ -9425,35 +9425,35 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="27" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
         <v>24</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="4">
         <v>1028</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="4">
         <v>3</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="4">
         <v>8</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="4">
         <v>1.5</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="4">
         <v>25</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H27">
-        <v>7</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
+      <c r="H27" s="4">
+        <v>7</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4">
         <v>0</v>
       </c>
       <c r="K27" s="5">
@@ -9520,35 +9520,35 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="28" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
         <v>25</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="4">
         <v>1031</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="4">
         <v>4</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2</v>
+      </c>
+      <c r="F28" s="4">
         <v>40</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H28">
-        <v>7</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
+      <c r="H28" s="4">
+        <v>7</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4">
         <v>0</v>
       </c>
       <c r="K28" s="5">
@@ -9615,35 +9615,35 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="29" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
         <v>26</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="4">
         <v>1032</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="4">
         <v>4</v>
       </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
+      <c r="D29" s="4">
+        <v>2</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4">
         <v>40</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H29">
-        <v>7</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
+      <c r="H29" s="4">
+        <v>7</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
         <v>0</v>
       </c>
       <c r="K29" s="5">
@@ -9710,35 +9710,35 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row r="30" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
         <v>27</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="4">
         <v>1033</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="4">
         <v>4</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="4">
         <v>3</v>
       </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4">
         <v>40</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H30">
-        <v>7</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
+      <c r="H30" s="4">
+        <v>7</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
         <v>0</v>
       </c>
       <c r="K30" s="5">
@@ -9805,35 +9805,35 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A31">
+    <row r="31" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
         <v>28</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="4">
         <v>1034</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="4">
         <v>4</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="4">
         <v>4</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4">
         <v>40</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H31">
-        <v>7</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
+      <c r="H31" s="4">
+        <v>7</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
         <v>0</v>
       </c>
       <c r="K31" s="5">
@@ -9900,35 +9900,35 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A32">
+    <row r="32" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
         <v>29</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="4">
         <v>1035</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="4">
         <v>4</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="4">
         <v>5</v>
       </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
+      <c r="F32" s="4">
         <v>40</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H32">
-        <v>7</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
+      <c r="H32" s="4">
+        <v>7</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0</v>
+      </c>
+      <c r="J32" s="4">
         <v>0</v>
       </c>
       <c r="K32" s="5">
@@ -9995,35 +9995,35 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A33">
+    <row r="33" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
         <v>30</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="4">
         <v>1036</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="4">
         <v>4</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="4">
         <v>6</v>
       </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
+      <c r="F33" s="4">
         <v>40</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="H33">
-        <v>7</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
+      <c r="H33" s="4">
+        <v>7</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4">
         <v>0</v>
       </c>
       <c r="K33" s="5">
@@ -10090,35 +10090,35 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A34">
+    <row r="34" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
         <v>31</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="4">
         <v>1037</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="4">
         <v>4</v>
       </c>
-      <c r="D34">
-        <v>7</v>
-      </c>
-      <c r="E34">
+      <c r="D34" s="4">
+        <v>7</v>
+      </c>
+      <c r="E34" s="4">
         <v>1.5</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="4">
         <v>40</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H34">
-        <v>7</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
+      <c r="H34" s="4">
+        <v>7</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0</v>
+      </c>
+      <c r="J34" s="4">
         <v>0</v>
       </c>
       <c r="K34" s="5">
@@ -10185,35 +10185,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A35">
+    <row r="35" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
         <v>32</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="4">
         <v>1038</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="4">
         <v>4</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="4">
         <v>8</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="4">
         <v>1.5</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="4">
         <v>40</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H35">
-        <v>7</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
+      <c r="H35" s="4">
+        <v>7</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0</v>
+      </c>
+      <c r="J35" s="4">
         <v>0</v>
       </c>
       <c r="K35" s="5">
@@ -10280,35 +10280,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A36">
+    <row r="36" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
         <v>33</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="4">
         <v>1041</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="4">
         <v>5</v>
       </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4">
+        <v>2</v>
+      </c>
+      <c r="F36" s="4">
         <v>75</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H36">
-        <v>7</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
+      <c r="H36" s="4">
+        <v>7</v>
+      </c>
+      <c r="I36" s="4">
+        <v>0</v>
+      </c>
+      <c r="J36" s="4">
         <v>0</v>
       </c>
       <c r="K36" s="5">
@@ -10375,35 +10375,35 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A37">
+    <row r="37" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
         <v>34</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="4">
         <v>1042</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="4">
         <v>5</v>
       </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
+      <c r="D37" s="4">
+        <v>2</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1</v>
+      </c>
+      <c r="F37" s="4">
         <v>75</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H37">
-        <v>7</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
+      <c r="H37" s="4">
+        <v>7</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0</v>
+      </c>
+      <c r="J37" s="4">
         <v>0</v>
       </c>
       <c r="K37" s="5">
@@ -10470,35 +10470,35 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A38">
+    <row r="38" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
         <v>35</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="4">
         <v>1043</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="4">
         <v>5</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="4">
         <v>3</v>
       </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+      <c r="F38" s="4">
         <v>75</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H38">
-        <v>7</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
+      <c r="H38" s="4">
+        <v>7</v>
+      </c>
+      <c r="I38" s="4">
+        <v>0</v>
+      </c>
+      <c r="J38" s="4">
         <v>0</v>
       </c>
       <c r="K38" s="5">
@@ -10565,35 +10565,35 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A39">
+    <row r="39" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
         <v>36</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="4">
         <v>1044</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="4">
         <v>5</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="4">
         <v>4</v>
       </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+      <c r="F39" s="4">
         <v>75</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H39">
-        <v>7</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
+      <c r="H39" s="4">
+        <v>7</v>
+      </c>
+      <c r="I39" s="4">
+        <v>0</v>
+      </c>
+      <c r="J39" s="4">
         <v>0</v>
       </c>
       <c r="K39" s="5">
@@ -10660,35 +10660,35 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A40">
+    <row r="40" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
         <v>37</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="4">
         <v>1045</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="4">
         <v>5</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="4">
         <v>5</v>
       </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
+      <c r="E40" s="4">
+        <v>1</v>
+      </c>
+      <c r="F40" s="4">
         <v>75</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H40">
-        <v>7</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
+      <c r="H40" s="4">
+        <v>7</v>
+      </c>
+      <c r="I40" s="4">
+        <v>0</v>
+      </c>
+      <c r="J40" s="4">
         <v>0</v>
       </c>
       <c r="K40" s="5">
@@ -10755,35 +10755,35 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A41">
+    <row r="41" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
         <v>38</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="4">
         <v>1046</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="4">
         <v>5</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="4">
         <v>6</v>
       </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="4">
         <v>75</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="H41">
-        <v>7</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
+      <c r="H41" s="4">
+        <v>7</v>
+      </c>
+      <c r="I41" s="4">
+        <v>0</v>
+      </c>
+      <c r="J41" s="4">
         <v>0</v>
       </c>
       <c r="K41" s="5">
@@ -10850,35 +10850,35 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A42">
+    <row r="42" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
         <v>39</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="4">
         <v>1047</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="4">
         <v>5</v>
       </c>
-      <c r="D42">
-        <v>7</v>
-      </c>
-      <c r="E42">
+      <c r="D42" s="4">
+        <v>7</v>
+      </c>
+      <c r="E42" s="4">
         <v>1.5</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="4">
         <v>75</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H42">
-        <v>7</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
+      <c r="H42" s="4">
+        <v>7</v>
+      </c>
+      <c r="I42" s="4">
+        <v>0</v>
+      </c>
+      <c r="J42" s="4">
         <v>0</v>
       </c>
       <c r="K42" s="5">
@@ -10945,35 +10945,35 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A43">
+    <row r="43" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
         <v>40</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="4">
         <v>1048</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="4">
         <v>5</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="4">
         <v>8</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="4">
         <v>1.5</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="4">
         <v>75</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H43">
-        <v>7</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
+      <c r="H43" s="4">
+        <v>7</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0</v>
+      </c>
+      <c r="J43" s="4">
         <v>0</v>
       </c>
       <c r="K43" s="5">
@@ -11040,35 +11040,35 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A44">
+    <row r="44" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
         <v>41</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="4">
         <v>1051</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="4">
         <v>6</v>
       </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>2</v>
-      </c>
-      <c r="F44">
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
+      <c r="E44" s="4">
+        <v>2</v>
+      </c>
+      <c r="F44" s="4">
         <v>100</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H44">
-        <v>7</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
+      <c r="H44" s="4">
+        <v>7</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0</v>
+      </c>
+      <c r="J44" s="4">
         <v>0</v>
       </c>
       <c r="K44" s="5">
@@ -11135,35 +11135,35 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A45">
+    <row r="45" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
         <v>42</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="4">
         <v>1052</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="4">
         <v>6</v>
       </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
+      <c r="D45" s="4">
+        <v>2</v>
+      </c>
+      <c r="E45" s="4">
+        <v>1</v>
+      </c>
+      <c r="F45" s="4">
         <v>100</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H45">
-        <v>7</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
+      <c r="H45" s="4">
+        <v>7</v>
+      </c>
+      <c r="I45" s="4">
+        <v>0</v>
+      </c>
+      <c r="J45" s="4">
         <v>0</v>
       </c>
       <c r="K45" s="5">
@@ -11230,35 +11230,35 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A46">
+    <row r="46" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
         <v>43</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="4">
         <v>1053</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="4">
         <v>6</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="4">
         <v>3</v>
       </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
+      <c r="E46" s="4">
+        <v>1</v>
+      </c>
+      <c r="F46" s="4">
         <v>100</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H46">
-        <v>7</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
+      <c r="H46" s="4">
+        <v>7</v>
+      </c>
+      <c r="I46" s="4">
+        <v>0</v>
+      </c>
+      <c r="J46" s="4">
         <v>0</v>
       </c>
       <c r="K46" s="5">
@@ -11325,35 +11325,35 @@
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A47">
+    <row r="47" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
         <v>44</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="4">
         <v>1054</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="4">
         <v>6</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="4">
         <v>4</v>
       </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47">
+      <c r="E47" s="4">
+        <v>1</v>
+      </c>
+      <c r="F47" s="4">
         <v>100</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H47">
-        <v>7</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
+      <c r="H47" s="4">
+        <v>7</v>
+      </c>
+      <c r="I47" s="4">
+        <v>0</v>
+      </c>
+      <c r="J47" s="4">
         <v>0</v>
       </c>
       <c r="K47" s="5">
@@ -11420,35 +11420,35 @@
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A48">
+    <row r="48" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
         <v>45</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="4">
         <v>1055</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="4">
         <v>6</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="4">
         <v>5</v>
       </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48">
+      <c r="E48" s="4">
+        <v>1</v>
+      </c>
+      <c r="F48" s="4">
         <v>100</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H48">
-        <v>7</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
+      <c r="H48" s="4">
+        <v>7</v>
+      </c>
+      <c r="I48" s="4">
+        <v>0</v>
+      </c>
+      <c r="J48" s="4">
         <v>0</v>
       </c>
       <c r="K48" s="5">
@@ -11515,35 +11515,35 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A49">
+    <row r="49" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
         <v>46</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="4">
         <v>1056</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="4">
         <v>6</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="4">
         <v>6</v>
       </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49">
+      <c r="E49" s="4">
+        <v>1</v>
+      </c>
+      <c r="F49" s="4">
         <v>100</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="H49">
-        <v>7</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
+      <c r="H49" s="4">
+        <v>7</v>
+      </c>
+      <c r="I49" s="4">
+        <v>0</v>
+      </c>
+      <c r="J49" s="4">
         <v>0</v>
       </c>
       <c r="K49" s="5">
@@ -11610,35 +11610,35 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A50">
+    <row r="50" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
         <v>47</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="4">
         <v>1057</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="4">
         <v>6</v>
       </c>
-      <c r="D50">
-        <v>7</v>
-      </c>
-      <c r="E50">
+      <c r="D50" s="4">
+        <v>7</v>
+      </c>
+      <c r="E50" s="4">
         <v>1.5</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="4">
         <v>100</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H50">
-        <v>7</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
+      <c r="H50" s="4">
+        <v>7</v>
+      </c>
+      <c r="I50" s="4">
+        <v>0</v>
+      </c>
+      <c r="J50" s="4">
         <v>0</v>
       </c>
       <c r="K50" s="5">
@@ -11705,35 +11705,35 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A51">
+    <row r="51" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
         <v>48</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="4">
         <v>1058</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="4">
         <v>6</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="4">
         <v>8</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="4">
         <v>1.5</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="4">
         <v>100</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H51">
-        <v>7</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
+      <c r="H51" s="4">
+        <v>7</v>
+      </c>
+      <c r="I51" s="4">
+        <v>0</v>
+      </c>
+      <c r="J51" s="4">
         <v>0</v>
       </c>
       <c r="K51" s="5">
@@ -11800,35 +11800,35 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A52">
+    <row r="52" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
         <v>49</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="4">
         <v>1061</v>
       </c>
-      <c r="C52">
-        <v>7</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>2</v>
-      </c>
-      <c r="F52">
+      <c r="C52" s="4">
+        <v>7</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1</v>
+      </c>
+      <c r="E52" s="4">
+        <v>2</v>
+      </c>
+      <c r="F52" s="4">
         <v>150</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H52">
-        <v>7</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
+      <c r="H52" s="4">
+        <v>7</v>
+      </c>
+      <c r="I52" s="4">
+        <v>0</v>
+      </c>
+      <c r="J52" s="4">
         <v>0</v>
       </c>
       <c r="K52" s="5">
@@ -11895,35 +11895,35 @@
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A53">
+    <row r="53" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
         <v>50</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="4">
         <v>1062</v>
       </c>
-      <c r="C53">
-        <v>7</v>
-      </c>
-      <c r="D53">
-        <v>2</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53">
+      <c r="C53" s="4">
+        <v>7</v>
+      </c>
+      <c r="D53" s="4">
+        <v>2</v>
+      </c>
+      <c r="E53" s="4">
+        <v>1</v>
+      </c>
+      <c r="F53" s="4">
         <v>150</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H53">
-        <v>7</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
+      <c r="H53" s="4">
+        <v>7</v>
+      </c>
+      <c r="I53" s="4">
+        <v>0</v>
+      </c>
+      <c r="J53" s="4">
         <v>0</v>
       </c>
       <c r="K53" s="5">
@@ -11990,35 +11990,35 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A54">
+    <row r="54" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
         <v>51</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="4">
         <v>1063</v>
       </c>
-      <c r="C54">
-        <v>7</v>
-      </c>
-      <c r="D54">
+      <c r="C54" s="4">
+        <v>7</v>
+      </c>
+      <c r="D54" s="4">
         <v>3</v>
       </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54">
+      <c r="E54" s="4">
+        <v>1</v>
+      </c>
+      <c r="F54" s="4">
         <v>150</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H54">
-        <v>7</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
+      <c r="H54" s="4">
+        <v>7</v>
+      </c>
+      <c r="I54" s="4">
+        <v>0</v>
+      </c>
+      <c r="J54" s="4">
         <v>0</v>
       </c>
       <c r="K54" s="5">
@@ -12085,35 +12085,35 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A55">
+    <row r="55" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
         <v>52</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="4">
         <v>1064</v>
       </c>
-      <c r="C55">
-        <v>7</v>
-      </c>
-      <c r="D55">
+      <c r="C55" s="4">
+        <v>7</v>
+      </c>
+      <c r="D55" s="4">
         <v>4</v>
       </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55">
+      <c r="E55" s="4">
+        <v>1</v>
+      </c>
+      <c r="F55" s="4">
         <v>150</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H55">
-        <v>7</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
+      <c r="H55" s="4">
+        <v>7</v>
+      </c>
+      <c r="I55" s="4">
+        <v>0</v>
+      </c>
+      <c r="J55" s="4">
         <v>0</v>
       </c>
       <c r="K55" s="5">
@@ -12180,35 +12180,35 @@
         <v>150</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A56">
+    <row r="56" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
         <v>53</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="4">
         <v>1065</v>
       </c>
-      <c r="C56">
-        <v>7</v>
-      </c>
-      <c r="D56">
+      <c r="C56" s="4">
+        <v>7</v>
+      </c>
+      <c r="D56" s="4">
         <v>5</v>
       </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56">
+      <c r="E56" s="4">
+        <v>1</v>
+      </c>
+      <c r="F56" s="4">
         <v>150</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H56">
-        <v>7</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
+      <c r="H56" s="4">
+        <v>7</v>
+      </c>
+      <c r="I56" s="4">
+        <v>0</v>
+      </c>
+      <c r="J56" s="4">
         <v>0</v>
       </c>
       <c r="K56" s="5">
@@ -12275,35 +12275,35 @@
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A57">
+    <row r="57" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
         <v>54</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="4">
         <v>1066</v>
       </c>
-      <c r="C57">
-        <v>7</v>
-      </c>
-      <c r="D57">
+      <c r="C57" s="4">
+        <v>7</v>
+      </c>
+      <c r="D57" s="4">
         <v>6</v>
       </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57">
+      <c r="E57" s="4">
+        <v>1</v>
+      </c>
+      <c r="F57" s="4">
         <v>150</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="H57">
-        <v>7</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
+      <c r="H57" s="4">
+        <v>7</v>
+      </c>
+      <c r="I57" s="4">
+        <v>0</v>
+      </c>
+      <c r="J57" s="4">
         <v>0</v>
       </c>
       <c r="K57" s="5">
@@ -12370,35 +12370,35 @@
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A58">
+    <row r="58" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
         <v>55</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="4">
         <v>1067</v>
       </c>
-      <c r="C58">
-        <v>7</v>
-      </c>
-      <c r="D58">
-        <v>7</v>
-      </c>
-      <c r="E58">
+      <c r="C58" s="4">
+        <v>7</v>
+      </c>
+      <c r="D58" s="4">
+        <v>7</v>
+      </c>
+      <c r="E58" s="4">
         <v>1.5</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="4">
         <v>150</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H58">
-        <v>7</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
+      <c r="H58" s="4">
+        <v>7</v>
+      </c>
+      <c r="I58" s="4">
+        <v>0</v>
+      </c>
+      <c r="J58" s="4">
         <v>0</v>
       </c>
       <c r="K58" s="5">
@@ -12465,35 +12465,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A59">
+    <row r="59" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
         <v>56</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="4">
         <v>1068</v>
       </c>
-      <c r="C59">
-        <v>7</v>
-      </c>
-      <c r="D59">
+      <c r="C59" s="4">
+        <v>7</v>
+      </c>
+      <c r="D59" s="4">
         <v>8</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="4">
         <v>1.5</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="4">
         <v>150</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H59">
-        <v>7</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
+      <c r="H59" s="4">
+        <v>7</v>
+      </c>
+      <c r="I59" s="4">
+        <v>0</v>
+      </c>
+      <c r="J59" s="4">
         <v>0</v>
       </c>
       <c r="K59" s="5">
@@ -12560,35 +12560,35 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A60">
+    <row r="60" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
         <v>57</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="4">
         <v>1071</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="4">
         <v>8</v>
       </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>2</v>
-      </c>
-      <c r="F60">
+      <c r="D60" s="4">
+        <v>1</v>
+      </c>
+      <c r="E60" s="4">
+        <v>2</v>
+      </c>
+      <c r="F60" s="4">
         <v>175</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H60">
-        <v>7</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
+      <c r="H60" s="4">
+        <v>7</v>
+      </c>
+      <c r="I60" s="4">
+        <v>0</v>
+      </c>
+      <c r="J60" s="4">
         <v>0</v>
       </c>
       <c r="K60" s="5">
@@ -12655,35 +12655,35 @@
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A61">
+    <row r="61" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
         <v>58</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="4">
         <v>1072</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="4">
         <v>8</v>
       </c>
-      <c r="D61">
-        <v>2</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61">
+      <c r="D61" s="4">
+        <v>2</v>
+      </c>
+      <c r="E61" s="4">
+        <v>1</v>
+      </c>
+      <c r="F61" s="4">
         <v>175</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H61">
-        <v>7</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
+      <c r="H61" s="4">
+        <v>7</v>
+      </c>
+      <c r="I61" s="4">
+        <v>0</v>
+      </c>
+      <c r="J61" s="4">
         <v>0</v>
       </c>
       <c r="K61" s="5">
@@ -12750,35 +12750,35 @@
         <v>162</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A62">
+    <row r="62" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
         <v>59</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="4">
         <v>1073</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="4">
         <v>8</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="4">
         <v>3</v>
       </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62">
+      <c r="E62" s="4">
+        <v>1</v>
+      </c>
+      <c r="F62" s="4">
         <v>175</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H62">
-        <v>7</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
+      <c r="H62" s="4">
+        <v>7</v>
+      </c>
+      <c r="I62" s="4">
+        <v>0</v>
+      </c>
+      <c r="J62" s="4">
         <v>0</v>
       </c>
       <c r="K62" s="5">
@@ -12845,35 +12845,35 @@
         <v>162</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A63">
+    <row r="63" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
         <v>60</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="4">
         <v>1074</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="4">
         <v>8</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="4">
         <v>4</v>
       </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63">
+      <c r="E63" s="4">
+        <v>1</v>
+      </c>
+      <c r="F63" s="4">
         <v>175</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H63">
-        <v>7</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
+      <c r="H63" s="4">
+        <v>7</v>
+      </c>
+      <c r="I63" s="4">
+        <v>0</v>
+      </c>
+      <c r="J63" s="4">
         <v>0</v>
       </c>
       <c r="K63" s="5">
@@ -12940,35 +12940,35 @@
         <v>162</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A64">
+    <row r="64" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
         <v>61</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="4">
         <v>1075</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="4">
         <v>8</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="4">
         <v>5</v>
       </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64">
+      <c r="E64" s="4">
+        <v>1</v>
+      </c>
+      <c r="F64" s="4">
         <v>175</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H64">
-        <v>7</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
+      <c r="H64" s="4">
+        <v>7</v>
+      </c>
+      <c r="I64" s="4">
+        <v>0</v>
+      </c>
+      <c r="J64" s="4">
         <v>0</v>
       </c>
       <c r="K64" s="5">
@@ -13035,35 +13035,35 @@
         <v>162</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A65">
+    <row r="65" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
         <v>62</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="4">
         <v>1076</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="4">
         <v>8</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="4">
         <v>6</v>
       </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65">
+      <c r="E65" s="4">
+        <v>1</v>
+      </c>
+      <c r="F65" s="4">
         <v>175</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="H65">
-        <v>7</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
+      <c r="H65" s="4">
+        <v>7</v>
+      </c>
+      <c r="I65" s="4">
+        <v>0</v>
+      </c>
+      <c r="J65" s="4">
         <v>0</v>
       </c>
       <c r="K65" s="5">
@@ -13130,35 +13130,35 @@
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A66">
+    <row r="66" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
         <v>63</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="4">
         <v>1077</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="4">
         <v>8</v>
       </c>
-      <c r="D66">
-        <v>7</v>
-      </c>
-      <c r="E66">
+      <c r="D66" s="4">
+        <v>7</v>
+      </c>
+      <c r="E66" s="4">
         <v>1.5</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="4">
         <v>175</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H66">
-        <v>7</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
+      <c r="H66" s="4">
+        <v>7</v>
+      </c>
+      <c r="I66" s="4">
+        <v>0</v>
+      </c>
+      <c r="J66" s="4">
         <v>0</v>
       </c>
       <c r="K66" s="5">
@@ -13225,35 +13225,35 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A67">
+    <row r="67" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
         <v>64</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="4">
         <v>1078</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="4">
         <v>8</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="4">
         <v>8</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="4">
         <v>1.5</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="4">
         <v>175</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H67">
-        <v>7</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
+      <c r="H67" s="4">
+        <v>7</v>
+      </c>
+      <c r="I67" s="4">
+        <v>0</v>
+      </c>
+      <c r="J67" s="4">
         <v>0</v>
       </c>
       <c r="K67" s="5">
@@ -13320,35 +13320,35 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A68">
+    <row r="68" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
         <v>65</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="4">
         <v>1081</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="4">
         <v>9</v>
       </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68">
-        <v>2</v>
-      </c>
-      <c r="F68">
+      <c r="D68" s="4">
+        <v>1</v>
+      </c>
+      <c r="E68" s="4">
+        <v>2</v>
+      </c>
+      <c r="F68" s="4">
         <v>200</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H68">
-        <v>7</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
+      <c r="H68" s="4">
+        <v>7</v>
+      </c>
+      <c r="I68" s="4">
+        <v>0</v>
+      </c>
+      <c r="J68" s="4">
         <v>0</v>
       </c>
       <c r="K68" s="5">
@@ -13415,35 +13415,35 @@
         <v>175</v>
       </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A69">
+    <row r="69" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
         <v>66</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="4">
         <v>1082</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="4">
         <v>9</v>
       </c>
-      <c r="D69">
-        <v>2</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69">
+      <c r="D69" s="4">
+        <v>2</v>
+      </c>
+      <c r="E69" s="4">
+        <v>1</v>
+      </c>
+      <c r="F69" s="4">
         <v>200</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H69">
-        <v>7</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
+      <c r="H69" s="4">
+        <v>7</v>
+      </c>
+      <c r="I69" s="4">
+        <v>0</v>
+      </c>
+      <c r="J69" s="4">
         <v>0</v>
       </c>
       <c r="K69" s="5">
@@ -13510,35 +13510,35 @@
         <v>175</v>
       </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A70">
+    <row r="70" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
         <v>67</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="4">
         <v>1083</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="4">
         <v>9</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="4">
         <v>3</v>
       </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70">
+      <c r="E70" s="4">
+        <v>1</v>
+      </c>
+      <c r="F70" s="4">
         <v>200</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H70">
-        <v>7</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
+      <c r="H70" s="4">
+        <v>7</v>
+      </c>
+      <c r="I70" s="4">
+        <v>0</v>
+      </c>
+      <c r="J70" s="4">
         <v>0</v>
       </c>
       <c r="K70" s="5">
@@ -13605,35 +13605,35 @@
         <v>175</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A71">
+    <row r="71" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
         <v>68</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="4">
         <v>1084</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="4">
         <v>9</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="4">
         <v>4</v>
       </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71">
+      <c r="E71" s="4">
+        <v>1</v>
+      </c>
+      <c r="F71" s="4">
         <v>200</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H71">
-        <v>7</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
+      <c r="H71" s="4">
+        <v>7</v>
+      </c>
+      <c r="I71" s="4">
+        <v>0</v>
+      </c>
+      <c r="J71" s="4">
         <v>0</v>
       </c>
       <c r="K71" s="5">
@@ -13700,35 +13700,35 @@
         <v>175</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A72">
+    <row r="72" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
         <v>69</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="4">
         <v>1085</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="4">
         <v>9</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="4">
         <v>5</v>
       </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="F72">
+      <c r="E72" s="4">
+        <v>1</v>
+      </c>
+      <c r="F72" s="4">
         <v>200</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H72">
-        <v>7</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
+      <c r="H72" s="4">
+        <v>7</v>
+      </c>
+      <c r="I72" s="4">
+        <v>0</v>
+      </c>
+      <c r="J72" s="4">
         <v>0</v>
       </c>
       <c r="K72" s="5">
@@ -13795,35 +13795,35 @@
         <v>175</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A73">
+    <row r="73" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
         <v>70</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="4">
         <v>1086</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="4">
         <v>9</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="4">
         <v>6</v>
       </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73">
+      <c r="E73" s="4">
+        <v>1</v>
+      </c>
+      <c r="F73" s="4">
         <v>200</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="H73">
-        <v>7</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
+      <c r="H73" s="4">
+        <v>7</v>
+      </c>
+      <c r="I73" s="4">
+        <v>0</v>
+      </c>
+      <c r="J73" s="4">
         <v>0</v>
       </c>
       <c r="K73" s="5">
@@ -13890,35 +13890,35 @@
         <v>175</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A74">
+    <row r="74" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
         <v>71</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="4">
         <v>1087</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="4">
         <v>9</v>
       </c>
-      <c r="D74">
-        <v>7</v>
-      </c>
-      <c r="E74">
+      <c r="D74" s="4">
+        <v>7</v>
+      </c>
+      <c r="E74" s="4">
         <v>1.5</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="4">
         <v>200</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H74">
-        <v>7</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
+      <c r="H74" s="4">
+        <v>7</v>
+      </c>
+      <c r="I74" s="4">
+        <v>0</v>
+      </c>
+      <c r="J74" s="4">
         <v>0</v>
       </c>
       <c r="K74" s="5">
@@ -13985,35 +13985,35 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A75">
+    <row r="75" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="4">
         <v>72</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="4">
         <v>1088</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="4">
         <v>9</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="4">
         <v>8</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="4">
         <v>1.5</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="4">
         <v>200</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H75">
-        <v>7</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
+      <c r="H75" s="4">
+        <v>7</v>
+      </c>
+      <c r="I75" s="4">
+        <v>0</v>
+      </c>
+      <c r="J75" s="4">
         <v>0</v>
       </c>
       <c r="K75" s="5">
@@ -14080,35 +14080,35 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A76">
+    <row r="76" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="4">
         <v>73</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="4">
         <v>1091</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="4">
         <v>10</v>
       </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76">
-        <v>2</v>
-      </c>
-      <c r="F76">
+      <c r="D76" s="4">
+        <v>1</v>
+      </c>
+      <c r="E76" s="4">
+        <v>2</v>
+      </c>
+      <c r="F76" s="4">
         <v>250</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H76">
-        <v>7</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
+      <c r="H76" s="4">
+        <v>7</v>
+      </c>
+      <c r="I76" s="4">
+        <v>0</v>
+      </c>
+      <c r="J76" s="4">
         <v>0</v>
       </c>
       <c r="K76" s="5">
@@ -14175,35 +14175,35 @@
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A77">
+    <row r="77" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="4">
         <v>74</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="4">
         <v>1092</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="4">
         <v>10</v>
       </c>
-      <c r="D77">
-        <v>2</v>
-      </c>
-      <c r="E77">
-        <v>1</v>
-      </c>
-      <c r="F77">
+      <c r="D77" s="4">
+        <v>2</v>
+      </c>
+      <c r="E77" s="4">
+        <v>1</v>
+      </c>
+      <c r="F77" s="4">
         <v>250</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H77">
-        <v>7</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
+      <c r="H77" s="4">
+        <v>7</v>
+      </c>
+      <c r="I77" s="4">
+        <v>0</v>
+      </c>
+      <c r="J77" s="4">
         <v>0</v>
       </c>
       <c r="K77" s="5">
@@ -14270,35 +14270,35 @@
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A78">
+    <row r="78" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="4">
         <v>75</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="4">
         <v>1093</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="4">
         <v>10</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="4">
         <v>3</v>
       </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="F78">
+      <c r="E78" s="4">
+        <v>1</v>
+      </c>
+      <c r="F78" s="4">
         <v>250</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H78">
-        <v>7</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
+      <c r="H78" s="4">
+        <v>7</v>
+      </c>
+      <c r="I78" s="4">
+        <v>0</v>
+      </c>
+      <c r="J78" s="4">
         <v>0</v>
       </c>
       <c r="K78" s="5">
@@ -14365,35 +14365,35 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A79">
+    <row r="79" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="4">
         <v>76</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="4">
         <v>1094</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="4">
         <v>10</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="4">
         <v>4</v>
       </c>
-      <c r="E79">
-        <v>1</v>
-      </c>
-      <c r="F79">
+      <c r="E79" s="4">
+        <v>1</v>
+      </c>
+      <c r="F79" s="4">
         <v>250</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H79">
-        <v>7</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79">
+      <c r="H79" s="4">
+        <v>7</v>
+      </c>
+      <c r="I79" s="4">
+        <v>0</v>
+      </c>
+      <c r="J79" s="4">
         <v>0</v>
       </c>
       <c r="K79" s="5">
@@ -14460,35 +14460,35 @@
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A80">
+    <row r="80" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="4">
         <v>77</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="4">
         <v>1095</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="4">
         <v>10</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="4">
         <v>5</v>
       </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80">
+      <c r="E80" s="4">
+        <v>1</v>
+      </c>
+      <c r="F80" s="4">
         <v>250</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H80">
-        <v>7</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80">
+      <c r="H80" s="4">
+        <v>7</v>
+      </c>
+      <c r="I80" s="4">
+        <v>0</v>
+      </c>
+      <c r="J80" s="4">
         <v>0</v>
       </c>
       <c r="K80" s="5">
@@ -14555,35 +14555,35 @@
         <v>200</v>
       </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A81">
+    <row r="81" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="4">
         <v>78</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="4">
         <v>1096</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="4">
         <v>10</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="4">
         <v>6</v>
       </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81">
+      <c r="E81" s="4">
+        <v>1</v>
+      </c>
+      <c r="F81" s="4">
         <v>250</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="H81">
-        <v>7</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81">
+      <c r="H81" s="4">
+        <v>7</v>
+      </c>
+      <c r="I81" s="4">
+        <v>0</v>
+      </c>
+      <c r="J81" s="4">
         <v>0</v>
       </c>
       <c r="K81" s="5">
@@ -14650,35 +14650,35 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A82">
+    <row r="82" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="4">
         <v>79</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="4">
         <v>1097</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="4">
         <v>10</v>
       </c>
-      <c r="D82">
-        <v>7</v>
-      </c>
-      <c r="E82">
+      <c r="D82" s="4">
+        <v>7</v>
+      </c>
+      <c r="E82" s="4">
         <v>1.5</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="4">
         <v>250</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H82">
-        <v>7</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
+      <c r="H82" s="4">
+        <v>7</v>
+      </c>
+      <c r="I82" s="4">
+        <v>0</v>
+      </c>
+      <c r="J82" s="4">
         <v>0</v>
       </c>
       <c r="K82" s="5">
@@ -14745,35 +14745,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A83">
+    <row r="83" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="4">
         <v>80</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="4">
         <v>1098</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="4">
         <v>10</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="4">
         <v>8</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="4">
         <v>1.5</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="4">
         <v>250</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H83">
-        <v>7</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83">
+      <c r="H83" s="4">
+        <v>7</v>
+      </c>
+      <c r="I83" s="4">
+        <v>0</v>
+      </c>
+      <c r="J83" s="4">
         <v>0</v>
       </c>
       <c r="K83" s="5">
@@ -14840,35 +14840,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A84">
+    <row r="84" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="4">
         <v>81</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="4">
         <v>1101</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="4">
         <v>11</v>
       </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84">
-        <v>2</v>
-      </c>
-      <c r="F84">
+      <c r="D84" s="4">
+        <v>1</v>
+      </c>
+      <c r="E84" s="4">
+        <v>2</v>
+      </c>
+      <c r="F84" s="4">
         <v>300</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H84">
-        <v>7</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
+      <c r="H84" s="4">
+        <v>7</v>
+      </c>
+      <c r="I84" s="4">
+        <v>0</v>
+      </c>
+      <c r="J84" s="4">
         <v>0</v>
       </c>
       <c r="K84" s="5">
@@ -14935,35 +14935,35 @@
         <v>225</v>
       </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A85">
+    <row r="85" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="4">
         <v>82</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="4">
         <v>1102</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="4">
         <v>11</v>
       </c>
-      <c r="D85">
-        <v>2</v>
-      </c>
-      <c r="E85">
-        <v>1</v>
-      </c>
-      <c r="F85">
+      <c r="D85" s="4">
+        <v>2</v>
+      </c>
+      <c r="E85" s="4">
+        <v>1</v>
+      </c>
+      <c r="F85" s="4">
         <v>300</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H85">
-        <v>7</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85">
+      <c r="H85" s="4">
+        <v>7</v>
+      </c>
+      <c r="I85" s="4">
+        <v>0</v>
+      </c>
+      <c r="J85" s="4">
         <v>0</v>
       </c>
       <c r="K85" s="5">
@@ -15030,35 +15030,35 @@
         <v>225</v>
       </c>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A86">
+    <row r="86" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="4">
         <v>83</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="4">
         <v>1103</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="4">
         <v>11</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="4">
         <v>3</v>
       </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
-      <c r="F86">
+      <c r="E86" s="4">
+        <v>1</v>
+      </c>
+      <c r="F86" s="4">
         <v>300</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H86">
-        <v>7</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86">
+      <c r="H86" s="4">
+        <v>7</v>
+      </c>
+      <c r="I86" s="4">
+        <v>0</v>
+      </c>
+      <c r="J86" s="4">
         <v>0</v>
       </c>
       <c r="K86" s="5">
@@ -15125,35 +15125,35 @@
         <v>225</v>
       </c>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A87">
+    <row r="87" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="4">
         <v>84</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="4">
         <v>1104</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="4">
         <v>11</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="4">
         <v>4</v>
       </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-      <c r="F87">
+      <c r="E87" s="4">
+        <v>1</v>
+      </c>
+      <c r="F87" s="4">
         <v>300</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H87">
-        <v>7</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87">
+      <c r="H87" s="4">
+        <v>7</v>
+      </c>
+      <c r="I87" s="4">
+        <v>0</v>
+      </c>
+      <c r="J87" s="4">
         <v>0</v>
       </c>
       <c r="K87" s="5">
@@ -15220,35 +15220,35 @@
         <v>225</v>
       </c>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A88">
+    <row r="88" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="4">
         <v>85</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="4">
         <v>1105</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="4">
         <v>11</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="4">
         <v>5</v>
       </c>
-      <c r="E88">
-        <v>1</v>
-      </c>
-      <c r="F88">
+      <c r="E88" s="4">
+        <v>1</v>
+      </c>
+      <c r="F88" s="4">
         <v>300</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H88">
-        <v>7</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88">
+      <c r="H88" s="4">
+        <v>7</v>
+      </c>
+      <c r="I88" s="4">
+        <v>0</v>
+      </c>
+      <c r="J88" s="4">
         <v>0</v>
       </c>
       <c r="K88" s="5">
@@ -15315,35 +15315,35 @@
         <v>225</v>
       </c>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A89">
+    <row r="89" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="4">
         <v>86</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="4">
         <v>1106</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="4">
         <v>11</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="4">
         <v>6</v>
       </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
-      <c r="F89">
+      <c r="E89" s="4">
+        <v>1</v>
+      </c>
+      <c r="F89" s="4">
         <v>300</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="H89">
-        <v>7</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89">
+      <c r="H89" s="4">
+        <v>7</v>
+      </c>
+      <c r="I89" s="4">
+        <v>0</v>
+      </c>
+      <c r="J89" s="4">
         <v>0</v>
       </c>
       <c r="K89" s="5">
@@ -15410,35 +15410,35 @@
         <v>225</v>
       </c>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A90">
+    <row r="90" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="4">
         <v>87</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="4">
         <v>1107</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="4">
         <v>11</v>
       </c>
-      <c r="D90">
-        <v>7</v>
-      </c>
-      <c r="E90">
+      <c r="D90" s="4">
+        <v>7</v>
+      </c>
+      <c r="E90" s="4">
         <v>1.5</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="4">
         <v>300</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H90">
-        <v>7</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90">
+      <c r="H90" s="4">
+        <v>7</v>
+      </c>
+      <c r="I90" s="4">
+        <v>0</v>
+      </c>
+      <c r="J90" s="4">
         <v>0</v>
       </c>
       <c r="K90" s="5">
@@ -15505,35 +15505,35 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A91">
+    <row r="91" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A91" s="4">
         <v>88</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="4">
         <v>1108</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="4">
         <v>11</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="4">
         <v>8</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="4">
         <v>1.5</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="4">
         <v>300</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H91">
-        <v>7</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
+      <c r="H91" s="4">
+        <v>7</v>
+      </c>
+      <c r="I91" s="4">
+        <v>0</v>
+      </c>
+      <c r="J91" s="4">
         <v>0</v>
       </c>
       <c r="K91" s="5">
@@ -15600,35 +15600,35 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A92">
+    <row r="92" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A92" s="4">
         <v>89</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="4">
         <v>1111</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="4">
         <v>12</v>
       </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-      <c r="E92">
-        <v>2</v>
-      </c>
-      <c r="F92">
+      <c r="D92" s="4">
+        <v>1</v>
+      </c>
+      <c r="E92" s="4">
+        <v>2</v>
+      </c>
+      <c r="F92" s="4">
         <v>350</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H92">
-        <v>7</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92">
+      <c r="H92" s="4">
+        <v>7</v>
+      </c>
+      <c r="I92" s="4">
+        <v>0</v>
+      </c>
+      <c r="J92" s="4">
         <v>0</v>
       </c>
       <c r="K92" s="5">
@@ -15695,35 +15695,35 @@
         <v>250</v>
       </c>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A93">
+    <row r="93" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A93" s="4">
         <v>90</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="4">
         <v>1112</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="4">
         <v>12</v>
       </c>
-      <c r="D93">
-        <v>2</v>
-      </c>
-      <c r="E93">
-        <v>1</v>
-      </c>
-      <c r="F93">
+      <c r="D93" s="4">
+        <v>2</v>
+      </c>
+      <c r="E93" s="4">
+        <v>1</v>
+      </c>
+      <c r="F93" s="4">
         <v>350</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H93">
-        <v>7</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93">
+      <c r="H93" s="4">
+        <v>7</v>
+      </c>
+      <c r="I93" s="4">
+        <v>0</v>
+      </c>
+      <c r="J93" s="4">
         <v>0</v>
       </c>
       <c r="K93" s="5">
@@ -15790,35 +15790,35 @@
         <v>250</v>
       </c>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A94">
+    <row r="94" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A94" s="4">
         <v>91</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="4">
         <v>1113</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="4">
         <v>12</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="4">
         <v>3</v>
       </c>
-      <c r="E94">
-        <v>1</v>
-      </c>
-      <c r="F94">
+      <c r="E94" s="4">
+        <v>1</v>
+      </c>
+      <c r="F94" s="4">
         <v>350</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H94">
-        <v>7</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94">
+      <c r="H94" s="4">
+        <v>7</v>
+      </c>
+      <c r="I94" s="4">
+        <v>0</v>
+      </c>
+      <c r="J94" s="4">
         <v>0</v>
       </c>
       <c r="K94" s="5">
@@ -15885,35 +15885,35 @@
         <v>250</v>
       </c>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A95">
+    <row r="95" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A95" s="4">
         <v>92</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="4">
         <v>1114</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="4">
         <v>12</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="4">
         <v>4</v>
       </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
-      <c r="F95">
+      <c r="E95" s="4">
+        <v>1</v>
+      </c>
+      <c r="F95" s="4">
         <v>350</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H95">
-        <v>7</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-      <c r="J95">
+      <c r="H95" s="4">
+        <v>7</v>
+      </c>
+      <c r="I95" s="4">
+        <v>0</v>
+      </c>
+      <c r="J95" s="4">
         <v>0</v>
       </c>
       <c r="K95" s="5">
@@ -15980,35 +15980,35 @@
         <v>250</v>
       </c>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A96">
+    <row r="96" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A96" s="4">
         <v>93</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="4">
         <v>1115</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="4">
         <v>12</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="4">
         <v>5</v>
       </c>
-      <c r="E96">
-        <v>1</v>
-      </c>
-      <c r="F96">
+      <c r="E96" s="4">
+        <v>1</v>
+      </c>
+      <c r="F96" s="4">
         <v>350</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H96">
-        <v>7</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96">
+      <c r="H96" s="4">
+        <v>7</v>
+      </c>
+      <c r="I96" s="4">
+        <v>0</v>
+      </c>
+      <c r="J96" s="4">
         <v>0</v>
       </c>
       <c r="K96" s="5">
@@ -16075,35 +16075,35 @@
         <v>250</v>
       </c>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A97">
+    <row r="97" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A97" s="4">
         <v>94</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="4">
         <v>1116</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="4">
         <v>12</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="4">
         <v>6</v>
       </c>
-      <c r="E97">
-        <v>1</v>
-      </c>
-      <c r="F97">
+      <c r="E97" s="4">
+        <v>1</v>
+      </c>
+      <c r="F97" s="4">
         <v>350</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="H97">
-        <v>7</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97">
+      <c r="H97" s="4">
+        <v>7</v>
+      </c>
+      <c r="I97" s="4">
+        <v>0</v>
+      </c>
+      <c r="J97" s="4">
         <v>0</v>
       </c>
       <c r="K97" s="5">
@@ -16170,35 +16170,35 @@
         <v>250</v>
       </c>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A98">
+    <row r="98" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A98" s="4">
         <v>95</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="4">
         <v>1117</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="4">
         <v>12</v>
       </c>
-      <c r="D98">
-        <v>7</v>
-      </c>
-      <c r="E98">
+      <c r="D98" s="4">
+        <v>7</v>
+      </c>
+      <c r="E98" s="4">
         <v>1.5</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="4">
         <v>350</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H98">
-        <v>7</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-      <c r="J98">
+      <c r="H98" s="4">
+        <v>7</v>
+      </c>
+      <c r="I98" s="4">
+        <v>0</v>
+      </c>
+      <c r="J98" s="4">
         <v>0</v>
       </c>
       <c r="K98" s="5">
@@ -16265,35 +16265,35 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A99">
+    <row r="99" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A99" s="4">
         <v>96</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="4">
         <v>1118</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="4">
         <v>12</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="4">
         <v>8</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="4">
         <v>1.5</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="4">
         <v>350</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H99">
-        <v>7</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-      <c r="J99">
+      <c r="H99" s="4">
+        <v>7</v>
+      </c>
+      <c r="I99" s="4">
+        <v>0</v>
+      </c>
+      <c r="J99" s="4">
         <v>0</v>
       </c>
       <c r="K99" s="5">

--- a/Excel/eqp.装备.xlsx
+++ b/Excel/eqp.装备.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE08DAB-E9D5-477F-AAE2-0F1C499ED12E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3997E27-E6B1-457F-AF5E-BD832145DD5C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="537">
   <si>
     <t>sheet名</t>
   </si>
@@ -1649,6 +1649,14 @@
     <t>装备评分</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>def</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>shield</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -6642,7 +6650,7 @@
   <dimension ref="A1:AS99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7150,7 +7158,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>118</v>
+        <v>536</v>
       </c>
       <c r="I5" s="4">
         <v>7</v>
@@ -7162,10 +7170,10 @@
         <v>0</v>
       </c>
       <c r="L5" s="5">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>114</v>
+        <v>535</v>
       </c>
       <c r="N5" s="4">
         <v>7</v>
@@ -7177,7 +7185,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="5">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="R5" s="4" t="s">
         <v>119</v>
@@ -8173,7 +8181,7 @@
         <v>10</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>114</v>
+        <v>536</v>
       </c>
       <c r="I13" s="4">
         <v>7</v>
@@ -8188,7 +8196,7 @@
         <v>300</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>118</v>
+        <v>535</v>
       </c>
       <c r="N13" s="4">
         <v>7</v>

--- a/Excel/eqp.装备.xlsx
+++ b/Excel/eqp.装备.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3997E27-E6B1-457F-AF5E-BD832145DD5C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9A9129-9B95-4BE0-8DA7-FFD41D8EF38D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="538">
   <si>
     <t>sheet名</t>
   </si>
@@ -1639,9 +1639,6 @@
     <t>龙晶</t>
   </si>
   <si>
-    <t>龙魂</t>
-  </si>
-  <si>
     <t>score</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1655,6 +1652,14 @@
   </si>
   <si>
     <t>shield</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙魂</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙元</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -6649,7 +6654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AS99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -6698,7 +6703,7 @@
         <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>49</v>
@@ -6894,7 +6899,7 @@
         <v>84</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>85</v>
@@ -7158,7 +7163,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I5" s="4">
         <v>7</v>
@@ -7173,7 +7178,7 @@
         <v>200</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="N5" s="4">
         <v>7</v>
@@ -8181,7 +8186,7 @@
         <v>10</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I13" s="4">
         <v>7</v>
@@ -8196,7 +8201,7 @@
         <v>300</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="N13" s="4">
         <v>7</v>
@@ -42579,8 +42584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O82" sqref="O82"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="N88" sqref="N88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -42994,7 +42999,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -43222,7 +43227,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -43260,7 +43265,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -43298,7 +43303,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -43526,7 +43531,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="4">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -43564,7 +43569,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="4">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -43602,7 +43607,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="4">
-        <v>70</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -43830,7 +43835,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="4">
-        <v>70</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -43868,7 +43873,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="4">
-        <v>70</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -43906,7 +43911,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="4">
-        <v>175</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44134,7 +44139,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="4">
-        <v>175</v>
+        <v>250</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44172,7 +44177,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="4">
-        <v>175</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44204,13 +44209,13 @@
         <v>48.76</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="K44" s="4">
         <v>0</v>
       </c>
       <c r="L44" s="4">
-        <v>245</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44242,13 +44247,13 @@
         <v>24.38</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="K45" s="4">
         <v>0</v>
       </c>
       <c r="L45" s="4">
-        <v>245</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44280,13 +44285,13 @@
         <v>24.38</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="K46" s="4">
         <v>0</v>
       </c>
       <c r="L46" s="4">
-        <v>245</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44318,13 +44323,13 @@
         <v>24.38</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="K47" s="4">
         <v>0</v>
       </c>
       <c r="L47" s="4">
-        <v>245</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44356,13 +44361,13 @@
         <v>24.38</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="K48" s="4">
         <v>0</v>
       </c>
       <c r="L48" s="4">
-        <v>245</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44394,13 +44399,13 @@
         <v>24.38</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="K49" s="4">
         <v>0</v>
       </c>
       <c r="L49" s="4">
-        <v>245</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44432,13 +44437,13 @@
         <v>36.57</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="K50" s="4">
         <v>0</v>
       </c>
       <c r="L50" s="4">
-        <v>245</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44470,13 +44475,13 @@
         <v>36.57</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="K51" s="4">
         <v>0</v>
       </c>
       <c r="L51" s="4">
-        <v>245</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44508,13 +44513,13 @@
         <v>60.96</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="K52" s="4">
         <v>0</v>
       </c>
       <c r="L52" s="4">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44546,13 +44551,13 @@
         <v>30.48</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="K53" s="4">
         <v>0</v>
       </c>
       <c r="L53" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44584,13 +44589,13 @@
         <v>30.48</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="K54" s="4">
         <v>0</v>
       </c>
       <c r="L54" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44622,13 +44627,13 @@
         <v>30.48</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="K55" s="4">
         <v>0</v>
       </c>
       <c r="L55" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44660,13 +44665,13 @@
         <v>30.48</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="K56" s="4">
         <v>0</v>
       </c>
       <c r="L56" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44698,13 +44703,13 @@
         <v>30.48</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="K57" s="4">
         <v>0</v>
       </c>
       <c r="L57" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44736,13 +44741,13 @@
         <v>45.72</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="K58" s="4">
         <v>0</v>
       </c>
       <c r="L58" s="4">
-        <v>500</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44774,13 +44779,13 @@
         <v>45.72</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="K59" s="4">
         <v>0</v>
       </c>
       <c r="L59" s="4">
-        <v>500</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44812,13 +44817,13 @@
         <v>60.96</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="K60" s="4">
         <v>0</v>
       </c>
       <c r="L60" s="4">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44850,13 +44855,13 @@
         <v>30.48</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="K61" s="4">
         <v>0</v>
       </c>
       <c r="L61" s="4">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44888,13 +44893,13 @@
         <v>30.48</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="K62" s="4">
         <v>0</v>
       </c>
       <c r="L62" s="4">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44926,13 +44931,13 @@
         <v>30.48</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="K63" s="4">
         <v>0</v>
       </c>
       <c r="L63" s="4">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -44964,13 +44969,13 @@
         <v>30.48</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="K64" s="4">
         <v>0</v>
       </c>
       <c r="L64" s="4">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -45002,13 +45007,13 @@
         <v>30.48</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="K65" s="4">
         <v>0</v>
       </c>
       <c r="L65" s="4">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -45040,13 +45045,13 @@
         <v>45.72</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="K66" s="4">
         <v>0</v>
       </c>
       <c r="L66" s="4">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -45078,13 +45083,13 @@
         <v>45.72</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="K67" s="4">
         <v>0</v>
       </c>
       <c r="L67" s="4">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -45116,13 +45121,13 @@
         <v>97.53</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="K68" s="4">
         <v>0</v>
       </c>
       <c r="L68" s="4">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -45154,7 +45159,7 @@
         <v>48.76</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="K69" s="4">
         <v>0</v>
@@ -45192,7 +45197,7 @@
         <v>48.76</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="K70" s="4">
         <v>0</v>
@@ -45230,7 +45235,7 @@
         <v>48.76</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="K71" s="4">
         <v>0</v>
@@ -45268,7 +45273,7 @@
         <v>48.76</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="K72" s="4">
         <v>0</v>
@@ -45306,7 +45311,7 @@
         <v>48.76</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="K73" s="4">
         <v>0</v>
@@ -45344,13 +45349,13 @@
         <v>73.150000000000006</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="K74" s="4">
         <v>0</v>
       </c>
       <c r="L74" s="4">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -45382,13 +45387,13 @@
         <v>73.150000000000006</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="K75" s="4">
         <v>0</v>
       </c>
       <c r="L75" s="4">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -45420,13 +45425,13 @@
         <v>60.96</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="K76" s="4">
         <v>0</v>
       </c>
       <c r="L76" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -45458,7 +45463,7 @@
         <v>30.48</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="K77" s="4">
         <v>0</v>
@@ -45496,7 +45501,7 @@
         <v>30.48</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="K78" s="4">
         <v>0</v>
@@ -45534,7 +45539,7 @@
         <v>30.48</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="K79" s="4">
         <v>0</v>
@@ -45572,7 +45577,7 @@
         <v>30.48</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="K80" s="4">
         <v>0</v>
@@ -45610,7 +45615,7 @@
         <v>30.48</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="K81" s="4">
         <v>0</v>
@@ -45648,13 +45653,13 @@
         <v>45.72</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="K82" s="4">
         <v>0</v>
       </c>
       <c r="L82" s="4">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -45686,13 +45691,13 @@
         <v>45.72</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="K83" s="4">
         <v>0</v>
       </c>
       <c r="L83" s="4">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -45724,13 +45729,13 @@
         <v>60.96</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="K84" s="4">
         <v>0</v>
       </c>
       <c r="L84" s="4">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -45762,13 +45767,13 @@
         <v>30.48</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="K85" s="4">
         <v>0</v>
       </c>
       <c r="L85" s="4">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -45800,13 +45805,13 @@
         <v>30.48</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="K86" s="4">
         <v>0</v>
       </c>
       <c r="L86" s="4">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -45838,13 +45843,13 @@
         <v>30.48</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="K87" s="4">
         <v>0</v>
       </c>
       <c r="L87" s="4">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -45876,13 +45881,13 @@
         <v>30.48</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="K88" s="4">
         <v>0</v>
       </c>
       <c r="L88" s="4">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -45914,13 +45919,13 @@
         <v>30.48</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="K89" s="4">
         <v>0</v>
       </c>
       <c r="L89" s="4">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -45952,13 +45957,13 @@
         <v>45.72</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="K90" s="4">
         <v>0</v>
       </c>
       <c r="L90" s="4">
-        <v>200</v>
+        <v>375</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -45990,13 +45995,13 @@
         <v>45.72</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="K91" s="4">
         <v>0</v>
       </c>
       <c r="L91" s="4">
-        <v>200</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/eqp.装备.xlsx
+++ b/Excel/eqp.装备.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\UIDesigner\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9A9129-9B95-4BE0-8DA7-FFD41D8EF38D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA0DD46-920D-49EB-A3BA-7DED1F20AD86}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1747,7 +1747,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1787,6 +1787,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1857,7 +1863,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
@@ -1873,6 +1879,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="4" applyFill="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -42161,8 +42170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -42355,10 +42364,10 @@
       <c r="B4" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="6">
         <v>3</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="6">
         <v>7</v>
       </c>
       <c r="E4" s="4">
@@ -42367,10 +42376,10 @@
       <c r="F4" s="4">
         <v>29</v>
       </c>
-      <c r="G4" s="4">
-        <v>2</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="G4" s="6">
+        <v>2</v>
+      </c>
+      <c r="H4" s="6">
         <v>5</v>
       </c>
       <c r="I4" s="4">
@@ -42379,10 +42388,10 @@
       <c r="J4" s="4">
         <v>59</v>
       </c>
-      <c r="K4" s="4">
-        <v>1</v>
-      </c>
-      <c r="L4" s="4">
+      <c r="K4" s="6">
+        <v>1</v>
+      </c>
+      <c r="L4" s="6">
         <v>3</v>
       </c>
       <c r="M4" s="4">
@@ -42391,10 +42400,10 @@
       <c r="N4" s="4">
         <v>89</v>
       </c>
-      <c r="O4" s="4">
-        <v>1</v>
-      </c>
-      <c r="P4" s="4">
+      <c r="O4" s="6">
+        <v>1</v>
+      </c>
+      <c r="P4" s="6">
         <v>1</v>
       </c>
       <c r="Q4" s="4">
@@ -42411,10 +42420,10 @@
       <c r="B5" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="6">
         <v>5</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="6">
         <v>15</v>
       </c>
       <c r="E5" s="4">
@@ -42423,10 +42432,10 @@
       <c r="F5" s="4">
         <v>29</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="6">
         <v>5</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="6">
         <v>15</v>
       </c>
       <c r="I5" s="4">
@@ -42435,10 +42444,10 @@
       <c r="J5" s="4">
         <v>59</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="6">
         <v>3</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="6">
         <v>10</v>
       </c>
       <c r="M5" s="4">
@@ -42447,11 +42456,11 @@
       <c r="N5" s="4">
         <v>89</v>
       </c>
-      <c r="O5" s="4">
-        <v>3</v>
-      </c>
-      <c r="P5" s="4">
-        <v>5</v>
+      <c r="O5" s="6">
+        <v>2</v>
+      </c>
+      <c r="P5" s="6">
+        <v>6</v>
       </c>
       <c r="Q5" s="4">
         <v>90</v>
@@ -42467,10 +42476,10 @@
       <c r="B6" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="6">
         <v>15</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="6">
         <v>35</v>
       </c>
       <c r="E6" s="4">
@@ -42479,10 +42488,10 @@
       <c r="F6" s="4">
         <v>29</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="6">
         <v>15</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="6">
         <v>35</v>
       </c>
       <c r="I6" s="4">
@@ -42491,11 +42500,11 @@
       <c r="J6" s="4">
         <v>59</v>
       </c>
-      <c r="K6" s="4">
-        <v>30</v>
-      </c>
-      <c r="L6" s="4">
-        <v>50</v>
+      <c r="K6" s="6">
+        <v>15</v>
+      </c>
+      <c r="L6" s="6">
+        <v>35</v>
       </c>
       <c r="M6" s="4">
         <v>60</v>
@@ -42503,11 +42512,11 @@
       <c r="N6" s="4">
         <v>89</v>
       </c>
-      <c r="O6" s="4">
-        <v>2</v>
-      </c>
-      <c r="P6" s="4">
-        <v>6</v>
+      <c r="O6" s="6">
+        <v>7</v>
+      </c>
+      <c r="P6" s="6">
+        <v>15</v>
       </c>
       <c r="Q6" s="4">
         <v>90</v>
@@ -42523,10 +42532,10 @@
       <c r="B7" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="6">
         <v>25</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="6">
         <v>75</v>
       </c>
       <c r="E7" s="4">
@@ -42535,10 +42544,10 @@
       <c r="F7" s="4">
         <v>29</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="6">
         <v>25</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="6">
         <v>75</v>
       </c>
       <c r="I7" s="4">
@@ -42547,10 +42556,10 @@
       <c r="J7" s="4">
         <v>59</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="6">
         <v>25</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="6">
         <v>75</v>
       </c>
       <c r="M7" s="4">
@@ -42559,10 +42568,10 @@
       <c r="N7" s="4">
         <v>89</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="6">
         <v>25</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="6">
         <v>75</v>
       </c>
       <c r="Q7" s="4">
@@ -42584,7 +42593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="N88" sqref="N88"/>
     </sheetView>
   </sheetViews>
@@ -46015,8 +46024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -46543,7 +46552,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="4">
-        <v>5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -46572,7 +46581,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="4">
-        <v>5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -47007,7 +47016,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="4">
-        <v>10</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -47036,7 +47045,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="4">
-        <v>10</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -47471,7 +47480,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="4">
-        <v>20</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -47500,7 +47509,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="4">
-        <v>20</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/eqp.装备.xlsx
+++ b/Excel/eqp.装备.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AE2708-E65A-4B4F-90BF-CFD6D1933620}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0460F59-9121-4177-A6F6-D0465C1C011B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="539">
   <si>
     <t>sheet名</t>
   </si>
@@ -1662,6 +1662,10 @@
     <t>龙元</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>attrFac</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -6664,7 +6668,7 @@
   <dimension ref="A1:AS99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6718,7 +6722,7 @@
         <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>538</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>51</v>
@@ -7049,7 +7053,8 @@
         <v>113</v>
       </c>
       <c r="I4" s="4">
-        <v>7</v>
+        <f>IF(H4="atk",15,1)</f>
+        <v>15</v>
       </c>
       <c r="J4" s="4">
         <v>0</v>
@@ -7064,7 +7069,8 @@
         <v>119</v>
       </c>
       <c r="N4" s="4">
-        <v>7</v>
+        <f>IF(M4="atk",15,1)</f>
+        <v>1</v>
       </c>
       <c r="O4" s="4">
         <v>0</v>
@@ -7079,7 +7085,8 @@
         <v>114</v>
       </c>
       <c r="S4" s="4">
-        <v>7</v>
+        <f>IF(OR(R4="atk",R4="crit",R4="dash",R4="dmgInc"),15,1)</f>
+        <v>1</v>
       </c>
       <c r="T4" s="4">
         <v>0</v>
@@ -7094,7 +7101,8 @@
         <v>115</v>
       </c>
       <c r="X4" s="4">
-        <v>7</v>
+        <f>IF(OR(W4="atk",W4="crit",W4="dash",W4="dmgInc"),15,1)</f>
+        <v>15</v>
       </c>
       <c r="Y4" s="4">
         <v>0</v>
@@ -7109,7 +7117,8 @@
         <v>116</v>
       </c>
       <c r="AC4" s="4">
-        <v>7</v>
+        <f>IF(OR(AB4="atk",AB4="crit",AB4="dash",AB4="dmgInc"),15,1)</f>
+        <v>1</v>
       </c>
       <c r="AD4" s="4">
         <v>0</v>
@@ -7175,7 +7184,8 @@
         <v>535</v>
       </c>
       <c r="I5" s="4">
-        <v>7</v>
+        <f t="shared" ref="I5:I68" si="0">IF(H5="atk",15,1)</f>
+        <v>1</v>
       </c>
       <c r="J5" s="4">
         <v>0</v>
@@ -7190,7 +7200,8 @@
         <v>534</v>
       </c>
       <c r="N5" s="4">
-        <v>7</v>
+        <f t="shared" ref="N5:N68" si="1">IF(M5="atk",15,1)</f>
+        <v>1</v>
       </c>
       <c r="O5" s="4">
         <v>0</v>
@@ -7205,7 +7216,8 @@
         <v>119</v>
       </c>
       <c r="S5" s="4">
-        <v>7</v>
+        <f t="shared" ref="S5:S68" si="2">IF(OR(R5="atk",R5="crit",R5="dash",R5="dmgInc"),15,1)</f>
+        <v>1</v>
       </c>
       <c r="T5" s="4">
         <v>0</v>
@@ -7220,7 +7232,8 @@
         <v>115</v>
       </c>
       <c r="X5" s="4">
-        <v>7</v>
+        <f t="shared" ref="X5:X68" si="3">IF(OR(W5="atk",W5="crit",W5="dash",W5="dmgInc"),15,1)</f>
+        <v>15</v>
       </c>
       <c r="Y5" s="4">
         <v>0</v>
@@ -7235,7 +7248,8 @@
         <v>120</v>
       </c>
       <c r="AC5" s="4">
-        <v>7</v>
+        <f t="shared" ref="AC5:AC68" si="4">IF(OR(AB5="atk",AB5="crit",AB5="dash",AB5="dmgInc"),15,1)</f>
+        <v>15</v>
       </c>
       <c r="AD5" s="4">
         <v>0</v>
@@ -7307,7 +7321,8 @@
         <v>114</v>
       </c>
       <c r="I6" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J6" s="4">
         <v>0</v>
@@ -7322,7 +7337,8 @@
         <v>122</v>
       </c>
       <c r="N6" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O6" s="4">
         <v>0</v>
@@ -7337,7 +7353,8 @@
         <v>118</v>
       </c>
       <c r="S6" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T6" s="4">
         <v>0</v>
@@ -7352,7 +7369,8 @@
         <v>115</v>
       </c>
       <c r="X6" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Y6" s="4">
         <v>0</v>
@@ -7367,7 +7385,8 @@
         <v>123</v>
       </c>
       <c r="AC6" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD6" s="4">
         <v>0</v>
@@ -7439,7 +7458,8 @@
         <v>119</v>
       </c>
       <c r="I7" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J7" s="4">
         <v>0</v>
@@ -7454,7 +7474,8 @@
         <v>114</v>
       </c>
       <c r="N7" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O7" s="4">
         <v>0</v>
@@ -7469,7 +7490,8 @@
         <v>122</v>
       </c>
       <c r="S7" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T7" s="4">
         <v>0</v>
@@ -7484,7 +7506,8 @@
         <v>116</v>
       </c>
       <c r="X7" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Y7" s="4">
         <v>0</v>
@@ -7499,7 +7522,8 @@
         <v>120</v>
       </c>
       <c r="AC7" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="AD7" s="4">
         <v>0</v>
@@ -7571,7 +7595,8 @@
         <v>119</v>
       </c>
       <c r="I8" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J8" s="4">
         <v>0</v>
@@ -7586,7 +7611,8 @@
         <v>118</v>
       </c>
       <c r="N8" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O8" s="4">
         <v>0</v>
@@ -7601,7 +7627,8 @@
         <v>118</v>
       </c>
       <c r="S8" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T8" s="4">
         <v>0</v>
@@ -7616,7 +7643,8 @@
         <v>116</v>
       </c>
       <c r="X8" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Y8" s="4">
         <v>0</v>
@@ -7631,7 +7659,8 @@
         <v>123</v>
       </c>
       <c r="AC8" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD8" s="4">
         <v>0</v>
@@ -7703,7 +7732,8 @@
         <v>118</v>
       </c>
       <c r="I9" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J9" s="4">
         <v>0</v>
@@ -7718,7 +7748,8 @@
         <v>122</v>
       </c>
       <c r="N9" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O9" s="4">
         <v>0</v>
@@ -7733,7 +7764,8 @@
         <v>122</v>
       </c>
       <c r="S9" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T9" s="4">
         <v>0</v>
@@ -7748,7 +7780,8 @@
         <v>120</v>
       </c>
       <c r="X9" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Y9" s="4">
         <v>0</v>
@@ -7763,7 +7796,8 @@
         <v>123</v>
       </c>
       <c r="AC9" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD9" s="4">
         <v>0</v>
@@ -7835,7 +7869,8 @@
         <v>113</v>
       </c>
       <c r="I10" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="J10" s="4">
         <v>0</v>
@@ -7850,7 +7885,8 @@
         <v>118</v>
       </c>
       <c r="N10" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O10" s="4">
         <v>0</v>
@@ -7865,7 +7901,8 @@
         <v>113</v>
       </c>
       <c r="S10" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="T10" s="4">
         <v>0</v>
@@ -7880,7 +7917,8 @@
         <v>119</v>
       </c>
       <c r="X10" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Y10" s="4">
         <v>0</v>
@@ -7895,7 +7933,8 @@
         <v>128</v>
       </c>
       <c r="AC10" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD10" s="4">
         <v>0</v>
@@ -7967,7 +8006,8 @@
         <v>113</v>
       </c>
       <c r="I11" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="J11" s="4">
         <v>0</v>
@@ -7982,7 +8022,8 @@
         <v>122</v>
       </c>
       <c r="N11" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O11" s="4">
         <v>0</v>
@@ -7997,7 +8038,8 @@
         <v>113</v>
       </c>
       <c r="S11" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="T11" s="4">
         <v>0</v>
@@ -8012,7 +8054,8 @@
         <v>114</v>
       </c>
       <c r="X11" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Y11" s="4">
         <v>0</v>
@@ -8027,7 +8070,8 @@
         <v>130</v>
       </c>
       <c r="AC11" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD11" s="4">
         <v>0</v>
@@ -8099,7 +8143,8 @@
         <v>113</v>
       </c>
       <c r="I12" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="J12" s="4">
         <v>0</v>
@@ -8114,7 +8159,8 @@
         <v>119</v>
       </c>
       <c r="N12" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O12" s="4">
         <v>0</v>
@@ -8129,7 +8175,8 @@
         <v>114</v>
       </c>
       <c r="S12" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T12" s="4">
         <v>0</v>
@@ -8144,7 +8191,8 @@
         <v>115</v>
       </c>
       <c r="X12" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Y12" s="4">
         <v>0</v>
@@ -8159,7 +8207,8 @@
         <v>116</v>
       </c>
       <c r="AC12" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD12" s="4">
         <v>0</v>
@@ -8198,7 +8247,8 @@
         <v>535</v>
       </c>
       <c r="I13" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J13" s="4">
         <v>0</v>
@@ -8213,7 +8263,8 @@
         <v>534</v>
       </c>
       <c r="N13" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O13" s="4">
         <v>0</v>
@@ -8228,7 +8279,8 @@
         <v>119</v>
       </c>
       <c r="S13" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T13" s="4">
         <v>0</v>
@@ -8243,7 +8295,8 @@
         <v>115</v>
       </c>
       <c r="X13" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Y13" s="4">
         <v>0</v>
@@ -8258,7 +8311,8 @@
         <v>120</v>
       </c>
       <c r="AC13" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="AD13" s="4">
         <v>0</v>
@@ -8297,7 +8351,8 @@
         <v>114</v>
       </c>
       <c r="I14" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J14" s="4">
         <v>0</v>
@@ -8312,7 +8367,8 @@
         <v>122</v>
       </c>
       <c r="N14" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O14" s="4">
         <v>0</v>
@@ -8327,7 +8383,8 @@
         <v>118</v>
       </c>
       <c r="S14" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T14" s="4">
         <v>0</v>
@@ -8342,7 +8399,8 @@
         <v>115</v>
       </c>
       <c r="X14" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Y14" s="4">
         <v>0</v>
@@ -8357,7 +8415,8 @@
         <v>123</v>
       </c>
       <c r="AC14" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD14" s="4">
         <v>0</v>
@@ -8396,7 +8455,8 @@
         <v>119</v>
       </c>
       <c r="I15" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J15" s="4">
         <v>0</v>
@@ -8411,7 +8471,8 @@
         <v>114</v>
       </c>
       <c r="N15" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O15" s="4">
         <v>0</v>
@@ -8426,7 +8487,8 @@
         <v>122</v>
       </c>
       <c r="S15" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T15" s="4">
         <v>0</v>
@@ -8441,7 +8503,8 @@
         <v>116</v>
       </c>
       <c r="X15" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Y15" s="4">
         <v>0</v>
@@ -8456,7 +8519,8 @@
         <v>120</v>
       </c>
       <c r="AC15" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="AD15" s="4">
         <v>0</v>
@@ -8495,7 +8559,8 @@
         <v>119</v>
       </c>
       <c r="I16" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J16" s="4">
         <v>0</v>
@@ -8510,7 +8575,8 @@
         <v>118</v>
       </c>
       <c r="N16" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O16" s="4">
         <v>0</v>
@@ -8525,7 +8591,8 @@
         <v>118</v>
       </c>
       <c r="S16" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T16" s="4">
         <v>0</v>
@@ -8540,7 +8607,8 @@
         <v>116</v>
       </c>
       <c r="X16" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Y16" s="4">
         <v>0</v>
@@ -8555,7 +8623,8 @@
         <v>123</v>
       </c>
       <c r="AC16" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD16" s="4">
         <v>0</v>
@@ -8600,7 +8669,8 @@
         <v>118</v>
       </c>
       <c r="I17" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J17" s="4">
         <v>0</v>
@@ -8615,7 +8685,8 @@
         <v>122</v>
       </c>
       <c r="N17" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O17" s="4">
         <v>0</v>
@@ -8630,7 +8701,8 @@
         <v>122</v>
       </c>
       <c r="S17" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T17" s="4">
         <v>0</v>
@@ -8645,7 +8717,8 @@
         <v>120</v>
       </c>
       <c r="X17" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Y17" s="4">
         <v>0</v>
@@ -8660,7 +8733,8 @@
         <v>123</v>
       </c>
       <c r="AC17" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD17" s="4">
         <v>0</v>
@@ -8705,7 +8779,8 @@
         <v>113</v>
       </c>
       <c r="I18" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="J18" s="4">
         <v>0</v>
@@ -8720,7 +8795,8 @@
         <v>118</v>
       </c>
       <c r="N18" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O18" s="4">
         <v>0</v>
@@ -8735,7 +8811,8 @@
         <v>113</v>
       </c>
       <c r="S18" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="T18" s="4">
         <v>0</v>
@@ -8750,7 +8827,8 @@
         <v>119</v>
       </c>
       <c r="X18" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Y18" s="4">
         <v>0</v>
@@ -8765,7 +8843,8 @@
         <v>128</v>
       </c>
       <c r="AC18" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD18" s="4">
         <v>0</v>
@@ -8810,7 +8889,8 @@
         <v>113</v>
       </c>
       <c r="I19" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="J19" s="4">
         <v>0</v>
@@ -8825,7 +8905,8 @@
         <v>122</v>
       </c>
       <c r="N19" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O19" s="4">
         <v>0</v>
@@ -8840,7 +8921,8 @@
         <v>113</v>
       </c>
       <c r="S19" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="T19" s="4">
         <v>0</v>
@@ -8855,7 +8937,8 @@
         <v>114</v>
       </c>
       <c r="X19" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Y19" s="4">
         <v>0</v>
@@ -8870,7 +8953,8 @@
         <v>130</v>
       </c>
       <c r="AC19" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD19" s="4">
         <v>0</v>
@@ -8915,7 +8999,8 @@
         <v>113</v>
       </c>
       <c r="I20" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="J20" s="4">
         <v>0</v>
@@ -8930,7 +9015,8 @@
         <v>119</v>
       </c>
       <c r="N20" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O20" s="4">
         <v>0</v>
@@ -8945,7 +9031,8 @@
         <v>114</v>
       </c>
       <c r="S20" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T20" s="4">
         <v>0</v>
@@ -8960,7 +9047,8 @@
         <v>115</v>
       </c>
       <c r="X20" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Y20" s="4">
         <v>0</v>
@@ -8975,7 +9063,8 @@
         <v>116</v>
       </c>
       <c r="AC20" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD20" s="4">
         <v>0</v>
@@ -9020,7 +9109,8 @@
         <v>114</v>
       </c>
       <c r="I21" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J21" s="4">
         <v>0</v>
@@ -9035,7 +9125,8 @@
         <v>118</v>
       </c>
       <c r="N21" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O21" s="4">
         <v>0</v>
@@ -9050,7 +9141,8 @@
         <v>119</v>
       </c>
       <c r="S21" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T21" s="4">
         <v>0</v>
@@ -9065,7 +9157,8 @@
         <v>115</v>
       </c>
       <c r="X21" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Y21" s="4">
         <v>0</v>
@@ -9080,7 +9173,8 @@
         <v>120</v>
       </c>
       <c r="AC21" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="AD21" s="4">
         <v>0</v>
@@ -9119,7 +9213,8 @@
         <v>114</v>
       </c>
       <c r="I22" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J22" s="4">
         <v>0</v>
@@ -9134,7 +9229,8 @@
         <v>122</v>
       </c>
       <c r="N22" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O22" s="4">
         <v>0</v>
@@ -9149,7 +9245,8 @@
         <v>118</v>
       </c>
       <c r="S22" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T22" s="4">
         <v>0</v>
@@ -9164,7 +9261,8 @@
         <v>115</v>
       </c>
       <c r="X22" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Y22" s="4">
         <v>0</v>
@@ -9179,7 +9277,8 @@
         <v>123</v>
       </c>
       <c r="AC22" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD22" s="4">
         <v>0</v>
@@ -9218,7 +9317,8 @@
         <v>119</v>
       </c>
       <c r="I23" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J23" s="4">
         <v>0</v>
@@ -9233,7 +9333,8 @@
         <v>114</v>
       </c>
       <c r="N23" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O23" s="4">
         <v>0</v>
@@ -9248,7 +9349,8 @@
         <v>122</v>
       </c>
       <c r="S23" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T23" s="4">
         <v>0</v>
@@ -9263,7 +9365,8 @@
         <v>116</v>
       </c>
       <c r="X23" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Y23" s="4">
         <v>0</v>
@@ -9278,7 +9381,8 @@
         <v>120</v>
       </c>
       <c r="AC23" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="AD23" s="4">
         <v>0</v>
@@ -9317,7 +9421,8 @@
         <v>119</v>
       </c>
       <c r="I24" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J24" s="4">
         <v>0</v>
@@ -9332,7 +9437,8 @@
         <v>118</v>
       </c>
       <c r="N24" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O24" s="4">
         <v>0</v>
@@ -9347,7 +9453,8 @@
         <v>118</v>
       </c>
       <c r="S24" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T24" s="4">
         <v>0</v>
@@ -9362,7 +9469,8 @@
         <v>116</v>
       </c>
       <c r="X24" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Y24" s="4">
         <v>0</v>
@@ -9377,7 +9485,8 @@
         <v>123</v>
       </c>
       <c r="AC24" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD24" s="4">
         <v>0</v>
@@ -9416,7 +9525,8 @@
         <v>118</v>
       </c>
       <c r="I25" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J25" s="4">
         <v>0</v>
@@ -9431,7 +9541,8 @@
         <v>122</v>
       </c>
       <c r="N25" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O25" s="4">
         <v>0</v>
@@ -9446,7 +9557,8 @@
         <v>122</v>
       </c>
       <c r="S25" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T25" s="4">
         <v>0</v>
@@ -9461,7 +9573,8 @@
         <v>120</v>
       </c>
       <c r="X25" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Y25" s="4">
         <v>0</v>
@@ -9476,7 +9589,8 @@
         <v>123</v>
       </c>
       <c r="AC25" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD25" s="4">
         <v>0</v>
@@ -9515,7 +9629,8 @@
         <v>113</v>
       </c>
       <c r="I26" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="J26" s="4">
         <v>0</v>
@@ -9530,7 +9645,8 @@
         <v>118</v>
       </c>
       <c r="N26" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O26" s="4">
         <v>0</v>
@@ -9545,7 +9661,8 @@
         <v>113</v>
       </c>
       <c r="S26" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="T26" s="4">
         <v>0</v>
@@ -9560,7 +9677,8 @@
         <v>119</v>
       </c>
       <c r="X26" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Y26" s="4">
         <v>0</v>
@@ -9575,7 +9693,8 @@
         <v>128</v>
       </c>
       <c r="AC26" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD26" s="4">
         <v>0</v>
@@ -9614,7 +9733,8 @@
         <v>113</v>
       </c>
       <c r="I27" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="J27" s="4">
         <v>0</v>
@@ -9629,7 +9749,8 @@
         <v>122</v>
       </c>
       <c r="N27" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O27" s="4">
         <v>0</v>
@@ -9644,7 +9765,8 @@
         <v>113</v>
       </c>
       <c r="S27" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="T27" s="4">
         <v>0</v>
@@ -9659,7 +9781,8 @@
         <v>114</v>
       </c>
       <c r="X27" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Y27" s="4">
         <v>0</v>
@@ -9674,7 +9797,8 @@
         <v>130</v>
       </c>
       <c r="AC27" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD27" s="4">
         <v>0</v>
@@ -9713,7 +9837,8 @@
         <v>113</v>
       </c>
       <c r="I28" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="J28" s="4">
         <v>0</v>
@@ -9728,7 +9853,8 @@
         <v>119</v>
       </c>
       <c r="N28" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O28" s="4">
         <v>0</v>
@@ -9743,7 +9869,8 @@
         <v>114</v>
       </c>
       <c r="S28" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T28" s="4">
         <v>0</v>
@@ -9758,7 +9885,8 @@
         <v>115</v>
       </c>
       <c r="X28" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Y28" s="4">
         <v>0</v>
@@ -9773,7 +9901,8 @@
         <v>116</v>
       </c>
       <c r="AC28" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD28" s="4">
         <v>0</v>
@@ -9812,7 +9941,8 @@
         <v>114</v>
       </c>
       <c r="I29" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J29" s="4">
         <v>0</v>
@@ -9827,7 +9957,8 @@
         <v>118</v>
       </c>
       <c r="N29" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O29" s="4">
         <v>0</v>
@@ -9842,7 +9973,8 @@
         <v>119</v>
       </c>
       <c r="S29" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T29" s="4">
         <v>0</v>
@@ -9857,7 +9989,8 @@
         <v>115</v>
       </c>
       <c r="X29" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Y29" s="4">
         <v>0</v>
@@ -9872,7 +10005,8 @@
         <v>120</v>
       </c>
       <c r="AC29" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="AD29" s="4">
         <v>0</v>
@@ -9911,7 +10045,8 @@
         <v>114</v>
       </c>
       <c r="I30" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J30" s="4">
         <v>0</v>
@@ -9926,7 +10061,8 @@
         <v>122</v>
       </c>
       <c r="N30" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O30" s="4">
         <v>0</v>
@@ -9941,7 +10077,8 @@
         <v>118</v>
       </c>
       <c r="S30" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T30" s="4">
         <v>0</v>
@@ -9956,7 +10093,8 @@
         <v>115</v>
       </c>
       <c r="X30" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Y30" s="4">
         <v>0</v>
@@ -9971,7 +10109,8 @@
         <v>123</v>
       </c>
       <c r="AC30" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD30" s="4">
         <v>0</v>
@@ -10010,7 +10149,8 @@
         <v>119</v>
       </c>
       <c r="I31" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J31" s="4">
         <v>0</v>
@@ -10025,7 +10165,8 @@
         <v>114</v>
       </c>
       <c r="N31" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O31" s="4">
         <v>0</v>
@@ -10040,7 +10181,8 @@
         <v>122</v>
       </c>
       <c r="S31" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T31" s="4">
         <v>0</v>
@@ -10055,7 +10197,8 @@
         <v>116</v>
       </c>
       <c r="X31" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Y31" s="4">
         <v>0</v>
@@ -10070,7 +10213,8 @@
         <v>120</v>
       </c>
       <c r="AC31" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="AD31" s="4">
         <v>0</v>
@@ -10109,7 +10253,8 @@
         <v>119</v>
       </c>
       <c r="I32" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J32" s="4">
         <v>0</v>
@@ -10124,7 +10269,8 @@
         <v>118</v>
       </c>
       <c r="N32" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O32" s="4">
         <v>0</v>
@@ -10139,7 +10285,8 @@
         <v>118</v>
       </c>
       <c r="S32" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T32" s="4">
         <v>0</v>
@@ -10154,7 +10301,8 @@
         <v>116</v>
       </c>
       <c r="X32" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Y32" s="4">
         <v>0</v>
@@ -10169,7 +10317,8 @@
         <v>123</v>
       </c>
       <c r="AC32" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD32" s="4">
         <v>0</v>
@@ -10208,7 +10357,8 @@
         <v>118</v>
       </c>
       <c r="I33" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J33" s="4">
         <v>0</v>
@@ -10223,7 +10373,8 @@
         <v>122</v>
       </c>
       <c r="N33" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O33" s="4">
         <v>0</v>
@@ -10238,7 +10389,8 @@
         <v>122</v>
       </c>
       <c r="S33" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T33" s="4">
         <v>0</v>
@@ -10253,7 +10405,8 @@
         <v>120</v>
       </c>
       <c r="X33" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Y33" s="4">
         <v>0</v>
@@ -10268,7 +10421,8 @@
         <v>123</v>
       </c>
       <c r="AC33" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD33" s="4">
         <v>0</v>
@@ -10307,7 +10461,8 @@
         <v>113</v>
       </c>
       <c r="I34" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="J34" s="4">
         <v>0</v>
@@ -10322,7 +10477,8 @@
         <v>118</v>
       </c>
       <c r="N34" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O34" s="4">
         <v>0</v>
@@ -10337,7 +10493,8 @@
         <v>113</v>
       </c>
       <c r="S34" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="T34" s="4">
         <v>0</v>
@@ -10352,7 +10509,8 @@
         <v>119</v>
       </c>
       <c r="X34" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Y34" s="4">
         <v>0</v>
@@ -10367,7 +10525,8 @@
         <v>128</v>
       </c>
       <c r="AC34" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD34" s="4">
         <v>0</v>
@@ -10406,7 +10565,8 @@
         <v>113</v>
       </c>
       <c r="I35" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="J35" s="4">
         <v>0</v>
@@ -10421,7 +10581,8 @@
         <v>122</v>
       </c>
       <c r="N35" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O35" s="4">
         <v>0</v>
@@ -10436,7 +10597,8 @@
         <v>113</v>
       </c>
       <c r="S35" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="T35" s="4">
         <v>0</v>
@@ -10451,7 +10613,8 @@
         <v>114</v>
       </c>
       <c r="X35" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Y35" s="4">
         <v>0</v>
@@ -10466,7 +10629,8 @@
         <v>130</v>
       </c>
       <c r="AC35" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD35" s="4">
         <v>0</v>
@@ -10505,7 +10669,8 @@
         <v>113</v>
       </c>
       <c r="I36" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="J36" s="4">
         <v>0</v>
@@ -10520,7 +10685,8 @@
         <v>119</v>
       </c>
       <c r="N36" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O36" s="4">
         <v>0</v>
@@ -10535,7 +10701,8 @@
         <v>114</v>
       </c>
       <c r="S36" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T36" s="4">
         <v>0</v>
@@ -10550,7 +10717,8 @@
         <v>115</v>
       </c>
       <c r="X36" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Y36" s="4">
         <v>0</v>
@@ -10565,7 +10733,8 @@
         <v>116</v>
       </c>
       <c r="AC36" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD36" s="4">
         <v>0</v>
@@ -10604,7 +10773,8 @@
         <v>114</v>
       </c>
       <c r="I37" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J37" s="4">
         <v>0</v>
@@ -10619,7 +10789,8 @@
         <v>118</v>
       </c>
       <c r="N37" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O37" s="4">
         <v>0</v>
@@ -10634,7 +10805,8 @@
         <v>119</v>
       </c>
       <c r="S37" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T37" s="4">
         <v>0</v>
@@ -10649,7 +10821,8 @@
         <v>115</v>
       </c>
       <c r="X37" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Y37" s="4">
         <v>0</v>
@@ -10664,7 +10837,8 @@
         <v>120</v>
       </c>
       <c r="AC37" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="AD37" s="4">
         <v>0</v>
@@ -10703,7 +10877,8 @@
         <v>114</v>
       </c>
       <c r="I38" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J38" s="4">
         <v>0</v>
@@ -10718,7 +10893,8 @@
         <v>122</v>
       </c>
       <c r="N38" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O38" s="4">
         <v>0</v>
@@ -10733,7 +10909,8 @@
         <v>118</v>
       </c>
       <c r="S38" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T38" s="4">
         <v>0</v>
@@ -10748,7 +10925,8 @@
         <v>115</v>
       </c>
       <c r="X38" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Y38" s="4">
         <v>0</v>
@@ -10763,7 +10941,8 @@
         <v>123</v>
       </c>
       <c r="AC38" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD38" s="4">
         <v>0</v>
@@ -10802,7 +10981,8 @@
         <v>119</v>
       </c>
       <c r="I39" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J39" s="4">
         <v>0</v>
@@ -10817,7 +10997,8 @@
         <v>114</v>
       </c>
       <c r="N39" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O39" s="4">
         <v>0</v>
@@ -10832,7 +11013,8 @@
         <v>122</v>
       </c>
       <c r="S39" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T39" s="4">
         <v>0</v>
@@ -10847,7 +11029,8 @@
         <v>116</v>
       </c>
       <c r="X39" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Y39" s="4">
         <v>0</v>
@@ -10862,7 +11045,8 @@
         <v>120</v>
       </c>
       <c r="AC39" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="AD39" s="4">
         <v>0</v>
@@ -10901,7 +11085,8 @@
         <v>119</v>
       </c>
       <c r="I40" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J40" s="4">
         <v>0</v>
@@ -10916,7 +11101,8 @@
         <v>118</v>
       </c>
       <c r="N40" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O40" s="4">
         <v>0</v>
@@ -10931,7 +11117,8 @@
         <v>118</v>
       </c>
       <c r="S40" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T40" s="4">
         <v>0</v>
@@ -10946,7 +11133,8 @@
         <v>116</v>
       </c>
       <c r="X40" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Y40" s="4">
         <v>0</v>
@@ -10961,7 +11149,8 @@
         <v>123</v>
       </c>
       <c r="AC40" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD40" s="4">
         <v>0</v>
@@ -11000,7 +11189,8 @@
         <v>118</v>
       </c>
       <c r="I41" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J41" s="4">
         <v>0</v>
@@ -11015,7 +11205,8 @@
         <v>122</v>
       </c>
       <c r="N41" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O41" s="4">
         <v>0</v>
@@ -11030,7 +11221,8 @@
         <v>122</v>
       </c>
       <c r="S41" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T41" s="4">
         <v>0</v>
@@ -11045,7 +11237,8 @@
         <v>120</v>
       </c>
       <c r="X41" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Y41" s="4">
         <v>0</v>
@@ -11060,7 +11253,8 @@
         <v>123</v>
       </c>
       <c r="AC41" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD41" s="4">
         <v>0</v>
@@ -11099,7 +11293,8 @@
         <v>113</v>
       </c>
       <c r="I42" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="J42" s="4">
         <v>0</v>
@@ -11114,7 +11309,8 @@
         <v>118</v>
       </c>
       <c r="N42" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O42" s="4">
         <v>0</v>
@@ -11129,7 +11325,8 @@
         <v>113</v>
       </c>
       <c r="S42" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="T42" s="4">
         <v>0</v>
@@ -11144,7 +11341,8 @@
         <v>119</v>
       </c>
       <c r="X42" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Y42" s="4">
         <v>0</v>
@@ -11159,7 +11357,8 @@
         <v>128</v>
       </c>
       <c r="AC42" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD42" s="4">
         <v>0</v>
@@ -11198,7 +11397,8 @@
         <v>113</v>
       </c>
       <c r="I43" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="J43" s="4">
         <v>0</v>
@@ -11213,7 +11413,8 @@
         <v>122</v>
       </c>
       <c r="N43" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O43" s="4">
         <v>0</v>
@@ -11228,7 +11429,8 @@
         <v>113</v>
       </c>
       <c r="S43" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="T43" s="4">
         <v>0</v>
@@ -11243,7 +11445,8 @@
         <v>114</v>
       </c>
       <c r="X43" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Y43" s="4">
         <v>0</v>
@@ -11258,7 +11461,8 @@
         <v>130</v>
       </c>
       <c r="AC43" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD43" s="4">
         <v>0</v>
@@ -11297,7 +11501,8 @@
         <v>113</v>
       </c>
       <c r="I44" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="J44" s="4">
         <v>0</v>
@@ -11312,7 +11517,8 @@
         <v>119</v>
       </c>
       <c r="N44" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O44" s="4">
         <v>0</v>
@@ -11327,7 +11533,8 @@
         <v>114</v>
       </c>
       <c r="S44" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T44" s="4">
         <v>0</v>
@@ -11342,7 +11549,8 @@
         <v>115</v>
       </c>
       <c r="X44" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Y44" s="4">
         <v>0</v>
@@ -11357,7 +11565,8 @@
         <v>116</v>
       </c>
       <c r="AC44" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD44" s="4">
         <v>0</v>
@@ -11396,7 +11605,8 @@
         <v>114</v>
       </c>
       <c r="I45" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J45" s="4">
         <v>0</v>
@@ -11411,7 +11621,8 @@
         <v>118</v>
       </c>
       <c r="N45" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O45" s="4">
         <v>0</v>
@@ -11426,7 +11637,8 @@
         <v>119</v>
       </c>
       <c r="S45" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T45" s="4">
         <v>0</v>
@@ -11441,7 +11653,8 @@
         <v>115</v>
       </c>
       <c r="X45" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Y45" s="4">
         <v>0</v>
@@ -11456,7 +11669,8 @@
         <v>120</v>
       </c>
       <c r="AC45" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="AD45" s="4">
         <v>0</v>
@@ -11495,7 +11709,8 @@
         <v>114</v>
       </c>
       <c r="I46" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J46" s="4">
         <v>0</v>
@@ -11510,7 +11725,8 @@
         <v>122</v>
       </c>
       <c r="N46" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O46" s="4">
         <v>0</v>
@@ -11525,7 +11741,8 @@
         <v>118</v>
       </c>
       <c r="S46" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T46" s="4">
         <v>0</v>
@@ -11540,7 +11757,8 @@
         <v>115</v>
       </c>
       <c r="X46" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Y46" s="4">
         <v>0</v>
@@ -11555,7 +11773,8 @@
         <v>123</v>
       </c>
       <c r="AC46" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD46" s="4">
         <v>0</v>
@@ -11594,7 +11813,8 @@
         <v>119</v>
       </c>
       <c r="I47" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J47" s="4">
         <v>0</v>
@@ -11609,7 +11829,8 @@
         <v>114</v>
       </c>
       <c r="N47" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O47" s="4">
         <v>0</v>
@@ -11624,7 +11845,8 @@
         <v>122</v>
       </c>
       <c r="S47" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T47" s="4">
         <v>0</v>
@@ -11639,7 +11861,8 @@
         <v>116</v>
       </c>
       <c r="X47" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Y47" s="4">
         <v>0</v>
@@ -11654,7 +11877,8 @@
         <v>120</v>
       </c>
       <c r="AC47" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="AD47" s="4">
         <v>0</v>
@@ -11693,7 +11917,8 @@
         <v>119</v>
       </c>
       <c r="I48" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J48" s="4">
         <v>0</v>
@@ -11708,7 +11933,8 @@
         <v>118</v>
       </c>
       <c r="N48" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O48" s="4">
         <v>0</v>
@@ -11723,7 +11949,8 @@
         <v>118</v>
       </c>
       <c r="S48" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T48" s="4">
         <v>0</v>
@@ -11738,7 +11965,8 @@
         <v>116</v>
       </c>
       <c r="X48" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Y48" s="4">
         <v>0</v>
@@ -11753,7 +11981,8 @@
         <v>123</v>
       </c>
       <c r="AC48" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD48" s="4">
         <v>0</v>
@@ -11792,7 +12021,8 @@
         <v>118</v>
       </c>
       <c r="I49" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J49" s="4">
         <v>0</v>
@@ -11807,7 +12037,8 @@
         <v>122</v>
       </c>
       <c r="N49" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O49" s="4">
         <v>0</v>
@@ -11822,7 +12053,8 @@
         <v>122</v>
       </c>
       <c r="S49" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T49" s="4">
         <v>0</v>
@@ -11837,7 +12069,8 @@
         <v>120</v>
       </c>
       <c r="X49" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Y49" s="4">
         <v>0</v>
@@ -11852,7 +12085,8 @@
         <v>123</v>
       </c>
       <c r="AC49" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD49" s="4">
         <v>0</v>
@@ -11891,7 +12125,8 @@
         <v>113</v>
       </c>
       <c r="I50" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="J50" s="4">
         <v>0</v>
@@ -11906,7 +12141,8 @@
         <v>118</v>
       </c>
       <c r="N50" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O50" s="4">
         <v>0</v>
@@ -11921,7 +12157,8 @@
         <v>113</v>
       </c>
       <c r="S50" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="T50" s="4">
         <v>0</v>
@@ -11936,7 +12173,8 @@
         <v>119</v>
       </c>
       <c r="X50" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Y50" s="4">
         <v>0</v>
@@ -11951,7 +12189,8 @@
         <v>128</v>
       </c>
       <c r="AC50" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD50" s="4">
         <v>0</v>
@@ -11990,7 +12229,8 @@
         <v>113</v>
       </c>
       <c r="I51" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="J51" s="4">
         <v>0</v>
@@ -12005,7 +12245,8 @@
         <v>122</v>
       </c>
       <c r="N51" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O51" s="4">
         <v>0</v>
@@ -12020,7 +12261,8 @@
         <v>113</v>
       </c>
       <c r="S51" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="T51" s="4">
         <v>0</v>
@@ -12035,7 +12277,8 @@
         <v>114</v>
       </c>
       <c r="X51" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Y51" s="4">
         <v>0</v>
@@ -12050,7 +12293,8 @@
         <v>130</v>
       </c>
       <c r="AC51" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD51" s="4">
         <v>0</v>
@@ -12089,7 +12333,8 @@
         <v>113</v>
       </c>
       <c r="I52" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="J52" s="4">
         <v>0</v>
@@ -12104,7 +12349,8 @@
         <v>119</v>
       </c>
       <c r="N52" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O52" s="4">
         <v>0</v>
@@ -12119,7 +12365,8 @@
         <v>114</v>
       </c>
       <c r="S52" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T52" s="4">
         <v>0</v>
@@ -12134,7 +12381,8 @@
         <v>115</v>
       </c>
       <c r="X52" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Y52" s="4">
         <v>0</v>
@@ -12149,7 +12397,8 @@
         <v>116</v>
       </c>
       <c r="AC52" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD52" s="4">
         <v>0</v>
@@ -12188,7 +12437,8 @@
         <v>114</v>
       </c>
       <c r="I53" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J53" s="4">
         <v>0</v>
@@ -12203,7 +12453,8 @@
         <v>118</v>
       </c>
       <c r="N53" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O53" s="4">
         <v>0</v>
@@ -12218,7 +12469,8 @@
         <v>119</v>
       </c>
       <c r="S53" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T53" s="4">
         <v>0</v>
@@ -12233,7 +12485,8 @@
         <v>115</v>
       </c>
       <c r="X53" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Y53" s="4">
         <v>0</v>
@@ -12248,7 +12501,8 @@
         <v>120</v>
       </c>
       <c r="AC53" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="AD53" s="4">
         <v>0</v>
@@ -12287,7 +12541,8 @@
         <v>114</v>
       </c>
       <c r="I54" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J54" s="4">
         <v>0</v>
@@ -12302,7 +12557,8 @@
         <v>122</v>
       </c>
       <c r="N54" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O54" s="4">
         <v>0</v>
@@ -12317,7 +12573,8 @@
         <v>118</v>
       </c>
       <c r="S54" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T54" s="4">
         <v>0</v>
@@ -12332,7 +12589,8 @@
         <v>115</v>
       </c>
       <c r="X54" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Y54" s="4">
         <v>0</v>
@@ -12347,7 +12605,8 @@
         <v>123</v>
       </c>
       <c r="AC54" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD54" s="4">
         <v>0</v>
@@ -12386,7 +12645,8 @@
         <v>119</v>
       </c>
       <c r="I55" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J55" s="4">
         <v>0</v>
@@ -12401,7 +12661,8 @@
         <v>114</v>
       </c>
       <c r="N55" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O55" s="4">
         <v>0</v>
@@ -12416,7 +12677,8 @@
         <v>122</v>
       </c>
       <c r="S55" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T55" s="4">
         <v>0</v>
@@ -12431,7 +12693,8 @@
         <v>116</v>
       </c>
       <c r="X55" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Y55" s="4">
         <v>0</v>
@@ -12446,7 +12709,8 @@
         <v>120</v>
       </c>
       <c r="AC55" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="AD55" s="4">
         <v>0</v>
@@ -12485,7 +12749,8 @@
         <v>119</v>
       </c>
       <c r="I56" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J56" s="4">
         <v>0</v>
@@ -12500,7 +12765,8 @@
         <v>118</v>
       </c>
       <c r="N56" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O56" s="4">
         <v>0</v>
@@ -12515,7 +12781,8 @@
         <v>118</v>
       </c>
       <c r="S56" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T56" s="4">
         <v>0</v>
@@ -12530,7 +12797,8 @@
         <v>116</v>
       </c>
       <c r="X56" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Y56" s="4">
         <v>0</v>
@@ -12545,7 +12813,8 @@
         <v>123</v>
       </c>
       <c r="AC56" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD56" s="4">
         <v>0</v>
@@ -12584,7 +12853,8 @@
         <v>118</v>
       </c>
       <c r="I57" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J57" s="4">
         <v>0</v>
@@ -12599,7 +12869,8 @@
         <v>122</v>
       </c>
       <c r="N57" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O57" s="4">
         <v>0</v>
@@ -12614,7 +12885,8 @@
         <v>122</v>
       </c>
       <c r="S57" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T57" s="4">
         <v>0</v>
@@ -12629,7 +12901,8 @@
         <v>120</v>
       </c>
       <c r="X57" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Y57" s="4">
         <v>0</v>
@@ -12644,7 +12917,8 @@
         <v>123</v>
       </c>
       <c r="AC57" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD57" s="4">
         <v>0</v>
@@ -12683,7 +12957,8 @@
         <v>113</v>
       </c>
       <c r="I58" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="J58" s="4">
         <v>0</v>
@@ -12698,7 +12973,8 @@
         <v>118</v>
       </c>
       <c r="N58" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O58" s="4">
         <v>0</v>
@@ -12713,7 +12989,8 @@
         <v>113</v>
       </c>
       <c r="S58" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="T58" s="4">
         <v>0</v>
@@ -12728,7 +13005,8 @@
         <v>119</v>
       </c>
       <c r="X58" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Y58" s="4">
         <v>0</v>
@@ -12743,7 +13021,8 @@
         <v>128</v>
       </c>
       <c r="AC58" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD58" s="4">
         <v>0</v>
@@ -12782,7 +13061,8 @@
         <v>113</v>
       </c>
       <c r="I59" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="J59" s="4">
         <v>0</v>
@@ -12797,7 +13077,8 @@
         <v>122</v>
       </c>
       <c r="N59" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O59" s="4">
         <v>0</v>
@@ -12812,7 +13093,8 @@
         <v>113</v>
       </c>
       <c r="S59" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="T59" s="4">
         <v>0</v>
@@ -12827,7 +13109,8 @@
         <v>114</v>
       </c>
       <c r="X59" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Y59" s="4">
         <v>0</v>
@@ -12842,7 +13125,8 @@
         <v>130</v>
       </c>
       <c r="AC59" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD59" s="4">
         <v>0</v>
@@ -12881,7 +13165,8 @@
         <v>113</v>
       </c>
       <c r="I60" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="J60" s="4">
         <v>0</v>
@@ -12896,7 +13181,8 @@
         <v>119</v>
       </c>
       <c r="N60" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O60" s="4">
         <v>0</v>
@@ -12911,7 +13197,8 @@
         <v>114</v>
       </c>
       <c r="S60" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T60" s="4">
         <v>0</v>
@@ -12926,7 +13213,8 @@
         <v>115</v>
       </c>
       <c r="X60" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Y60" s="4">
         <v>0</v>
@@ -12941,7 +13229,8 @@
         <v>116</v>
       </c>
       <c r="AC60" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD60" s="4">
         <v>0</v>
@@ -12980,7 +13269,8 @@
         <v>114</v>
       </c>
       <c r="I61" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J61" s="4">
         <v>0</v>
@@ -12995,7 +13285,8 @@
         <v>118</v>
       </c>
       <c r="N61" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O61" s="4">
         <v>0</v>
@@ -13010,7 +13301,8 @@
         <v>119</v>
       </c>
       <c r="S61" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T61" s="4">
         <v>0</v>
@@ -13025,7 +13317,8 @@
         <v>115</v>
       </c>
       <c r="X61" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Y61" s="4">
         <v>0</v>
@@ -13040,7 +13333,8 @@
         <v>120</v>
       </c>
       <c r="AC61" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="AD61" s="4">
         <v>0</v>
@@ -13079,7 +13373,8 @@
         <v>114</v>
       </c>
       <c r="I62" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J62" s="4">
         <v>0</v>
@@ -13094,7 +13389,8 @@
         <v>122</v>
       </c>
       <c r="N62" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O62" s="4">
         <v>0</v>
@@ -13109,7 +13405,8 @@
         <v>118</v>
       </c>
       <c r="S62" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T62" s="4">
         <v>0</v>
@@ -13124,7 +13421,8 @@
         <v>115</v>
       </c>
       <c r="X62" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Y62" s="4">
         <v>0</v>
@@ -13139,7 +13437,8 @@
         <v>123</v>
       </c>
       <c r="AC62" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD62" s="4">
         <v>0</v>
@@ -13178,7 +13477,8 @@
         <v>119</v>
       </c>
       <c r="I63" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J63" s="4">
         <v>0</v>
@@ -13193,7 +13493,8 @@
         <v>114</v>
       </c>
       <c r="N63" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O63" s="4">
         <v>0</v>
@@ -13208,7 +13509,8 @@
         <v>122</v>
       </c>
       <c r="S63" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T63" s="4">
         <v>0</v>
@@ -13223,7 +13525,8 @@
         <v>116</v>
       </c>
       <c r="X63" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Y63" s="4">
         <v>0</v>
@@ -13238,7 +13541,8 @@
         <v>120</v>
       </c>
       <c r="AC63" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="AD63" s="4">
         <v>0</v>
@@ -13277,7 +13581,8 @@
         <v>119</v>
       </c>
       <c r="I64" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J64" s="4">
         <v>0</v>
@@ -13292,7 +13597,8 @@
         <v>118</v>
       </c>
       <c r="N64" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O64" s="4">
         <v>0</v>
@@ -13307,7 +13613,8 @@
         <v>118</v>
       </c>
       <c r="S64" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T64" s="4">
         <v>0</v>
@@ -13322,7 +13629,8 @@
         <v>116</v>
       </c>
       <c r="X64" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Y64" s="4">
         <v>0</v>
@@ -13337,7 +13645,8 @@
         <v>123</v>
       </c>
       <c r="AC64" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD64" s="4">
         <v>0</v>
@@ -13376,7 +13685,8 @@
         <v>118</v>
       </c>
       <c r="I65" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J65" s="4">
         <v>0</v>
@@ -13391,7 +13701,8 @@
         <v>122</v>
       </c>
       <c r="N65" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O65" s="4">
         <v>0</v>
@@ -13406,7 +13717,8 @@
         <v>122</v>
       </c>
       <c r="S65" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T65" s="4">
         <v>0</v>
@@ -13421,7 +13733,8 @@
         <v>120</v>
       </c>
       <c r="X65" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Y65" s="4">
         <v>0</v>
@@ -13436,7 +13749,8 @@
         <v>123</v>
       </c>
       <c r="AC65" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD65" s="4">
         <v>0</v>
@@ -13475,7 +13789,8 @@
         <v>113</v>
       </c>
       <c r="I66" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="J66" s="4">
         <v>0</v>
@@ -13490,7 +13805,8 @@
         <v>118</v>
       </c>
       <c r="N66" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O66" s="4">
         <v>0</v>
@@ -13505,7 +13821,8 @@
         <v>113</v>
       </c>
       <c r="S66" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="T66" s="4">
         <v>0</v>
@@ -13520,7 +13837,8 @@
         <v>119</v>
       </c>
       <c r="X66" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Y66" s="4">
         <v>0</v>
@@ -13535,7 +13853,8 @@
         <v>128</v>
       </c>
       <c r="AC66" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD66" s="4">
         <v>0</v>
@@ -13574,7 +13893,8 @@
         <v>113</v>
       </c>
       <c r="I67" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="J67" s="4">
         <v>0</v>
@@ -13589,7 +13909,8 @@
         <v>122</v>
       </c>
       <c r="N67" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O67" s="4">
         <v>0</v>
@@ -13604,7 +13925,8 @@
         <v>113</v>
       </c>
       <c r="S67" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="T67" s="4">
         <v>0</v>
@@ -13619,7 +13941,8 @@
         <v>114</v>
       </c>
       <c r="X67" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Y67" s="4">
         <v>0</v>
@@ -13634,7 +13957,8 @@
         <v>130</v>
       </c>
       <c r="AC67" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD67" s="4">
         <v>0</v>
@@ -13673,7 +13997,8 @@
         <v>113</v>
       </c>
       <c r="I68" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="J68" s="4">
         <v>0</v>
@@ -13688,7 +14013,8 @@
         <v>119</v>
       </c>
       <c r="N68" s="4">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O68" s="4">
         <v>0</v>
@@ -13703,7 +14029,8 @@
         <v>114</v>
       </c>
       <c r="S68" s="4">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T68" s="4">
         <v>0</v>
@@ -13718,7 +14045,8 @@
         <v>115</v>
       </c>
       <c r="X68" s="4">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="Y68" s="4">
         <v>0</v>
@@ -13733,7 +14061,8 @@
         <v>116</v>
       </c>
       <c r="AC68" s="4">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD68" s="4">
         <v>0</v>
@@ -13772,7 +14101,8 @@
         <v>114</v>
       </c>
       <c r="I69" s="4">
-        <v>7</v>
+        <f t="shared" ref="I69:I99" si="5">IF(H69="atk",15,1)</f>
+        <v>1</v>
       </c>
       <c r="J69" s="4">
         <v>0</v>
@@ -13787,7 +14117,8 @@
         <v>118</v>
       </c>
       <c r="N69" s="4">
-        <v>7</v>
+        <f t="shared" ref="N69:N99" si="6">IF(M69="atk",15,1)</f>
+        <v>1</v>
       </c>
       <c r="O69" s="4">
         <v>0</v>
@@ -13802,7 +14133,8 @@
         <v>119</v>
       </c>
       <c r="S69" s="4">
-        <v>7</v>
+        <f t="shared" ref="S69:S99" si="7">IF(OR(R69="atk",R69="crit",R69="dash",R69="dmgInc"),15,1)</f>
+        <v>1</v>
       </c>
       <c r="T69" s="4">
         <v>0</v>
@@ -13817,7 +14149,8 @@
         <v>115</v>
       </c>
       <c r="X69" s="4">
-        <v>7</v>
+        <f t="shared" ref="X69:X99" si="8">IF(OR(W69="atk",W69="crit",W69="dash",W69="dmgInc"),15,1)</f>
+        <v>15</v>
       </c>
       <c r="Y69" s="4">
         <v>0</v>
@@ -13832,7 +14165,8 @@
         <v>120</v>
       </c>
       <c r="AC69" s="4">
-        <v>7</v>
+        <f t="shared" ref="AC69:AC99" si="9">IF(OR(AB69="atk",AB69="crit",AB69="dash",AB69="dmgInc"),15,1)</f>
+        <v>15</v>
       </c>
       <c r="AD69" s="4">
         <v>0</v>
@@ -13871,7 +14205,8 @@
         <v>114</v>
       </c>
       <c r="I70" s="4">
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="J70" s="4">
         <v>0</v>
@@ -13886,7 +14221,8 @@
         <v>122</v>
       </c>
       <c r="N70" s="4">
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="O70" s="4">
         <v>0</v>
@@ -13901,7 +14237,8 @@
         <v>118</v>
       </c>
       <c r="S70" s="4">
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="T70" s="4">
         <v>0</v>
@@ -13916,7 +14253,8 @@
         <v>115</v>
       </c>
       <c r="X70" s="4">
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>15</v>
       </c>
       <c r="Y70" s="4">
         <v>0</v>
@@ -13931,7 +14269,8 @@
         <v>123</v>
       </c>
       <c r="AC70" s="4">
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="AD70" s="4">
         <v>0</v>
@@ -13970,7 +14309,8 @@
         <v>119</v>
       </c>
       <c r="I71" s="4">
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="J71" s="4">
         <v>0</v>
@@ -13985,7 +14325,8 @@
         <v>114</v>
       </c>
       <c r="N71" s="4">
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="O71" s="4">
         <v>0</v>
@@ -14000,7 +14341,8 @@
         <v>122</v>
       </c>
       <c r="S71" s="4">
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="T71" s="4">
         <v>0</v>
@@ -14015,7 +14357,8 @@
         <v>116</v>
       </c>
       <c r="X71" s="4">
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="Y71" s="4">
         <v>0</v>
@@ -14030,7 +14373,8 @@
         <v>120</v>
       </c>
       <c r="AC71" s="4">
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>15</v>
       </c>
       <c r="AD71" s="4">
         <v>0</v>
@@ -14069,7 +14413,8 @@
         <v>119</v>
       </c>
       <c r="I72" s="4">
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="J72" s="4">
         <v>0</v>
@@ -14084,7 +14429,8 @@
         <v>118</v>
       </c>
       <c r="N72" s="4">
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="O72" s="4">
         <v>0</v>
@@ -14099,7 +14445,8 @@
         <v>118</v>
       </c>
       <c r="S72" s="4">
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="T72" s="4">
         <v>0</v>
@@ -14114,7 +14461,8 @@
         <v>116</v>
       </c>
       <c r="X72" s="4">
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="Y72" s="4">
         <v>0</v>
@@ -14129,7 +14477,8 @@
         <v>123</v>
       </c>
       <c r="AC72" s="4">
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="AD72" s="4">
         <v>0</v>
@@ -14168,7 +14517,8 @@
         <v>118</v>
       </c>
       <c r="I73" s="4">
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="J73" s="4">
         <v>0</v>
@@ -14183,7 +14533,8 @@
         <v>122</v>
       </c>
       <c r="N73" s="4">
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="O73" s="4">
         <v>0</v>
@@ -14198,7 +14549,8 @@
         <v>122</v>
       </c>
       <c r="S73" s="4">
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="T73" s="4">
         <v>0</v>
@@ -14213,7 +14565,8 @@
         <v>120</v>
       </c>
       <c r="X73" s="4">
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>15</v>
       </c>
       <c r="Y73" s="4">
         <v>0</v>
@@ -14228,7 +14581,8 @@
         <v>123</v>
       </c>
       <c r="AC73" s="4">
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="AD73" s="4">
         <v>0</v>
@@ -14267,7 +14621,8 @@
         <v>113</v>
       </c>
       <c r="I74" s="4">
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="J74" s="4">
         <v>0</v>
@@ -14282,7 +14637,8 @@
         <v>118</v>
       </c>
       <c r="N74" s="4">
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="O74" s="4">
         <v>0</v>
@@ -14297,7 +14653,8 @@
         <v>113</v>
       </c>
       <c r="S74" s="4">
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
       <c r="T74" s="4">
         <v>0</v>
@@ -14312,7 +14669,8 @@
         <v>119</v>
       </c>
       <c r="X74" s="4">
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="Y74" s="4">
         <v>0</v>
@@ -14327,7 +14685,8 @@
         <v>128</v>
       </c>
       <c r="AC74" s="4">
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="AD74" s="4">
         <v>0</v>
@@ -14366,7 +14725,8 @@
         <v>113</v>
       </c>
       <c r="I75" s="4">
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="J75" s="4">
         <v>0</v>
@@ -14381,7 +14741,8 @@
         <v>122</v>
       </c>
       <c r="N75" s="4">
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="O75" s="4">
         <v>0</v>
@@ -14396,7 +14757,8 @@
         <v>113</v>
       </c>
       <c r="S75" s="4">
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
       <c r="T75" s="4">
         <v>0</v>
@@ -14411,7 +14773,8 @@
         <v>114</v>
       </c>
       <c r="X75" s="4">
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="Y75" s="4">
         <v>0</v>
@@ -14426,7 +14789,8 @@
         <v>130</v>
       </c>
       <c r="AC75" s="4">
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="AD75" s="4">
         <v>0</v>
@@ -14465,7 +14829,8 @@
         <v>113</v>
       </c>
       <c r="I76" s="4">
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="J76" s="4">
         <v>0</v>
@@ -14480,7 +14845,8 @@
         <v>119</v>
       </c>
       <c r="N76" s="4">
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="O76" s="4">
         <v>0</v>
@@ -14495,7 +14861,8 @@
         <v>114</v>
       </c>
       <c r="S76" s="4">
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="T76" s="4">
         <v>0</v>
@@ -14510,7 +14877,8 @@
         <v>115</v>
       </c>
       <c r="X76" s="4">
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>15</v>
       </c>
       <c r="Y76" s="4">
         <v>0</v>
@@ -14525,7 +14893,8 @@
         <v>116</v>
       </c>
       <c r="AC76" s="4">
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="AD76" s="4">
         <v>0</v>
@@ -14564,7 +14933,8 @@
         <v>114</v>
       </c>
       <c r="I77" s="4">
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="J77" s="4">
         <v>0</v>
@@ -14579,7 +14949,8 @@
         <v>118</v>
       </c>
       <c r="N77" s="4">
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="O77" s="4">
         <v>0</v>
@@ -14594,7 +14965,8 @@
         <v>119</v>
       </c>
       <c r="S77" s="4">
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="T77" s="4">
         <v>0</v>
@@ -14609,7 +14981,8 @@
         <v>115</v>
       </c>
       <c r="X77" s="4">
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>15</v>
       </c>
       <c r="Y77" s="4">
         <v>0</v>
@@ -14624,7 +14997,8 @@
         <v>120</v>
       </c>
       <c r="AC77" s="4">
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>15</v>
       </c>
       <c r="AD77" s="4">
         <v>0</v>
@@ -14663,7 +15037,8 @@
         <v>114</v>
       </c>
       <c r="I78" s="4">
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="J78" s="4">
         <v>0</v>
@@ -14678,7 +15053,8 @@
         <v>122</v>
       </c>
       <c r="N78" s="4">
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="O78" s="4">
         <v>0</v>
@@ -14693,7 +15069,8 @@
         <v>118</v>
       </c>
       <c r="S78" s="4">
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="T78" s="4">
         <v>0</v>
@@ -14708,7 +15085,8 @@
         <v>115</v>
       </c>
       <c r="X78" s="4">
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>15</v>
       </c>
       <c r="Y78" s="4">
         <v>0</v>
@@ -14723,7 +15101,8 @@
         <v>123</v>
       </c>
       <c r="AC78" s="4">
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="AD78" s="4">
         <v>0</v>
@@ -14762,7 +15141,8 @@
         <v>119</v>
       </c>
       <c r="I79" s="4">
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="J79" s="4">
         <v>0</v>
@@ -14777,7 +15157,8 @@
         <v>114</v>
       </c>
       <c r="N79" s="4">
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="O79" s="4">
         <v>0</v>
@@ -14792,7 +15173,8 @@
         <v>122</v>
       </c>
       <c r="S79" s="4">
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="T79" s="4">
         <v>0</v>
@@ -14807,7 +15189,8 @@
         <v>116</v>
       </c>
       <c r="X79" s="4">
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="Y79" s="4">
         <v>0</v>
@@ -14822,7 +15205,8 @@
         <v>120</v>
       </c>
       <c r="AC79" s="4">
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>15</v>
       </c>
       <c r="AD79" s="4">
         <v>0</v>
@@ -14861,7 +15245,8 @@
         <v>119</v>
       </c>
       <c r="I80" s="4">
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="J80" s="4">
         <v>0</v>
@@ -14876,7 +15261,8 @@
         <v>118</v>
       </c>
       <c r="N80" s="4">
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="O80" s="4">
         <v>0</v>
@@ -14891,7 +15277,8 @@
         <v>118</v>
       </c>
       <c r="S80" s="4">
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="T80" s="4">
         <v>0</v>
@@ -14906,7 +15293,8 @@
         <v>116</v>
       </c>
       <c r="X80" s="4">
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="Y80" s="4">
         <v>0</v>
@@ -14921,7 +15309,8 @@
         <v>123</v>
       </c>
       <c r="AC80" s="4">
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="AD80" s="4">
         <v>0</v>
@@ -14960,7 +15349,8 @@
         <v>118</v>
       </c>
       <c r="I81" s="4">
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="J81" s="4">
         <v>0</v>
@@ -14975,7 +15365,8 @@
         <v>122</v>
       </c>
       <c r="N81" s="4">
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="O81" s="4">
         <v>0</v>
@@ -14990,7 +15381,8 @@
         <v>122</v>
       </c>
       <c r="S81" s="4">
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="T81" s="4">
         <v>0</v>
@@ -15005,7 +15397,8 @@
         <v>120</v>
       </c>
       <c r="X81" s="4">
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>15</v>
       </c>
       <c r="Y81" s="4">
         <v>0</v>
@@ -15020,7 +15413,8 @@
         <v>123</v>
       </c>
       <c r="AC81" s="4">
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="AD81" s="4">
         <v>0</v>
@@ -15059,7 +15453,8 @@
         <v>113</v>
       </c>
       <c r="I82" s="4">
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="J82" s="4">
         <v>0</v>
@@ -15074,7 +15469,8 @@
         <v>118</v>
       </c>
       <c r="N82" s="4">
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="O82" s="4">
         <v>0</v>
@@ -15089,7 +15485,8 @@
         <v>113</v>
       </c>
       <c r="S82" s="4">
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
       <c r="T82" s="4">
         <v>0</v>
@@ -15104,7 +15501,8 @@
         <v>119</v>
       </c>
       <c r="X82" s="4">
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="Y82" s="4">
         <v>0</v>
@@ -15119,7 +15517,8 @@
         <v>128</v>
       </c>
       <c r="AC82" s="4">
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="AD82" s="4">
         <v>0</v>
@@ -15158,7 +15557,8 @@
         <v>113</v>
       </c>
       <c r="I83" s="4">
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="J83" s="4">
         <v>0</v>
@@ -15173,7 +15573,8 @@
         <v>122</v>
       </c>
       <c r="N83" s="4">
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="O83" s="4">
         <v>0</v>
@@ -15188,7 +15589,8 @@
         <v>113</v>
       </c>
       <c r="S83" s="4">
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
       <c r="T83" s="4">
         <v>0</v>
@@ -15203,7 +15605,8 @@
         <v>114</v>
       </c>
       <c r="X83" s="4">
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="Y83" s="4">
         <v>0</v>
@@ -15218,7 +15621,8 @@
         <v>130</v>
       </c>
       <c r="AC83" s="4">
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="AD83" s="4">
         <v>0</v>
@@ -15257,7 +15661,8 @@
         <v>113</v>
       </c>
       <c r="I84" s="4">
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="J84" s="4">
         <v>0</v>
@@ -15272,7 +15677,8 @@
         <v>119</v>
       </c>
       <c r="N84" s="4">
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="O84" s="4">
         <v>0</v>
@@ -15287,7 +15693,8 @@
         <v>114</v>
       </c>
       <c r="S84" s="4">
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="T84" s="4">
         <v>0</v>
@@ -15302,7 +15709,8 @@
         <v>115</v>
       </c>
       <c r="X84" s="4">
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>15</v>
       </c>
       <c r="Y84" s="4">
         <v>0</v>
@@ -15317,7 +15725,8 @@
         <v>116</v>
       </c>
       <c r="AC84" s="4">
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="AD84" s="4">
         <v>0</v>
@@ -15356,7 +15765,8 @@
         <v>114</v>
       </c>
       <c r="I85" s="4">
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="J85" s="4">
         <v>0</v>
@@ -15371,7 +15781,8 @@
         <v>118</v>
       </c>
       <c r="N85" s="4">
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="O85" s="4">
         <v>0</v>
@@ -15386,7 +15797,8 @@
         <v>119</v>
       </c>
       <c r="S85" s="4">
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="T85" s="4">
         <v>0</v>
@@ -15401,7 +15813,8 @@
         <v>115</v>
       </c>
       <c r="X85" s="4">
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>15</v>
       </c>
       <c r="Y85" s="4">
         <v>0</v>
@@ -15416,7 +15829,8 @@
         <v>120</v>
       </c>
       <c r="AC85" s="4">
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>15</v>
       </c>
       <c r="AD85" s="4">
         <v>0</v>
@@ -15455,7 +15869,8 @@
         <v>114</v>
       </c>
       <c r="I86" s="4">
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="J86" s="4">
         <v>0</v>
@@ -15470,7 +15885,8 @@
         <v>122</v>
       </c>
       <c r="N86" s="4">
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="O86" s="4">
         <v>0</v>
@@ -15485,7 +15901,8 @@
         <v>118</v>
       </c>
       <c r="S86" s="4">
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="T86" s="4">
         <v>0</v>
@@ -15500,7 +15917,8 @@
         <v>115</v>
       </c>
       <c r="X86" s="4">
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>15</v>
       </c>
       <c r="Y86" s="4">
         <v>0</v>
@@ -15515,7 +15933,8 @@
         <v>123</v>
       </c>
       <c r="AC86" s="4">
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="AD86" s="4">
         <v>0</v>
@@ -15554,7 +15973,8 @@
         <v>119</v>
       </c>
       <c r="I87" s="4">
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="J87" s="4">
         <v>0</v>
@@ -15569,7 +15989,8 @@
         <v>114</v>
       </c>
       <c r="N87" s="4">
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="O87" s="4">
         <v>0</v>
@@ -15584,7 +16005,8 @@
         <v>122</v>
       </c>
       <c r="S87" s="4">
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="T87" s="4">
         <v>0</v>
@@ -15599,7 +16021,8 @@
         <v>116</v>
       </c>
       <c r="X87" s="4">
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="Y87" s="4">
         <v>0</v>
@@ -15614,7 +16037,8 @@
         <v>120</v>
       </c>
       <c r="AC87" s="4">
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>15</v>
       </c>
       <c r="AD87" s="4">
         <v>0</v>
@@ -15653,7 +16077,8 @@
         <v>119</v>
       </c>
       <c r="I88" s="4">
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="J88" s="4">
         <v>0</v>
@@ -15668,7 +16093,8 @@
         <v>118</v>
       </c>
       <c r="N88" s="4">
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="O88" s="4">
         <v>0</v>
@@ -15683,7 +16109,8 @@
         <v>118</v>
       </c>
       <c r="S88" s="4">
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="T88" s="4">
         <v>0</v>
@@ -15698,7 +16125,8 @@
         <v>116</v>
       </c>
       <c r="X88" s="4">
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="Y88" s="4">
         <v>0</v>
@@ -15713,7 +16141,8 @@
         <v>123</v>
       </c>
       <c r="AC88" s="4">
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="AD88" s="4">
         <v>0</v>
@@ -15752,7 +16181,8 @@
         <v>118</v>
       </c>
       <c r="I89" s="4">
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="J89" s="4">
         <v>0</v>
@@ -15767,7 +16197,8 @@
         <v>122</v>
       </c>
       <c r="N89" s="4">
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="O89" s="4">
         <v>0</v>
@@ -15782,7 +16213,8 @@
         <v>122</v>
       </c>
       <c r="S89" s="4">
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="T89" s="4">
         <v>0</v>
@@ -15797,7 +16229,8 @@
         <v>120</v>
       </c>
       <c r="X89" s="4">
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>15</v>
       </c>
       <c r="Y89" s="4">
         <v>0</v>
@@ -15812,7 +16245,8 @@
         <v>123</v>
       </c>
       <c r="AC89" s="4">
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="AD89" s="4">
         <v>0</v>
@@ -15851,7 +16285,8 @@
         <v>113</v>
       </c>
       <c r="I90" s="4">
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="J90" s="4">
         <v>0</v>
@@ -15866,7 +16301,8 @@
         <v>118</v>
       </c>
       <c r="N90" s="4">
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="O90" s="4">
         <v>0</v>
@@ -15881,7 +16317,8 @@
         <v>113</v>
       </c>
       <c r="S90" s="4">
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
       <c r="T90" s="4">
         <v>0</v>
@@ -15896,7 +16333,8 @@
         <v>119</v>
       </c>
       <c r="X90" s="4">
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="Y90" s="4">
         <v>0</v>
@@ -15911,7 +16349,8 @@
         <v>128</v>
       </c>
       <c r="AC90" s="4">
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="AD90" s="4">
         <v>0</v>
@@ -15950,7 +16389,8 @@
         <v>113</v>
       </c>
       <c r="I91" s="4">
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="J91" s="4">
         <v>0</v>
@@ -15965,7 +16405,8 @@
         <v>122</v>
       </c>
       <c r="N91" s="4">
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="O91" s="4">
         <v>0</v>
@@ -15980,7 +16421,8 @@
         <v>113</v>
       </c>
       <c r="S91" s="4">
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
       <c r="T91" s="4">
         <v>0</v>
@@ -15995,7 +16437,8 @@
         <v>114</v>
       </c>
       <c r="X91" s="4">
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="Y91" s="4">
         <v>0</v>
@@ -16010,7 +16453,8 @@
         <v>130</v>
       </c>
       <c r="AC91" s="4">
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="AD91" s="4">
         <v>0</v>
@@ -16049,7 +16493,8 @@
         <v>113</v>
       </c>
       <c r="I92" s="4">
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="J92" s="4">
         <v>0</v>
@@ -16064,7 +16509,8 @@
         <v>119</v>
       </c>
       <c r="N92" s="4">
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="O92" s="4">
         <v>0</v>
@@ -16079,7 +16525,8 @@
         <v>114</v>
       </c>
       <c r="S92" s="4">
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="T92" s="4">
         <v>0</v>
@@ -16094,7 +16541,8 @@
         <v>115</v>
       </c>
       <c r="X92" s="4">
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>15</v>
       </c>
       <c r="Y92" s="4">
         <v>0</v>
@@ -16109,7 +16557,8 @@
         <v>116</v>
       </c>
       <c r="AC92" s="4">
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="AD92" s="4">
         <v>0</v>
@@ -16148,7 +16597,8 @@
         <v>114</v>
       </c>
       <c r="I93" s="4">
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="J93" s="4">
         <v>0</v>
@@ -16163,7 +16613,8 @@
         <v>118</v>
       </c>
       <c r="N93" s="4">
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="O93" s="4">
         <v>0</v>
@@ -16178,7 +16629,8 @@
         <v>119</v>
       </c>
       <c r="S93" s="4">
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="T93" s="4">
         <v>0</v>
@@ -16193,7 +16645,8 @@
         <v>115</v>
       </c>
       <c r="X93" s="4">
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>15</v>
       </c>
       <c r="Y93" s="4">
         <v>0</v>
@@ -16208,7 +16661,8 @@
         <v>120</v>
       </c>
       <c r="AC93" s="4">
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>15</v>
       </c>
       <c r="AD93" s="4">
         <v>0</v>
@@ -16247,7 +16701,8 @@
         <v>114</v>
       </c>
       <c r="I94" s="4">
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="J94" s="4">
         <v>0</v>
@@ -16262,7 +16717,8 @@
         <v>122</v>
       </c>
       <c r="N94" s="4">
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="O94" s="4">
         <v>0</v>
@@ -16277,7 +16733,8 @@
         <v>118</v>
       </c>
       <c r="S94" s="4">
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="T94" s="4">
         <v>0</v>
@@ -16292,7 +16749,8 @@
         <v>115</v>
       </c>
       <c r="X94" s="4">
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>15</v>
       </c>
       <c r="Y94" s="4">
         <v>0</v>
@@ -16307,7 +16765,8 @@
         <v>123</v>
       </c>
       <c r="AC94" s="4">
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="AD94" s="4">
         <v>0</v>
@@ -16346,7 +16805,8 @@
         <v>119</v>
       </c>
       <c r="I95" s="4">
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="J95" s="4">
         <v>0</v>
@@ -16361,7 +16821,8 @@
         <v>114</v>
       </c>
       <c r="N95" s="4">
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="O95" s="4">
         <v>0</v>
@@ -16376,7 +16837,8 @@
         <v>122</v>
       </c>
       <c r="S95" s="4">
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="T95" s="4">
         <v>0</v>
@@ -16391,7 +16853,8 @@
         <v>116</v>
       </c>
       <c r="X95" s="4">
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="Y95" s="4">
         <v>0</v>
@@ -16406,7 +16869,8 @@
         <v>120</v>
       </c>
       <c r="AC95" s="4">
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>15</v>
       </c>
       <c r="AD95" s="4">
         <v>0</v>
@@ -16445,7 +16909,8 @@
         <v>119</v>
       </c>
       <c r="I96" s="4">
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="J96" s="4">
         <v>0</v>
@@ -16460,7 +16925,8 @@
         <v>118</v>
       </c>
       <c r="N96" s="4">
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="O96" s="4">
         <v>0</v>
@@ -16475,7 +16941,8 @@
         <v>118</v>
       </c>
       <c r="S96" s="4">
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="T96" s="4">
         <v>0</v>
@@ -16490,7 +16957,8 @@
         <v>116</v>
       </c>
       <c r="X96" s="4">
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="Y96" s="4">
         <v>0</v>
@@ -16505,7 +16973,8 @@
         <v>123</v>
       </c>
       <c r="AC96" s="4">
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="AD96" s="4">
         <v>0</v>
@@ -16544,7 +17013,8 @@
         <v>118</v>
       </c>
       <c r="I97" s="4">
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="J97" s="4">
         <v>0</v>
@@ -16559,7 +17029,8 @@
         <v>122</v>
       </c>
       <c r="N97" s="4">
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="O97" s="4">
         <v>0</v>
@@ -16574,7 +17045,8 @@
         <v>122</v>
       </c>
       <c r="S97" s="4">
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="T97" s="4">
         <v>0</v>
@@ -16589,7 +17061,8 @@
         <v>120</v>
       </c>
       <c r="X97" s="4">
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>15</v>
       </c>
       <c r="Y97" s="4">
         <v>0</v>
@@ -16604,7 +17077,8 @@
         <v>123</v>
       </c>
       <c r="AC97" s="4">
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="AD97" s="4">
         <v>0</v>
@@ -16643,7 +17117,8 @@
         <v>113</v>
       </c>
       <c r="I98" s="4">
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="J98" s="4">
         <v>0</v>
@@ -16658,7 +17133,8 @@
         <v>118</v>
       </c>
       <c r="N98" s="4">
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="O98" s="4">
         <v>0</v>
@@ -16673,7 +17149,8 @@
         <v>113</v>
       </c>
       <c r="S98" s="4">
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
       <c r="T98" s="4">
         <v>0</v>
@@ -16688,7 +17165,8 @@
         <v>119</v>
       </c>
       <c r="X98" s="4">
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="Y98" s="4">
         <v>0</v>
@@ -16703,7 +17181,8 @@
         <v>128</v>
       </c>
       <c r="AC98" s="4">
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="AD98" s="4">
         <v>0</v>
@@ -16742,7 +17221,8 @@
         <v>113</v>
       </c>
       <c r="I99" s="4">
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="J99" s="4">
         <v>0</v>
@@ -16757,7 +17237,8 @@
         <v>122</v>
       </c>
       <c r="N99" s="4">
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="O99" s="4">
         <v>0</v>
@@ -16772,7 +17253,8 @@
         <v>113</v>
       </c>
       <c r="S99" s="4">
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
       <c r="T99" s="4">
         <v>0</v>
@@ -16787,7 +17269,8 @@
         <v>114</v>
       </c>
       <c r="X99" s="4">
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="Y99" s="4">
         <v>0</v>
@@ -16802,7 +17285,8 @@
         <v>130</v>
       </c>
       <c r="AC99" s="4">
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="AD99" s="4">
         <v>0</v>
@@ -42593,7 +43077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -46024,8 +46508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -46137,6 +46621,7 @@
         <v>516</v>
       </c>
       <c r="F4" s="4">
+        <f>IF(OR(E4="atk",E4="crit",E4="dash",E4="dmgInc"),15,1)</f>
         <v>1</v>
       </c>
       <c r="G4" s="4">
@@ -46166,7 +46651,8 @@
         <v>518</v>
       </c>
       <c r="F5" s="4">
-        <v>7</v>
+        <f t="shared" ref="F5:F51" si="0">IF(OR(E5="atk",E5="crit",E5="dash",E5="dmgInc"),15,1)</f>
+        <v>15</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>
@@ -46195,6 +46681,7 @@
         <v>519</v>
       </c>
       <c r="F6" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G6" s="4">
@@ -46224,6 +46711,7 @@
         <v>520</v>
       </c>
       <c r="F7" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G7" s="4">
@@ -46253,6 +46741,7 @@
         <v>516</v>
       </c>
       <c r="F8" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G8" s="4">
@@ -46282,7 +46771,8 @@
         <v>518</v>
       </c>
       <c r="F9" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -46311,7 +46801,8 @@
         <v>521</v>
       </c>
       <c r="F10" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>
@@ -46340,7 +46831,8 @@
         <v>522</v>
       </c>
       <c r="F11" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
@@ -46369,6 +46861,7 @@
         <v>517</v>
       </c>
       <c r="F12" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G12" s="4">
@@ -46398,6 +46891,7 @@
         <v>516</v>
       </c>
       <c r="F13" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G13" s="4">
@@ -46427,6 +46921,7 @@
         <v>523</v>
       </c>
       <c r="F14" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G14" s="4">
@@ -46456,6 +46951,7 @@
         <v>524</v>
       </c>
       <c r="F15" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G15" s="4">
@@ -46485,6 +46981,7 @@
         <v>517</v>
       </c>
       <c r="F16" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G16" s="4">
@@ -46514,7 +47011,8 @@
         <v>518</v>
       </c>
       <c r="F17" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="G17" s="4">
         <v>0</v>
@@ -46543,6 +47041,7 @@
         <v>525</v>
       </c>
       <c r="F18" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G18" s="4">
@@ -46572,7 +47071,8 @@
         <v>526</v>
       </c>
       <c r="F19" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="G19" s="4">
         <v>1</v>
@@ -46601,6 +47101,7 @@
         <v>516</v>
       </c>
       <c r="F20" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G20" s="4">
@@ -46630,7 +47131,8 @@
         <v>518</v>
       </c>
       <c r="F21" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="G21" s="4">
         <v>0</v>
@@ -46659,6 +47161,7 @@
         <v>519</v>
       </c>
       <c r="F22" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G22" s="4">
@@ -46688,6 +47191,7 @@
         <v>520</v>
       </c>
       <c r="F23" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G23" s="4">
@@ -46717,6 +47221,7 @@
         <v>516</v>
       </c>
       <c r="F24" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G24" s="4">
@@ -46746,7 +47251,8 @@
         <v>518</v>
       </c>
       <c r="F25" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="G25" s="4">
         <v>0</v>
@@ -46775,7 +47281,8 @@
         <v>521</v>
       </c>
       <c r="F26" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="G26" s="4">
         <v>0</v>
@@ -46804,7 +47311,8 @@
         <v>522</v>
       </c>
       <c r="F27" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="G27" s="4">
         <v>0</v>
@@ -46833,6 +47341,7 @@
         <v>517</v>
       </c>
       <c r="F28" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G28" s="4">
@@ -46862,6 +47371,7 @@
         <v>516</v>
       </c>
       <c r="F29" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G29" s="4">
@@ -46891,6 +47401,7 @@
         <v>523</v>
       </c>
       <c r="F30" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G30" s="4">
@@ -46920,6 +47431,7 @@
         <v>524</v>
       </c>
       <c r="F31" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G31" s="4">
@@ -46949,6 +47461,7 @@
         <v>517</v>
       </c>
       <c r="F32" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G32" s="4">
@@ -46978,7 +47491,8 @@
         <v>518</v>
       </c>
       <c r="F33" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="G33" s="4">
         <v>0</v>
@@ -47007,6 +47521,7 @@
         <v>525</v>
       </c>
       <c r="F34" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G34" s="4">
@@ -47036,7 +47551,8 @@
         <v>526</v>
       </c>
       <c r="F35" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="G35" s="4">
         <v>1</v>
@@ -47065,6 +47581,7 @@
         <v>516</v>
       </c>
       <c r="F36" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G36" s="4">
@@ -47094,7 +47611,8 @@
         <v>518</v>
       </c>
       <c r="F37" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="G37" s="4">
         <v>0</v>
@@ -47123,6 +47641,7 @@
         <v>519</v>
       </c>
       <c r="F38" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G38" s="4">
@@ -47152,6 +47671,7 @@
         <v>520</v>
       </c>
       <c r="F39" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G39" s="4">
@@ -47181,6 +47701,7 @@
         <v>516</v>
       </c>
       <c r="F40" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G40" s="4">
@@ -47210,7 +47731,8 @@
         <v>518</v>
       </c>
       <c r="F41" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="G41" s="4">
         <v>0</v>
@@ -47239,7 +47761,8 @@
         <v>521</v>
       </c>
       <c r="F42" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="G42" s="4">
         <v>0</v>
@@ -47268,7 +47791,8 @@
         <v>522</v>
       </c>
       <c r="F43" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="G43" s="4">
         <v>0</v>
@@ -47297,6 +47821,7 @@
         <v>517</v>
       </c>
       <c r="F44" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G44" s="4">
@@ -47326,6 +47851,7 @@
         <v>516</v>
       </c>
       <c r="F45" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G45" s="4">
@@ -47355,6 +47881,7 @@
         <v>523</v>
       </c>
       <c r="F46" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G46" s="4">
@@ -47384,6 +47911,7 @@
         <v>524</v>
       </c>
       <c r="F47" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G47" s="4">
@@ -47413,6 +47941,7 @@
         <v>517</v>
       </c>
       <c r="F48" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G48" s="4">
@@ -47442,7 +47971,8 @@
         <v>518</v>
       </c>
       <c r="F49" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="G49" s="4">
         <v>0</v>
@@ -47471,6 +48001,7 @@
         <v>525</v>
       </c>
       <c r="F50" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G50" s="4">
@@ -47500,7 +48031,8 @@
         <v>526</v>
       </c>
       <c r="F51" s="4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="G51" s="4">
         <v>1</v>

--- a/Excel/eqp.装备.xlsx
+++ b/Excel/eqp.装备.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\UIDesigner\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0460F59-9121-4177-A6F6-D0465C1C011B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043284C1-6F43-41C5-A4DD-A8BA095C81C1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -6667,8 +6667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AS99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7053,8 +7053,8 @@
         <v>113</v>
       </c>
       <c r="I4" s="4">
-        <f>IF(H4="atk",15,1)</f>
-        <v>15</v>
+        <f>IF(OR(H4="atk",H4="crit",H4="dash",H4="dmgInc"),31,1)</f>
+        <v>31</v>
       </c>
       <c r="J4" s="4">
         <v>0</v>
@@ -7069,7 +7069,7 @@
         <v>119</v>
       </c>
       <c r="N4" s="4">
-        <f>IF(M4="atk",15,1)</f>
+        <f>IF(OR(M4="atk",M4="crit",M4="dash",M4="dmgInc"),31,1)</f>
         <v>1</v>
       </c>
       <c r="O4" s="4">
@@ -7085,7 +7085,7 @@
         <v>114</v>
       </c>
       <c r="S4" s="4">
-        <f>IF(OR(R4="atk",R4="crit",R4="dash",R4="dmgInc"),15,1)</f>
+        <f>IF(OR(R4="atk",R4="crit",R4="dash",R4="dmgInc"),31,1)</f>
         <v>1</v>
       </c>
       <c r="T4" s="4">
@@ -7101,8 +7101,8 @@
         <v>115</v>
       </c>
       <c r="X4" s="4">
-        <f>IF(OR(W4="atk",W4="crit",W4="dash",W4="dmgInc"),15,1)</f>
-        <v>15</v>
+        <f>IF(OR(W4="atk",W4="crit",W4="dash",W4="dmgInc"),31,1)</f>
+        <v>31</v>
       </c>
       <c r="Y4" s="4">
         <v>0</v>
@@ -7117,7 +7117,7 @@
         <v>116</v>
       </c>
       <c r="AC4" s="4">
-        <f>IF(OR(AB4="atk",AB4="crit",AB4="dash",AB4="dmgInc"),15,1)</f>
+        <f>IF(OR(AB4="atk",AB4="crit",AB4="dash",AB4="dmgInc"),31,1)</f>
         <v>1</v>
       </c>
       <c r="AD4" s="4">
@@ -7184,7 +7184,7 @@
         <v>535</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" ref="I5:I68" si="0">IF(H5="atk",15,1)</f>
+        <f t="shared" ref="I5:I68" si="0">IF(OR(H5="atk",H5="crit",H5="dash",H5="dmgInc"),31,1)</f>
         <v>1</v>
       </c>
       <c r="J5" s="4">
@@ -7200,7 +7200,7 @@
         <v>534</v>
       </c>
       <c r="N5" s="4">
-        <f t="shared" ref="N5:N68" si="1">IF(M5="atk",15,1)</f>
+        <f t="shared" ref="N5:N68" si="1">IF(OR(M5="atk",M5="crit",M5="dash",M5="dmgInc"),31,1)</f>
         <v>1</v>
       </c>
       <c r="O5" s="4">
@@ -7216,7 +7216,7 @@
         <v>119</v>
       </c>
       <c r="S5" s="4">
-        <f t="shared" ref="S5:S68" si="2">IF(OR(R5="atk",R5="crit",R5="dash",R5="dmgInc"),15,1)</f>
+        <f t="shared" ref="S5:S68" si="2">IF(OR(R5="atk",R5="crit",R5="dash",R5="dmgInc"),31,1)</f>
         <v>1</v>
       </c>
       <c r="T5" s="4">
@@ -7232,8 +7232,8 @@
         <v>115</v>
       </c>
       <c r="X5" s="4">
-        <f t="shared" ref="X5:X68" si="3">IF(OR(W5="atk",W5="crit",W5="dash",W5="dmgInc"),15,1)</f>
-        <v>15</v>
+        <f t="shared" ref="X5:X68" si="3">IF(OR(W5="atk",W5="crit",W5="dash",W5="dmgInc"),31,1)</f>
+        <v>31</v>
       </c>
       <c r="Y5" s="4">
         <v>0</v>
@@ -7248,8 +7248,8 @@
         <v>120</v>
       </c>
       <c r="AC5" s="4">
-        <f t="shared" ref="AC5:AC68" si="4">IF(OR(AB5="atk",AB5="crit",AB5="dash",AB5="dmgInc"),15,1)</f>
-        <v>15</v>
+        <f t="shared" ref="AC5:AC68" si="4">IF(OR(AB5="atk",AB5="crit",AB5="dash",AB5="dmgInc"),31,1)</f>
+        <v>31</v>
       </c>
       <c r="AD5" s="4">
         <v>0</v>
@@ -7370,7 +7370,7 @@
       </c>
       <c r="X6" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y6" s="4">
         <v>0</v>
@@ -7523,7 +7523,7 @@
       </c>
       <c r="AC7" s="4">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="AD7" s="4">
         <v>0</v>
@@ -7781,7 +7781,7 @@
       </c>
       <c r="X9" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y9" s="4">
         <v>0</v>
@@ -7870,7 +7870,7 @@
       </c>
       <c r="I10" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J10" s="4">
         <v>0</v>
@@ -7902,7 +7902,7 @@
       </c>
       <c r="S10" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="T10" s="4">
         <v>0</v>
@@ -8007,7 +8007,7 @@
       </c>
       <c r="I11" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J11" s="4">
         <v>0</v>
@@ -8039,7 +8039,7 @@
       </c>
       <c r="S11" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="T11" s="4">
         <v>0</v>
@@ -8144,7 +8144,7 @@
       </c>
       <c r="I12" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J12" s="4">
         <v>0</v>
@@ -8192,7 +8192,7 @@
       </c>
       <c r="X12" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y12" s="4">
         <v>0</v>
@@ -8296,7 +8296,7 @@
       </c>
       <c r="X13" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y13" s="4">
         <v>0</v>
@@ -8312,7 +8312,7 @@
       </c>
       <c r="AC13" s="4">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="AD13" s="4">
         <v>0</v>
@@ -8400,7 +8400,7 @@
       </c>
       <c r="X14" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y14" s="4">
         <v>0</v>
@@ -8520,7 +8520,7 @@
       </c>
       <c r="AC15" s="4">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="AD15" s="4">
         <v>0</v>
@@ -8718,7 +8718,7 @@
       </c>
       <c r="X17" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y17" s="4">
         <v>0</v>
@@ -8780,7 +8780,7 @@
       </c>
       <c r="I18" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J18" s="4">
         <v>0</v>
@@ -8812,7 +8812,7 @@
       </c>
       <c r="S18" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="T18" s="4">
         <v>0</v>
@@ -8890,7 +8890,7 @@
       </c>
       <c r="I19" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J19" s="4">
         <v>0</v>
@@ -8922,7 +8922,7 @@
       </c>
       <c r="S19" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="T19" s="4">
         <v>0</v>
@@ -9000,7 +9000,7 @@
       </c>
       <c r="I20" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J20" s="4">
         <v>0</v>
@@ -9048,7 +9048,7 @@
       </c>
       <c r="X20" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y20" s="4">
         <v>0</v>
@@ -9158,7 +9158,7 @@
       </c>
       <c r="X21" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y21" s="4">
         <v>0</v>
@@ -9174,7 +9174,7 @@
       </c>
       <c r="AC21" s="4">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="AD21" s="4">
         <v>0</v>
@@ -9262,7 +9262,7 @@
       </c>
       <c r="X22" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y22" s="4">
         <v>0</v>
@@ -9382,7 +9382,7 @@
       </c>
       <c r="AC23" s="4">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="AD23" s="4">
         <v>0</v>
@@ -9574,7 +9574,7 @@
       </c>
       <c r="X25" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y25" s="4">
         <v>0</v>
@@ -9630,7 +9630,7 @@
       </c>
       <c r="I26" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J26" s="4">
         <v>0</v>
@@ -9662,7 +9662,7 @@
       </c>
       <c r="S26" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="T26" s="4">
         <v>0</v>
@@ -9734,7 +9734,7 @@
       </c>
       <c r="I27" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J27" s="4">
         <v>0</v>
@@ -9766,7 +9766,7 @@
       </c>
       <c r="S27" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="T27" s="4">
         <v>0</v>
@@ -9838,7 +9838,7 @@
       </c>
       <c r="I28" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J28" s="4">
         <v>0</v>
@@ -9886,7 +9886,7 @@
       </c>
       <c r="X28" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y28" s="4">
         <v>0</v>
@@ -9990,7 +9990,7 @@
       </c>
       <c r="X29" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y29" s="4">
         <v>0</v>
@@ -10006,7 +10006,7 @@
       </c>
       <c r="AC29" s="4">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="AD29" s="4">
         <v>0</v>
@@ -10094,7 +10094,7 @@
       </c>
       <c r="X30" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y30" s="4">
         <v>0</v>
@@ -10214,7 +10214,7 @@
       </c>
       <c r="AC31" s="4">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="AD31" s="4">
         <v>0</v>
@@ -10406,7 +10406,7 @@
       </c>
       <c r="X33" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y33" s="4">
         <v>0</v>
@@ -10462,7 +10462,7 @@
       </c>
       <c r="I34" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J34" s="4">
         <v>0</v>
@@ -10494,7 +10494,7 @@
       </c>
       <c r="S34" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="T34" s="4">
         <v>0</v>
@@ -10566,7 +10566,7 @@
       </c>
       <c r="I35" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J35" s="4">
         <v>0</v>
@@ -10598,7 +10598,7 @@
       </c>
       <c r="S35" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="T35" s="4">
         <v>0</v>
@@ -10670,7 +10670,7 @@
       </c>
       <c r="I36" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J36" s="4">
         <v>0</v>
@@ -10718,7 +10718,7 @@
       </c>
       <c r="X36" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y36" s="4">
         <v>0</v>
@@ -10822,7 +10822,7 @@
       </c>
       <c r="X37" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y37" s="4">
         <v>0</v>
@@ -10838,7 +10838,7 @@
       </c>
       <c r="AC37" s="4">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="AD37" s="4">
         <v>0</v>
@@ -10926,7 +10926,7 @@
       </c>
       <c r="X38" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y38" s="4">
         <v>0</v>
@@ -11046,7 +11046,7 @@
       </c>
       <c r="AC39" s="4">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="AD39" s="4">
         <v>0</v>
@@ -11238,7 +11238,7 @@
       </c>
       <c r="X41" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y41" s="4">
         <v>0</v>
@@ -11294,7 +11294,7 @@
       </c>
       <c r="I42" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J42" s="4">
         <v>0</v>
@@ -11326,7 +11326,7 @@
       </c>
       <c r="S42" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="T42" s="4">
         <v>0</v>
@@ -11398,7 +11398,7 @@
       </c>
       <c r="I43" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J43" s="4">
         <v>0</v>
@@ -11430,7 +11430,7 @@
       </c>
       <c r="S43" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="T43" s="4">
         <v>0</v>
@@ -11502,7 +11502,7 @@
       </c>
       <c r="I44" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J44" s="4">
         <v>0</v>
@@ -11550,7 +11550,7 @@
       </c>
       <c r="X44" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y44" s="4">
         <v>0</v>
@@ -11654,7 +11654,7 @@
       </c>
       <c r="X45" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y45" s="4">
         <v>0</v>
@@ -11670,7 +11670,7 @@
       </c>
       <c r="AC45" s="4">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="AD45" s="4">
         <v>0</v>
@@ -11758,7 +11758,7 @@
       </c>
       <c r="X46" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y46" s="4">
         <v>0</v>
@@ -11878,7 +11878,7 @@
       </c>
       <c r="AC47" s="4">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="AD47" s="4">
         <v>0</v>
@@ -12070,7 +12070,7 @@
       </c>
       <c r="X49" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y49" s="4">
         <v>0</v>
@@ -12126,7 +12126,7 @@
       </c>
       <c r="I50" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J50" s="4">
         <v>0</v>
@@ -12158,7 +12158,7 @@
       </c>
       <c r="S50" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="T50" s="4">
         <v>0</v>
@@ -12230,7 +12230,7 @@
       </c>
       <c r="I51" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J51" s="4">
         <v>0</v>
@@ -12262,7 +12262,7 @@
       </c>
       <c r="S51" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="T51" s="4">
         <v>0</v>
@@ -12334,7 +12334,7 @@
       </c>
       <c r="I52" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J52" s="4">
         <v>0</v>
@@ -12382,7 +12382,7 @@
       </c>
       <c r="X52" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y52" s="4">
         <v>0</v>
@@ -12486,7 +12486,7 @@
       </c>
       <c r="X53" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y53" s="4">
         <v>0</v>
@@ -12502,7 +12502,7 @@
       </c>
       <c r="AC53" s="4">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="AD53" s="4">
         <v>0</v>
@@ -12590,7 +12590,7 @@
       </c>
       <c r="X54" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y54" s="4">
         <v>0</v>
@@ -12710,7 +12710,7 @@
       </c>
       <c r="AC55" s="4">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="AD55" s="4">
         <v>0</v>
@@ -12902,7 +12902,7 @@
       </c>
       <c r="X57" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y57" s="4">
         <v>0</v>
@@ -12958,7 +12958,7 @@
       </c>
       <c r="I58" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J58" s="4">
         <v>0</v>
@@ -12990,7 +12990,7 @@
       </c>
       <c r="S58" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="T58" s="4">
         <v>0</v>
@@ -13062,7 +13062,7 @@
       </c>
       <c r="I59" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J59" s="4">
         <v>0</v>
@@ -13094,7 +13094,7 @@
       </c>
       <c r="S59" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="T59" s="4">
         <v>0</v>
@@ -13166,7 +13166,7 @@
       </c>
       <c r="I60" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J60" s="4">
         <v>0</v>
@@ -13214,7 +13214,7 @@
       </c>
       <c r="X60" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y60" s="4">
         <v>0</v>
@@ -13318,7 +13318,7 @@
       </c>
       <c r="X61" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y61" s="4">
         <v>0</v>
@@ -13334,7 +13334,7 @@
       </c>
       <c r="AC61" s="4">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="AD61" s="4">
         <v>0</v>
@@ -13422,7 +13422,7 @@
       </c>
       <c r="X62" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y62" s="4">
         <v>0</v>
@@ -13542,7 +13542,7 @@
       </c>
       <c r="AC63" s="4">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="AD63" s="4">
         <v>0</v>
@@ -13734,7 +13734,7 @@
       </c>
       <c r="X65" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y65" s="4">
         <v>0</v>
@@ -13790,7 +13790,7 @@
       </c>
       <c r="I66" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J66" s="4">
         <v>0</v>
@@ -13822,7 +13822,7 @@
       </c>
       <c r="S66" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="T66" s="4">
         <v>0</v>
@@ -13894,7 +13894,7 @@
       </c>
       <c r="I67" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J67" s="4">
         <v>0</v>
@@ -13926,7 +13926,7 @@
       </c>
       <c r="S67" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="T67" s="4">
         <v>0</v>
@@ -13998,7 +13998,7 @@
       </c>
       <c r="I68" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J68" s="4">
         <v>0</v>
@@ -14046,7 +14046,7 @@
       </c>
       <c r="X68" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y68" s="4">
         <v>0</v>
@@ -14101,7 +14101,7 @@
         <v>114</v>
       </c>
       <c r="I69" s="4">
-        <f t="shared" ref="I69:I99" si="5">IF(H69="atk",15,1)</f>
+        <f t="shared" ref="I69:I99" si="5">IF(OR(H69="atk",H69="crit",H69="dash",H69="dmgInc"),31,1)</f>
         <v>1</v>
       </c>
       <c r="J69" s="4">
@@ -14117,7 +14117,7 @@
         <v>118</v>
       </c>
       <c r="N69" s="4">
-        <f t="shared" ref="N69:N99" si="6">IF(M69="atk",15,1)</f>
+        <f t="shared" ref="N69:N99" si="6">IF(OR(M69="atk",M69="crit",M69="dash",M69="dmgInc"),31,1)</f>
         <v>1</v>
       </c>
       <c r="O69" s="4">
@@ -14133,7 +14133,7 @@
         <v>119</v>
       </c>
       <c r="S69" s="4">
-        <f t="shared" ref="S69:S99" si="7">IF(OR(R69="atk",R69="crit",R69="dash",R69="dmgInc"),15,1)</f>
+        <f t="shared" ref="S69:S99" si="7">IF(OR(R69="atk",R69="crit",R69="dash",R69="dmgInc"),31,1)</f>
         <v>1</v>
       </c>
       <c r="T69" s="4">
@@ -14149,8 +14149,8 @@
         <v>115</v>
       </c>
       <c r="X69" s="4">
-        <f t="shared" ref="X69:X99" si="8">IF(OR(W69="atk",W69="crit",W69="dash",W69="dmgInc"),15,1)</f>
-        <v>15</v>
+        <f t="shared" ref="X69:X99" si="8">IF(OR(W69="atk",W69="crit",W69="dash",W69="dmgInc"),31,1)</f>
+        <v>31</v>
       </c>
       <c r="Y69" s="4">
         <v>0</v>
@@ -14165,8 +14165,8 @@
         <v>120</v>
       </c>
       <c r="AC69" s="4">
-        <f t="shared" ref="AC69:AC99" si="9">IF(OR(AB69="atk",AB69="crit",AB69="dash",AB69="dmgInc"),15,1)</f>
-        <v>15</v>
+        <f t="shared" ref="AC69:AC99" si="9">IF(OR(AB69="atk",AB69="crit",AB69="dash",AB69="dmgInc"),31,1)</f>
+        <v>31</v>
       </c>
       <c r="AD69" s="4">
         <v>0</v>
@@ -14254,7 +14254,7 @@
       </c>
       <c r="X70" s="4">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y70" s="4">
         <v>0</v>
@@ -14374,7 +14374,7 @@
       </c>
       <c r="AC71" s="4">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="AD71" s="4">
         <v>0</v>
@@ -14566,7 +14566,7 @@
       </c>
       <c r="X73" s="4">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y73" s="4">
         <v>0</v>
@@ -14622,7 +14622,7 @@
       </c>
       <c r="I74" s="4">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J74" s="4">
         <v>0</v>
@@ -14654,7 +14654,7 @@
       </c>
       <c r="S74" s="4">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="T74" s="4">
         <v>0</v>
@@ -14726,7 +14726,7 @@
       </c>
       <c r="I75" s="4">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J75" s="4">
         <v>0</v>
@@ -14758,7 +14758,7 @@
       </c>
       <c r="S75" s="4">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="T75" s="4">
         <v>0</v>
@@ -14830,7 +14830,7 @@
       </c>
       <c r="I76" s="4">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J76" s="4">
         <v>0</v>
@@ -14878,7 +14878,7 @@
       </c>
       <c r="X76" s="4">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y76" s="4">
         <v>0</v>
@@ -14982,7 +14982,7 @@
       </c>
       <c r="X77" s="4">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y77" s="4">
         <v>0</v>
@@ -14998,7 +14998,7 @@
       </c>
       <c r="AC77" s="4">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="AD77" s="4">
         <v>0</v>
@@ -15086,7 +15086,7 @@
       </c>
       <c r="X78" s="4">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y78" s="4">
         <v>0</v>
@@ -15206,7 +15206,7 @@
       </c>
       <c r="AC79" s="4">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="AD79" s="4">
         <v>0</v>
@@ -15398,7 +15398,7 @@
       </c>
       <c r="X81" s="4">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y81" s="4">
         <v>0</v>
@@ -15454,7 +15454,7 @@
       </c>
       <c r="I82" s="4">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J82" s="4">
         <v>0</v>
@@ -15486,7 +15486,7 @@
       </c>
       <c r="S82" s="4">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="T82" s="4">
         <v>0</v>
@@ -15558,7 +15558,7 @@
       </c>
       <c r="I83" s="4">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J83" s="4">
         <v>0</v>
@@ -15590,7 +15590,7 @@
       </c>
       <c r="S83" s="4">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="T83" s="4">
         <v>0</v>
@@ -15662,7 +15662,7 @@
       </c>
       <c r="I84" s="4">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J84" s="4">
         <v>0</v>
@@ -15710,7 +15710,7 @@
       </c>
       <c r="X84" s="4">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y84" s="4">
         <v>0</v>
@@ -15814,7 +15814,7 @@
       </c>
       <c r="X85" s="4">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y85" s="4">
         <v>0</v>
@@ -15830,7 +15830,7 @@
       </c>
       <c r="AC85" s="4">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="AD85" s="4">
         <v>0</v>
@@ -15918,7 +15918,7 @@
       </c>
       <c r="X86" s="4">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y86" s="4">
         <v>0</v>
@@ -16038,7 +16038,7 @@
       </c>
       <c r="AC87" s="4">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="AD87" s="4">
         <v>0</v>
@@ -16230,7 +16230,7 @@
       </c>
       <c r="X89" s="4">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y89" s="4">
         <v>0</v>
@@ -16286,7 +16286,7 @@
       </c>
       <c r="I90" s="4">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J90" s="4">
         <v>0</v>
@@ -16318,7 +16318,7 @@
       </c>
       <c r="S90" s="4">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="T90" s="4">
         <v>0</v>
@@ -16390,7 +16390,7 @@
       </c>
       <c r="I91" s="4">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J91" s="4">
         <v>0</v>
@@ -16422,7 +16422,7 @@
       </c>
       <c r="S91" s="4">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="T91" s="4">
         <v>0</v>
@@ -16494,7 +16494,7 @@
       </c>
       <c r="I92" s="4">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J92" s="4">
         <v>0</v>
@@ -16542,7 +16542,7 @@
       </c>
       <c r="X92" s="4">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y92" s="4">
         <v>0</v>
@@ -16646,7 +16646,7 @@
       </c>
       <c r="X93" s="4">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y93" s="4">
         <v>0</v>
@@ -16662,7 +16662,7 @@
       </c>
       <c r="AC93" s="4">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="AD93" s="4">
         <v>0</v>
@@ -16750,7 +16750,7 @@
       </c>
       <c r="X94" s="4">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y94" s="4">
         <v>0</v>
@@ -16870,7 +16870,7 @@
       </c>
       <c r="AC95" s="4">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="AD95" s="4">
         <v>0</v>
@@ -17062,7 +17062,7 @@
       </c>
       <c r="X97" s="4">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y97" s="4">
         <v>0</v>
@@ -17118,7 +17118,7 @@
       </c>
       <c r="I98" s="4">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J98" s="4">
         <v>0</v>
@@ -17150,7 +17150,7 @@
       </c>
       <c r="S98" s="4">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="T98" s="4">
         <v>0</v>
@@ -17222,7 +17222,7 @@
       </c>
       <c r="I99" s="4">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J99" s="4">
         <v>0</v>
@@ -17254,7 +17254,7 @@
       </c>
       <c r="S99" s="4">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="T99" s="4">
         <v>0</v>
@@ -46508,7 +46508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>

--- a/Excel/eqp.装备.xlsx
+++ b/Excel/eqp.装备.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD752B0-8CC5-4050-9A06-60B4D7C01838}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -24,12 +23,12 @@
     <sheet name="强化连锁" sheetId="43" r:id="rId9"/>
     <sheet name="精炼连锁" sheetId="44" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2816" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2816" uniqueCount="672">
   <si>
     <t>sheet名</t>
   </si>
@@ -2075,11 +2074,15 @@
   <si>
     <t>【强化套装-200】</t>
   </si>
+  <si>
+    <t>equipt.lua</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2298,19 +2301,19 @@
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Grid" xfId="4"/>
+    <cellStyle name="Normal" xfId="7"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="超链接 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="文本" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="无效" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="中文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="常规 2" xfId="8"/>
+    <cellStyle name="超链接 2" xfId="9"/>
+    <cellStyle name="大标题" xfId="6"/>
+    <cellStyle name="横向标题" xfId="1"/>
+    <cellStyle name="文本" xfId="10"/>
+    <cellStyle name="无效" xfId="11"/>
+    <cellStyle name="因变Grid" xfId="3"/>
+    <cellStyle name="英文标题" xfId="2"/>
+    <cellStyle name="中文标题" xfId="12"/>
+    <cellStyle name="纵向标题" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2582,11 +2585,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2643,7 +2646,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>671</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
@@ -2937,12 +2940,12 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7020,7 +7023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17974,7 +17977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -64086,7 +64089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -66319,7 +66322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -66826,7 +66829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L99"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
@@ -70561,7 +70564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -72227,7 +72230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -72894,10 +72897,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A204"/>
     </sheetView>
   </sheetViews>
